--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,144 +508,148 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="E2" t="n">
-        <v>1.11</v>
+        <v>4.72</v>
       </c>
       <c r="F2" t="n">
-        <v>6.56</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.171</v>
+        <v>1.073</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1624</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1.0308</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01124999999999987</v>
+      </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002699999999999925</v>
+        <v>0.01569999999999983</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26</v>
+        <v>4.07</v>
       </c>
       <c r="F3" t="n">
-        <v>3.91</v>
+        <v>44.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.66</v>
+        <v>19.76</v>
       </c>
       <c r="H3" t="n">
-        <v>1.165</v>
+        <v>0.538</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1583</v>
+        <v>0.5225000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>1.15</v>
+        <v>0.504</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002600000000000158</v>
+        <v>0.004100000000000048</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.27</v>
+        <v>2.89</v>
       </c>
       <c r="F4" t="n">
-        <v>48.97</v>
+        <v>19.42</v>
       </c>
       <c r="G4" t="n">
-        <v>49.56</v>
+        <v>27.59</v>
       </c>
       <c r="H4" t="n">
-        <v>1.043</v>
+        <v>0.481</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0061</v>
+        <v>0.4753</v>
       </c>
       <c r="J4" t="n">
-        <v>0.956</v>
+        <v>0.478</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009050000000000225</v>
+        <v>0.001299999999999968</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01029999999999998</v>
+        <v>0.002899999999999958</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -654,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="E5" t="n">
-        <v>1.69</v>
+        <v>2.61</v>
       </c>
       <c r="F5" t="n">
-        <v>38.46</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="H5" t="n">
-        <v>0.528</v>
+        <v>0.658</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5134000000000001</v>
+        <v>0.6425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.497</v>
+        <v>0.627</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003099999999999936</v>
+        <v>0.003399999999999959</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003300000000000081</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -704,98 +708,98 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.3</v>
+        <v>0.59</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.33</v>
+        <v>0.51</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>1.254</v>
+        <v>0.588</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2352</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1.241</v>
+        <v>0.572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004699999999999926</v>
+        <v>0.001950000000000007</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006500000000000172</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="E7" t="n">
-        <v>0.58</v>
+        <v>1.76</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>-2.64</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>2.56</v>
       </c>
       <c r="H7" t="n">
-        <v>1.212</v>
+        <v>1.283</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2116</v>
+        <v>1.2542</v>
       </c>
       <c r="J7" t="n">
-        <v>1.209</v>
+        <v>1.248</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.004700000000000149</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0008999999999999009</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -804,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.44</v>
+        <v>0.72</v>
       </c>
       <c r="E8" t="n">
-        <v>0.49</v>
+        <v>1.55</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.65</v>
+        <v>8.41</v>
       </c>
       <c r="G8" t="n">
-        <v>0.14</v>
+        <v>0.72</v>
       </c>
       <c r="H8" t="n">
-        <v>1.424</v>
+        <v>0.712</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4213</v>
+        <v>0.701</v>
       </c>
       <c r="J8" t="n">
-        <v>1.427</v>
+        <v>0.694</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000900000000000345</v>
+        <v>0.001800000000000135</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.003599999999999937</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -854,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.64</v>
+        <v>0.34</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>1.52</v>
       </c>
       <c r="F9" t="n">
-        <v>10.3</v>
+        <v>2.45</v>
       </c>
       <c r="G9" t="n">
-        <v>2.87</v>
+        <v>5.89</v>
       </c>
       <c r="H9" t="n">
-        <v>1.629</v>
+        <v>0.334</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6193</v>
+        <v>0.3295</v>
       </c>
       <c r="J9" t="n">
-        <v>1.608</v>
+        <v>0.327</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004899999999999904</v>
+        <v>0.0009999999999999454</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002800000000000358</v>
+        <v>0.001400000000000012</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -904,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29</v>
+        <v>1.45</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.4</v>
+        <v>-2.94</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="H10" t="n">
-        <v>1.024</v>
+        <v>1.105</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0224</v>
+        <v>1.0998</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001300000000000079</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -954,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.19</v>
+        <v>1.43</v>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>0.47</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.075</v>
+        <v>1.051</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0711</v>
+        <v>1.0449</v>
       </c>
       <c r="J11" t="n">
-        <v>1.071</v>
+        <v>1.047</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1004,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="E12" t="n">
-        <v>0.18</v>
+        <v>1.37</v>
       </c>
       <c r="F12" t="n">
-        <v>17.37</v>
+        <v>-7.59</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>5.79</v>
       </c>
       <c r="H12" t="n">
-        <v>1.099</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0976</v>
+        <v>1.0084</v>
       </c>
       <c r="J12" t="n">
-        <v>1.098</v>
+        <v>1.015</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00134999999999974</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1054,98 +1058,98 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.17</v>
+        <v>0.38</v>
       </c>
       <c r="E13" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="F13" t="n">
-        <v>1.15</v>
+        <v>4.71</v>
       </c>
       <c r="G13" t="n">
-        <v>0.74</v>
+        <v>6.07</v>
       </c>
       <c r="H13" t="n">
-        <v>3.144</v>
+        <v>0.377</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1277</v>
+        <v>0.3727</v>
       </c>
       <c r="J13" t="n">
-        <v>3.141</v>
+        <v>0.369</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001049999999999773</v>
+        <v>0.001099999999999934</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00140000000000029</v>
+        <v>0.0009999999999999454</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="E14" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="F14" t="n">
-        <v>2.94</v>
+        <v>-13.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.29</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>0.836</v>
+        <v>0.648</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8317</v>
+        <v>0.6468</v>
       </c>
       <c r="J14" t="n">
-        <v>0.829</v>
+        <v>0.658</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001149999999999984</v>
+        <v>4.999999999999449e-05</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000500000000000056</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1154,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.98</v>
+        <v>0.49</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1</v>
+        <v>1.24</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.01</v>
+        <v>1.03</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="H15" t="n">
-        <v>0.987</v>
+        <v>0.488</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9847999999999999</v>
+        <v>0.4824</v>
       </c>
       <c r="J15" t="n">
-        <v>0.981</v>
+        <v>0.479</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.001100000000000101</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1204,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.46</v>
+        <v>0.67</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="F16" t="n">
-        <v>0.21</v>
+        <v>7.57</v>
       </c>
       <c r="G16" t="n">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="H16" t="n">
-        <v>1.462</v>
+        <v>0.666</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4581</v>
+        <v>0.6577</v>
       </c>
       <c r="J16" t="n">
-        <v>1.452</v>
+        <v>0.653</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.002399999999999847</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1254,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.76</v>
+        <v>1.13</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.66</v>
+        <v>18.74</v>
       </c>
       <c r="G17" t="n">
-        <v>13.97</v>
+        <v>3.14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.753</v>
+        <v>1.111</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7598</v>
+        <v>1.1012</v>
       </c>
       <c r="J17" t="n">
-        <v>2.768</v>
+        <v>1.102</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001450000000000173</v>
+        <v>0.002349999999999852</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.003300000000000303</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1304,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.53</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.89</v>
-      </c>
       <c r="H18" t="n">
-        <v>1.527</v>
+        <v>1.132</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5249</v>
+        <v>1.1149</v>
       </c>
       <c r="J18" t="n">
-        <v>1.524</v>
+        <v>1.121</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001599999999999824</v>
+        <v>0.0008499999999997954</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.007600000000000051</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1354,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05</v>
+        <v>1.12</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9</v>
+        <v>4.09</v>
       </c>
       <c r="G19" t="n">
-        <v>19.48</v>
+        <v>0.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.969</v>
+        <v>0.801</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9706</v>
+        <v>0.79</v>
       </c>
       <c r="J19" t="n">
-        <v>3.982</v>
+        <v>0.796</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003150000000000208</v>
+        <v>-0.0001499999999998725</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.002899999999999903</v>
+        <v>0.003700000000000037</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1404,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.54</v>
+        <v>0.01</v>
       </c>
       <c r="H20" t="n">
-        <v>1.003</v>
+        <v>0.986</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0018</v>
+        <v>0.9762999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.005</v>
+        <v>0.969</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.002049999999999996</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1454,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.9</v>
+        <v>-5.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01</v>
+        <v>5.82</v>
       </c>
       <c r="H21" t="n">
-        <v>0.981</v>
+        <v>0.899</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9724</v>
+        <v>0.8919</v>
       </c>
       <c r="J21" t="n">
-        <v>0.965</v>
+        <v>0.901</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00165000000000004</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1504,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.02</v>
+        <v>0.54</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.05</v>
+        <v>0.93</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.38</v>
+        <v>-4.25</v>
       </c>
       <c r="G22" t="n">
-        <v>1.72</v>
+        <v>0.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2.019</v>
+        <v>0.534</v>
       </c>
       <c r="I22" t="n">
-        <v>2.007</v>
+        <v>0.5291</v>
       </c>
       <c r="J22" t="n">
-        <v>1.998</v>
+        <v>0.532</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004900000000000349</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.001199999999999979</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1554,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.47</v>
+        <v>0.83</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2</v>
+        <v>0.85</v>
       </c>
       <c r="F23" t="n">
-        <v>7.75</v>
+        <v>6.72</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1.484</v>
+        <v>0.82</v>
       </c>
       <c r="I23" t="n">
-        <v>1.4782</v>
+        <v>0.8101</v>
       </c>
       <c r="J23" t="n">
-        <v>1.465</v>
+        <v>0.805</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00120000000000009</v>
+        <v>0.004200000000000093</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1604,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.37</v>
+        <v>2.03</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.22</v>
+        <v>0.84</v>
       </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-3.24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.23</v>
+        <v>17.22</v>
       </c>
       <c r="H24" t="n">
-        <v>1.36</v>
+        <v>2.009</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3542</v>
+        <v>1.9911</v>
       </c>
       <c r="J24" t="n">
-        <v>1.351</v>
+        <v>2.006</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003350000000000186</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1654,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.57</v>
+        <v>1.12</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.63</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.81</v>
+        <v>11.18</v>
       </c>
       <c r="G25" t="n">
-        <v>6.06</v>
+        <v>0.31</v>
       </c>
       <c r="H25" t="n">
-        <v>1.57</v>
+        <v>1.111</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5586</v>
+        <v>1.107</v>
       </c>
       <c r="J25" t="n">
-        <v>1.547</v>
+        <v>1.121</v>
       </c>
       <c r="K25" t="n">
-        <v>0.005400000000000071</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1704,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.02</v>
+        <v>3.19</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3</v>
+        <v>0.63</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.04</v>
+        <v>1.78</v>
       </c>
       <c r="G26" t="n">
-        <v>10.38</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>1.992</v>
+        <v>3.164</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9871</v>
+        <v>3.1406</v>
       </c>
       <c r="J26" t="n">
-        <v>2.003</v>
+        <v>3.144</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002650000000000485</v>
+        <v>0.002450000000000063</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.001399999999999846</v>
+        <v>0.008399999999999963</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1754,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="E27" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="F27" t="n">
-        <v>9.5</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="n">
-        <v>0.11</v>
+        <v>0.74</v>
       </c>
       <c r="H27" t="n">
-        <v>0.919</v>
+        <v>1.46</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9201</v>
+        <v>1.4622</v>
       </c>
       <c r="J27" t="n">
-        <v>0.92</v>
+        <v>1.453</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0004499999999998394</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1804,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.71</v>
+        <v>1.16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="F28" t="n">
-        <v>6.76</v>
+        <v>16.35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.97</v>
       </c>
       <c r="H28" t="n">
-        <v>0.705</v>
+        <v>1.151</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6955</v>
+        <v>1.1292</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6909999999999999</v>
+        <v>1.108</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.003550000000000164</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1854,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.6</v>
+        <v>1.21</v>
       </c>
       <c r="E29" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.81</v>
+        <v>2.72</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="H29" t="n">
-        <v>0.59</v>
+        <v>1.198</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5891999999999999</v>
+        <v>1.2013</v>
       </c>
       <c r="J29" t="n">
-        <v>0.593</v>
+        <v>1.214</v>
       </c>
       <c r="K29" t="n">
-        <v>0.000199999999999978</v>
+        <v>-0.0006500000000000394</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1904,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="E30" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="F30" t="n">
-        <v>16.07</v>
+        <v>8.56</v>
       </c>
       <c r="G30" t="n">
-        <v>15.09</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
-        <v>0.473</v>
+        <v>0.869</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4712</v>
+        <v>0.8689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.476</v>
+        <v>0.886</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.999999999993898e-05</v>
+        <v>-0.001050000000000106</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0003000000000000225</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1954,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.33</v>
+        <v>0.77</v>
       </c>
       <c r="G31" t="n">
-        <v>0.37</v>
+        <v>17.28</v>
       </c>
       <c r="H31" t="n">
-        <v>1.101</v>
+        <v>1.044</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0958</v>
+        <v>1.0378</v>
       </c>
       <c r="J31" t="n">
-        <v>1.082</v>
+        <v>1.043</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002299999999999969</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.002000000000000224</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2004,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.99</v>
+        <v>2.04</v>
       </c>
       <c r="E32" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="F32" t="n">
-        <v>-12.89</v>
+        <v>-5.87</v>
       </c>
       <c r="G32" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
-        <v>0.987</v>
+        <v>2.026</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9885999999999999</v>
+        <v>2.0164</v>
       </c>
       <c r="J32" t="n">
-        <v>0.987</v>
+        <v>2.007</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.004900000000000126</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.002000000000000002</v>
+        <v>0.005399999999999849</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2054,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="E33" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.34</v>
       </c>
-      <c r="F33" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.43</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.174</v>
+        <v>1.372</v>
       </c>
       <c r="I33" t="n">
-        <v>1.1775</v>
+        <v>1.3588</v>
       </c>
       <c r="J33" t="n">
-        <v>1.178</v>
+        <v>1.357</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0002499999999998614</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.002500000000000169</v>
+        <v>0.003299999999999859</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2104,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E34" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="F34" t="n">
-        <v>3.99</v>
+        <v>2.84</v>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="H34" t="n">
-        <v>1.114</v>
+        <v>1.173</v>
       </c>
       <c r="I34" t="n">
-        <v>1.1036</v>
+        <v>1.1585</v>
       </c>
       <c r="J34" t="n">
-        <v>1.121</v>
+        <v>1.166</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.004199999999999982</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2154,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>123.34</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5600000000000001</v>
+        <v>-1.32</v>
       </c>
       <c r="G35" t="n">
-        <v>55.76</v>
+        <v>0.08</v>
       </c>
       <c r="H35" t="n">
-        <v>122.97</v>
+        <v>0.593</v>
       </c>
       <c r="I35" t="n">
-        <v>123.0676</v>
+        <v>0.5898</v>
       </c>
       <c r="J35" t="n">
-        <v>123.29</v>
+        <v>0.593</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.03829999999997824</v>
+        <v>0.0004499999999998394</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0002000000000066393</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2204,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.19</v>
+        <v>0.82</v>
       </c>
       <c r="E36" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="F36" t="n">
-        <v>2.33</v>
+        <v>0.73</v>
       </c>
       <c r="G36" t="n">
-        <v>1.43</v>
+        <v>2.89</v>
       </c>
       <c r="H36" t="n">
-        <v>1.158</v>
+        <v>0.821</v>
       </c>
       <c r="I36" t="n">
-        <v>1.1526</v>
+        <v>0.8198000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>1.167</v>
+        <v>0.822</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0001500000000000945</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2254,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.66</v>
+        <v>1.48</v>
       </c>
       <c r="E37" t="n">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="F37" t="n">
-        <v>6.28</v>
+        <v>8.27</v>
       </c>
       <c r="G37" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="H37" t="n">
-        <v>0.661</v>
+        <v>1.481</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6545</v>
+        <v>1.4819</v>
       </c>
       <c r="J37" t="n">
-        <v>0.651</v>
+        <v>1.468</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2304,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="F38" t="n">
-        <v>2.13</v>
+        <v>-5.07</v>
       </c>
       <c r="G38" t="n">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="H38" t="n">
-        <v>1.198</v>
+        <v>0.85</v>
       </c>
       <c r="I38" t="n">
-        <v>1.2034</v>
+        <v>0.8427999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>1.216</v>
+        <v>0.849</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.001800000000000024</v>
+        <v>0.0001499999999998725</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.002800000000000136</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2354,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="F39" t="n">
-        <v>1.78</v>
+        <v>-12.53</v>
       </c>
       <c r="G39" t="n">
-        <v>6.81</v>
+        <v>1.27</v>
       </c>
       <c r="H39" t="n">
-        <v>1.01</v>
+        <v>0.986</v>
       </c>
       <c r="I39" t="n">
-        <v>1.007</v>
+        <v>0.9861000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>1.023</v>
+        <v>0.988</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.002099999999999769</v>
+        <v>0.0009499999999998954</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0007999999999999119</v>
+        <v>-0.0002999999999998559</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2404,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.32</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.91</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>1.347</v>
+        <v>1.006</v>
       </c>
       <c r="I40" t="n">
-        <v>1.3413</v>
+        <v>1.0018</v>
       </c>
       <c r="J40" t="n">
-        <v>1.354</v>
+        <v>1.006</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.001849999999999907</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.001300000000000079</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2454,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.14</v>
+        <v>123.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="F41" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="G41" t="n">
-        <v>2.09</v>
+        <v>67.87</v>
       </c>
       <c r="H41" t="n">
-        <v>1.119</v>
+        <v>123.299</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1168</v>
+        <v>123.1011</v>
       </c>
       <c r="J41" t="n">
-        <v>1.134</v>
+        <v>123.198</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.002399999999999736</v>
+        <v>-0.03024999999998101</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.04959999999999809</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2504,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7.48</v>
+        <v>1.08</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.03</v>
+        <v>0.37</v>
       </c>
       <c r="F42" t="n">
-        <v>26.2</v>
+        <v>3.04</v>
       </c>
       <c r="G42" t="n">
-        <v>28.08</v>
+        <v>0.57</v>
       </c>
       <c r="H42" t="n">
-        <v>7.42</v>
+        <v>1.078</v>
       </c>
       <c r="I42" t="n">
-        <v>7.4171</v>
+        <v>1.0726</v>
       </c>
       <c r="J42" t="n">
-        <v>7.368</v>
+        <v>1.073</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.009549999999999947</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.004100000000000215</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2554,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.12</v>
+        <v>0.36</v>
       </c>
       <c r="F43" t="n">
-        <v>0.24</v>
+        <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>2.82</v>
+        <v>1.48</v>
       </c>
       <c r="H43" t="n">
-        <v>0.821</v>
+        <v>0.839</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8199</v>
+        <v>0.8333999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>0.822</v>
+        <v>0.831</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.001249999999999862</v>
       </c>
       <c r="L43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0005999999999998229</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2604,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.58</v>
+        <v>1.64</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.17</v>
+        <v>0.31</v>
       </c>
       <c r="F44" t="n">
-        <v>-6.33</v>
+        <v>10.64</v>
       </c>
       <c r="G44" t="n">
-        <v>4.58</v>
+        <v>4.86</v>
       </c>
       <c r="H44" t="n">
-        <v>0.58</v>
+        <v>1.64</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5832999999999999</v>
+        <v>1.6228</v>
       </c>
       <c r="J44" t="n">
-        <v>0.592</v>
+        <v>1.615</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0009500000000000064</v>
+        <v>0.003150000000000208</v>
       </c>
       <c r="L44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.001400000000000068</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2654,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.54</v>
+        <v>1.36</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.19</v>
+        <v>0.3</v>
       </c>
       <c r="F45" t="n">
-        <v>-5.13</v>
+        <v>-7.05</v>
       </c>
       <c r="G45" t="n">
-        <v>0.25</v>
+        <v>1.06</v>
       </c>
       <c r="H45" t="n">
-        <v>0.53</v>
+        <v>1.353</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5279</v>
+        <v>1.3457</v>
       </c>
       <c r="J45" t="n">
-        <v>0.532</v>
+        <v>1.353</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0004499999999999504</v>
+        <v>-4.999999999988347e-05</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.002999999999999892</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2704,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F46" t="n">
-        <v>-5.51</v>
+        <v>-3.56</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06</v>
+        <v>3.46</v>
       </c>
       <c r="H46" t="n">
-        <v>0.841</v>
+        <v>1.569</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8398</v>
+        <v>1.5651</v>
       </c>
       <c r="J46" t="n">
-        <v>0.85</v>
+        <v>1.555</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.000500000000000167</v>
+        <v>0.004199999999999982</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.003599999999999826</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2754,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.65</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.31</v>
+        <v>0.23</v>
       </c>
       <c r="F47" t="n">
-        <v>-14.53</v>
+        <v>-0.67</v>
       </c>
       <c r="G47" t="n">
-        <v>1.35</v>
+        <v>23.23</v>
       </c>
       <c r="H47" t="n">
-        <v>0.644</v>
+        <v>3.98</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6472</v>
+        <v>3.9681</v>
       </c>
       <c r="J47" t="n">
-        <v>0.659</v>
+        <v>3.986</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.002749999999999364</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.001599999999999935</v>
+        <v>0.001199999999999424</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2804,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.33</v>
+        <v>0.21</v>
       </c>
       <c r="F48" t="n">
-        <v>1.69</v>
+        <v>9.73</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="H48" t="n">
-        <v>0.598</v>
+        <v>0.93</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6042</v>
+        <v>0.9215</v>
       </c>
       <c r="J48" t="n">
-        <v>0.611</v>
+        <v>0.922</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>0.001450000000000173</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.003199999999999981</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2854,50 +2858,400 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.38</v>
+        <v>0.19</v>
       </c>
       <c r="F49" t="n">
-        <v>0.19</v>
+        <v>1.98</v>
       </c>
       <c r="G49" t="n">
-        <v>15.71</v>
+        <v>6.19</v>
       </c>
       <c r="H49" t="n">
-        <v>1.039</v>
+        <v>1.019</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0349</v>
+        <v>1.0103</v>
       </c>
       <c r="J49" t="n">
-        <v>1.045</v>
+        <v>1.02</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.00154999999999994</v>
+        <v>-0.0006500000000000394</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0004999999999999449</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.5237</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.001049999999999995</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>智能汽车ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9488999999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0003500000000000725</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.000100000000000211</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>电力ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.1751</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.178</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0002499999999998614</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0004999999999999449</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红利低波ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.1607</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001900000000000013</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.00199999999999978</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4.58</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0008500000000000174</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.00240000000000018</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>芯片ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.1195</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0007999999999999119</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.002399999999999958</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>159637</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新能源车龙头ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.0003499999999999615</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="N56" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,34 +522,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="E2" t="n">
-        <v>4.72</v>
+        <v>3.45</v>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>61.38</v>
       </c>
       <c r="G2" t="n">
-        <v>69.95999999999999</v>
+        <v>132.08</v>
       </c>
       <c r="H2" t="n">
-        <v>1.073</v>
+        <v>1.081</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0308</v>
+        <v>1.0348</v>
       </c>
       <c r="J2" t="n">
-        <v>0.975</v>
+        <v>0.977</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01124999999999987</v>
+        <v>0.01324999999999998</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01569999999999983</v>
+        <v>0.01970000000000027</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -572,34 +572,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="E3" t="n">
-        <v>4.07</v>
+        <v>2.67</v>
       </c>
       <c r="F3" t="n">
-        <v>44.1</v>
+        <v>47.95</v>
       </c>
       <c r="G3" t="n">
-        <v>19.76</v>
+        <v>39.94</v>
       </c>
       <c r="H3" t="n">
-        <v>0.538</v>
+        <v>0.542</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5225000000000001</v>
+        <v>0.5245</v>
       </c>
       <c r="J3" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004100000000000048</v>
+        <v>0.005100000000000049</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,98 +608,94 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1.19</v>
       </c>
       <c r="E4" t="n">
-        <v>2.89</v>
+        <v>0.68</v>
       </c>
       <c r="F4" t="n">
-        <v>19.42</v>
+        <v>7.19</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59</v>
+        <v>1.78</v>
       </c>
       <c r="H4" t="n">
-        <v>0.481</v>
+        <v>1.178</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4753</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001299999999999968</v>
-      </c>
+        <v>1.1677</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002899999999999958</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>1.65</v>
       </c>
       <c r="E5" t="n">
-        <v>2.61</v>
+        <v>0.49</v>
       </c>
       <c r="F5" t="n">
-        <v>9.869999999999999</v>
+        <v>11.18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>5.96</v>
       </c>
       <c r="H5" t="n">
-        <v>0.658</v>
+        <v>1.642</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6425</v>
+        <v>1.6238</v>
       </c>
       <c r="J5" t="n">
-        <v>0.627</v>
+        <v>1.615</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003399999999999959</v>
+        <v>0.003650000000000153</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005000000000000004</v>
+        <v>0.003999999999999782</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -713,7 +709,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -722,34 +718,34 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.59</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.588</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5801000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>0.572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001950000000000007</v>
+        <v>0.002450000000000063</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00219999999999998</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -758,98 +754,98 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.33</v>
+        <v>0.38</v>
       </c>
       <c r="E7" t="n">
-        <v>1.76</v>
+        <v>0.26</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.64</v>
+        <v>4.99</v>
       </c>
       <c r="G7" t="n">
-        <v>2.56</v>
+        <v>7.12</v>
       </c>
       <c r="H7" t="n">
-        <v>1.283</v>
+        <v>0.377</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2542</v>
+        <v>0.3727</v>
       </c>
       <c r="J7" t="n">
-        <v>1.248</v>
+        <v>0.369</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004700000000000149</v>
+        <v>0.001099999999999934</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01200000000000001</v>
+        <v>0.0009999999999999454</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.72</v>
+        <v>1.23</v>
       </c>
       <c r="E8" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="F8" t="n">
-        <v>8.41</v>
+        <v>1.07</v>
       </c>
       <c r="G8" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.712</v>
+        <v>1.219</v>
       </c>
       <c r="I8" t="n">
-        <v>0.701</v>
+        <v>1.2131</v>
       </c>
       <c r="J8" t="n">
-        <v>0.694</v>
+        <v>1.211</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001800000000000135</v>
+        <v>0.00175000000000014</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003599999999999937</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +854,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.34</v>
+        <v>0.72</v>
       </c>
       <c r="E9" t="n">
-        <v>1.52</v>
+        <v>0.14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.45</v>
+        <v>8.56</v>
       </c>
       <c r="G9" t="n">
-        <v>5.89</v>
+        <v>0.88</v>
       </c>
       <c r="H9" t="n">
-        <v>0.334</v>
+        <v>0.712</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3295</v>
+        <v>0.701</v>
       </c>
       <c r="J9" t="n">
-        <v>0.327</v>
+        <v>0.694</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0009999999999999454</v>
+        <v>0.001800000000000135</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001400000000000012</v>
+        <v>0.003599999999999937</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +904,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.45</v>
+        <v>0.11</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.94</v>
+        <v>9.85</v>
       </c>
       <c r="G10" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="H10" t="n">
-        <v>1.105</v>
+        <v>0.93</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0998</v>
+        <v>0.9215</v>
       </c>
       <c r="J10" t="n">
-        <v>1.087</v>
+        <v>0.922</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003000000000000114</v>
+        <v>0.001450000000000173</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +954,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="E11" t="n">
-        <v>1.43</v>
+        <v>0.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>-0.91</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>0.02</v>
       </c>
       <c r="H11" t="n">
-        <v>1.051</v>
+        <v>0.983</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0449</v>
+        <v>0.9849</v>
       </c>
       <c r="J11" t="n">
-        <v>1.047</v>
+        <v>0.983</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006500000000000394</v>
+        <v>0.001199999999999979</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003100000000000103</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1004,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="E12" t="n">
-        <v>1.37</v>
+        <v>0.09</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.59</v>
+        <v>-2.85</v>
       </c>
       <c r="G12" t="n">
-        <v>5.79</v>
+        <v>0.42</v>
       </c>
       <c r="H12" t="n">
-        <v>1.02</v>
+        <v>1.105</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0084</v>
+        <v>1.0998</v>
       </c>
       <c r="J12" t="n">
-        <v>1.015</v>
+        <v>1.087</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,98 +1054,98 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.38</v>
+        <v>1.13</v>
       </c>
       <c r="E13" t="n">
-        <v>1.34</v>
+        <v>0.09</v>
       </c>
       <c r="F13" t="n">
-        <v>4.71</v>
+        <v>18.84</v>
       </c>
       <c r="G13" t="n">
-        <v>6.07</v>
+        <v>3.43</v>
       </c>
       <c r="H13" t="n">
-        <v>0.377</v>
+        <v>1.111</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3727</v>
+        <v>1.1012</v>
       </c>
       <c r="J13" t="n">
-        <v>0.369</v>
+        <v>1.102</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001099999999999934</v>
+        <v>0.002349999999999852</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0009999999999999454</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.66</v>
+        <v>7.41</v>
       </c>
       <c r="E14" t="n">
-        <v>1.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>-13.47</v>
+        <v>24.92</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>38.23</v>
       </c>
       <c r="H14" t="n">
-        <v>0.648</v>
+        <v>7.465</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6468</v>
+        <v>7.4161</v>
       </c>
       <c r="J14" t="n">
-        <v>0.658</v>
+        <v>7.358</v>
       </c>
       <c r="K14" t="n">
-        <v>4.999999999999449e-05</v>
+        <v>-0.006050000000000111</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0009000000000001229</v>
+        <v>-0.004399999999999515</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1154,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.49</v>
+        <v>1.47</v>
       </c>
       <c r="E15" t="n">
-        <v>1.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="G15" t="n">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="H15" t="n">
-        <v>0.488</v>
+        <v>1.46</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4824</v>
+        <v>1.4622</v>
       </c>
       <c r="J15" t="n">
-        <v>0.479</v>
+        <v>1.453</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1204,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.67</v>
+        <v>123.86</v>
       </c>
       <c r="E16" t="n">
-        <v>1.21</v>
+        <v>0.05</v>
       </c>
       <c r="F16" t="n">
-        <v>7.57</v>
+        <v>0.98</v>
       </c>
       <c r="G16" t="n">
-        <v>0.23</v>
+        <v>66.23</v>
       </c>
       <c r="H16" t="n">
-        <v>0.666</v>
+        <v>123.311</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6577</v>
+        <v>123.1071</v>
       </c>
       <c r="J16" t="n">
-        <v>0.653</v>
+        <v>123.201</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001399999999999957</v>
+        <v>-0.0272499999999809</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002399999999999847</v>
+        <v>0.05559999999998411</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1254,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.13</v>
+        <v>2.04</v>
       </c>
       <c r="E17" t="n">
-        <v>1.17</v>
+        <v>0.05</v>
       </c>
       <c r="F17" t="n">
-        <v>18.74</v>
+        <v>-5.83</v>
       </c>
       <c r="G17" t="n">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.111</v>
+        <v>2.026</v>
       </c>
       <c r="I17" t="n">
-        <v>1.1012</v>
+        <v>2.0164</v>
       </c>
       <c r="J17" t="n">
-        <v>1.102</v>
+        <v>2.007</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002349999999999852</v>
+        <v>0.004900000000000126</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.005399999999999849</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1304,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="E18" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5.17</v>
+        <v>-3.49</v>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>0.04</v>
       </c>
       <c r="H18" t="n">
-        <v>1.132</v>
+        <v>1.022</v>
       </c>
       <c r="I18" t="n">
-        <v>1.1149</v>
+        <v>1.0221</v>
       </c>
       <c r="J18" t="n">
-        <v>1.121</v>
+        <v>1.023</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0008499999999997954</v>
+        <v>0.0008999999999999009</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007600000000000051</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1354,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="E19" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.09</v>
+        <v>-3.56</v>
       </c>
       <c r="G19" t="n">
-        <v>0.67</v>
+        <v>11.19</v>
       </c>
       <c r="H19" t="n">
-        <v>0.801</v>
+        <v>1.569</v>
       </c>
       <c r="I19" t="n">
-        <v>0.79</v>
+        <v>1.5651</v>
       </c>
       <c r="J19" t="n">
-        <v>0.796</v>
+        <v>1.555</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001499999999998725</v>
+        <v>0.004199999999999982</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003700000000000037</v>
+        <v>0.003599999999999826</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,98 +1404,98 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.99</v>
+        <v>1.17</v>
       </c>
       <c r="E20" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>3.53</v>
       </c>
       <c r="H20" t="n">
-        <v>0.986</v>
+        <v>1.169</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9762999999999999</v>
+        <v>1.1607</v>
       </c>
       <c r="J20" t="n">
-        <v>0.969</v>
+        <v>1.154</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002049999999999996</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00219999999999998</v>
+        <v>0.00199999999999978</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.91</v>
+        <v>0.49</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.2</v>
+        <v>1.03</v>
       </c>
       <c r="G21" t="n">
-        <v>5.82</v>
+        <v>0.34</v>
       </c>
       <c r="H21" t="n">
-        <v>0.899</v>
+        <v>0.488</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8919</v>
+        <v>0.4824</v>
       </c>
       <c r="J21" t="n">
-        <v>0.901</v>
+        <v>0.479</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1504,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.54</v>
+        <v>1.53</v>
       </c>
       <c r="E22" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.25</v>
+        <v>-1.21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.52</v>
+        <v>1.88</v>
       </c>
       <c r="H22" t="n">
-        <v>0.534</v>
+        <v>1.528</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5291</v>
+        <v>1.5237</v>
       </c>
       <c r="J22" t="n">
-        <v>0.532</v>
+        <v>1.526</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001199999999999979</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1554,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="E23" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.72</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="H23" t="n">
-        <v>0.82</v>
+        <v>0.658</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8101</v>
+        <v>0.6425</v>
       </c>
       <c r="J23" t="n">
-        <v>0.805</v>
+        <v>0.627</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001449999999999951</v>
+        <v>0.003399999999999959</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004200000000000093</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1604,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.03</v>
+        <v>0.99</v>
       </c>
       <c r="E24" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.24</v>
+        <v>-0.9</v>
       </c>
       <c r="G24" t="n">
-        <v>17.22</v>
+        <v>0.02</v>
       </c>
       <c r="H24" t="n">
-        <v>2.009</v>
+        <v>0.986</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9911</v>
+        <v>0.9762999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>2.006</v>
+        <v>0.969</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.002049999999999996</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1654,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="E25" t="n">
-        <v>0.63</v>
+        <v>-0.09</v>
       </c>
       <c r="F25" t="n">
-        <v>11.18</v>
+        <v>-2.25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="H25" t="n">
-        <v>1.111</v>
+        <v>1.169</v>
       </c>
       <c r="I25" t="n">
-        <v>1.107</v>
+        <v>1.1751</v>
       </c>
       <c r="J25" t="n">
-        <v>1.121</v>
+        <v>1.178</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.0002499999999998614</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001100000000000101</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1704,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.19</v>
+        <v>0.67</v>
       </c>
       <c r="E26" t="n">
-        <v>0.63</v>
+        <v>-0.15</v>
       </c>
       <c r="F26" t="n">
-        <v>1.78</v>
+        <v>7.41</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.164</v>
+        <v>0.666</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1406</v>
+        <v>0.6577</v>
       </c>
       <c r="J26" t="n">
-        <v>3.144</v>
+        <v>0.653</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002450000000000063</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.008399999999999963</v>
+        <v>0.002399999999999847</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1754,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="E27" t="n">
-        <v>0.62</v>
+        <v>-0.17</v>
       </c>
       <c r="F27" t="n">
-        <v>0.83</v>
+        <v>16.15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="H27" t="n">
-        <v>1.46</v>
+        <v>1.151</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4622</v>
+        <v>1.1292</v>
       </c>
       <c r="J27" t="n">
-        <v>1.453</v>
+        <v>1.108</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.003550000000000164</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002799999999999914</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1804,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="E28" t="n">
-        <v>0.61</v>
+        <v>-0.2</v>
       </c>
       <c r="F28" t="n">
-        <v>16.35</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.97</v>
+        <v>0.12</v>
       </c>
       <c r="H28" t="n">
-        <v>1.151</v>
+        <v>1.481</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1292</v>
+        <v>1.4819</v>
       </c>
       <c r="J28" t="n">
-        <v>1.108</v>
+        <v>1.468</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003550000000000164</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.008000000000000007</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1854,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="E29" t="n">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="F29" t="n">
-        <v>2.72</v>
+        <v>5.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="H29" t="n">
-        <v>1.198</v>
+        <v>1.372</v>
       </c>
       <c r="I29" t="n">
-        <v>1.2013</v>
+        <v>1.3588</v>
       </c>
       <c r="J29" t="n">
-        <v>1.214</v>
+        <v>1.357</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0006500000000000394</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.003299999999999859</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1904,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="E30" t="n">
-        <v>0.57</v>
+        <v>-0.3</v>
       </c>
       <c r="F30" t="n">
-        <v>8.56</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>6.06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.869</v>
+        <v>0.332</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8689</v>
+        <v>0.3285</v>
       </c>
       <c r="J30" t="n">
-        <v>0.886</v>
+        <v>0.326</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.001050000000000106</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1954,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="E31" t="n">
-        <v>0.57</v>
+        <v>-0.36</v>
       </c>
       <c r="F31" t="n">
-        <v>0.77</v>
+        <v>6.33</v>
       </c>
       <c r="G31" t="n">
-        <v>17.28</v>
+        <v>0.92</v>
       </c>
       <c r="H31" t="n">
-        <v>1.044</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0378</v>
+        <v>0.8090999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>1.043</v>
+        <v>0.804</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.0009499999999998954</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.002000000000000224</v>
+        <v>0.003199999999999981</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2004,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.04</v>
+        <v>0.84</v>
       </c>
       <c r="E32" t="n">
-        <v>0.54</v>
+        <v>-0.36</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.87</v>
+        <v>2.94</v>
       </c>
       <c r="G32" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.026</v>
+        <v>0.839</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0164</v>
+        <v>0.8333999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>2.007</v>
+        <v>0.831</v>
       </c>
       <c r="K32" t="n">
-        <v>0.004900000000000126</v>
+        <v>0.001249999999999862</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.005399999999999849</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2054,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.51</v>
+        <v>-0.37</v>
       </c>
       <c r="F33" t="n">
-        <v>5.43</v>
+        <v>2.66</v>
       </c>
       <c r="G33" t="n">
-        <v>0.34</v>
+        <v>0.71</v>
       </c>
       <c r="H33" t="n">
-        <v>1.372</v>
+        <v>1.078</v>
       </c>
       <c r="I33" t="n">
-        <v>1.3588</v>
+        <v>1.0726</v>
       </c>
       <c r="J33" t="n">
-        <v>1.357</v>
+        <v>1.073</v>
       </c>
       <c r="K33" t="n">
-        <v>0.002699999999999925</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003299999999999859</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2104,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.51</v>
+        <v>-0.41</v>
       </c>
       <c r="F34" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="H34" t="n">
-        <v>1.173</v>
+        <v>1.196</v>
       </c>
       <c r="I34" t="n">
-        <v>1.1585</v>
+        <v>1.2003</v>
       </c>
       <c r="J34" t="n">
-        <v>1.166</v>
+        <v>1.214</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0004500000000000615</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.004199999999999982</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2154,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.32</v>
+        <v>-12.97</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08</v>
+        <v>1.56</v>
       </c>
       <c r="H35" t="n">
-        <v>0.593</v>
+        <v>0.986</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5898</v>
+        <v>0.9861000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>0.593</v>
+        <v>0.988</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0004499999999998394</v>
+        <v>0.0009499999999998954</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.001000000000000001</v>
+        <v>-0.0002999999999998559</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2204,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.82</v>
+        <v>2.74</v>
       </c>
       <c r="E36" t="n">
-        <v>0.49</v>
+        <v>-0.51</v>
       </c>
       <c r="F36" t="n">
-        <v>0.73</v>
+        <v>0.15</v>
       </c>
       <c r="G36" t="n">
-        <v>2.89</v>
+        <v>25.23</v>
       </c>
       <c r="H36" t="n">
-        <v>0.821</v>
+        <v>2.751</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8198000000000001</v>
+        <v>2.7517</v>
       </c>
       <c r="J36" t="n">
-        <v>0.822</v>
+        <v>2.768</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.000200000000000089</v>
+        <v>-0.003499999999999837</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2254,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="E37" t="n">
-        <v>0.48</v>
+        <v>-0.53</v>
       </c>
       <c r="F37" t="n">
-        <v>8.27</v>
+        <v>10.58</v>
       </c>
       <c r="G37" t="n">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
       <c r="H37" t="n">
-        <v>1.481</v>
+        <v>1.111</v>
       </c>
       <c r="I37" t="n">
-        <v>1.4819</v>
+        <v>1.107</v>
       </c>
       <c r="J37" t="n">
-        <v>1.468</v>
+        <v>1.121</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001149999999999984</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2304,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.86</v>
+        <v>3.97</v>
       </c>
       <c r="E38" t="n">
-        <v>0.47</v>
+        <v>-0.58</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.07</v>
+        <v>-1.24</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09</v>
+        <v>30.69</v>
       </c>
       <c r="H38" t="n">
-        <v>0.85</v>
+        <v>3.974</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8427999999999999</v>
+        <v>3.965100000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>0.849</v>
+        <v>3.984</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001499999999998725</v>
+        <v>0.001249999999999307</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00219999999999998</v>
+        <v>-0.001799999999999802</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2354,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
       <c r="E39" t="n">
-        <v>0.41</v>
+        <v>-0.59</v>
       </c>
       <c r="F39" t="n">
-        <v>-12.53</v>
+        <v>-7.59</v>
       </c>
       <c r="G39" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="H39" t="n">
-        <v>0.986</v>
+        <v>1.351</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9861000000000001</v>
+        <v>1.3447</v>
       </c>
       <c r="J39" t="n">
-        <v>0.988</v>
+        <v>1.353</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0009499999999998954</v>
+        <v>-0.0005499999999998284</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0002999999999998559</v>
+        <v>0.00199999999999978</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2404,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.01</v>
+        <v>0.6</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4</v>
+        <v>-0.67</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H40" t="n">
-        <v>1.006</v>
+        <v>0.599</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0018</v>
+        <v>0.6001</v>
       </c>
       <c r="J40" t="n">
-        <v>1.006</v>
+        <v>0.61</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.0003499999999999615</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2454,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>123.8</v>
+        <v>0.59</v>
       </c>
       <c r="E41" t="n">
-        <v>0.37</v>
+        <v>-0.67</v>
       </c>
       <c r="F41" t="n">
-        <v>0.93</v>
+        <v>-1.98</v>
       </c>
       <c r="G41" t="n">
-        <v>67.87</v>
+        <v>0.11</v>
       </c>
       <c r="H41" t="n">
-        <v>123.299</v>
+        <v>0.591</v>
       </c>
       <c r="I41" t="n">
-        <v>123.1011</v>
+        <v>0.5888</v>
       </c>
       <c r="J41" t="n">
-        <v>123.198</v>
+        <v>0.593</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.03024999999998101</v>
+        <v>-4.999999999999449e-05</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04959999999999809</v>
+        <v>0</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2504,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.37</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>3.04</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="H42" t="n">
-        <v>1.078</v>
+        <v>1.004</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0726</v>
+        <v>1.0008</v>
       </c>
       <c r="J42" t="n">
-        <v>1.073</v>
+        <v>1.006</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001049999999999995</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001199999999999868</v>
+        <v>-0.000400000000000178</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2554,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.84</v>
+        <v>1.43</v>
       </c>
       <c r="E43" t="n">
-        <v>0.36</v>
+        <v>-0.7</v>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>-5.25</v>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>0.14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.839</v>
+        <v>1.427</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8333999999999999</v>
+        <v>1.422</v>
       </c>
       <c r="J43" t="n">
-        <v>0.831</v>
+        <v>1.427</v>
       </c>
       <c r="K43" t="n">
-        <v>0.001249999999999862</v>
+        <v>0.0003500000000000725</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2604,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.64</v>
+        <v>0.49</v>
       </c>
       <c r="E44" t="n">
-        <v>0.31</v>
+        <v>-0.8</v>
       </c>
       <c r="F44" t="n">
-        <v>10.64</v>
+        <v>18.47</v>
       </c>
       <c r="G44" t="n">
-        <v>4.86</v>
+        <v>24.89</v>
       </c>
       <c r="H44" t="n">
-        <v>1.64</v>
+        <v>0.479</v>
       </c>
       <c r="I44" t="n">
-        <v>1.6228</v>
+        <v>0.4743000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>1.615</v>
+        <v>0.477</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003150000000000208</v>
+        <v>0.0007999999999999674</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.003000000000000114</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2654,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.36</v>
+        <v>3.17</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>-7.05</v>
+        <v>0.96</v>
       </c>
       <c r="G45" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="H45" t="n">
-        <v>1.353</v>
+        <v>3.16</v>
       </c>
       <c r="I45" t="n">
-        <v>1.3457</v>
+        <v>3.1386</v>
       </c>
       <c r="J45" t="n">
-        <v>1.353</v>
+        <v>3.143</v>
       </c>
       <c r="K45" t="n">
-        <v>-4.999999999988347e-05</v>
+        <v>0.001450000000000173</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.002999999999999892</v>
+        <v>0.006399999999999739</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2704,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.57</v>
+        <v>0.82</v>
       </c>
       <c r="E46" t="n">
-        <v>0.26</v>
+        <v>-0.85</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.56</v>
+        <v>-0.12</v>
       </c>
       <c r="G46" t="n">
-        <v>3.46</v>
+        <v>5.63</v>
       </c>
       <c r="H46" t="n">
-        <v>1.569</v>
+        <v>0.821</v>
       </c>
       <c r="I46" t="n">
-        <v>1.5651</v>
+        <v>0.8198000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>1.555</v>
+        <v>0.822</v>
       </c>
       <c r="K46" t="n">
-        <v>0.004199999999999982</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.003599999999999826</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2754,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>0.57</v>
       </c>
       <c r="E47" t="n">
-        <v>0.23</v>
+        <v>-0.87</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.67</v>
+        <v>-7.63</v>
       </c>
       <c r="G47" t="n">
-        <v>23.23</v>
+        <v>7.12</v>
       </c>
       <c r="H47" t="n">
-        <v>3.98</v>
+        <v>0.576</v>
       </c>
       <c r="I47" t="n">
-        <v>3.9681</v>
+        <v>0.58</v>
       </c>
       <c r="J47" t="n">
-        <v>3.986</v>
+        <v>0.589</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002749999999999364</v>
+        <v>-0.001649999999999929</v>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.001199999999999424</v>
+        <v>-0.001699999999999924</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2804,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E48" t="n">
-        <v>0.21</v>
+        <v>-1.07</v>
       </c>
       <c r="F48" t="n">
-        <v>9.73</v>
+        <v>-14.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.16</v>
+        <v>2.79</v>
       </c>
       <c r="H48" t="n">
-        <v>0.93</v>
+        <v>0.646</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9215</v>
+        <v>0.6458</v>
       </c>
       <c r="J48" t="n">
-        <v>0.922</v>
+        <v>0.657</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001450000000000173</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.001099999999999879</v>
+        <v>-9.999999999987796e-05</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2854,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.03</v>
+        <v>2.01</v>
       </c>
       <c r="E49" t="n">
-        <v>0.19</v>
+        <v>-1.08</v>
       </c>
       <c r="F49" t="n">
-        <v>1.98</v>
+        <v>-4.28</v>
       </c>
       <c r="G49" t="n">
-        <v>6.19</v>
+        <v>18.94</v>
       </c>
       <c r="H49" t="n">
-        <v>1.019</v>
+        <v>2.005</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0103</v>
+        <v>1.9891</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>2.005</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0006500000000000394</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2904,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.53</v>
+        <v>0.85</v>
       </c>
       <c r="E50" t="n">
-        <v>0.13</v>
+        <v>-1.16</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.21</v>
+        <v>-6.17</v>
       </c>
       <c r="G50" t="n">
-        <v>1.31</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
-        <v>1.528</v>
+        <v>0.848</v>
       </c>
       <c r="I50" t="n">
-        <v>1.5237</v>
+        <v>0.8417999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>1.526</v>
+        <v>0.849</v>
       </c>
       <c r="K50" t="n">
-        <v>0.001049999999999995</v>
+        <v>-0.0003499999999999615</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2954,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1</v>
+        <v>-1.26</v>
       </c>
       <c r="F51" t="n">
-        <v>2.36</v>
+        <v>-8.75</v>
       </c>
       <c r="G51" t="n">
-        <v>0.28</v>
+        <v>5.88</v>
       </c>
       <c r="H51" t="n">
-        <v>0.95</v>
+        <v>1.018</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9488999999999999</v>
+        <v>1.0074</v>
       </c>
       <c r="J51" t="n">
-        <v>0.957</v>
+        <v>1.014</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.000100000000000211</v>
+        <v>0.002200000000000202</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3004,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.17</v>
+        <v>0.9</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09</v>
+        <v>-1.43</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.17</v>
+        <v>-6.56</v>
       </c>
       <c r="G52" t="n">
-        <v>0.39</v>
+        <v>6.38</v>
       </c>
       <c r="H52" t="n">
-        <v>1.169</v>
+        <v>0.897</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1751</v>
+        <v>0.8909</v>
       </c>
       <c r="J52" t="n">
-        <v>1.178</v>
+        <v>0.901</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0002499999999998614</v>
+        <v>0.0005499999999999394</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>0.0001000000000001</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,98 +3054,98 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09</v>
+        <v>-1.43</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>-4.03</v>
       </c>
       <c r="G53" t="n">
-        <v>5.94</v>
+        <v>2.42</v>
       </c>
       <c r="H53" t="n">
-        <v>1.169</v>
+        <v>1.279</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1607</v>
+        <v>1.2522</v>
       </c>
       <c r="J53" t="n">
-        <v>1.154</v>
+        <v>1.247</v>
       </c>
       <c r="K53" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.003699999999999815</v>
       </c>
       <c r="L53" t="b">
         <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.44</v>
+        <v>0.53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07000000000000001</v>
+        <v>-1.48</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.58</v>
+        <v>-5.66</v>
       </c>
       <c r="G54" t="n">
-        <v>0.16</v>
+        <v>0.51</v>
       </c>
       <c r="H54" t="n">
-        <v>1.429</v>
+        <v>0.532</v>
       </c>
       <c r="I54" t="n">
-        <v>1.423</v>
+        <v>0.5281</v>
       </c>
       <c r="J54" t="n">
-        <v>1.428</v>
+        <v>0.532</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0008500000000000174</v>
+        <v>-0.0001000000000001</v>
       </c>
       <c r="L54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.00240000000000018</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3154,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-1.51</v>
       </c>
       <c r="F55" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="G55" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="H55" t="n">
-        <v>1.128</v>
+        <v>1.171</v>
       </c>
       <c r="I55" t="n">
-        <v>1.1195</v>
+        <v>1.1575</v>
       </c>
       <c r="J55" t="n">
-        <v>1.131</v>
+        <v>1.166</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>-5.000000000010552e-05</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,50 +3204,400 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="F56" t="n">
-        <v>1.69</v>
+        <v>0.75</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="H56" t="n">
-        <v>0.599</v>
+        <v>0.948</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6001</v>
+        <v>0.9479</v>
       </c>
       <c r="J56" t="n">
-        <v>0.61</v>
+        <v>0.957</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0003499999999999615</v>
+        <v>-0.0008500000000000174</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>军工ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0429</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.046</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.0003500000000000725</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.001100000000000101</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>机器人ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8669</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.002049999999999996</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.001700000000000035</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>科创50ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0358</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.001299999999999857</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>云计算ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.1129</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.0001499999999998725</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.005600000000000049</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>芯片ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.1165</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.002299999999999969</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.000600000000000156</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>半导体ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.0083</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.001649999999999929</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0005999999999999339</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>软件ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.001150000000000095</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.001700000000000035</v>
+      </c>
+      <c r="N63" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="E2" t="n">
-        <v>3.45</v>
+        <v>2.42</v>
       </c>
       <c r="F2" t="n">
-        <v>61.38</v>
+        <v>18.96</v>
       </c>
       <c r="G2" t="n">
-        <v>132.08</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.081</v>
+        <v>1.157</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0348</v>
+        <v>1.1322</v>
       </c>
       <c r="J2" t="n">
-        <v>0.977</v>
+        <v>1.11</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01324999999999998</v>
+        <v>0.005049999999999999</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01970000000000027</v>
+        <v>0.0109999999999999</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.95</v>
       </c>
       <c r="E3" t="n">
-        <v>2.67</v>
+        <v>1.92</v>
       </c>
       <c r="F3" t="n">
-        <v>47.95</v>
+        <v>11.96</v>
       </c>
       <c r="G3" t="n">
-        <v>39.94</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.542</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5245</v>
+        <v>0.9225</v>
       </c>
       <c r="J3" t="n">
-        <v>0.505</v>
+        <v>0.922</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005100000000000049</v>
+        <v>0.001949999999999896</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008000000000000007</v>
+        <v>0.00209999999999988</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,94 +608,98 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="E4" t="n">
-        <v>0.68</v>
+        <v>1.86</v>
       </c>
       <c r="F4" t="n">
-        <v>7.19</v>
+        <v>-7.05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.78</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.178</v>
+        <v>1.022</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1677</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1.0094</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.002000000000000002</v>
+      </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004299999999999971</v>
+        <v>0.004199999999999982</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.65</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.49</v>
+        <v>1.82</v>
       </c>
       <c r="F5" t="n">
-        <v>11.18</v>
+        <v>20.62</v>
       </c>
       <c r="G5" t="n">
-        <v>5.96</v>
+        <v>23.44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.642</v>
+        <v>0.481</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6238</v>
+        <v>0.4753</v>
       </c>
       <c r="J5" t="n">
-        <v>1.615</v>
+        <v>0.478</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003650000000000153</v>
+        <v>0.001299999999999968</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003999999999999782</v>
+        <v>0.002899999999999958</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -704,148 +708,148 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="E6" t="n">
-        <v>0.34</v>
+        <v>1.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.84</v>
+        <v>9.34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="H6" t="n">
-        <v>0.59</v>
+        <v>0.668</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5801000000000001</v>
+        <v>0.6587000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.572</v>
+        <v>0.654</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002450000000000063</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.003399999999999959</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.38</v>
+        <v>1.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.26</v>
+        <v>1.71</v>
       </c>
       <c r="F7" t="n">
-        <v>4.99</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>7.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.377</v>
+        <v>1.223</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3727</v>
+        <v>1.2151</v>
       </c>
       <c r="J7" t="n">
-        <v>0.369</v>
+        <v>1.212</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001099999999999934</v>
+        <v>0.002750000000000252</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009999999999999454</v>
+        <v>0.003300000000000081</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.23</v>
+        <v>0.61</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16</v>
+        <v>1.68</v>
       </c>
       <c r="F8" t="n">
-        <v>1.07</v>
+        <v>2.71</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="H8" t="n">
-        <v>1.219</v>
+        <v>0.601</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2131</v>
+        <v>0.6011</v>
       </c>
       <c r="J8" t="n">
-        <v>1.211</v>
+        <v>0.611</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00175000000000014</v>
+        <v>0.0001499999999999835</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001300000000000079</v>
+        <v>-0.0009999999999998899</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -854,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="E9" t="n">
-        <v>0.14</v>
+        <v>1.56</v>
       </c>
       <c r="F9" t="n">
-        <v>8.56</v>
+        <v>-5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.88</v>
+        <v>7.48</v>
       </c>
       <c r="H9" t="n">
-        <v>0.712</v>
+        <v>0.899</v>
       </c>
       <c r="I9" t="n">
-        <v>0.701</v>
+        <v>0.8919</v>
       </c>
       <c r="J9" t="n">
-        <v>0.694</v>
+        <v>0.901</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001800000000000135</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003599999999999937</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -904,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="E10" t="n">
-        <v>0.11</v>
+        <v>1.42</v>
       </c>
       <c r="F10" t="n">
-        <v>9.85</v>
+        <v>20.53</v>
       </c>
       <c r="G10" t="n">
-        <v>0.17</v>
+        <v>3.13</v>
       </c>
       <c r="H10" t="n">
-        <v>0.93</v>
+        <v>1.115</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9215</v>
+        <v>1.1032</v>
       </c>
       <c r="J10" t="n">
-        <v>0.922</v>
+        <v>1.103</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001450000000000173</v>
+        <v>0.003349999999999964</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -954,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.98</v>
+        <v>2.04</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>1.29</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.91</v>
+        <v>-3.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>17.82</v>
       </c>
       <c r="H11" t="n">
-        <v>0.983</v>
+        <v>2.011</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9849</v>
+        <v>1.9921</v>
       </c>
       <c r="J11" t="n">
-        <v>0.983</v>
+        <v>2.006</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001199999999999979</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0006000000000000449</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1004,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.12</v>
+        <v>0.66</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>1.23</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.85</v>
+        <v>-13.34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.42</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>1.105</v>
+        <v>0.648</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0998</v>
+        <v>0.6468</v>
       </c>
       <c r="J12" t="n">
-        <v>1.087</v>
+        <v>0.658</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003000000000000114</v>
+        <v>4.999999999999449e-05</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1054,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09</v>
+        <v>1.16</v>
       </c>
       <c r="F13" t="n">
-        <v>18.84</v>
+        <v>6.43</v>
       </c>
       <c r="G13" t="n">
-        <v>3.43</v>
+        <v>0.26</v>
       </c>
       <c r="H13" t="n">
-        <v>1.111</v>
+        <v>1.374</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1012</v>
+        <v>1.3598</v>
       </c>
       <c r="J13" t="n">
-        <v>1.102</v>
+        <v>1.357</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002349999999999852</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.004300000000000193</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1104,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7.41</v>
+        <v>0.73</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="F14" t="n">
-        <v>24.92</v>
+        <v>9.76</v>
       </c>
       <c r="G14" t="n">
-        <v>38.23</v>
+        <v>0.83</v>
       </c>
       <c r="H14" t="n">
-        <v>7.465</v>
+        <v>0.714</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4161</v>
+        <v>0.702</v>
       </c>
       <c r="J14" t="n">
-        <v>7.358</v>
+        <v>0.694</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.006050000000000111</v>
+        <v>0.00230000000000008</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.004399999999999515</v>
+        <v>0.004600000000000048</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1154,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.47</v>
+        <v>0.83</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="F15" t="n">
-        <v>0.89</v>
+        <v>7.49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="H15" t="n">
-        <v>1.46</v>
+        <v>0.82</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4622</v>
+        <v>0.8101</v>
       </c>
       <c r="J15" t="n">
-        <v>1.453</v>
+        <v>0.805</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002799999999999914</v>
+        <v>0.004200000000000093</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1204,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>123.86</v>
+        <v>1.22</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05</v>
+        <v>1.08</v>
       </c>
       <c r="F16" t="n">
-        <v>0.98</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>66.23</v>
+        <v>0.44</v>
       </c>
       <c r="H16" t="n">
-        <v>123.311</v>
+        <v>1.2</v>
       </c>
       <c r="I16" t="n">
-        <v>123.1071</v>
+        <v>1.2023</v>
       </c>
       <c r="J16" t="n">
-        <v>123.201</v>
+        <v>1.215</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0272499999999809</v>
+        <v>-0.0001499999999998725</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05559999999998411</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1254,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.04</v>
+        <v>0.95</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05</v>
+        <v>0.96</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.83</v>
+        <v>1.71</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>0.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.026</v>
+        <v>0.95</v>
       </c>
       <c r="I17" t="n">
-        <v>2.0164</v>
+        <v>0.9488999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>2.007</v>
+        <v>0.957</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004900000000000126</v>
+        <v>-0.0003500000000000725</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005399999999999849</v>
+        <v>-0.000100000000000211</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1304,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.49</v>
+        <v>-12.18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04</v>
+        <v>1.61</v>
       </c>
       <c r="H18" t="n">
-        <v>1.022</v>
+        <v>0.986</v>
       </c>
       <c r="I18" t="n">
-        <v>1.0221</v>
+        <v>0.9861000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>1.023</v>
+        <v>0.988</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0008999999999999009</v>
+        <v>0.0009499999999998954</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.0002999999999998559</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1354,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.57</v>
+        <v>0.82</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.56</v>
+        <v>0.73</v>
       </c>
       <c r="G19" t="n">
-        <v>11.19</v>
+        <v>2.69</v>
       </c>
       <c r="H19" t="n">
-        <v>1.569</v>
+        <v>0.821</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5651</v>
+        <v>0.8198000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>1.555</v>
+        <v>0.822</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004199999999999982</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003599999999999826</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1404,98 +1408,98 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-1.15</v>
       </c>
       <c r="G20" t="n">
-        <v>3.53</v>
+        <v>0.09</v>
       </c>
       <c r="H20" t="n">
-        <v>1.169</v>
+        <v>0.593</v>
       </c>
       <c r="I20" t="n">
-        <v>1.1607</v>
+        <v>0.5898</v>
       </c>
       <c r="J20" t="n">
-        <v>1.154</v>
+        <v>0.593</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.0004499999999998394</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.49</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>1.03</v>
+        <v>-0.45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.34</v>
+        <v>44.22</v>
       </c>
       <c r="H21" t="n">
-        <v>0.488</v>
+        <v>3.98</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4824</v>
+        <v>3.9681</v>
       </c>
       <c r="J21" t="n">
-        <v>0.479</v>
+        <v>3.986</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.002749999999999364</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.001199999999999424</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1504,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.21</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>1.88</v>
+        <v>0.43</v>
       </c>
       <c r="H22" t="n">
-        <v>1.528</v>
+        <v>1.006</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5237</v>
+        <v>1.0018</v>
       </c>
       <c r="J22" t="n">
-        <v>1.526</v>
+        <v>1.006</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1554,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.67</v>
+        <v>1.36</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F23" t="n">
-        <v>9.869999999999999</v>
+        <v>-6.91</v>
       </c>
       <c r="G23" t="n">
-        <v>0.14</v>
+        <v>1.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.658</v>
+        <v>1.353</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6425</v>
+        <v>1.3457</v>
       </c>
       <c r="J23" t="n">
-        <v>0.627</v>
+        <v>1.353</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003399999999999959</v>
+        <v>-4.999999999988347e-05</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005000000000000004</v>
+        <v>0.002999999999999892</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1604,42 +1608,42 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.9</v>
+        <v>3.42</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02</v>
+        <v>0.61</v>
       </c>
       <c r="H24" t="n">
-        <v>0.986</v>
+        <v>1.08</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9762999999999999</v>
+        <v>1.0736</v>
       </c>
       <c r="J24" t="n">
-        <v>0.969</v>
+        <v>1.073</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002049999999999996</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -1654,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.17</v>
+        <v>2.76</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.09</v>
+        <v>0.73</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.25</v>
+        <v>0.88</v>
       </c>
       <c r="G25" t="n">
-        <v>0.53</v>
+        <v>16.17</v>
       </c>
       <c r="H25" t="n">
-        <v>1.169</v>
+        <v>2.755</v>
       </c>
       <c r="I25" t="n">
-        <v>1.1751</v>
+        <v>2.7537</v>
       </c>
       <c r="J25" t="n">
-        <v>1.178</v>
+        <v>2.769</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0002499999999998614</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1704,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.15</v>
+        <v>0.71</v>
       </c>
       <c r="F26" t="n">
-        <v>7.41</v>
+        <v>-2.16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="H26" t="n">
-        <v>0.666</v>
+        <v>1.107</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6577</v>
+        <v>1.1008</v>
       </c>
       <c r="J26" t="n">
-        <v>0.653</v>
+        <v>1.087</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001399999999999957</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002399999999999847</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1754,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.16</v>
+        <v>3.19</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.17</v>
+        <v>0.66</v>
       </c>
       <c r="F27" t="n">
-        <v>16.15</v>
+        <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>0.96</v>
+        <v>1.59</v>
       </c>
       <c r="H27" t="n">
-        <v>1.151</v>
+        <v>3.164</v>
       </c>
       <c r="I27" t="n">
-        <v>1.1292</v>
+        <v>3.1406</v>
       </c>
       <c r="J27" t="n">
-        <v>1.108</v>
+        <v>3.144</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003550000000000164</v>
+        <v>0.002450000000000063</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.008000000000000007</v>
+        <v>0.008399999999999963</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1804,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.2</v>
+        <v>0.61</v>
       </c>
       <c r="F28" t="n">
-        <v>8.050000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="H28" t="n">
-        <v>1.481</v>
+        <v>0.988</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4819</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>1.468</v>
+        <v>0.969</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.002549999999999941</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.003199999999999981</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1854,98 +1858,94 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.22</v>
+        <v>0.59</v>
       </c>
       <c r="F29" t="n">
-        <v>5.2</v>
+        <v>7.82</v>
       </c>
       <c r="G29" t="n">
-        <v>0.43</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.372</v>
+        <v>1.18</v>
       </c>
       <c r="I29" t="n">
-        <v>1.3588</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.357</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.002699999999999925</v>
-      </c>
+        <v>1.1687</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="b">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003299999999999859</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3</v>
+        <v>0.59</v>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>6.06</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>0.332</v>
+        <v>0.841</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3285</v>
+        <v>0.8343999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.326</v>
+        <v>0.832</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0005000000000000004</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0004000000000000115</v>
+        <v>0.00209999999999988</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1954,48 +1954,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.82</v>
+        <v>1.54</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.36</v>
+        <v>0.52</v>
       </c>
       <c r="F31" t="n">
-        <v>6.33</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.92</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8090999999999999</v>
+        <v>1.5247</v>
       </c>
       <c r="J31" t="n">
-        <v>0.804</v>
+        <v>1.527</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0009499999999998954</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003199999999999981</v>
+        <v>0.001299999999999857</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2004,48 +2004,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.84</v>
+        <v>2.05</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.36</v>
+        <v>0.49</v>
       </c>
       <c r="F32" t="n">
-        <v>2.94</v>
+        <v>-5.37</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>2.13</v>
       </c>
       <c r="H32" t="n">
-        <v>0.839</v>
+        <v>2.028</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8333999999999999</v>
+        <v>2.0174</v>
       </c>
       <c r="J32" t="n">
-        <v>0.831</v>
+        <v>2.008</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001249999999999862</v>
+        <v>0.005399999999999849</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.006399999999999739</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2054,48 +2054,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.37</v>
+        <v>0.42</v>
       </c>
       <c r="F33" t="n">
-        <v>2.66</v>
+        <v>-4.85</v>
       </c>
       <c r="G33" t="n">
-        <v>0.71</v>
+        <v>0.12</v>
       </c>
       <c r="H33" t="n">
-        <v>1.078</v>
+        <v>1.427</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0726</v>
+        <v>1.422</v>
       </c>
       <c r="J33" t="n">
-        <v>1.073</v>
+        <v>1.427</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.0003500000000000725</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2104,48 +2104,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.41</v>
+        <v>0.41</v>
       </c>
       <c r="F34" t="n">
-        <v>2.3</v>
+        <v>-0.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="H34" t="n">
-        <v>1.196</v>
+        <v>0.985</v>
       </c>
       <c r="I34" t="n">
-        <v>1.2003</v>
+        <v>0.9859</v>
       </c>
       <c r="J34" t="n">
-        <v>1.214</v>
+        <v>0.984</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.001149999999999984</v>
+        <v>0.001699999999999924</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2154,48 +2154,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5</v>
+        <v>0.39</v>
       </c>
       <c r="F35" t="n">
-        <v>-12.97</v>
+        <v>-3.11</v>
       </c>
       <c r="G35" t="n">
-        <v>1.56</v>
+        <v>0.03</v>
       </c>
       <c r="H35" t="n">
-        <v>0.986</v>
+        <v>1.024</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9861000000000001</v>
+        <v>1.0231</v>
       </c>
       <c r="J35" t="n">
-        <v>0.988</v>
+        <v>1.023</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0009499999999998954</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0002999999999998559</v>
+        <v>0.0008999999999999009</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2204,48 +2204,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.74</v>
+        <v>1.05</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.51</v>
+        <v>0.38</v>
       </c>
       <c r="F36" t="n">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="G36" t="n">
-        <v>25.23</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
-        <v>2.751</v>
+        <v>1.049</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7517</v>
+        <v>1.0439</v>
       </c>
       <c r="J36" t="n">
-        <v>2.768</v>
+        <v>1.047</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.003499999999999837</v>
+        <v>0.002100000000000213</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2254,48 +2254,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.53</v>
+        <v>0.38</v>
       </c>
       <c r="F37" t="n">
-        <v>10.58</v>
+        <v>-3.19</v>
       </c>
       <c r="G37" t="n">
-        <v>0.62</v>
+        <v>5.74</v>
       </c>
       <c r="H37" t="n">
-        <v>1.111</v>
+        <v>1.571</v>
       </c>
       <c r="I37" t="n">
-        <v>1.107</v>
+        <v>1.5661</v>
       </c>
       <c r="J37" t="n">
-        <v>1.121</v>
+        <v>1.556</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.004699999999999926</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2304,48 +2304,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.97</v>
+        <v>1.66</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.58</v>
+        <v>0.36</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.24</v>
+        <v>11.58</v>
       </c>
       <c r="G38" t="n">
-        <v>30.69</v>
+        <v>3.59</v>
       </c>
       <c r="H38" t="n">
-        <v>3.974</v>
+        <v>1.644</v>
       </c>
       <c r="I38" t="n">
-        <v>3.965100000000001</v>
+        <v>1.6248</v>
       </c>
       <c r="J38" t="n">
-        <v>3.984</v>
+        <v>1.616</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001249999999999307</v>
+        <v>0.004149999999999876</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.001799999999999802</v>
+        <v>0.004999999999999893</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2354,98 +2354,98 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.59</v>
+        <v>0.34</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.59</v>
+        <v>4.36</v>
       </c>
       <c r="G39" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>1.351</v>
+        <v>1.169</v>
       </c>
       <c r="I39" t="n">
-        <v>1.3447</v>
+        <v>1.1607</v>
       </c>
       <c r="J39" t="n">
-        <v>1.353</v>
+        <v>1.154</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0005499999999998284</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0.00199999999999978</v>
       </c>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6</v>
+        <v>7.43</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.67</v>
+        <v>0.31</v>
       </c>
       <c r="F40" t="n">
-        <v>1.02</v>
+        <v>25.3</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05</v>
+        <v>26.78</v>
       </c>
       <c r="H40" t="n">
-        <v>0.599</v>
+        <v>7.469</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6001</v>
+        <v>7.4181</v>
       </c>
       <c r="J40" t="n">
-        <v>0.61</v>
+        <v>7.359</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0003499999999999615</v>
+        <v>-0.005049999999999777</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-0.002400000000001512</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2454,48 +2454,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.59</v>
+        <v>1.12</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.67</v>
+        <v>0.27</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.98</v>
+        <v>10.88</v>
       </c>
       <c r="G41" t="n">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="H41" t="n">
-        <v>0.591</v>
+        <v>1.111</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5888</v>
+        <v>1.107</v>
       </c>
       <c r="J41" t="n">
-        <v>0.593</v>
+        <v>1.121</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.999999999999449e-05</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2504,48 +2504,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>124.18</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6899999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="G42" t="n">
-        <v>0.78</v>
+        <v>48.94</v>
       </c>
       <c r="H42" t="n">
-        <v>1.004</v>
+        <v>123.375</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0008</v>
+        <v>123.1391</v>
       </c>
       <c r="J42" t="n">
-        <v>1.006</v>
+        <v>123.217</v>
       </c>
       <c r="K42" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.01125000000000398</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.000400000000000178</v>
+        <v>0.08760000000002321</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2554,48 +2554,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.7</v>
+        <v>0.26</v>
       </c>
       <c r="F43" t="n">
-        <v>-5.25</v>
+        <v>-2</v>
       </c>
       <c r="G43" t="n">
-        <v>0.14</v>
+        <v>0.45</v>
       </c>
       <c r="H43" t="n">
-        <v>1.427</v>
+        <v>1.169</v>
       </c>
       <c r="I43" t="n">
-        <v>1.422</v>
+        <v>1.1751</v>
       </c>
       <c r="J43" t="n">
-        <v>1.427</v>
+        <v>1.178</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0003500000000000725</v>
+        <v>-0.0002499999999998614</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.001400000000000068</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2604,48 +2604,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.8</v>
+        <v>0.25</v>
       </c>
       <c r="F44" t="n">
-        <v>18.47</v>
+        <v>1.66</v>
       </c>
       <c r="G44" t="n">
-        <v>24.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0.479</v>
+        <v>0.799</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4743000000000001</v>
+        <v>0.789</v>
       </c>
       <c r="J44" t="n">
-        <v>0.477</v>
+        <v>0.795</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0007999999999999674</v>
+        <v>-0.0006499999999998174</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.002700000000000036</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2654,48 +2654,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.17</v>
+        <v>0.86</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.96</v>
+        <v>7.07</v>
       </c>
       <c r="G45" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="H45" t="n">
-        <v>3.16</v>
+        <v>0.865</v>
       </c>
       <c r="I45" t="n">
-        <v>3.1386</v>
+        <v>0.8669</v>
       </c>
       <c r="J45" t="n">
-        <v>3.143</v>
+        <v>0.885</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001450000000000173</v>
+        <v>-0.002049999999999996</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.006399999999999739</v>
+        <v>-0.001700000000000035</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2704,48 +2704,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.82</v>
+        <v>0.53</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.85</v>
+        <v>0.19</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.12</v>
+        <v>-5.49</v>
       </c>
       <c r="G46" t="n">
-        <v>5.63</v>
+        <v>0.36</v>
       </c>
       <c r="H46" t="n">
-        <v>0.821</v>
+        <v>0.532</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8198000000000001</v>
+        <v>0.5281</v>
       </c>
       <c r="J46" t="n">
-        <v>0.822</v>
+        <v>0.532</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>-0.0001000000000001</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.000200000000000089</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2771,13 +2771,13 @@
         <v>0.57</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.87</v>
+        <v>0.18</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.63</v>
+        <v>-7.47</v>
       </c>
       <c r="G47" t="n">
-        <v>7.12</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0.576</v>
@@ -2804,48 +2804,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.65</v>
+        <v>1.47</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.07</v>
+        <v>0.14</v>
       </c>
       <c r="F48" t="n">
-        <v>-14.4</v>
+        <v>1.03</v>
       </c>
       <c r="G48" t="n">
-        <v>2.79</v>
+        <v>0.43</v>
       </c>
       <c r="H48" t="n">
-        <v>0.646</v>
+        <v>1.46</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6458</v>
+        <v>1.4622</v>
       </c>
       <c r="J48" t="n">
-        <v>0.657</v>
+        <v>1.453</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>-9.999999999987796e-05</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2854,48 +2854,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.01</v>
+        <v>0.85</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-4.28</v>
+        <v>-6.17</v>
       </c>
       <c r="G49" t="n">
-        <v>18.94</v>
+        <v>0.04</v>
       </c>
       <c r="H49" t="n">
-        <v>2.005</v>
+        <v>0.848</v>
       </c>
       <c r="I49" t="n">
-        <v>1.9891</v>
+        <v>0.8417999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>2.005</v>
+        <v>0.849</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001300000000000079</v>
+        <v>-0.0003499999999999615</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2904,48 +2904,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.16</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-6.17</v>
+        <v>1.03</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
-        <v>0.848</v>
+        <v>0.488</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8417999999999999</v>
+        <v>0.4824</v>
       </c>
       <c r="J50" t="n">
-        <v>0.849</v>
+        <v>0.479</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0003499999999999615</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2954,48 +2954,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.02</v>
+        <v>0.33</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-8.75</v>
+        <v>2.14</v>
       </c>
       <c r="G51" t="n">
-        <v>5.88</v>
+        <v>4.92</v>
       </c>
       <c r="H51" t="n">
-        <v>1.018</v>
+        <v>0.332</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0074</v>
+        <v>0.3285</v>
       </c>
       <c r="J51" t="n">
-        <v>1.014</v>
+        <v>0.326</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0.002200000000000202</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3004,48 +3004,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9</v>
+        <v>1.18</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.43</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-6.56</v>
+        <v>1.29</v>
       </c>
       <c r="G52" t="n">
-        <v>6.38</v>
+        <v>0.75</v>
       </c>
       <c r="H52" t="n">
-        <v>0.897</v>
+        <v>1.171</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8909</v>
+        <v>1.1575</v>
       </c>
       <c r="J52" t="n">
-        <v>0.901</v>
+        <v>1.166</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0005499999999999394</v>
+        <v>-5.000000000010552e-05</v>
       </c>
       <c r="L52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0001000000000001</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3054,48 +3054,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.43</v>
+        <v>-0.09</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.03</v>
+        <v>-1.16</v>
       </c>
       <c r="G53" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
-        <v>1.279</v>
+        <v>1.122</v>
       </c>
       <c r="I53" t="n">
-        <v>1.2522</v>
+        <v>1.1165</v>
       </c>
       <c r="J53" t="n">
-        <v>1.247</v>
+        <v>1.129</v>
       </c>
       <c r="K53" t="n">
-        <v>0.003699999999999815</v>
+        <v>-0.002299999999999969</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01000000000000001</v>
+        <v>-0.000600000000000156</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3104,48 +3104,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.53</v>
+        <v>1.03</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.48</v>
+        <v>-0.1</v>
       </c>
       <c r="F54" t="n">
-        <v>-5.66</v>
+        <v>-1.34</v>
       </c>
       <c r="G54" t="n">
-        <v>0.51</v>
+        <v>20.81</v>
       </c>
       <c r="H54" t="n">
-        <v>0.532</v>
+        <v>1.04</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5281</v>
+        <v>1.0358</v>
       </c>
       <c r="J54" t="n">
-        <v>0.532</v>
+        <v>1.042</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0001000000000001</v>
+        <v>-0.001299999999999857</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.000199999999999978</v>
+        <v>0</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3154,48 +3154,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.51</v>
+        <v>-0.1</v>
       </c>
       <c r="F55" t="n">
-        <v>1.29</v>
+        <v>-0.3</v>
       </c>
       <c r="G55" t="n">
-        <v>2.08</v>
+        <v>6.34</v>
       </c>
       <c r="H55" t="n">
-        <v>1.171</v>
+        <v>1.015</v>
       </c>
       <c r="I55" t="n">
-        <v>1.1575</v>
+        <v>1.0083</v>
       </c>
       <c r="J55" t="n">
-        <v>1.166</v>
+        <v>1.019</v>
       </c>
       <c r="K55" t="n">
-        <v>-5.000000000010552e-05</v>
+        <v>-0.001649999999999929</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3204,48 +3204,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.57</v>
+        <v>-0.15</v>
       </c>
       <c r="F56" t="n">
-        <v>0.75</v>
+        <v>-4.18</v>
       </c>
       <c r="G56" t="n">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0.948</v>
+        <v>1.279</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9479</v>
+        <v>1.2522</v>
       </c>
       <c r="J56" t="n">
-        <v>0.957</v>
+        <v>1.247</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0008500000000000174</v>
+        <v>0.003699999999999815</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.001100000000000101</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3254,48 +3254,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.6</v>
+        <v>-0.17</v>
       </c>
       <c r="F57" t="n">
-        <v>0.29</v>
+        <v>61.1</v>
       </c>
       <c r="G57" t="n">
-        <v>6.16</v>
+        <v>67.52</v>
       </c>
       <c r="H57" t="n">
-        <v>1.047</v>
+        <v>1.081</v>
       </c>
       <c r="I57" t="n">
-        <v>1.0429</v>
+        <v>1.0348</v>
       </c>
       <c r="J57" t="n">
-        <v>1.046</v>
+        <v>0.977</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>0.01324999999999998</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.01970000000000027</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3304,48 +3304,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.86</v>
+        <v>1.47</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.6</v>
+        <v>-0.2</v>
       </c>
       <c r="F58" t="n">
-        <v>6.82</v>
+        <v>7.83</v>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>0.13</v>
       </c>
       <c r="H58" t="n">
-        <v>0.865</v>
+        <v>1.479</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8669</v>
+        <v>1.4809</v>
       </c>
       <c r="J58" t="n">
-        <v>0.885</v>
+        <v>1.467</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.002049999999999996</v>
+        <v>0.0006499999999998174</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.001700000000000035</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3354,98 +3354,98 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.03</v>
+        <v>0.38</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.99</v>
+        <v>-0.26</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.24</v>
+        <v>4.71</v>
       </c>
       <c r="G59" t="n">
-        <v>29.77</v>
+        <v>4.03</v>
       </c>
       <c r="H59" t="n">
-        <v>1.04</v>
+        <v>0.377</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0358</v>
+        <v>0.3727</v>
       </c>
       <c r="J59" t="n">
-        <v>1.042</v>
+        <v>0.369</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.001299999999999857</v>
+        <v>0.001099999999999934</v>
       </c>
       <c r="L59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.0009999999999999454</v>
       </c>
       <c r="N59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.07</v>
+        <v>-0.52</v>
       </c>
       <c r="F60" t="n">
-        <v>2.99</v>
+        <v>47.18</v>
       </c>
       <c r="G60" t="n">
-        <v>2.86</v>
+        <v>20.85</v>
       </c>
       <c r="H60" t="n">
-        <v>1.128</v>
+        <v>0.54</v>
       </c>
       <c r="I60" t="n">
-        <v>1.1129</v>
+        <v>0.5235000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>1.12</v>
+        <v>0.504</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0001499999999998725</v>
+        <v>0.004599999999999993</v>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.005600000000000049</v>
+        <v>0.007000000000000117</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3454,48 +3454,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.11</v>
+        <v>-0.53</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.07</v>
+        <v>2.45</v>
       </c>
       <c r="G61" t="n">
-        <v>3.08</v>
+        <v>1.65</v>
       </c>
       <c r="H61" t="n">
-        <v>1.122</v>
+        <v>1.126</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1165</v>
+        <v>1.1119</v>
       </c>
       <c r="J61" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.002299999999999969</v>
+        <v>-0.0006500000000002615</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.000600000000000156</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3504,48 +3504,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.01</v>
+        <v>0.66</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.14</v>
+        <v>-0.6</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>10.29</v>
+        <v>0.15</v>
       </c>
       <c r="H62" t="n">
-        <v>1.015</v>
+        <v>0.656</v>
       </c>
       <c r="I62" t="n">
-        <v>1.0083</v>
+        <v>0.6415</v>
       </c>
       <c r="J62" t="n">
-        <v>1.019</v>
+        <v>0.626</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.001649999999999929</v>
+        <v>0.002899999999999903</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3554,51 +3554,51 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.58</v>
+        <v>-0.67</v>
       </c>
       <c r="F63" t="n">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
       <c r="G63" t="n">
-        <v>0.97</v>
+        <v>0.09</v>
       </c>
       <c r="H63" t="n">
-        <v>0.797</v>
+        <v>0.588</v>
       </c>
       <c r="I63" t="n">
-        <v>0.788</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>0.795</v>
+        <v>0.572</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.001150000000000095</v>
+        <v>0.001950000000000007</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="E2" t="n">
-        <v>2.42</v>
+        <v>4.97</v>
       </c>
       <c r="F2" t="n">
-        <v>18.96</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>104.27</v>
       </c>
       <c r="H2" t="n">
-        <v>1.157</v>
+        <v>1.113</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1322</v>
+        <v>1.0589</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11</v>
+        <v>0.994</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005049999999999999</v>
+        <v>0.01815000000000011</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0109999999999999</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.92</v>
+        <v>4.18</v>
       </c>
       <c r="F3" t="n">
-        <v>11.96</v>
+        <v>53.33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>37.16</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9225</v>
+        <v>0.5335</v>
       </c>
       <c r="J3" t="n">
-        <v>0.922</v>
+        <v>0.511</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001949999999999896</v>
+        <v>0.006750000000000034</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00209999999999988</v>
+        <v>0.01079999999999992</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="E4" t="n">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.05</v>
+        <v>-2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>8.779999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="H4" t="n">
-        <v>1.022</v>
+        <v>1.303</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0094</v>
+        <v>1.265</v>
       </c>
       <c r="J4" t="n">
-        <v>1.015</v>
+        <v>1.251</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.003250000000000197</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004199999999999982</v>
+        <v>0.01100000000000012</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="F5" t="n">
-        <v>20.62</v>
+        <v>11.18</v>
       </c>
       <c r="G5" t="n">
-        <v>23.44</v>
+        <v>0.15</v>
       </c>
       <c r="H5" t="n">
-        <v>0.481</v>
+        <v>0.663</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4753</v>
+        <v>0.649</v>
       </c>
       <c r="J5" t="n">
-        <v>0.478</v>
+        <v>0.631</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001299999999999968</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002899999999999958</v>
+        <v>0.006700000000000039</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>1.21</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="F6" t="n">
-        <v>9.34</v>
+        <v>20.96</v>
       </c>
       <c r="G6" t="n">
-        <v>0.36</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>0.668</v>
+        <v>1.166</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6587000000000001</v>
+        <v>1.139</v>
       </c>
       <c r="J6" t="n">
-        <v>0.654</v>
+        <v>1.114</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.005449999999999955</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003399999999999959</v>
+        <v>0.009800000000000031</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,148 +758,148 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.223</v>
+        <v>0.593</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2151</v>
+        <v>0.5833</v>
       </c>
       <c r="J7" t="n">
-        <v>1.212</v>
+        <v>0.574</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002750000000000252</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003300000000000081</v>
+        <v>0.003700000000000037</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
       <c r="E8" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="F8" t="n">
-        <v>2.71</v>
+        <v>6.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.12</v>
+        <v>5.65</v>
       </c>
       <c r="H8" t="n">
-        <v>0.601</v>
+        <v>0.377</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6011</v>
+        <v>0.374</v>
       </c>
       <c r="J8" t="n">
-        <v>0.611</v>
+        <v>0.37</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001499999999999835</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0009999999999998899</v>
+        <v>0.001500000000000001</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="E9" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.1</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>7.48</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.899</v>
+        <v>0.825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8919</v>
+        <v>0.8134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.901</v>
+        <v>0.806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.003700000000000037</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E10" t="n">
         <v>1.15</v>
       </c>
-      <c r="E10" t="n">
-        <v>1.42</v>
-      </c>
       <c r="F10" t="n">
-        <v>20.53</v>
+        <v>13.25</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13</v>
+        <v>0.21</v>
       </c>
       <c r="H10" t="n">
-        <v>1.115</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1032</v>
+        <v>0.9253</v>
       </c>
       <c r="J10" t="n">
-        <v>1.103</v>
+        <v>0.924</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003349999999999964</v>
+        <v>0.00254999999999983</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004599999999999937</v>
+        <v>0.004199999999999982</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.04</v>
+        <v>7.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.04</v>
+        <v>26.47</v>
       </c>
       <c r="G11" t="n">
-        <v>17.82</v>
+        <v>29.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.011</v>
+        <v>7.468</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9921</v>
+        <v>7.4226</v>
       </c>
       <c r="J11" t="n">
-        <v>2.006</v>
+        <v>7.364</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002800000000000136</v>
+        <v>0.006199999999999761</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004599999999999937</v>
+        <v>0.007500000000000284</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="E12" t="n">
-        <v>1.23</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-13.34</v>
+        <v>2.75</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>4.53</v>
       </c>
       <c r="H12" t="n">
-        <v>0.648</v>
+        <v>0.334</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6468</v>
+        <v>0.3307</v>
       </c>
       <c r="J12" t="n">
-        <v>0.658</v>
+        <v>0.328</v>
       </c>
       <c r="K12" t="n">
-        <v>4.999999999999449e-05</v>
+        <v>0.0009500000000000064</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.001699999999999979</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="E13" t="n">
-        <v>1.16</v>
+        <v>0.41</v>
       </c>
       <c r="F13" t="n">
-        <v>6.43</v>
+        <v>8.27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="H13" t="n">
-        <v>1.374</v>
+        <v>1.479</v>
       </c>
       <c r="I13" t="n">
-        <v>1.3598</v>
+        <v>1.4821</v>
       </c>
       <c r="J13" t="n">
-        <v>1.357</v>
+        <v>1.469</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004300000000000193</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.73</v>
+        <v>1.66</v>
       </c>
       <c r="E14" t="n">
-        <v>1.11</v>
+        <v>0.36</v>
       </c>
       <c r="F14" t="n">
-        <v>9.76</v>
+        <v>11.99</v>
       </c>
       <c r="G14" t="n">
-        <v>0.83</v>
+        <v>4.71</v>
       </c>
       <c r="H14" t="n">
-        <v>0.714</v>
+        <v>1.644</v>
       </c>
       <c r="I14" t="n">
-        <v>0.702</v>
+        <v>1.6293</v>
       </c>
       <c r="J14" t="n">
-        <v>0.694</v>
+        <v>1.619</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00230000000000008</v>
+        <v>0.003899999999999793</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004600000000000048</v>
+        <v>0.006199999999999761</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,98 +1158,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="E15" t="n">
-        <v>1.09</v>
+        <v>0.33</v>
       </c>
       <c r="F15" t="n">
-        <v>7.49</v>
+        <v>8.18</v>
       </c>
       <c r="G15" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8101</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.001449999999999951</v>
-      </c>
+        <v>1.1687</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004200000000000093</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="E16" t="n">
-        <v>1.08</v>
+        <v>0.29</v>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>6.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="H16" t="n">
-        <v>1.2</v>
+        <v>1.379</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2023</v>
+        <v>1.3646</v>
       </c>
       <c r="J16" t="n">
-        <v>1.215</v>
+        <v>1.36</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0001499999999998725</v>
+        <v>0.003099999999999881</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,98 +1254,98 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="E17" t="n">
-        <v>0.96</v>
+        <v>0.26</v>
       </c>
       <c r="F17" t="n">
-        <v>1.71</v>
+        <v>4.63</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>0.95</v>
+        <v>1.171</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9488999999999999</v>
+        <v>1.1639</v>
       </c>
       <c r="J17" t="n">
-        <v>0.957</v>
+        <v>1.156</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>0.002349999999999852</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.000100000000000211</v>
+        <v>0.003299999999999859</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E18" t="n">
-        <v>0.91</v>
+        <v>0.24</v>
       </c>
       <c r="F18" t="n">
-        <v>-12.18</v>
+        <v>3.79</v>
       </c>
       <c r="G18" t="n">
-        <v>1.61</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.986</v>
+        <v>0.843</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9861000000000001</v>
+        <v>0.8360999999999998</v>
       </c>
       <c r="J18" t="n">
-        <v>0.988</v>
+        <v>0.833</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0009499999999998954</v>
+        <v>0.001299999999999968</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0002999999999998559</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1354,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="E19" t="n">
-        <v>0.86</v>
+        <v>0.22</v>
       </c>
       <c r="F19" t="n">
-        <v>0.73</v>
+        <v>-4.89</v>
       </c>
       <c r="G19" t="n">
-        <v>2.69</v>
+        <v>5.45</v>
       </c>
       <c r="H19" t="n">
-        <v>0.821</v>
+        <v>0.905</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8198000000000001</v>
+        <v>0.8942</v>
       </c>
       <c r="J19" t="n">
-        <v>0.822</v>
+        <v>0.901</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>-0.0002999999999997449</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000200000000000089</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1404,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6</v>
+        <v>1.01</v>
       </c>
       <c r="E20" t="n">
-        <v>0.84</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.15</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="H20" t="n">
-        <v>0.593</v>
+        <v>1.009</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5898</v>
+        <v>1.0031</v>
       </c>
       <c r="J20" t="n">
-        <v>0.593</v>
+        <v>1.006</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004499999999998394</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1454,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>0.49</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.45</v>
+        <v>1.23</v>
       </c>
       <c r="G21" t="n">
-        <v>44.22</v>
+        <v>0.26</v>
       </c>
       <c r="H21" t="n">
-        <v>3.98</v>
+        <v>0.489</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9681</v>
+        <v>0.4842</v>
       </c>
       <c r="J21" t="n">
-        <v>3.986</v>
+        <v>0.48</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002749999999999364</v>
+        <v>0.0008499999999999619</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001199999999999424</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1504,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
+        <v>11.08</v>
       </c>
       <c r="G22" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="H22" t="n">
-        <v>1.006</v>
+        <v>1.117</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0018</v>
+        <v>1.1083</v>
       </c>
       <c r="J22" t="n">
-        <v>1.006</v>
+        <v>1.119</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.001800000000000246</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.0008999999999999009</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1554,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="E23" t="n">
-        <v>0.74</v>
+        <v>0.18</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.91</v>
+        <v>3.61</v>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>0.44</v>
       </c>
       <c r="H23" t="n">
-        <v>1.353</v>
+        <v>1.083</v>
       </c>
       <c r="I23" t="n">
-        <v>1.3457</v>
+        <v>1.0756</v>
       </c>
       <c r="J23" t="n">
-        <v>1.353</v>
+        <v>1.074</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.999999999988347e-05</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002999999999999892</v>
+        <v>0.002500000000000169</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1604,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.74</v>
+        <v>0.18</v>
       </c>
       <c r="F24" t="n">
-        <v>3.42</v>
+        <v>2.63</v>
       </c>
       <c r="G24" t="n">
-        <v>0.61</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.08</v>
+        <v>1.139</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0736</v>
+        <v>1.1177</v>
       </c>
       <c r="J24" t="n">
-        <v>1.073</v>
+        <v>1.119</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00154999999999994</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00219999999999998</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1654,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.76</v>
+        <v>3.19</v>
       </c>
       <c r="E25" t="n">
-        <v>0.73</v>
+        <v>0.16</v>
       </c>
       <c r="F25" t="n">
-        <v>0.88</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>16.17</v>
+        <v>1.12</v>
       </c>
       <c r="H25" t="n">
-        <v>2.755</v>
+        <v>3.177</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7537</v>
+        <v>3.1488</v>
       </c>
       <c r="J25" t="n">
-        <v>2.769</v>
+        <v>3.145</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.001500000000000057</v>
+        <v>0.007700000000000262</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1704,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="E26" t="n">
-        <v>0.71</v>
+        <v>0.14</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.16</v>
+        <v>1.17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="H26" t="n">
-        <v>1.107</v>
+        <v>1.461</v>
       </c>
       <c r="I26" t="n">
-        <v>1.1008</v>
+        <v>1.4624</v>
       </c>
       <c r="J26" t="n">
-        <v>1.087</v>
+        <v>1.454</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004599999999999937</v>
+        <v>0.000600000000000378</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1754,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.19</v>
+        <v>2.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.66</v>
+        <v>0.1</v>
       </c>
       <c r="F27" t="n">
-        <v>1.62</v>
+        <v>-2.95</v>
       </c>
       <c r="G27" t="n">
-        <v>1.59</v>
+        <v>12.51</v>
       </c>
       <c r="H27" t="n">
-        <v>3.164</v>
+        <v>2.023</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1406</v>
+        <v>1.9978</v>
       </c>
       <c r="J27" t="n">
-        <v>3.144</v>
+        <v>2.006</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002450000000000063</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.008399999999999963</v>
+        <v>0.006299999999999972</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1804,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.61</v>
+        <v>0.08</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3</v>
+        <v>2.89</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0.988</v>
+        <v>1.227</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9772999999999999</v>
+        <v>1.2157</v>
       </c>
       <c r="J28" t="n">
-        <v>0.969</v>
+        <v>1.213</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002549999999999941</v>
+        <v>0.002450000000000285</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.003199999999999981</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,94 +1854,98 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.2</v>
+        <v>4.01</v>
       </c>
       <c r="E29" t="n">
-        <v>0.59</v>
+        <v>0.05</v>
       </c>
       <c r="F29" t="n">
-        <v>7.82</v>
+        <v>-0.4</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>27.59</v>
       </c>
       <c r="H29" t="n">
-        <v>1.18</v>
+        <v>3.99</v>
       </c>
       <c r="I29" t="n">
-        <v>1.1687</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>3.9719</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
       <c r="L29" t="b">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00529999999999986</v>
+        <v>0.004300000000000193</v>
       </c>
       <c r="N29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.85</v>
+        <v>124.22</v>
       </c>
       <c r="E30" t="n">
-        <v>0.59</v>
+        <v>0.04</v>
       </c>
       <c r="F30" t="n">
-        <v>3.55</v>
+        <v>1.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.64</v>
+        <v>59.11</v>
       </c>
       <c r="H30" t="n">
-        <v>0.841</v>
+        <v>123.537</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8343999999999999</v>
+        <v>123.1915</v>
       </c>
       <c r="J30" t="n">
-        <v>0.832</v>
+        <v>123.219</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001749999999999918</v>
+        <v>0.02089999999998327</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00209999999999988</v>
+        <v>0.09010000000000673</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1954,48 +1954,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.54</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.15</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0.08</v>
       </c>
       <c r="H31" t="n">
-        <v>1.53</v>
+        <v>0.595</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5247</v>
+        <v>0.5909</v>
       </c>
       <c r="J31" t="n">
-        <v>1.527</v>
+        <v>0.593</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00154999999999994</v>
+        <v>4.999999999988347e-05</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001299999999999857</v>
+        <v>0.001199999999999979</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2004,48 +2004,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.05</v>
+        <v>0.53</v>
       </c>
       <c r="E32" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.37</v>
+        <v>-5.49</v>
       </c>
       <c r="G32" t="n">
-        <v>2.13</v>
+        <v>0.43</v>
       </c>
       <c r="H32" t="n">
-        <v>2.028</v>
+        <v>0.535</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0174</v>
+        <v>0.5295</v>
       </c>
       <c r="J32" t="n">
-        <v>2.008</v>
+        <v>0.532</v>
       </c>
       <c r="K32" t="n">
-        <v>0.005399999999999849</v>
+        <v>-0.000500000000000056</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.006399999999999739</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2054,48 +2054,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="E33" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.85</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="H33" t="n">
-        <v>1.427</v>
+        <v>1.531</v>
       </c>
       <c r="I33" t="n">
-        <v>1.422</v>
+        <v>1.5258</v>
       </c>
       <c r="J33" t="n">
-        <v>1.427</v>
+        <v>1.528</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003500000000000725</v>
+        <v>0.001250000000000195</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.002199999999999758</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2104,48 +2104,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.99</v>
+        <v>2.76</v>
       </c>
       <c r="E34" t="n">
-        <v>0.41</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04</v>
+        <v>10.82</v>
       </c>
       <c r="H34" t="n">
-        <v>0.985</v>
+        <v>2.756</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9859</v>
+        <v>2.7529</v>
       </c>
       <c r="J34" t="n">
-        <v>0.984</v>
+        <v>2.769</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001699999999999924</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001600000000000046</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2154,48 +2154,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="E35" t="n">
-        <v>0.39</v>
+        <v>-0.09</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.11</v>
+        <v>1.21</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03</v>
+        <v>0.79</v>
       </c>
       <c r="H35" t="n">
-        <v>1.024</v>
+        <v>1.181</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0231</v>
+        <v>1.1617</v>
       </c>
       <c r="J35" t="n">
-        <v>1.023</v>
+        <v>1.166</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001400000000000068</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0008999999999999009</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2204,48 +2204,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E36" t="n">
-        <v>0.38</v>
+        <v>-0.1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.67</v>
+        <v>-7.14</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>5.59</v>
       </c>
       <c r="H36" t="n">
-        <v>1.049</v>
+        <v>1.028</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0439</v>
+        <v>1.0133</v>
       </c>
       <c r="J36" t="n">
-        <v>1.047</v>
+        <v>1.016</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0001500000000000945</v>
+        <v>0.0008499999999997954</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.002100000000000213</v>
+        <v>0.004399999999999737</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2254,48 +2254,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.58</v>
+        <v>0.86</v>
       </c>
       <c r="E37" t="n">
-        <v>0.38</v>
+        <v>-0.12</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.19</v>
+        <v>6.95</v>
       </c>
       <c r="G37" t="n">
-        <v>5.74</v>
+        <v>1.06</v>
       </c>
       <c r="H37" t="n">
-        <v>1.571</v>
+        <v>0.869</v>
       </c>
       <c r="I37" t="n">
-        <v>1.5661</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>1.556</v>
+        <v>0.882</v>
       </c>
       <c r="K37" t="n">
-        <v>0.004699999999999926</v>
+        <v>-0.003350000000000075</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.004599999999999937</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2304,48 +2304,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.66</v>
+        <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>0.36</v>
+        <v>-0.17</v>
       </c>
       <c r="F38" t="n">
-        <v>11.58</v>
+        <v>2.54</v>
       </c>
       <c r="G38" t="n">
-        <v>3.59</v>
+        <v>0.08</v>
       </c>
       <c r="H38" t="n">
-        <v>1.644</v>
+        <v>0.601</v>
       </c>
       <c r="I38" t="n">
-        <v>1.6248</v>
+        <v>0.5992999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>1.616</v>
+        <v>0.609</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004149999999999876</v>
+        <v>-0.001050000000000106</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.004999999999999893</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2354,98 +2354,98 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="E39" t="n">
-        <v>0.34</v>
+        <v>-0.2</v>
       </c>
       <c r="F39" t="n">
-        <v>4.36</v>
+        <v>-0.7</v>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>0.02</v>
       </c>
       <c r="H39" t="n">
-        <v>1.169</v>
+        <v>0.984</v>
       </c>
       <c r="I39" t="n">
-        <v>1.1607</v>
+        <v>0.9861000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>1.154</v>
+        <v>0.985</v>
       </c>
       <c r="K39" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.001249999999999751</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="N39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.43</v>
+        <v>0.85</v>
       </c>
       <c r="E40" t="n">
-        <v>0.31</v>
+        <v>-0.24</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3</v>
+        <v>-6.39</v>
       </c>
       <c r="G40" t="n">
-        <v>26.78</v>
+        <v>0.04</v>
       </c>
       <c r="H40" t="n">
-        <v>7.469</v>
+        <v>0.854</v>
       </c>
       <c r="I40" t="n">
-        <v>7.4181</v>
+        <v>0.8432000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>7.359</v>
+        <v>0.848</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.005049999999999777</v>
+        <v>-0.001300000000000079</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.002400000000001512</v>
+        <v>0.000300000000000078</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2454,48 +2454,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="E41" t="n">
-        <v>0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="F41" t="n">
-        <v>10.88</v>
+        <v>3.15</v>
       </c>
       <c r="G41" t="n">
         <v>0.41</v>
       </c>
       <c r="H41" t="n">
-        <v>1.111</v>
+        <v>1.203</v>
       </c>
       <c r="I41" t="n">
-        <v>1.107</v>
+        <v>1.2007</v>
       </c>
       <c r="J41" t="n">
-        <v>1.121</v>
+        <v>1.213</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0009000000000001229</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001100000000000101</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2504,48 +2504,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>124.18</v>
+        <v>2.04</v>
       </c>
       <c r="E42" t="n">
-        <v>0.26</v>
+        <v>-0.29</v>
       </c>
       <c r="F42" t="n">
-        <v>1.24</v>
+        <v>-5.64</v>
       </c>
       <c r="G42" t="n">
-        <v>48.94</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
-        <v>123.375</v>
+        <v>2.031</v>
       </c>
       <c r="I42" t="n">
-        <v>123.1391</v>
+        <v>2.0208</v>
       </c>
       <c r="J42" t="n">
-        <v>123.217</v>
+        <v>2.011</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.01125000000000398</v>
+        <v>0.003849999999999909</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.08760000000002321</v>
+        <v>0.004899999999999682</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2554,98 +2554,98 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="E43" t="n">
-        <v>0.26</v>
+        <v>-0.3</v>
       </c>
       <c r="F43" t="n">
-        <v>-2</v>
+        <v>-0.6</v>
       </c>
       <c r="G43" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="H43" t="n">
-        <v>1.169</v>
+        <v>0.986</v>
       </c>
       <c r="I43" t="n">
-        <v>1.1751</v>
+        <v>0.9795</v>
       </c>
       <c r="J43" t="n">
-        <v>1.178</v>
+        <v>0.971</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0002499999999998614</v>
+        <v>0.002049999999999996</v>
       </c>
       <c r="L43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>1.43</v>
       </c>
       <c r="E44" t="n">
-        <v>0.25</v>
+        <v>-0.35</v>
       </c>
       <c r="F44" t="n">
-        <v>1.66</v>
+        <v>-5.18</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H44" t="n">
-        <v>0.799</v>
+        <v>1.43</v>
       </c>
       <c r="I44" t="n">
-        <v>0.789</v>
+        <v>1.4236</v>
       </c>
       <c r="J44" t="n">
-        <v>0.795</v>
+        <v>1.427</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0006499999999998174</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.002700000000000036</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2654,48 +2654,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="E45" t="n">
-        <v>0.23</v>
+        <v>-0.38</v>
       </c>
       <c r="F45" t="n">
-        <v>7.07</v>
+        <v>1.28</v>
       </c>
       <c r="G45" t="n">
-        <v>1.43</v>
+        <v>0.47</v>
       </c>
       <c r="H45" t="n">
-        <v>0.865</v>
+        <v>0.803</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8669</v>
+        <v>0.7915</v>
       </c>
       <c r="J45" t="n">
-        <v>0.885</v>
+        <v>0.794</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.002049999999999996</v>
+        <v>-0.001800000000000135</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.001700000000000035</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2704,48 +2704,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.53</v>
+        <v>1.57</v>
       </c>
       <c r="E46" t="n">
-        <v>0.19</v>
+        <v>-0.38</v>
       </c>
       <c r="F46" t="n">
-        <v>-5.49</v>
+        <v>-3.56</v>
       </c>
       <c r="G46" t="n">
-        <v>0.36</v>
+        <v>5.2</v>
       </c>
       <c r="H46" t="n">
-        <v>0.532</v>
+        <v>1.571</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5281</v>
+        <v>1.5679</v>
       </c>
       <c r="J46" t="n">
-        <v>0.532</v>
+        <v>1.558</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0001000000000001</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.002700000000000147</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2754,39 +2754,39 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.57</v>
+        <v>1.03</v>
       </c>
       <c r="E47" t="n">
-        <v>0.18</v>
+        <v>-0.39</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.47</v>
+        <v>-1.72</v>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>15.91</v>
       </c>
       <c r="H47" t="n">
-        <v>0.576</v>
+        <v>1.044</v>
       </c>
       <c r="I47" t="n">
-        <v>0.58</v>
+        <v>1.0376</v>
       </c>
       <c r="J47" t="n">
-        <v>0.589</v>
+        <v>1.042</v>
       </c>
       <c r="K47" t="n">
         <v>-0.001649999999999929</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.001699999999999924</v>
+        <v>-0.000500000000000167</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2804,48 +2804,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="E48" t="n">
-        <v>0.14</v>
+        <v>-0.39</v>
       </c>
       <c r="F48" t="n">
-        <v>1.03</v>
+        <v>-3.49</v>
       </c>
       <c r="G48" t="n">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="H48" t="n">
-        <v>1.46</v>
+        <v>1.023</v>
       </c>
       <c r="I48" t="n">
-        <v>1.4622</v>
+        <v>1.0223</v>
       </c>
       <c r="J48" t="n">
-        <v>1.453</v>
+        <v>1.023</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.000600000000000156</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0.002799999999999914</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2854,48 +2854,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-0.41</v>
       </c>
       <c r="F49" t="n">
-        <v>-6.17</v>
+        <v>9.31</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="H49" t="n">
-        <v>0.848</v>
+        <v>0.714</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8417999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="J49" t="n">
-        <v>0.849</v>
+        <v>0.694</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0003499999999999615</v>
+        <v>0.00230000000000008</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.004600000000000048</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2904,48 +2904,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.49</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="F50" t="n">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="H50" t="n">
-        <v>0.488</v>
+        <v>0.951</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4824</v>
+        <v>0.9484</v>
       </c>
       <c r="J50" t="n">
-        <v>0.479</v>
+        <v>0.956</v>
       </c>
       <c r="K50" t="n">
-        <v>0.001149999999999984</v>
+        <v>-0.001849999999999907</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.001500000000000057</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2954,48 +2954,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="F51" t="n">
-        <v>2.14</v>
+        <v>-13.74</v>
       </c>
       <c r="G51" t="n">
-        <v>4.92</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.332</v>
+        <v>0.649</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3285</v>
+        <v>0.6461</v>
       </c>
       <c r="J51" t="n">
-        <v>0.326</v>
+        <v>0.656</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0005000000000000004</v>
+        <v>-0.001350000000000073</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0004000000000000115</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3004,48 +3004,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="F52" t="n">
-        <v>1.29</v>
+        <v>-2.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="H52" t="n">
-        <v>1.171</v>
+        <v>1.17</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1575</v>
+        <v>1.1739</v>
       </c>
       <c r="J52" t="n">
-        <v>1.166</v>
+        <v>1.178</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.000000000010552e-05</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.003200000000000092</v>
+        <v>-0.001400000000000068</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3054,48 +3054,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.09</v>
+        <v>-0.59</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.16</v>
+        <v>-7.46</v>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>0.99</v>
       </c>
       <c r="H53" t="n">
-        <v>1.122</v>
+        <v>1.355</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1165</v>
+        <v>1.3474</v>
       </c>
       <c r="J53" t="n">
-        <v>1.129</v>
+        <v>1.352</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.002299999999999969</v>
+        <v>-0.001000000000000112</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.000600000000000156</v>
+        <v>0.001799999999999802</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3104,48 +3104,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E54" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.1</v>
       </c>
-      <c r="F54" t="n">
-        <v>-1.34</v>
-      </c>
       <c r="G54" t="n">
-        <v>20.81</v>
+        <v>2.81</v>
       </c>
       <c r="H54" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I54" t="n">
-        <v>1.0358</v>
+        <v>1.0452</v>
       </c>
       <c r="J54" t="n">
-        <v>1.042</v>
+        <v>1.045</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.001299999999999857</v>
+        <v>-0.002799999999999914</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3154,48 +3154,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.3</v>
+        <v>-12.89</v>
       </c>
       <c r="G55" t="n">
-        <v>6.34</v>
+        <v>1.07</v>
       </c>
       <c r="H55" t="n">
-        <v>1.015</v>
+        <v>0.988</v>
       </c>
       <c r="I55" t="n">
-        <v>1.0083</v>
+        <v>0.9863</v>
       </c>
       <c r="J55" t="n">
-        <v>1.019</v>
+        <v>0.989</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.001649999999999929</v>
+        <v>0.0008500000000000174</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0005999999999999339</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3204,48 +3204,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.15</v>
+        <v>-0.89</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.18</v>
+        <v>-1.19</v>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>8.98</v>
       </c>
       <c r="H56" t="n">
-        <v>1.279</v>
+        <v>1.018</v>
       </c>
       <c r="I56" t="n">
-        <v>1.2522</v>
+        <v>1.0089</v>
       </c>
       <c r="J56" t="n">
-        <v>1.247</v>
+        <v>1.017</v>
       </c>
       <c r="K56" t="n">
-        <v>0.003699999999999815</v>
+        <v>-0.002499999999999947</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01000000000000001</v>
+        <v>-0.001299999999999857</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3254,48 +3254,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.17</v>
+        <v>-0.9</v>
       </c>
       <c r="F57" t="n">
-        <v>61.1</v>
+        <v>-2.04</v>
       </c>
       <c r="G57" t="n">
-        <v>67.52</v>
+        <v>1.66</v>
       </c>
       <c r="H57" t="n">
-        <v>1.081</v>
+        <v>1.126</v>
       </c>
       <c r="I57" t="n">
-        <v>1.0348</v>
+        <v>1.1171</v>
       </c>
       <c r="J57" t="n">
-        <v>0.977</v>
+        <v>1.127</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01324999999999998</v>
+        <v>-0.003099999999999881</v>
       </c>
       <c r="L57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01970000000000027</v>
+        <v>-0.002099999999999991</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3304,48 +3304,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2</v>
+        <v>-0.97</v>
       </c>
       <c r="F58" t="n">
-        <v>7.83</v>
+        <v>-3.11</v>
       </c>
       <c r="G58" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="H58" t="n">
-        <v>1.479</v>
+        <v>1.111</v>
       </c>
       <c r="I58" t="n">
-        <v>1.4809</v>
+        <v>1.1031</v>
       </c>
       <c r="J58" t="n">
-        <v>1.467</v>
+        <v>1.091</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0006499999999998174</v>
+        <v>0.003899999999999793</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.000500000000000167</v>
+        <v>0.003099999999999881</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3354,98 +3354,98 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.26</v>
+        <v>-1.03</v>
       </c>
       <c r="F59" t="n">
-        <v>4.71</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>4.03</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0.377</v>
+        <v>0.666</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3727</v>
+        <v>0.6596</v>
       </c>
       <c r="J59" t="n">
-        <v>0.369</v>
+        <v>0.655</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001099999999999934</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0009999999999999454</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.52</v>
+        <v>-1.09</v>
       </c>
       <c r="F60" t="n">
-        <v>47.18</v>
+        <v>-0.37</v>
       </c>
       <c r="G60" t="n">
-        <v>20.85</v>
+        <v>2.31</v>
       </c>
       <c r="H60" t="n">
-        <v>0.54</v>
+        <v>0.819</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5235000000000001</v>
+        <v>0.8195</v>
       </c>
       <c r="J60" t="n">
-        <v>0.504</v>
+        <v>0.821</v>
       </c>
       <c r="K60" t="n">
-        <v>0.004599999999999993</v>
+        <v>-0.0006500000000001505</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.007000000000000117</v>
+        <v>-0.0005999999999998229</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3454,48 +3454,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1.13</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.53</v>
+        <v>-1.14</v>
       </c>
       <c r="F61" t="n">
-        <v>2.45</v>
+        <v>19.16</v>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>3.14</v>
       </c>
       <c r="H61" t="n">
-        <v>1.126</v>
+        <v>1.118</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1119</v>
+        <v>1.1052</v>
       </c>
       <c r="J61" t="n">
-        <v>1.12</v>
+        <v>1.104</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0006500000000002615</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.004599999999999937</v>
+        <v>0.004199999999999759</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3504,48 +3504,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6</v>
+        <v>-1.39</v>
       </c>
       <c r="F62" t="n">
-        <v>9.210000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="G62" t="n">
-        <v>0.15</v>
+        <v>19.61</v>
       </c>
       <c r="H62" t="n">
-        <v>0.656</v>
+        <v>0.487</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6415</v>
+        <v>0.4785</v>
       </c>
       <c r="J62" t="n">
-        <v>0.626</v>
+        <v>0.478</v>
       </c>
       <c r="K62" t="n">
-        <v>0.002899999999999903</v>
+        <v>0.0008000000000000229</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.004000000000000004</v>
+        <v>0.003400000000000014</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3554,51 +3554,51 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.67</v>
+        <v>-1.75</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17</v>
+        <v>-9.09</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09</v>
+        <v>8.76</v>
       </c>
       <c r="H63" t="n">
-        <v>0.588</v>
+        <v>0.573</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5782</v>
       </c>
       <c r="J63" t="n">
-        <v>0.572</v>
+        <v>0.587</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001950000000000007</v>
+        <v>-0.002249999999999974</v>
       </c>
       <c r="L63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.00219999999999998</v>
+        <v>-0.002199999999999869</v>
       </c>
       <c r="N63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="E2" t="n">
-        <v>4.97</v>
+        <v>1.44</v>
       </c>
       <c r="F2" t="n">
-        <v>69.09999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="G2" t="n">
-        <v>104.27</v>
+        <v>7.88</v>
       </c>
       <c r="H2" t="n">
-        <v>1.113</v>
+        <v>1.053</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0589</v>
+        <v>1.0482</v>
       </c>
       <c r="J2" t="n">
-        <v>0.994</v>
+        <v>1.045</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01815000000000011</v>
+        <v>-0.0001499999999998725</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02800000000000002</v>
+        <v>0.002500000000000169</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>7.59</v>
       </c>
       <c r="E3" t="n">
-        <v>4.18</v>
+        <v>1.21</v>
       </c>
       <c r="F3" t="n">
-        <v>53.33</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>37.16</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.554</v>
+        <v>7.472</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5335</v>
+        <v>7.4355</v>
       </c>
       <c r="J3" t="n">
-        <v>0.511</v>
+        <v>7.372</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006750000000000034</v>
+        <v>0.01290000000000013</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01079999999999992</v>
+        <v>0.0224000000000002</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="E4" t="n">
-        <v>2.07</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.2</v>
+        <v>3.46</v>
       </c>
       <c r="G4" t="n">
-        <v>2.59</v>
+        <v>0.04</v>
       </c>
       <c r="H4" t="n">
-        <v>1.303</v>
+        <v>1.228</v>
       </c>
       <c r="I4" t="n">
-        <v>1.265</v>
+        <v>1.2184</v>
       </c>
       <c r="J4" t="n">
-        <v>1.251</v>
+        <v>1.215</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003250000000000197</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01100000000000012</v>
+        <v>0.005100000000000104</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>1.17</v>
       </c>
       <c r="E5" t="n">
-        <v>1.81</v>
+        <v>0.51</v>
       </c>
       <c r="F5" t="n">
-        <v>11.18</v>
+        <v>-2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>0.62</v>
       </c>
       <c r="H5" t="n">
-        <v>0.663</v>
+        <v>1.17</v>
       </c>
       <c r="I5" t="n">
-        <v>0.649</v>
+        <v>1.1728</v>
       </c>
       <c r="J5" t="n">
-        <v>0.631</v>
+        <v>1.178</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004000000000000004</v>
+        <v>-0.0002500000000003055</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006700000000000039</v>
+        <v>-0.001199999999999868</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.21</v>
+        <v>0.99</v>
       </c>
       <c r="E6" t="n">
-        <v>1.69</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
-        <v>20.96</v>
+        <v>-0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>1.166</v>
+        <v>0.984</v>
       </c>
       <c r="I6" t="n">
-        <v>1.139</v>
+        <v>0.9863</v>
       </c>
       <c r="J6" t="n">
-        <v>1.114</v>
+        <v>0.985</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005449999999999955</v>
+        <v>0.0007499999999999174</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009800000000000031</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,198 +758,196 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>1.52</v>
+        <v>0.17</v>
       </c>
       <c r="F7" t="n">
-        <v>1.69</v>
+        <v>-0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5915999999999999</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.593</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.574</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.002299999999999969</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003700000000000037</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.38</v>
+        <v>1.43</v>
       </c>
       <c r="E8" t="n">
-        <v>1.32</v>
+        <v>0.14</v>
       </c>
       <c r="F8" t="n">
-        <v>6.09</v>
+        <v>-5.05</v>
       </c>
       <c r="G8" t="n">
-        <v>5.65</v>
+        <v>0.19</v>
       </c>
       <c r="H8" t="n">
-        <v>0.377</v>
+        <v>1.431</v>
       </c>
       <c r="I8" t="n">
-        <v>0.374</v>
+        <v>1.425</v>
       </c>
       <c r="J8" t="n">
-        <v>0.37</v>
+        <v>1.427</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001149999999999984</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001500000000000001</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="n">
-        <v>8.789999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="G9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.1757</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8134</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.00154999999999994</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0.003700000000000037</v>
+        <v>0.004899999999999904</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.97</v>
+        <v>124.24</v>
       </c>
       <c r="E10" t="n">
-        <v>1.15</v>
+        <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>13.25</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.21</v>
+        <v>58.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9389999999999999</v>
+        <v>123.669</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9253</v>
+        <v>123.2838</v>
       </c>
       <c r="J10" t="n">
-        <v>0.924</v>
+        <v>123.246</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00254999999999983</v>
+        <v>0.04565000000000907</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004199999999999982</v>
+        <v>0.128399999999985</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +956,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7.5</v>
+        <v>0.97</v>
       </c>
       <c r="E11" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>26.47</v>
+        <v>13.25</v>
       </c>
       <c r="G11" t="n">
-        <v>29.2</v>
+        <v>0.21</v>
       </c>
       <c r="H11" t="n">
-        <v>7.468</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4226</v>
+        <v>0.9280000000000002</v>
       </c>
       <c r="J11" t="n">
-        <v>7.364</v>
+        <v>0.925</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006199999999999761</v>
+        <v>0.002449999999999952</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007500000000000284</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1006,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.34</v>
+        <v>0.98</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="F12" t="n">
-        <v>2.75</v>
+        <v>-13.06</v>
       </c>
       <c r="G12" t="n">
-        <v>4.53</v>
+        <v>1.13</v>
       </c>
       <c r="H12" t="n">
-        <v>0.334</v>
+        <v>0.985</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3307</v>
+        <v>0.9859</v>
       </c>
       <c r="J12" t="n">
-        <v>0.328</v>
+        <v>0.989</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0009500000000000064</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001699999999999979</v>
+        <v>0</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1056,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.41</v>
+        <v>-0.27</v>
       </c>
       <c r="F13" t="n">
-        <v>8.27</v>
+        <v>-2.31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.15</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
-        <v>1.479</v>
+        <v>1.125</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4821</v>
+        <v>1.1176</v>
       </c>
       <c r="J13" t="n">
-        <v>1.469</v>
+        <v>1.125</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001500000000000057</v>
+        <v>-0.002799999999999914</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000199999999999978</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1106,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
       <c r="E14" t="n">
-        <v>0.36</v>
+        <v>-0.29</v>
       </c>
       <c r="F14" t="n">
-        <v>11.99</v>
+        <v>-3.77</v>
       </c>
       <c r="G14" t="n">
-        <v>4.71</v>
+        <v>0.02</v>
       </c>
       <c r="H14" t="n">
-        <v>1.644</v>
+        <v>1.022</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6293</v>
+        <v>1.0229</v>
       </c>
       <c r="J14" t="n">
-        <v>1.619</v>
+        <v>1.024</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003899999999999793</v>
+        <v>0.0002500000000000835</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006199999999999761</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,94 +1156,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="E15" t="n">
-        <v>0.33</v>
+        <v>-0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>8.18</v>
+        <v>-1.59</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>8.17</v>
       </c>
       <c r="H15" t="n">
-        <v>1.18</v>
+        <v>1.016</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1687</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1.0089</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.002650000000000041</v>
+      </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00529999999999986</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.29</v>
+        <v>-0.49</v>
       </c>
       <c r="F16" t="n">
-        <v>6.73</v>
+        <v>-2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.28</v>
+        <v>23.13</v>
       </c>
       <c r="H16" t="n">
-        <v>1.379</v>
+        <v>1.041</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3646</v>
+        <v>1.037</v>
       </c>
       <c r="J16" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003099999999999881</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006000000000000005</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1254,98 +1256,98 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.18</v>
+        <v>2.75</v>
       </c>
       <c r="E17" t="n">
-        <v>0.26</v>
+        <v>-0.51</v>
       </c>
       <c r="F17" t="n">
-        <v>4.63</v>
+        <v>0.29</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>17.88</v>
       </c>
       <c r="H17" t="n">
-        <v>1.171</v>
+        <v>2.752</v>
       </c>
       <c r="I17" t="n">
-        <v>1.1639</v>
+        <v>2.7511</v>
       </c>
       <c r="J17" t="n">
-        <v>1.156</v>
+        <v>2.767</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002349999999999852</v>
+        <v>-0.0009500000000000064</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003299999999999859</v>
+        <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.85</v>
+        <v>1.53</v>
       </c>
       <c r="E18" t="n">
-        <v>0.24</v>
+        <v>-0.52</v>
       </c>
       <c r="F18" t="n">
-        <v>3.79</v>
+        <v>-1.21</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="H18" t="n">
-        <v>0.843</v>
+        <v>1.528</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8360999999999998</v>
+        <v>1.5263</v>
       </c>
       <c r="J18" t="n">
-        <v>0.833</v>
+        <v>1.527</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001299999999999968</v>
+        <v>0.0002500000000003055</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1354,48 +1356,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
       <c r="E19" t="n">
-        <v>0.22</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.89</v>
+        <v>-6.02</v>
       </c>
       <c r="G19" t="n">
-        <v>5.45</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="n">
-        <v>0.905</v>
+        <v>0.535</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8942</v>
+        <v>0.5307999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.901</v>
+        <v>0.532</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0002999999999997449</v>
+        <v>-0.0005499999999999394</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00219999999999998</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1404,48 +1406,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>-0.59</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3</v>
+        <v>-6.95</v>
       </c>
       <c r="G20" t="n">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="H20" t="n">
-        <v>1.009</v>
+        <v>0.854</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0031</v>
+        <v>0.8440999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.006</v>
+        <v>0.847</v>
       </c>
       <c r="K20" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>-0.00130000000000019</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1454,98 +1456,98 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.49</v>
+        <v>1.17</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F21" t="n">
-        <v>1.23</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.26</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.489</v>
+        <v>1.168</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4842</v>
+        <v>1.1649</v>
       </c>
       <c r="J21" t="n">
-        <v>0.48</v>
+        <v>1.157</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0008499999999999619</v>
+        <v>0.001299999999999857</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.002099999999999769</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="E22" t="n">
-        <v>0.18</v>
+        <v>-0.63</v>
       </c>
       <c r="F22" t="n">
-        <v>11.08</v>
+        <v>-3.72</v>
       </c>
       <c r="G22" t="n">
-        <v>0.35</v>
+        <v>0.83</v>
       </c>
       <c r="H22" t="n">
-        <v>1.117</v>
+        <v>1.112</v>
       </c>
       <c r="I22" t="n">
-        <v>1.1083</v>
+        <v>1.1049</v>
       </c>
       <c r="J22" t="n">
-        <v>1.119</v>
+        <v>1.093</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001800000000000246</v>
+        <v>0.002050000000000107</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0008999999999999009</v>
+        <v>0.001499999999999835</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1554,48 +1556,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.09</v>
+        <v>3.98</v>
       </c>
       <c r="E23" t="n">
-        <v>0.18</v>
+        <v>-0.65</v>
       </c>
       <c r="F23" t="n">
-        <v>3.61</v>
+        <v>-1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.44</v>
+        <v>27.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.083</v>
+        <v>3.983</v>
       </c>
       <c r="I23" t="n">
-        <v>1.0756</v>
+        <v>3.9715</v>
       </c>
       <c r="J23" t="n">
-        <v>1.074</v>
+        <v>3.984</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001000000000000112</v>
+        <v>-0.0006999999999997009</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002500000000000169</v>
+        <v>0.003399999999999626</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1604,48 +1606,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.13</v>
+        <v>0.72</v>
       </c>
       <c r="E24" t="n">
-        <v>0.18</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>2.63</v>
+        <v>8.56</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>0.48</v>
       </c>
       <c r="H24" t="n">
-        <v>1.139</v>
+        <v>0.716</v>
       </c>
       <c r="I24" t="n">
-        <v>1.1177</v>
+        <v>0.708</v>
       </c>
       <c r="J24" t="n">
-        <v>1.119</v>
+        <v>0.698</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.001599999999999824</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002799999999999914</v>
+        <v>0.003099999999999992</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1654,48 +1656,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.19</v>
+        <v>0.84</v>
       </c>
       <c r="E25" t="n">
-        <v>0.16</v>
+        <v>-0.71</v>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>3.06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="H25" t="n">
-        <v>3.177</v>
+        <v>0.841</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1488</v>
+        <v>0.8368</v>
       </c>
       <c r="J25" t="n">
-        <v>3.145</v>
+        <v>0.833</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007700000000000262</v>
+        <v>0.001599999999999935</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1704,48 +1706,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.14</v>
+        <v>-0.73</v>
       </c>
       <c r="F26" t="n">
-        <v>1.17</v>
+        <v>2.85</v>
       </c>
       <c r="G26" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="H26" t="n">
-        <v>1.461</v>
+        <v>1.081</v>
       </c>
       <c r="I26" t="n">
-        <v>1.4624</v>
+        <v>1.0763</v>
       </c>
       <c r="J26" t="n">
-        <v>1.454</v>
+        <v>1.074</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000600000000000378</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1754,48 +1756,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.04</v>
+        <v>1.46</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1</v>
+        <v>-0.75</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.95</v>
+        <v>0.41</v>
       </c>
       <c r="G27" t="n">
-        <v>12.51</v>
+        <v>0.53</v>
       </c>
       <c r="H27" t="n">
-        <v>2.023</v>
+        <v>1.461</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9978</v>
+        <v>1.4613</v>
       </c>
       <c r="J27" t="n">
-        <v>2.006</v>
+        <v>1.455</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001500000000000945</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.006299999999999972</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1804,48 +1806,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08</v>
+        <v>-0.78</v>
       </c>
       <c r="F28" t="n">
-        <v>2.89</v>
+        <v>11.11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07000000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="H28" t="n">
-        <v>1.227</v>
+        <v>1.643</v>
       </c>
       <c r="I28" t="n">
-        <v>1.2157</v>
+        <v>1.6327</v>
       </c>
       <c r="J28" t="n">
-        <v>1.213</v>
+        <v>1.621</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002450000000000285</v>
+        <v>0.002249999999999863</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1854,48 +1856,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.01</v>
+        <v>1.01</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05</v>
+        <v>-0.79</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4</v>
+        <v>-0.49</v>
       </c>
       <c r="G29" t="n">
-        <v>27.59</v>
+        <v>0.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.99</v>
+        <v>1.009</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9719</v>
+        <v>1.0041</v>
       </c>
       <c r="J29" t="n">
-        <v>3.987</v>
+        <v>1.006</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0009999999999994458</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.004300000000000193</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1904,48 +1906,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>124.22</v>
+        <v>1.38</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04</v>
+        <v>-0.79</v>
       </c>
       <c r="F30" t="n">
-        <v>1.28</v>
+        <v>5.89</v>
       </c>
       <c r="G30" t="n">
-        <v>59.11</v>
+        <v>0.19</v>
       </c>
       <c r="H30" t="n">
-        <v>123.537</v>
+        <v>1.376</v>
       </c>
       <c r="I30" t="n">
-        <v>123.1915</v>
+        <v>1.3656</v>
       </c>
       <c r="J30" t="n">
-        <v>123.219</v>
+        <v>1.36</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02089999999998327</v>
+        <v>0.001649999999999707</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09010000000000673</v>
+        <v>0.003500000000000281</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1954,48 +1956,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>1.47</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.15</v>
+        <v>7.39</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="H31" t="n">
-        <v>0.595</v>
+        <v>1.475</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5909</v>
+        <v>1.4802</v>
       </c>
       <c r="J31" t="n">
-        <v>0.593</v>
+        <v>1.47</v>
       </c>
       <c r="K31" t="n">
-        <v>4.999999999988347e-05</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001199999999999979</v>
+        <v>-0.001600000000000046</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2004,48 +2006,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.53</v>
+        <v>3.17</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.49</v>
+        <v>0.96</v>
       </c>
       <c r="G32" t="n">
-        <v>0.43</v>
+        <v>1.94</v>
       </c>
       <c r="H32" t="n">
-        <v>0.535</v>
+        <v>3.176</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5295</v>
+        <v>3.1533</v>
       </c>
       <c r="J32" t="n">
-        <v>0.532</v>
+        <v>3.144</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.000500000000000056</v>
+        <v>4.999999999988347e-05</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.006600000000000161</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2054,48 +2056,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6899999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>1.16</v>
+        <v>0.34</v>
       </c>
       <c r="H33" t="n">
-        <v>1.531</v>
+        <v>1.202</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5258</v>
+        <v>1.1996</v>
       </c>
       <c r="J33" t="n">
-        <v>1.528</v>
+        <v>1.211</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001250000000000195</v>
+        <v>-0.001650000000000151</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.002199999999999758</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2104,48 +2106,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.83</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8</v>
+        <v>-6.43</v>
       </c>
       <c r="G34" t="n">
-        <v>10.82</v>
+        <v>4.49</v>
       </c>
       <c r="H34" t="n">
-        <v>2.756</v>
+        <v>2.028</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7529</v>
+        <v>2.0227</v>
       </c>
       <c r="J34" t="n">
-        <v>2.769</v>
+        <v>2.013</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.002150000000000318</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2154,48 +2156,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.09</v>
+        <v>-0.88</v>
       </c>
       <c r="F35" t="n">
-        <v>1.21</v>
+        <v>-5.72</v>
       </c>
       <c r="G35" t="n">
-        <v>0.79</v>
+        <v>5.84</v>
       </c>
       <c r="H35" t="n">
-        <v>1.181</v>
+        <v>0.906</v>
       </c>
       <c r="I35" t="n">
-        <v>1.1617</v>
+        <v>0.8956</v>
       </c>
       <c r="J35" t="n">
-        <v>1.166</v>
+        <v>0.9</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>-0.000200000000000089</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.002799999999999914</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2204,48 +2206,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="F36" t="n">
-        <v>-7.14</v>
+        <v>-3.08</v>
       </c>
       <c r="G36" t="n">
-        <v>5.59</v>
+        <v>1.79</v>
       </c>
       <c r="H36" t="n">
-        <v>1.028</v>
+        <v>1.312</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0133</v>
+        <v>1.2748</v>
       </c>
       <c r="J36" t="n">
-        <v>1.016</v>
+        <v>1.253</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0008499999999997954</v>
+        <v>0.003149999999999986</v>
       </c>
       <c r="L36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>0.004399999999999737</v>
+        <v>0.01190000000000024</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2254,48 +2256,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.86</v>
+        <v>2.02</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.12</v>
+        <v>-0.98</v>
       </c>
       <c r="F37" t="n">
-        <v>6.95</v>
+        <v>-3.9</v>
       </c>
       <c r="G37" t="n">
-        <v>1.06</v>
+        <v>14.8</v>
       </c>
       <c r="H37" t="n">
-        <v>0.869</v>
+        <v>2.021</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8663999999999999</v>
+        <v>2.0003</v>
       </c>
       <c r="J37" t="n">
-        <v>0.882</v>
+        <v>2.004</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.003350000000000075</v>
+        <v>-0.000500000000000167</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.002000000000000002</v>
+        <v>0.005300000000000304</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2304,48 +2306,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.17</v>
+        <v>-1.04</v>
       </c>
       <c r="F38" t="n">
-        <v>2.54</v>
+        <v>7.09</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="H38" t="n">
-        <v>0.601</v>
+        <v>0.665</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5992999999999999</v>
+        <v>0.6612</v>
       </c>
       <c r="J38" t="n">
-        <v>0.609</v>
+        <v>0.656</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.001050000000000106</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2354,48 +2356,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2</v>
+        <v>-1.06</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.7</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02</v>
+        <v>6.18</v>
       </c>
       <c r="H39" t="n">
-        <v>0.984</v>
+        <v>1.027</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9861000000000001</v>
+        <v>1.015</v>
       </c>
       <c r="J39" t="n">
-        <v>0.985</v>
+        <v>1.016</v>
       </c>
       <c r="K39" t="n">
-        <v>0.001249999999999751</v>
+        <v>0.0007500000000002505</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0009000000000000119</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2404,48 +2406,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.85</v>
+        <v>1.55</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.24</v>
+        <v>-1.08</v>
       </c>
       <c r="F40" t="n">
-        <v>-6.39</v>
+        <v>-4.6</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.854</v>
+        <v>1.566</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8432000000000001</v>
+        <v>1.568</v>
       </c>
       <c r="J40" t="n">
-        <v>0.848</v>
+        <v>1.56</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.001300000000000079</v>
+        <v>0.00140000000000029</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.000300000000000078</v>
+        <v>0</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2454,48 +2456,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.25</v>
+        <v>-1.28</v>
       </c>
       <c r="F41" t="n">
-        <v>3.15</v>
+        <v>-0.09</v>
       </c>
       <c r="G41" t="n">
-        <v>0.41</v>
+        <v>0.84</v>
       </c>
       <c r="H41" t="n">
-        <v>1.203</v>
+        <v>1.181</v>
       </c>
       <c r="I41" t="n">
-        <v>1.2007</v>
+        <v>1.1638</v>
       </c>
       <c r="J41" t="n">
-        <v>1.213</v>
+        <v>1.164</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0009000000000001229</v>
+        <v>-0.001449999999999951</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.000300000000000189</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2504,48 +2506,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.04</v>
+        <v>0.6</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.29</v>
+        <v>-1.32</v>
       </c>
       <c r="F42" t="n">
-        <v>-5.64</v>
+        <v>1.19</v>
       </c>
       <c r="G42" t="n">
-        <v>2.24</v>
+        <v>0.09</v>
       </c>
       <c r="H42" t="n">
-        <v>2.031</v>
+        <v>0.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2.0208</v>
+        <v>0.5986</v>
       </c>
       <c r="J42" t="n">
-        <v>2.011</v>
+        <v>0.608</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003849999999999909</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.004899999999999682</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2554,98 +2556,98 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.3</v>
+        <v>-1.39</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6</v>
+        <v>-0.13</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="H43" t="n">
-        <v>0.986</v>
+        <v>0.801</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9795</v>
+        <v>0.7925000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>0.971</v>
+        <v>0.793</v>
       </c>
       <c r="K43" t="n">
-        <v>0.002049999999999996</v>
+        <v>-0.001900000000000124</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.35</v>
+        <v>-1.42</v>
       </c>
       <c r="F44" t="n">
-        <v>-5.18</v>
+        <v>9.5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
       <c r="H44" t="n">
-        <v>1.43</v>
+        <v>1.118</v>
       </c>
       <c r="I44" t="n">
-        <v>1.4236</v>
+        <v>1.1093</v>
       </c>
       <c r="J44" t="n">
-        <v>1.427</v>
+        <v>1.117</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>-0.001800000000000246</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2654,48 +2656,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.38</v>
+        <v>-1.49</v>
       </c>
       <c r="F45" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="G45" t="n">
-        <v>0.47</v>
+        <v>5.94</v>
       </c>
       <c r="H45" t="n">
-        <v>0.803</v>
+        <v>0.332</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7915</v>
+        <v>0.3307</v>
       </c>
       <c r="J45" t="n">
-        <v>0.794</v>
+        <v>0.327</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.001800000000000135</v>
+        <v>0.0002000000000000335</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2704,48 +2706,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.57</v>
+        <v>0.85</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.38</v>
+        <v>-1.51</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.56</v>
+        <v>5.33</v>
       </c>
       <c r="G46" t="n">
-        <v>5.2</v>
+        <v>1.53</v>
       </c>
       <c r="H46" t="n">
-        <v>1.571</v>
+        <v>0.866</v>
       </c>
       <c r="I46" t="n">
-        <v>1.5679</v>
+        <v>0.865</v>
       </c>
       <c r="J46" t="n">
-        <v>1.558</v>
+        <v>0.879</v>
       </c>
       <c r="K46" t="n">
-        <v>0.002699999999999925</v>
+        <v>-0.003399999999999848</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.002700000000000147</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2754,48 +2756,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.03</v>
+        <v>0.64</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.39</v>
+        <v>-1.53</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.72</v>
+        <v>-15.06</v>
       </c>
       <c r="G47" t="n">
-        <v>15.91</v>
+        <v>2.13</v>
       </c>
       <c r="H47" t="n">
-        <v>1.044</v>
+        <v>0.648</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0376</v>
+        <v>0.6452</v>
       </c>
       <c r="J47" t="n">
-        <v>1.042</v>
+        <v>0.654</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.001649999999999929</v>
+        <v>-0.002349999999999963</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.000500000000000167</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2804,48 +2806,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.39</v>
+        <v>-1.55</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.49</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06</v>
+        <v>1.34</v>
       </c>
       <c r="H48" t="n">
-        <v>1.023</v>
+        <v>1.35</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0223</v>
+        <v>1.3467</v>
       </c>
       <c r="J48" t="n">
-        <v>1.023</v>
+        <v>1.35</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000600000000000156</v>
+        <v>-0.00175000000000014</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2854,98 +2856,98 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.41</v>
+        <v>-1.57</v>
       </c>
       <c r="F49" t="n">
-        <v>9.31</v>
+        <v>4.43</v>
       </c>
       <c r="G49" t="n">
-        <v>0.43</v>
+        <v>7.41</v>
       </c>
       <c r="H49" t="n">
-        <v>0.714</v>
+        <v>0.377</v>
       </c>
       <c r="I49" t="n">
-        <v>0.702</v>
+        <v>0.3752</v>
       </c>
       <c r="J49" t="n">
-        <v>0.694</v>
+        <v>0.371</v>
       </c>
       <c r="K49" t="n">
-        <v>0.00230000000000008</v>
+        <v>0.0009999999999999454</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.004600000000000048</v>
+        <v>0.001299999999999968</v>
       </c>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.42</v>
+        <v>-1.59</v>
       </c>
       <c r="F50" t="n">
-        <v>1.29</v>
+        <v>17.26</v>
       </c>
       <c r="G50" t="n">
-        <v>0.19</v>
+        <v>2.95</v>
       </c>
       <c r="H50" t="n">
-        <v>0.951</v>
+        <v>1.119</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9484</v>
+        <v>1.107</v>
       </c>
       <c r="J50" t="n">
-        <v>0.956</v>
+        <v>1.105</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.001849999999999907</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2954,98 +2956,98 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.46</v>
+        <v>-1.61</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.74</v>
+        <v>-2.2</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>0.02</v>
       </c>
       <c r="H51" t="n">
-        <v>0.649</v>
+        <v>0.984</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6461</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>0.656</v>
+        <v>0.972</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.001350000000000073</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.51</v>
+        <v>-1.77</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.5</v>
+        <v>0.82</v>
       </c>
       <c r="G52" t="n">
-        <v>0.41</v>
+        <v>1.62</v>
       </c>
       <c r="H52" t="n">
-        <v>1.17</v>
+        <v>1.139</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1739</v>
+        <v>1.1203</v>
       </c>
       <c r="J52" t="n">
-        <v>1.178</v>
+        <v>1.117</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.002250000000000085</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.001400000000000068</v>
+        <v>0.00199999999999978</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3054,48 +3056,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.59</v>
+        <v>-1.91</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.46</v>
+        <v>18.66</v>
       </c>
       <c r="G53" t="n">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="H53" t="n">
-        <v>1.355</v>
+        <v>1.163</v>
       </c>
       <c r="I53" t="n">
-        <v>1.3474</v>
+        <v>1.1413</v>
       </c>
       <c r="J53" t="n">
-        <v>1.352</v>
+        <v>1.115</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.001000000000000112</v>
+        <v>0.004149999999999876</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0.001799999999999802</v>
+        <v>0.00749999999999984</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3104,48 +3106,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.76</v>
+        <v>-1.97</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1</v>
+        <v>-2.33</v>
       </c>
       <c r="G54" t="n">
-        <v>2.81</v>
+        <v>3.35</v>
       </c>
       <c r="H54" t="n">
-        <v>1.05</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>1.0452</v>
+        <v>0.8184999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>1.045</v>
+        <v>0.821</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.002799999999999914</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.001600000000000157</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3154,48 +3156,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.8</v>
+        <v>-2.01</v>
       </c>
       <c r="F55" t="n">
-        <v>-12.89</v>
+        <v>-0.75</v>
       </c>
       <c r="G55" t="n">
-        <v>1.07</v>
+        <v>0.25</v>
       </c>
       <c r="H55" t="n">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9863</v>
+        <v>0.9477</v>
       </c>
       <c r="J55" t="n">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0008500000000000174</v>
+        <v>-0.002050000000000107</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3204,48 +3206,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4848</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9.999999999993348e-05</v>
+      </c>
+      <c r="L56" t="b">
         <v>1</v>
       </c>
-      <c r="E56" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="G56" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.018</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.0089</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.017</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-0.002499999999999947</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
       <c r="M56" t="n">
-        <v>-0.001299999999999857</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3254,48 +3256,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.1</v>
+        <v>0.82</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.9</v>
+        <v>-2.26</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.04</v>
+        <v>6.33</v>
       </c>
       <c r="G57" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="H57" t="n">
-        <v>1.126</v>
+        <v>0.823</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1171</v>
+        <v>0.8141</v>
       </c>
       <c r="J57" t="n">
-        <v>1.127</v>
+        <v>0.806</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.003099999999999881</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.002099999999999991</v>
+        <v>0.00240000000000018</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3304,98 +3306,98 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.12</v>
+        <v>0.59</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.97</v>
+        <v>-2.33</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.11</v>
+        <v>-0.68</v>
       </c>
       <c r="G58" t="n">
-        <v>0.38</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1.111</v>
+        <v>0.592</v>
       </c>
       <c r="I58" t="n">
-        <v>1.1031</v>
+        <v>0.585</v>
       </c>
       <c r="J58" t="n">
-        <v>1.091</v>
+        <v>0.576</v>
       </c>
       <c r="K58" t="n">
-        <v>0.003899999999999793</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0.003099999999999881</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.03</v>
+        <v>-2.34</v>
       </c>
       <c r="F59" t="n">
-        <v>8.210000000000001</v>
+        <v>49.74</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>39.4</v>
       </c>
       <c r="H59" t="n">
-        <v>0.666</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6596</v>
+        <v>0.539</v>
       </c>
       <c r="J59" t="n">
-        <v>0.655</v>
+        <v>0.515</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001449999999999951</v>
+        <v>0.005400000000000071</v>
       </c>
       <c r="L59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.007800000000000029</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3404,48 +3406,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.09</v>
+        <v>-2.42</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.37</v>
+        <v>16.07</v>
       </c>
       <c r="G60" t="n">
-        <v>2.31</v>
+        <v>22.54</v>
       </c>
       <c r="H60" t="n">
-        <v>0.819</v>
+        <v>0.487</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8195</v>
+        <v>0.4791</v>
       </c>
       <c r="J60" t="n">
-        <v>0.821</v>
+        <v>0.478</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0006500000000001505</v>
+        <v>-4.999999999999449e-05</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.0005999999999998229</v>
+        <v>0.001200000000000034</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3454,48 +3456,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.13</v>
+        <v>0.66</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.14</v>
+        <v>-2.51</v>
       </c>
       <c r="F61" t="n">
-        <v>19.16</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>3.14</v>
+        <v>0.14</v>
       </c>
       <c r="H61" t="n">
-        <v>1.118</v>
+        <v>0.661</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1052</v>
+        <v>0.6516</v>
       </c>
       <c r="J61" t="n">
-        <v>1.104</v>
+        <v>0.633</v>
       </c>
       <c r="K61" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.00275000000000003</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.004199999999999759</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3504,48 +3506,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.39</v>
+        <v>-2.68</v>
       </c>
       <c r="F62" t="n">
-        <v>18.94</v>
+        <v>-11.53</v>
       </c>
       <c r="G62" t="n">
-        <v>19.61</v>
+        <v>11.22</v>
       </c>
       <c r="H62" t="n">
-        <v>0.487</v>
+        <v>0.57</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4785</v>
+        <v>0.5757</v>
       </c>
       <c r="J62" t="n">
-        <v>0.478</v>
+        <v>0.585</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0008000000000000229</v>
+        <v>-0.002699999999999925</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.003400000000000014</v>
+        <v>-0.003399999999999959</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3554,48 +3556,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.75</v>
+        <v>-2.94</v>
       </c>
       <c r="F63" t="n">
-        <v>-9.09</v>
+        <v>64.14</v>
       </c>
       <c r="G63" t="n">
-        <v>8.76</v>
+        <v>121.53</v>
       </c>
       <c r="H63" t="n">
-        <v>0.573</v>
+        <v>1.125</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5782</v>
+        <v>1.0739</v>
       </c>
       <c r="J63" t="n">
-        <v>0.587</v>
+        <v>1.006</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.002249999999999974</v>
+        <v>0.01550000000000018</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.002199999999999869</v>
+        <v>0.02100000000000013</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="E2" t="n">
-        <v>1.44</v>
+        <v>5.24</v>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>24.87</v>
       </c>
       <c r="G2" t="n">
-        <v>7.88</v>
+        <v>2.13</v>
       </c>
       <c r="H2" t="n">
-        <v>1.053</v>
+        <v>1.181</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0482</v>
+        <v>1.1574</v>
       </c>
       <c r="J2" t="n">
-        <v>1.045</v>
+        <v>1.123</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0001499999999998725</v>
+        <v>0.007600000000000051</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002500000000000169</v>
+        <v>0.01549999999999985</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.59</v>
+        <v>0.84</v>
       </c>
       <c r="E3" t="n">
-        <v>1.21</v>
+        <v>2.55</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>67.65000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="H3" t="n">
-        <v>7.472</v>
+        <v>0.828</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4355</v>
+        <v>0.8196999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>7.372</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01290000000000013</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0224000000000002</v>
+        <v>0.004399999999999848</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.43</v>
       </c>
       <c r="F4" t="n">
-        <v>3.46</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04</v>
+        <v>0.71</v>
       </c>
       <c r="H4" t="n">
-        <v>1.228</v>
+        <v>0.802</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2184</v>
+        <v>0.7976</v>
       </c>
       <c r="J4" t="n">
-        <v>1.215</v>
+        <v>0.792</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002299999999999969</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005100000000000104</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.51</v>
+        <v>2.34</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.62</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1728</v>
+        <v>1.2867</v>
       </c>
       <c r="J5" t="n">
-        <v>1.178</v>
+        <v>1.257</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0002500000000003055</v>
+        <v>0.004200000000000204</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.001199999999999868</v>
+        <v>0.0132000000000001</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.99</v>
+        <v>1.36</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5</v>
+        <v>-7.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>2.07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.984</v>
+        <v>1.357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9863</v>
+        <v>1.3526</v>
       </c>
       <c r="J6" t="n">
-        <v>0.985</v>
+        <v>1.351</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0007499999999999174</v>
+        <v>-0.000600000000000378</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>1.13</v>
       </c>
       <c r="E7" t="n">
-        <v>0.17</v>
+        <v>1.89</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.99</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>1.64</v>
       </c>
       <c r="H7" t="n">
-        <v>0.596</v>
+        <v>1.141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5915999999999999</v>
+        <v>1.1268</v>
       </c>
       <c r="J7" t="n">
-        <v>0.593</v>
+        <v>1.117</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.001749999999999918</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.004499999999999948</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="E8" t="n">
-        <v>0.14</v>
+        <v>1.46</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.05</v>
+        <v>-6.79</v>
       </c>
       <c r="G8" t="n">
-        <v>0.19</v>
+        <v>8.99</v>
       </c>
       <c r="H8" t="n">
-        <v>1.431</v>
+        <v>1.032</v>
       </c>
       <c r="I8" t="n">
-        <v>1.425</v>
+        <v>1.021</v>
       </c>
       <c r="J8" t="n">
-        <v>1.427</v>
+        <v>1.016</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.000299999999999967</v>
+        <v>-0.0005500000000002725</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.004900000000000126</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,96 +858,98 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
+        <v>1.45</v>
       </c>
       <c r="F9" t="n">
-        <v>8.27</v>
+        <v>17.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>1.187</v>
+        <v>0.494</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1757</v>
+        <v>0.4837</v>
       </c>
       <c r="J9" t="n">
-        <v>1.162</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>0.479</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004899999999999904</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>124.24</v>
+        <v>1.13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>1.35</v>
       </c>
       <c r="F10" t="n">
-        <v>1.29</v>
+        <v>-2.42</v>
       </c>
       <c r="G10" t="n">
-        <v>58.01</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>123.669</v>
+        <v>1.122</v>
       </c>
       <c r="I10" t="n">
-        <v>123.2838</v>
+        <v>1.1109</v>
       </c>
       <c r="J10" t="n">
-        <v>123.246</v>
+        <v>1.097</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04565000000000907</v>
+        <v>0.003049999999999997</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.128399999999985</v>
+        <v>0.003900000000000015</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -956,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.97</v>
+        <v>1.67</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="F11" t="n">
-        <v>13.25</v>
+        <v>12.46</v>
       </c>
       <c r="G11" t="n">
-        <v>0.21</v>
+        <v>3.66</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.652</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9280000000000002</v>
+        <v>1.6399</v>
       </c>
       <c r="J11" t="n">
-        <v>0.925</v>
+        <v>1.624</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002449999999999952</v>
+        <v>0.002550000000000052</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006000000000000227</v>
+        <v>0.006500000000000172</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1006,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.98</v>
+        <v>1.4</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2</v>
+        <v>1.16</v>
       </c>
       <c r="F12" t="n">
-        <v>-13.06</v>
+        <v>7.12</v>
       </c>
       <c r="G12" t="n">
-        <v>1.13</v>
+        <v>0.28</v>
       </c>
       <c r="H12" t="n">
-        <v>0.985</v>
+        <v>1.383</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9859</v>
+        <v>1.3721</v>
       </c>
       <c r="J12" t="n">
-        <v>0.989</v>
+        <v>1.362</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.001299999999999857</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.005400000000000071</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1056,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.27</v>
+        <v>1.16</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.31</v>
+        <v>1.58</v>
       </c>
       <c r="G13" t="n">
-        <v>1.98</v>
+        <v>0.76</v>
       </c>
       <c r="H13" t="n">
-        <v>1.125</v>
+        <v>1.468</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1176</v>
+        <v>1.4647</v>
       </c>
       <c r="J13" t="n">
-        <v>1.125</v>
+        <v>1.457</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.002799999999999914</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.002500000000000169</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1106,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.29</v>
+        <v>0.99</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.77</v>
+        <v>18.42</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>1.022</v>
+        <v>1.127</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0229</v>
+        <v>1.1136</v>
       </c>
       <c r="J14" t="n">
-        <v>1.024</v>
+        <v>1.107</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002500000000000835</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1156,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.99</v>
       </c>
-      <c r="E15" t="n">
-        <v>-0.4</v>
-      </c>
       <c r="F15" t="n">
-        <v>-1.59</v>
+        <v>-4.79</v>
       </c>
       <c r="G15" t="n">
-        <v>8.17</v>
+        <v>5.18</v>
       </c>
       <c r="H15" t="n">
-        <v>1.016</v>
+        <v>0.909</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0089</v>
+        <v>0.8999</v>
       </c>
       <c r="J15" t="n">
-        <v>1.015</v>
+        <v>0.9</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002650000000000041</v>
+        <v>-0.000300000000000078</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.004099999999999993</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1206,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.49</v>
+        <v>0.95</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.2</v>
+        <v>0.86</v>
       </c>
       <c r="G16" t="n">
-        <v>23.13</v>
+        <v>0.76</v>
       </c>
       <c r="H16" t="n">
-        <v>1.041</v>
+        <v>1.181</v>
       </c>
       <c r="I16" t="n">
-        <v>1.037</v>
+        <v>1.1689</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.164</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-0.001349999999999962</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1256,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.75</v>
+        <v>2.04</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.51</v>
+        <v>0.84</v>
       </c>
       <c r="F17" t="n">
-        <v>0.29</v>
+        <v>-3.09</v>
       </c>
       <c r="G17" t="n">
-        <v>17.88</v>
+        <v>10.11</v>
       </c>
       <c r="H17" t="n">
-        <v>2.752</v>
+        <v>2.028</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7511</v>
+        <v>2.0102</v>
       </c>
       <c r="J17" t="n">
-        <v>2.767</v>
+        <v>2.004</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0009500000000000064</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.008100000000000218</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1306,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.52</v>
+        <v>0.84</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.21</v>
+        <v>-3.81</v>
       </c>
       <c r="G18" t="n">
-        <v>1.63</v>
+        <v>7.23</v>
       </c>
       <c r="H18" t="n">
-        <v>1.528</v>
+        <v>1.571</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5263</v>
+        <v>1.5709</v>
       </c>
       <c r="J18" t="n">
-        <v>1.527</v>
+        <v>1.561</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002500000000003055</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1356,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.02</v>
+        <v>-6.17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.535</v>
+        <v>0.854</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5307999999999999</v>
+        <v>0.8474999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.532</v>
+        <v>0.846</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0005499999999999394</v>
+        <v>-0.001049999999999773</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1406,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.84</v>
+        <v>2.04</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.59</v>
+        <v>0.74</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.95</v>
+        <v>-5.74</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04</v>
+        <v>2.33</v>
       </c>
       <c r="H20" t="n">
-        <v>0.854</v>
+        <v>2.036</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8440999999999999</v>
+        <v>2.0281</v>
       </c>
       <c r="J20" t="n">
-        <v>0.847</v>
+        <v>2.015</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00130000000000019</v>
+        <v>0.001349999999999962</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.002799999999999692</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1456,98 +1458,98 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6</v>
+        <v>0.68</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>9.300000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H21" t="n">
-        <v>1.168</v>
+        <v>1.477</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1649</v>
+        <v>1.4811</v>
       </c>
       <c r="J21" t="n">
-        <v>1.157</v>
+        <v>1.472</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001299999999999857</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002099999999999769</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.11</v>
+        <v>0.53</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.72</v>
+        <v>-5.49</v>
       </c>
       <c r="G22" t="n">
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
       <c r="H22" t="n">
-        <v>1.112</v>
+        <v>0.535</v>
       </c>
       <c r="I22" t="n">
-        <v>1.1049</v>
+        <v>0.5321</v>
       </c>
       <c r="J22" t="n">
-        <v>1.093</v>
+        <v>0.531</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002050000000000107</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001499999999999835</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1556,98 +1558,98 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.98</v>
+        <v>1.18</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.65</v>
+        <v>0.51</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.04</v>
+        <v>4.54</v>
       </c>
       <c r="G23" t="n">
-        <v>27.8</v>
+        <v>2.73</v>
       </c>
       <c r="H23" t="n">
-        <v>3.983</v>
+        <v>1.172</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9715</v>
+        <v>1.1678</v>
       </c>
       <c r="J23" t="n">
-        <v>3.984</v>
+        <v>1.158</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0006999999999997009</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003399999999999626</v>
+        <v>0.002600000000000158</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="F24" t="n">
-        <v>8.56</v>
+        <v>-14.66</v>
       </c>
       <c r="G24" t="n">
-        <v>0.48</v>
+        <v>1.84</v>
       </c>
       <c r="H24" t="n">
-        <v>0.716</v>
+        <v>0.651</v>
       </c>
       <c r="I24" t="n">
-        <v>0.708</v>
+        <v>0.6476</v>
       </c>
       <c r="J24" t="n">
-        <v>0.698</v>
+        <v>0.653</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001900000000000013</v>
+        <v>-0.001550000000000051</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003099999999999992</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1656,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.71</v>
+        <v>0.46</v>
       </c>
       <c r="F25" t="n">
-        <v>3.06</v>
+        <v>3.32</v>
       </c>
       <c r="G25" t="n">
-        <v>1.23</v>
+        <v>0.36</v>
       </c>
       <c r="H25" t="n">
-        <v>0.841</v>
+        <v>1.085</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8368</v>
+        <v>1.0799</v>
       </c>
       <c r="J25" t="n">
-        <v>0.833</v>
+        <v>1.075</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001599999999999935</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1706,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.73</v>
+        <v>0.45</v>
       </c>
       <c r="F26" t="n">
-        <v>2.85</v>
+        <v>9.99</v>
       </c>
       <c r="G26" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="H26" t="n">
-        <v>1.081</v>
+        <v>1.118</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0763</v>
+        <v>1.1119</v>
       </c>
       <c r="J26" t="n">
-        <v>1.074</v>
+        <v>1.116</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.001850000000000129</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.001499999999999835</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1756,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.46</v>
+        <v>3.18</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.75</v>
+        <v>0.44</v>
       </c>
       <c r="F27" t="n">
-        <v>0.41</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.53</v>
+        <v>4.01</v>
       </c>
       <c r="H27" t="n">
-        <v>1.461</v>
+        <v>3.182</v>
       </c>
       <c r="I27" t="n">
-        <v>1.4613</v>
+        <v>3.1632</v>
       </c>
       <c r="J27" t="n">
-        <v>1.455</v>
+        <v>3.145</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001100000000000101</v>
+        <v>-4.999999999988347e-05</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.007899999999999796</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1806,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.65</v>
+        <v>0.84</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.78</v>
+        <v>0.36</v>
       </c>
       <c r="F28" t="n">
-        <v>11.11</v>
+        <v>3.43</v>
       </c>
       <c r="G28" t="n">
-        <v>7.94</v>
+        <v>0.98</v>
       </c>
       <c r="H28" t="n">
-        <v>1.643</v>
+        <v>0.842</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6327</v>
+        <v>0.8390000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>1.621</v>
+        <v>0.834</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002249999999999863</v>
+        <v>0.000400000000000178</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.004299999999999971</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1856,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.79</v>
+        <v>0.32</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.49</v>
+        <v>-0.43</v>
       </c>
       <c r="G29" t="n">
-        <v>0.72</v>
+        <v>0.25</v>
       </c>
       <c r="H29" t="n">
-        <v>1.009</v>
+        <v>0.946</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0041</v>
+        <v>0.9488999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>1.006</v>
+        <v>0.952</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.002049999999999996</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001500000000000057</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1906,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.79</v>
+        <v>0.3</v>
       </c>
       <c r="F30" t="n">
-        <v>5.89</v>
+        <v>-1.29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.19</v>
+        <v>5.16</v>
       </c>
       <c r="H30" t="n">
-        <v>1.376</v>
+        <v>1.014</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3656</v>
+        <v>1.0115</v>
       </c>
       <c r="J30" t="n">
-        <v>1.36</v>
+        <v>1.013</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001649999999999707</v>
+        <v>-0.002350000000000074</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.003500000000000281</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1956,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
-        <v>7.39</v>
+        <v>-0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="H31" t="n">
-        <v>1.475</v>
+        <v>1.01</v>
       </c>
       <c r="I31" t="n">
-        <v>1.4802</v>
+        <v>1.006</v>
       </c>
       <c r="J31" t="n">
-        <v>1.47</v>
+        <v>1.006</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001400000000000068</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001600000000000046</v>
+        <v>0.001599999999999824</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2006,98 +2008,98 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.17</v>
+        <v>1.21</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F32" t="n">
-        <v>0.96</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>1.94</v>
+        <v>3.06</v>
       </c>
       <c r="H32" t="n">
-        <v>3.176</v>
+        <v>1.194</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1533</v>
+        <v>1.1809</v>
       </c>
       <c r="J32" t="n">
-        <v>3.144</v>
+        <v>1.165</v>
       </c>
       <c r="K32" t="n">
-        <v>4.999999999988347e-05</v>
+        <v>0.003549999999999942</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.006600000000000161</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3</v>
+        <v>0.55</v>
       </c>
       <c r="G33" t="n">
-        <v>0.34</v>
+        <v>15.9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.202</v>
+        <v>2.753</v>
       </c>
       <c r="I33" t="n">
-        <v>1.1996</v>
+        <v>2.7526</v>
       </c>
       <c r="J33" t="n">
-        <v>1.211</v>
+        <v>2.764</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001650000000000151</v>
+        <v>-0.003349999999999742</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2106,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.02</v>
+        <v>3.99</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.43</v>
+        <v>-0.8</v>
       </c>
       <c r="G34" t="n">
-        <v>4.49</v>
+        <v>25.87</v>
       </c>
       <c r="H34" t="n">
-        <v>2.028</v>
+        <v>3.989</v>
       </c>
       <c r="I34" t="n">
-        <v>2.0227</v>
+        <v>3.9787</v>
       </c>
       <c r="J34" t="n">
-        <v>2.013</v>
+        <v>3.983</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002150000000000318</v>
+        <v>-0.002750000000000252</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.00480000000000036</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2156,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.88</v>
+        <v>0.24</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.72</v>
+        <v>5.58</v>
       </c>
       <c r="G35" t="n">
-        <v>5.84</v>
+        <v>0.95</v>
       </c>
       <c r="H35" t="n">
-        <v>0.906</v>
+        <v>0.864</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8956</v>
+        <v>0.8648999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9</v>
+        <v>0.876</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.000200000000000089</v>
+        <v>-0.003449999999999953</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.002599999999999936</v>
+        <v>-0.001400000000000179</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2206,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.9</v>
+        <v>0.18</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-2.13</v>
       </c>
       <c r="G36" t="n">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="H36" t="n">
-        <v>1.312</v>
+        <v>1.12</v>
       </c>
       <c r="I36" t="n">
-        <v>1.2748</v>
+        <v>1.1189</v>
       </c>
       <c r="J36" t="n">
-        <v>1.253</v>
+        <v>1.123</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003149999999999986</v>
+        <v>-0.003149999999999986</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01190000000000024</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2256,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.02</v>
+        <v>0.55</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.98</v>
+        <v>0.18</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.9</v>
+        <v>-11.36</v>
       </c>
       <c r="G37" t="n">
-        <v>14.8</v>
+        <v>9.58</v>
       </c>
       <c r="H37" t="n">
-        <v>2.021</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>2.0003</v>
+        <v>0.574</v>
       </c>
       <c r="J37" t="n">
-        <v>2.004</v>
+        <v>0.583</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.000500000000000167</v>
+        <v>-0.003149999999999875</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.005300000000000304</v>
+        <v>-0.003700000000000037</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2306,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.04</v>
+        <v>0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>7.09</v>
+        <v>-12.97</v>
       </c>
       <c r="G38" t="n">
-        <v>0.13</v>
+        <v>2.04</v>
       </c>
       <c r="H38" t="n">
-        <v>0.665</v>
+        <v>0.99</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6612</v>
+        <v>0.9878</v>
       </c>
       <c r="J38" t="n">
-        <v>0.656</v>
+        <v>0.989</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001449999999999951</v>
+        <v>-5.000000000010552e-05</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.000400000000000178</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2356,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.06</v>
+        <v>0.08</v>
       </c>
       <c r="F39" t="n">
-        <v>-8.130000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="G39" t="n">
-        <v>6.18</v>
+        <v>0.09</v>
       </c>
       <c r="H39" t="n">
-        <v>1.027</v>
+        <v>1.236</v>
       </c>
       <c r="I39" t="n">
-        <v>1.015</v>
+        <v>1.2237</v>
       </c>
       <c r="J39" t="n">
-        <v>1.016</v>
+        <v>1.217</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0007500000000002505</v>
+        <v>0.002250000000000085</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.005599999999999827</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2406,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.6</v>
+        <v>-4.98</v>
       </c>
       <c r="G40" t="n">
-        <v>9.970000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="H40" t="n">
-        <v>1.566</v>
+        <v>1.432</v>
       </c>
       <c r="I40" t="n">
-        <v>1.568</v>
+        <v>1.4269</v>
       </c>
       <c r="J40" t="n">
-        <v>1.56</v>
+        <v>1.426</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00140000000000029</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2456,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.09</v>
+        <v>-1.14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.84</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.181</v>
+        <v>1.53</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1638</v>
+        <v>1.5283</v>
       </c>
       <c r="J41" t="n">
-        <v>1.164</v>
+        <v>1.527</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.001449999999999951</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2506,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6</v>
+        <v>124.26</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.32</v>
+        <v>0.01</v>
       </c>
       <c r="F42" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09</v>
+        <v>52.32</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6</v>
+        <v>123.889</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5986</v>
+        <v>123.4057</v>
       </c>
       <c r="J42" t="n">
-        <v>0.608</v>
+        <v>123.301</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.05725000000002467</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.1278999999999968</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2556,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.39</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.13</v>
+        <v>1.34</v>
       </c>
       <c r="G43" t="n">
-        <v>0.52</v>
+        <v>4.58</v>
       </c>
       <c r="H43" t="n">
-        <v>0.801</v>
+        <v>1.053</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7925000000000001</v>
+        <v>1.0505</v>
       </c>
       <c r="J43" t="n">
-        <v>0.793</v>
+        <v>1.044</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.001900000000000124</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0006000000000000449</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2606,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.42</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="H44" t="n">
-        <v>1.118</v>
+        <v>0.986</v>
       </c>
       <c r="I44" t="n">
-        <v>1.1093</v>
+        <v>0.9865999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>1.117</v>
+        <v>0.985</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.001800000000000246</v>
+        <v>-0.000400000000000178</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.000500000000000056</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2656,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.49</v>
+        <v>-0.09</v>
       </c>
       <c r="F45" t="n">
-        <v>1.22</v>
+        <v>-2.09</v>
       </c>
       <c r="G45" t="n">
-        <v>5.94</v>
+        <v>0.32</v>
       </c>
       <c r="H45" t="n">
-        <v>0.332</v>
+        <v>1.172</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3307</v>
+        <v>1.1724</v>
       </c>
       <c r="J45" t="n">
-        <v>0.327</v>
+        <v>1.178</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0002000000000000335</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0006000000000000449</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2706,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.51</v>
+        <v>-0.1</v>
       </c>
       <c r="F46" t="n">
-        <v>5.33</v>
+        <v>-3.87</v>
       </c>
       <c r="G46" t="n">
-        <v>1.53</v>
+        <v>0.02</v>
       </c>
       <c r="H46" t="n">
-        <v>0.866</v>
+        <v>1.023</v>
       </c>
       <c r="I46" t="n">
-        <v>0.865</v>
+        <v>1.0236</v>
       </c>
       <c r="J46" t="n">
-        <v>0.879</v>
+        <v>1.024</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.003399999999999848</v>
+        <v>-0.0005500000000000504</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.001500000000000057</v>
+        <v>-2.220446049250313e-16</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2756,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.64</v>
+        <v>1.02</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.53</v>
+        <v>-0.1</v>
       </c>
       <c r="F47" t="n">
-        <v>-15.06</v>
+        <v>-2.3</v>
       </c>
       <c r="G47" t="n">
-        <v>2.13</v>
+        <v>14.45</v>
       </c>
       <c r="H47" t="n">
-        <v>0.648</v>
+        <v>1.037</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6452</v>
+        <v>1.0378</v>
       </c>
       <c r="J47" t="n">
-        <v>0.654</v>
+        <v>1.038</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.002349999999999963</v>
+        <v>-0.002249999999999863</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2806,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.55</v>
+        <v>-0.17</v>
       </c>
       <c r="F48" t="n">
-        <v>-8.890000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="G48" t="n">
-        <v>1.34</v>
+        <v>0.45</v>
       </c>
       <c r="H48" t="n">
-        <v>1.35</v>
+        <v>1.205</v>
       </c>
       <c r="I48" t="n">
-        <v>1.3467</v>
+        <v>1.2013</v>
       </c>
       <c r="J48" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.00175000000000014</v>
+        <v>-0.001799999999999802</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2856,98 +2858,98 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.57</v>
+        <v>-0.17</v>
       </c>
       <c r="F49" t="n">
-        <v>4.43</v>
+        <v>-1.15</v>
       </c>
       <c r="G49" t="n">
-        <v>7.41</v>
+        <v>0.09</v>
       </c>
       <c r="H49" t="n">
-        <v>0.377</v>
+        <v>0.598</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3752</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>0.371</v>
+        <v>0.593</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0009999999999999454</v>
+        <v>-0.000200000000000089</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.001299999999999968</v>
+        <v>0.001599999999999935</v>
       </c>
       <c r="N49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.11</v>
+        <v>7.56</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.59</v>
+        <v>-0.33</v>
       </c>
       <c r="F50" t="n">
-        <v>17.26</v>
+        <v>27.58</v>
       </c>
       <c r="G50" t="n">
-        <v>2.95</v>
+        <v>50.41</v>
       </c>
       <c r="H50" t="n">
-        <v>1.119</v>
+        <v>7.455</v>
       </c>
       <c r="I50" t="n">
-        <v>1.107</v>
+        <v>7.4378</v>
       </c>
       <c r="J50" t="n">
-        <v>1.105</v>
+        <v>7.378</v>
       </c>
       <c r="K50" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.01414999999999988</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.01850000000000041</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2956,98 +2958,98 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.61</v>
+        <v>-0.38</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.2</v>
+        <v>-2.69</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02</v>
+        <v>2.21</v>
       </c>
       <c r="H51" t="n">
-        <v>0.984</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9810000000000001</v>
+        <v>0.8187999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>0.972</v>
+        <v>0.82</v>
       </c>
       <c r="K51" t="n">
-        <v>0.001399999999999957</v>
+        <v>-0.001650000000000151</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.001500000000000057</v>
+        <v>-0.002000000000000113</v>
       </c>
       <c r="N51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.11</v>
+        <v>0.66</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.77</v>
+        <v>-0.45</v>
       </c>
       <c r="F52" t="n">
-        <v>0.82</v>
+        <v>6.6</v>
       </c>
       <c r="G52" t="n">
-        <v>1.62</v>
+        <v>0.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1.139</v>
+        <v>0.667</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1203</v>
+        <v>0.6637000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>1.117</v>
+        <v>0.657</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.002250000000000085</v>
+        <v>0.0005499999999999394</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3056,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.91</v>
+        <v>-0.5</v>
       </c>
       <c r="F53" t="n">
-        <v>18.66</v>
+        <v>0.68</v>
       </c>
       <c r="G53" t="n">
-        <v>1.37</v>
+        <v>0.11</v>
       </c>
       <c r="H53" t="n">
-        <v>1.163</v>
+        <v>0.598</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1413</v>
+        <v>0.5984</v>
       </c>
       <c r="J53" t="n">
-        <v>1.115</v>
+        <v>0.607</v>
       </c>
       <c r="K53" t="n">
-        <v>0.004149999999999876</v>
+        <v>-0.001599999999999935</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.00749999999999984</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3106,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.97</v>
+        <v>-0.52</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.33</v>
+        <v>12.66</v>
       </c>
       <c r="G54" t="n">
-        <v>3.35</v>
+        <v>0.15</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8184999999999999</v>
+        <v>0.9315</v>
       </c>
       <c r="J54" t="n">
-        <v>0.821</v>
+        <v>0.926</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.001149999999999984</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.001600000000000157</v>
+        <v>0.004999999999999893</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3156,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.01</v>
+        <v>-0.55</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.75</v>
+        <v>7.96</v>
       </c>
       <c r="G55" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="H55" t="n">
-        <v>0.948</v>
+        <v>0.721</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9477</v>
+        <v>0.7127</v>
       </c>
       <c r="J55" t="n">
-        <v>0.953</v>
+        <v>0.7</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.002050000000000107</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>0.003599999999999937</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3206,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.03</v>
+        <v>-0.6</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.82</v>
+        <v>0.61</v>
       </c>
       <c r="G56" t="n">
-        <v>0.73</v>
+        <v>4.61</v>
       </c>
       <c r="H56" t="n">
-        <v>0.487</v>
+        <v>0.333</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4848</v>
+        <v>0.3319</v>
       </c>
       <c r="J56" t="n">
-        <v>0.48</v>
+        <v>0.328</v>
       </c>
       <c r="K56" t="n">
-        <v>9.999999999993348e-05</v>
+        <v>0.0001499999999999835</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0005000000000000004</v>
+        <v>0.0007999999999999674</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3256,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.26</v>
+        <v>-0.61</v>
       </c>
       <c r="F57" t="n">
-        <v>6.33</v>
+        <v>7.73</v>
       </c>
       <c r="G57" t="n">
-        <v>1.48</v>
+        <v>0.1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.823</v>
+        <v>0.662</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8141</v>
+        <v>0.6562</v>
       </c>
       <c r="J57" t="n">
-        <v>0.806</v>
+        <v>0.636</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0.00240000000000018</v>
+        <v>0.004199999999999982</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3306,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.59</v>
+        <v>0.97</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.33</v>
+        <v>-0.61</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.68</v>
+        <v>-2.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H58" t="n">
-        <v>0.592</v>
+        <v>0.985</v>
       </c>
       <c r="I58" t="n">
-        <v>0.585</v>
+        <v>0.9833000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>0.576</v>
+        <v>0.974</v>
       </c>
       <c r="K58" t="n">
-        <v>0.001449999999999951</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.000700000000000145</v>
       </c>
       <c r="N58" t="b">
         <v>1</v>
@@ -3356,148 +3358,148 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0.58</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.34</v>
+        <v>-0.68</v>
       </c>
       <c r="F59" t="n">
-        <v>49.74</v>
+        <v>-1.35</v>
       </c>
       <c r="G59" t="n">
-        <v>39.4</v>
+        <v>0.06</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I59" t="n">
-        <v>0.539</v>
+        <v>0.5871</v>
       </c>
       <c r="J59" t="n">
-        <v>0.515</v>
+        <v>0.577</v>
       </c>
       <c r="K59" t="n">
-        <v>0.005400000000000071</v>
+        <v>0.0009500000000000064</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0.007800000000000029</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.42</v>
+        <v>-0.8</v>
       </c>
       <c r="F60" t="n">
-        <v>16.07</v>
+        <v>3.6</v>
       </c>
       <c r="G60" t="n">
-        <v>22.54</v>
+        <v>7.81</v>
       </c>
       <c r="H60" t="n">
-        <v>0.487</v>
+        <v>0.376</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4791</v>
+        <v>0.3753</v>
       </c>
       <c r="J60" t="n">
-        <v>0.478</v>
+        <v>0.371</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.999999999999449e-05</v>
+        <v>0.000350000000000017</v>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.001200000000000034</v>
+        <v>0.0003000000000000225</v>
       </c>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.51</v>
+        <v>-0.83</v>
       </c>
       <c r="F61" t="n">
-        <v>8.390000000000001</v>
+        <v>-1.65</v>
       </c>
       <c r="G61" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="H61" t="n">
-        <v>0.661</v>
+        <v>0.488</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6516</v>
+        <v>0.4866</v>
       </c>
       <c r="J61" t="n">
-        <v>0.633</v>
+        <v>0.48</v>
       </c>
       <c r="K61" t="n">
-        <v>0.00275000000000003</v>
+        <v>0.0001000000000000445</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.0007000000000000894</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3506,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.55</v>
+        <v>1.18</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.68</v>
+        <v>-0.84</v>
       </c>
       <c r="F62" t="n">
-        <v>-11.53</v>
+        <v>62.76</v>
       </c>
       <c r="G62" t="n">
-        <v>11.22</v>
+        <v>81.08</v>
       </c>
       <c r="H62" t="n">
-        <v>0.57</v>
+        <v>1.146</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5757</v>
+        <v>1.0922</v>
       </c>
       <c r="J62" t="n">
-        <v>0.585</v>
+        <v>1.02</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.002699999999999925</v>
+        <v>0.01469999999999994</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.003399999999999959</v>
+        <v>0.02049999999999996</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3556,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.19</v>
+        <v>0.58</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.94</v>
+        <v>-0.86</v>
       </c>
       <c r="F63" t="n">
-        <v>64.14</v>
+        <v>48.46</v>
       </c>
       <c r="G63" t="n">
-        <v>121.53</v>
+        <v>26.28</v>
       </c>
       <c r="H63" t="n">
-        <v>1.125</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>1.0739</v>
+        <v>0.5463</v>
       </c>
       <c r="J63" t="n">
-        <v>1.006</v>
+        <v>0.52</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01550000000000018</v>
+        <v>0.005200000000000093</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.02100000000000013</v>
+        <v>0.007900000000000018</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.25</v>
+        <v>0.99</v>
       </c>
       <c r="E2" t="n">
-        <v>5.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>24.87</v>
+        <v>-12.27</v>
       </c>
       <c r="G2" t="n">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>1.181</v>
+        <v>0.99</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1574</v>
+        <v>0.9873</v>
       </c>
       <c r="J2" t="n">
-        <v>1.123</v>
+        <v>0.989</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007600000000000051</v>
+        <v>-5.000000000010552e-05</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01549999999999985</v>
+        <v>-0.000200000000000089</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="E3" t="n">
-        <v>2.55</v>
+        <v>0.77</v>
       </c>
       <c r="F3" t="n">
-        <v>9.039999999999999</v>
+        <v>-1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>1.03</v>
+        <v>0.51</v>
       </c>
       <c r="H3" t="n">
-        <v>0.828</v>
+        <v>1.173</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8196999999999999</v>
+        <v>1.172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8080000000000001</v>
+        <v>1.178</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001449999999999951</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004399999999999848</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>1.26</v>
       </c>
       <c r="E4" t="n">
-        <v>2.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>4.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.802</v>
+        <v>1.241</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7976</v>
+        <v>1.2276</v>
       </c>
       <c r="J4" t="n">
-        <v>0.792</v>
+        <v>1.219</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.001299999999999968</v>
+        <v>0.002700000000000147</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003499999999999948</v>
+        <v>0.005099999999999882</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2.34</v>
+        <v>0.51</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.32</v>
+        <v>0.601</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2867</v>
+        <v>0.5995999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>1.257</v>
+        <v>0.607</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004200000000000204</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0132000000000001</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="E6" t="n">
-        <v>2.03</v>
+        <v>0.49</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.05</v>
+        <v>-3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.07</v>
+        <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>1.357</v>
+        <v>1.023</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3526</v>
+        <v>1.0234</v>
       </c>
       <c r="J6" t="n">
-        <v>1.351</v>
+        <v>1.023</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.000600000000000378</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002799999999999914</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="E7" t="n">
-        <v>1.89</v>
+        <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>-3.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.64</v>
+        <v>9.56</v>
       </c>
       <c r="H7" t="n">
-        <v>1.141</v>
+        <v>1.569</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1268</v>
+        <v>1.5689</v>
       </c>
       <c r="J7" t="n">
-        <v>1.117</v>
+        <v>1.561</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001749999999999918</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004499999999999948</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1.46</v>
+        <v>0.33</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.79</v>
+        <v>2.47</v>
       </c>
       <c r="G8" t="n">
-        <v>8.99</v>
+        <v>0.36</v>
       </c>
       <c r="H8" t="n">
-        <v>1.032</v>
+        <v>1.207</v>
       </c>
       <c r="I8" t="n">
-        <v>1.021</v>
+        <v>1.2021</v>
       </c>
       <c r="J8" t="n">
-        <v>1.016</v>
+        <v>1.209</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0005500000000002725</v>
+        <v>-0.001300000000000079</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004900000000000126</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
       <c r="E9" t="n">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>17.75</v>
+        <v>-0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>0.03</v>
       </c>
       <c r="H9" t="n">
-        <v>0.494</v>
+        <v>0.986</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4837</v>
+        <v>0.9861000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.479</v>
+        <v>0.985</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.0003499999999998504</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002299999999999969</v>
+        <v>-9.999999999987796e-05</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="E10" t="n">
-        <v>1.35</v>
+        <v>0.29</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.42</v>
+        <v>-6.52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>4.23</v>
       </c>
       <c r="H10" t="n">
-        <v>1.122</v>
+        <v>1.036</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1109</v>
+        <v>1.0289</v>
       </c>
       <c r="J10" t="n">
-        <v>1.097</v>
+        <v>1.017</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003049999999999997</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003900000000000015</v>
+        <v>0.005300000000000082</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.67</v>
+        <v>124.53</v>
       </c>
       <c r="E11" t="n">
-        <v>1.21</v>
+        <v>0.21</v>
       </c>
       <c r="F11" t="n">
-        <v>12.46</v>
+        <v>1.52</v>
       </c>
       <c r="G11" t="n">
-        <v>3.66</v>
+        <v>56.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.652</v>
+        <v>124.119</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6399</v>
+        <v>123.6236</v>
       </c>
       <c r="J11" t="n">
-        <v>1.624</v>
+        <v>123.371</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002550000000000052</v>
+        <v>0.07170000000002119</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006500000000000172</v>
+        <v>0.2215000000000202</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="E12" t="n">
-        <v>1.16</v>
+        <v>0.21</v>
       </c>
       <c r="F12" t="n">
-        <v>7.12</v>
+        <v>-4.78</v>
       </c>
       <c r="G12" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="H12" t="n">
-        <v>1.383</v>
+        <v>1.429</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3721</v>
+        <v>1.4283</v>
       </c>
       <c r="J12" t="n">
-        <v>1.362</v>
+        <v>1.426</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001299999999999857</v>
+        <v>0.0001499999999998725</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005400000000000071</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.48</v>
+        <v>0.49</v>
       </c>
       <c r="E13" t="n">
-        <v>1.16</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1.58</v>
+        <v>17.99</v>
       </c>
       <c r="G13" t="n">
-        <v>0.76</v>
+        <v>18.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.468</v>
+        <v>0.496</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4647</v>
+        <v>0.4852</v>
       </c>
       <c r="J13" t="n">
-        <v>1.457</v>
+        <v>0.48</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.000350000000000017</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002500000000000169</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.12</v>
+        <v>0.55</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99</v>
+        <v>0.18</v>
       </c>
       <c r="F14" t="n">
-        <v>18.42</v>
+        <v>-11.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>5.39</v>
       </c>
       <c r="H14" t="n">
-        <v>1.127</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>1.1136</v>
+        <v>0.5711999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>1.107</v>
+        <v>0.58</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.002799999999999914</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003100000000000103</v>
+        <v>-0.003800000000000026</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>XD中证红利ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.92</v>
+        <v>1.52</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.79</v>
+        <v>-1.08</v>
       </c>
       <c r="G15" t="n">
-        <v>5.18</v>
+        <v>0.89</v>
       </c>
       <c r="H15" t="n">
-        <v>0.909</v>
+        <v>1.53</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8999</v>
+        <v>1.5289</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9</v>
+        <v>1.527</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.000300000000000078</v>
+        <v>-0.0004499999999998394</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004099999999999993</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.17</v>
+        <v>2.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.86</v>
+        <v>0.55</v>
       </c>
       <c r="G16" t="n">
-        <v>0.76</v>
+        <v>15.71</v>
       </c>
       <c r="H16" t="n">
-        <v>1.181</v>
+        <v>2.752</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1689</v>
+        <v>2.7529</v>
       </c>
       <c r="J16" t="n">
-        <v>1.164</v>
+        <v>2.76</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.001349999999999962</v>
+        <v>-0.00140000000000029</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.000100000000000211</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.04</v>
+        <v>0.48</v>
       </c>
       <c r="E17" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.09</v>
+        <v>-1.65</v>
       </c>
       <c r="G17" t="n">
-        <v>10.11</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.028</v>
+        <v>0.489</v>
       </c>
       <c r="I17" t="n">
-        <v>2.0102</v>
+        <v>0.4878</v>
       </c>
       <c r="J17" t="n">
-        <v>2.004</v>
+        <v>0.481</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.008100000000000218</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="E18" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.81</v>
+        <v>-5.74</v>
       </c>
       <c r="G18" t="n">
-        <v>7.23</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
-        <v>1.571</v>
+        <v>2.037</v>
       </c>
       <c r="I18" t="n">
-        <v>1.5709</v>
+        <v>2.0308</v>
       </c>
       <c r="J18" t="n">
-        <v>1.561</v>
+        <v>2.018</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="E19" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.17</v>
+        <v>6.6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.854</v>
+        <v>0.669</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.6661</v>
       </c>
       <c r="J19" t="n">
-        <v>0.846</v>
+        <v>0.658</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.001049999999999773</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.001199999999999979</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.04</v>
+        <v>0.65</v>
       </c>
       <c r="E20" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.74</v>
+        <v>-14.66</v>
       </c>
       <c r="G20" t="n">
-        <v>2.33</v>
+        <v>2.11</v>
       </c>
       <c r="H20" t="n">
-        <v>2.036</v>
+        <v>0.652</v>
       </c>
       <c r="I20" t="n">
-        <v>2.0281</v>
+        <v>0.6481</v>
       </c>
       <c r="J20" t="n">
-        <v>2.015</v>
+        <v>0.652</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001349999999999962</v>
+        <v>-0.0008000000000000229</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002799999999999692</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.48</v>
+        <v>3.99</v>
       </c>
       <c r="E21" t="n">
-        <v>0.68</v>
+        <v>-0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>8.119999999999999</v>
+        <v>-0.82</v>
       </c>
       <c r="G21" t="n">
-        <v>0.11</v>
+        <v>19.25</v>
       </c>
       <c r="H21" t="n">
-        <v>1.477</v>
+        <v>3.99</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4811</v>
+        <v>3.9848</v>
       </c>
       <c r="J21" t="n">
-        <v>1.472</v>
+        <v>3.982</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00154999999999994</v>
+        <v>5.000000000032756e-05</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.000500000000000167</v>
+        <v>0.003099999999999881</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.53</v>
+        <v>1.05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.49</v>
+        <v>1.25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.38</v>
+        <v>4.13</v>
       </c>
       <c r="H22" t="n">
-        <v>0.535</v>
+        <v>1.049</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5321</v>
+        <v>1.0489</v>
       </c>
       <c r="J22" t="n">
-        <v>0.531</v>
+        <v>1.044</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0009000000000000119</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,98 +1558,98 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="E23" t="n">
-        <v>0.51</v>
+        <v>-0.09</v>
       </c>
       <c r="F23" t="n">
-        <v>4.54</v>
+        <v>3.23</v>
       </c>
       <c r="G23" t="n">
-        <v>2.73</v>
+        <v>0.35</v>
       </c>
       <c r="H23" t="n">
-        <v>1.172</v>
+        <v>1.087</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1678</v>
+        <v>1.083</v>
       </c>
       <c r="J23" t="n">
-        <v>1.158</v>
+        <v>1.077</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002600000000000158</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="E24" t="n">
-        <v>0.47</v>
+        <v>-0.1</v>
       </c>
       <c r="F24" t="n">
-        <v>-14.66</v>
+        <v>12.54</v>
       </c>
       <c r="G24" t="n">
-        <v>1.84</v>
+        <v>0.08</v>
       </c>
       <c r="H24" t="n">
-        <v>0.651</v>
+        <v>0.951</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6476</v>
+        <v>0.9368000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.653</v>
+        <v>0.928</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.001550000000000051</v>
+        <v>0.002200000000000091</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.004699999999999926</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="E25" t="n">
-        <v>0.46</v>
+        <v>-0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>3.32</v>
+        <v>-0.3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.085</v>
+        <v>1.011</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0799</v>
+        <v>1.0074</v>
       </c>
       <c r="J25" t="n">
-        <v>1.075</v>
+        <v>1.006</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004999999999999449</v>
+        <v>-9.999999999976694e-05</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002699999999999925</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="E26" t="n">
-        <v>0.45</v>
+        <v>-0.11</v>
       </c>
       <c r="F26" t="n">
-        <v>9.99</v>
+        <v>-0.54</v>
       </c>
       <c r="G26" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="H26" t="n">
-        <v>1.118</v>
+        <v>0.944</v>
       </c>
       <c r="I26" t="n">
-        <v>1.1119</v>
+        <v>0.9465999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1.116</v>
+        <v>0.952</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.001850000000000129</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001499999999999835</v>
+        <v>-0.003800000000000026</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.18</v>
+        <v>0.84</v>
       </c>
       <c r="E27" t="n">
-        <v>0.44</v>
+        <v>-0.12</v>
       </c>
       <c r="F27" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>4.01</v>
+        <v>0.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.182</v>
+        <v>0.844</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1632</v>
+        <v>0.8403</v>
       </c>
       <c r="J27" t="n">
-        <v>3.145</v>
+        <v>0.835</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.999999999988347e-05</v>
+        <v>0.0005499999999999394</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.007899999999999796</v>
+        <v>0.000500000000000056</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E28" t="n">
-        <v>0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="F28" t="n">
-        <v>3.43</v>
+        <v>-6.28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.98</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0.842</v>
+        <v>0.852</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8390000000000001</v>
+        <v>0.8481</v>
       </c>
       <c r="J28" t="n">
-        <v>0.834</v>
+        <v>0.846</v>
       </c>
       <c r="K28" t="n">
-        <v>0.000400000000000178</v>
+        <v>-0.0001499999999999835</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="E29" t="n">
-        <v>0.32</v>
+        <v>-0.14</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.43</v>
+        <v>7.81</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="H29" t="n">
-        <v>0.946</v>
+        <v>0.725</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9488999999999999</v>
+        <v>0.7165</v>
       </c>
       <c r="J29" t="n">
-        <v>0.952</v>
+        <v>0.702</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.002049999999999996</v>
+        <v>0.001650000000000151</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.3804</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.002449999999999841</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.014</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.0115</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.013</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-0.002350000000000074</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.005000000000000115</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.01</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>-0.17</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2</v>
+        <v>-1.32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="H31" t="n">
-        <v>1.01</v>
+        <v>0.599</v>
       </c>
       <c r="I31" t="n">
-        <v>1.006</v>
+        <v>0.5942000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>1.006</v>
+        <v>0.593</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>9.999999999987796e-05</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001599999999999824</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,98 +2008,98 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="E32" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.25</v>
       </c>
-      <c r="F32" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.06</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.194</v>
+        <v>1.119</v>
       </c>
       <c r="I32" t="n">
-        <v>1.1809</v>
+        <v>1.1128</v>
       </c>
       <c r="J32" t="n">
-        <v>1.165</v>
+        <v>1.116</v>
       </c>
       <c r="K32" t="n">
-        <v>0.003549999999999942</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00529999999999986</v>
+        <v>-0.000400000000000178</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.75</v>
+        <v>1.47</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.55</v>
+        <v>1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>15.9</v>
+        <v>0.64</v>
       </c>
       <c r="H33" t="n">
-        <v>2.753</v>
+        <v>1.469</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7526</v>
+        <v>1.4639</v>
       </c>
       <c r="J33" t="n">
-        <v>2.764</v>
+        <v>1.458</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.003349999999999742</v>
+        <v>0.001249999999999973</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.000300000000000189</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.99</v>
+        <v>1.67</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.8</v>
+        <v>12.19</v>
       </c>
       <c r="G34" t="n">
-        <v>25.87</v>
+        <v>4.58</v>
       </c>
       <c r="H34" t="n">
-        <v>3.989</v>
+        <v>1.658</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9787</v>
+        <v>1.6493</v>
       </c>
       <c r="J34" t="n">
-        <v>3.983</v>
+        <v>1.628</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.002750000000000252</v>
+        <v>0.003450000000000175</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00480000000000036</v>
+        <v>0.005499999999999838</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="E35" t="n">
-        <v>0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="F35" t="n">
-        <v>5.58</v>
+        <v>-2.94</v>
       </c>
       <c r="G35" t="n">
-        <v>0.95</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>0.864</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8648999999999999</v>
+        <v>0.8171999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>0.876</v>
+        <v>0.819</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003449999999999953</v>
+        <v>-0.002049999999999996</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.001400000000000179</v>
+        <v>-0.003000000000000114</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="E36" t="n">
-        <v>0.18</v>
+        <v>-0.25</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.13</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>1.28</v>
+        <v>0.78</v>
       </c>
       <c r="H36" t="n">
-        <v>1.12</v>
+        <v>0.8</v>
       </c>
       <c r="I36" t="n">
-        <v>1.1189</v>
+        <v>0.7976</v>
       </c>
       <c r="J36" t="n">
-        <v>1.123</v>
+        <v>0.792</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.003149999999999986</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,98 +2258,98 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.55</v>
+        <v>1.17</v>
       </c>
       <c r="E37" t="n">
-        <v>0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="F37" t="n">
-        <v>-11.36</v>
+        <v>4.27</v>
       </c>
       <c r="G37" t="n">
-        <v>9.58</v>
+        <v>2.58</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5679999999999999</v>
+        <v>1.171</v>
       </c>
       <c r="I37" t="n">
-        <v>0.574</v>
+        <v>1.1692</v>
       </c>
       <c r="J37" t="n">
-        <v>0.583</v>
+        <v>1.159</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.003149999999999875</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.003700000000000037</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.99</v>
+        <v>3.17</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1</v>
+        <v>-0.28</v>
       </c>
       <c r="F38" t="n">
-        <v>-12.97</v>
+        <v>1.12</v>
       </c>
       <c r="G38" t="n">
-        <v>2.04</v>
+        <v>3.17</v>
       </c>
       <c r="H38" t="n">
-        <v>0.99</v>
+        <v>3.184</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9878</v>
+        <v>3.1674</v>
       </c>
       <c r="J38" t="n">
-        <v>0.989</v>
+        <v>3.148</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.000000000010552e-05</v>
+        <v>0.001599999999999824</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.000400000000000178</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.26</v>
+        <v>0.97</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08</v>
+        <v>-0.31</v>
       </c>
       <c r="F39" t="n">
-        <v>3.54</v>
+        <v>-3.1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="H39" t="n">
-        <v>1.236</v>
+        <v>0.985</v>
       </c>
       <c r="I39" t="n">
-        <v>1.2237</v>
+        <v>0.9855</v>
       </c>
       <c r="J39" t="n">
-        <v>1.217</v>
+        <v>0.976</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002250000000000085</v>
+        <v>0.0002499999999999725</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0.005599999999999827</v>
+        <v>-0.0005999999999998229</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,98 +2408,98 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.43</v>
+        <v>0.65</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.31</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.98</v>
+        <v>7.4</v>
       </c>
       <c r="G40" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="H40" t="n">
-        <v>1.432</v>
+        <v>0.665</v>
       </c>
       <c r="I40" t="n">
-        <v>1.4269</v>
+        <v>0.6589</v>
       </c>
       <c r="J40" t="n">
-        <v>1.426</v>
+        <v>0.639</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="N40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.53</v>
+        <v>0.91</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.33</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.14</v>
+        <v>-5.1</v>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>3.85</v>
       </c>
       <c r="H41" t="n">
-        <v>1.53</v>
+        <v>0.909</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5283</v>
+        <v>0.9012</v>
       </c>
       <c r="J41" t="n">
-        <v>1.527</v>
+        <v>0.9</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>124.26</v>
+        <v>1.47</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01</v>
+        <v>-0.34</v>
       </c>
       <c r="F42" t="n">
-        <v>1.31</v>
+        <v>7.75</v>
       </c>
       <c r="G42" t="n">
-        <v>52.32</v>
+        <v>0.18</v>
       </c>
       <c r="H42" t="n">
-        <v>123.889</v>
+        <v>1.476</v>
       </c>
       <c r="I42" t="n">
-        <v>123.4057</v>
+        <v>1.4799</v>
       </c>
       <c r="J42" t="n">
-        <v>123.301</v>
+        <v>1.473</v>
       </c>
       <c r="K42" t="n">
-        <v>0.05725000000002467</v>
+        <v>0.001149999999999762</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1278999999999968</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,98 +2558,98 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.06</v>
+        <v>0.58</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="F43" t="n">
-        <v>1.34</v>
+        <v>-1.69</v>
       </c>
       <c r="G43" t="n">
-        <v>4.58</v>
+        <v>0.06</v>
       </c>
       <c r="H43" t="n">
-        <v>1.053</v>
+        <v>0.593</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0505</v>
+        <v>0.5896999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>1.044</v>
+        <v>0.579</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0001500000000000945</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="L43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.36</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5</v>
+        <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02</v>
+        <v>2.81</v>
       </c>
       <c r="H44" t="n">
-        <v>0.986</v>
+        <v>1.131</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9865999999999999</v>
+        <v>1.1166</v>
       </c>
       <c r="J44" t="n">
-        <v>0.985</v>
+        <v>1.109</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.000400000000000178</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0.000500000000000056</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.09</v>
+        <v>-0.36</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.09</v>
+        <v>-2.49</v>
       </c>
       <c r="G45" t="n">
-        <v>0.32</v>
+        <v>1.38</v>
       </c>
       <c r="H45" t="n">
-        <v>1.172</v>
+        <v>1.105</v>
       </c>
       <c r="I45" t="n">
-        <v>1.1724</v>
+        <v>1.1164</v>
       </c>
       <c r="J45" t="n">
-        <v>1.178</v>
+        <v>1.119</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>-0.001700000000000035</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1</v>
+        <v>-0.37</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.87</v>
+        <v>-7.39</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02</v>
+        <v>1.03</v>
       </c>
       <c r="H46" t="n">
-        <v>1.023</v>
+        <v>1.355</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0236</v>
+        <v>1.3524</v>
       </c>
       <c r="J46" t="n">
-        <v>1.024</v>
+        <v>1.351</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0005500000000000504</v>
+        <v>-0.0002499999999998614</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.02</v>
+        <v>2.03</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1</v>
+        <v>-0.44</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.3</v>
+        <v>-3.52</v>
       </c>
       <c r="G47" t="n">
-        <v>14.45</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1.037</v>
+        <v>2.031</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0378</v>
+        <v>2.0143</v>
       </c>
       <c r="J47" t="n">
-        <v>1.038</v>
+        <v>2.005</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.002249999999999863</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.004100000000000215</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.17</v>
+        <v>-0.47</v>
       </c>
       <c r="F48" t="n">
-        <v>2.13</v>
+        <v>5.09</v>
       </c>
       <c r="G48" t="n">
-        <v>0.45</v>
+        <v>1.31</v>
       </c>
       <c r="H48" t="n">
-        <v>1.205</v>
+        <v>0.862</v>
       </c>
       <c r="I48" t="n">
-        <v>1.2013</v>
+        <v>0.8634999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>1.21</v>
+        <v>0.874</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.001799999999999802</v>
+        <v>-0.002499999999999947</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.000199999999999978</v>
+        <v>-0.002600000000000047</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.17</v>
+        <v>-0.5</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.15</v>
+        <v>-1.78</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09</v>
+        <v>6.23</v>
       </c>
       <c r="H49" t="n">
-        <v>0.598</v>
+        <v>0.999</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5931999999999999</v>
+        <v>1.0088</v>
       </c>
       <c r="J49" t="n">
-        <v>0.593</v>
+        <v>1.01</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.000200000000000089</v>
+        <v>-0.001650000000000151</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.001599999999999935</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7.56</v>
+        <v>1.17</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.33</v>
+        <v>-0.51</v>
       </c>
       <c r="F50" t="n">
-        <v>27.58</v>
+        <v>0.34</v>
       </c>
       <c r="G50" t="n">
-        <v>50.41</v>
+        <v>0.51</v>
       </c>
       <c r="H50" t="n">
-        <v>7.455</v>
+        <v>1.178</v>
       </c>
       <c r="I50" t="n">
-        <v>7.4378</v>
+        <v>1.1705</v>
       </c>
       <c r="J50" t="n">
-        <v>7.378</v>
+        <v>1.164</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01414999999999988</v>
+        <v>0.0001500000000003165</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01850000000000041</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.38</v>
+        <v>-0.61</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.69</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.21</v>
+        <v>5.61</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8187999999999999</v>
+        <v>0.3329</v>
       </c>
       <c r="J51" t="n">
-        <v>0.82</v>
+        <v>0.329</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.001650000000000151</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.002000000000000113</v>
+        <v>0.0002000000000000335</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.66</v>
+        <v>1.34</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.45</v>
+        <v>-0.67</v>
       </c>
       <c r="F52" t="n">
-        <v>6.6</v>
+        <v>-1.47</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2</v>
+        <v>1.09</v>
       </c>
       <c r="H52" t="n">
-        <v>0.667</v>
+        <v>1.324</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6637000000000001</v>
+        <v>1.2942</v>
       </c>
       <c r="J52" t="n">
-        <v>0.657</v>
+        <v>1.261</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0005499999999999394</v>
+        <v>0.005400000000000071</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.009099999999999886</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.59</v>
+        <v>1.12</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5</v>
+        <v>-0.79</v>
       </c>
       <c r="F53" t="n">
-        <v>0.68</v>
+        <v>1.9</v>
       </c>
       <c r="G53" t="n">
-        <v>0.11</v>
+        <v>0.91</v>
       </c>
       <c r="H53" t="n">
-        <v>0.598</v>
+        <v>1.136</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5984</v>
+        <v>1.1276</v>
       </c>
       <c r="J53" t="n">
-        <v>0.607</v>
+        <v>1.117</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.001599999999999935</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.96</v>
+        <v>7.5</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.52</v>
+        <v>-0.85</v>
       </c>
       <c r="F54" t="n">
-        <v>12.66</v>
+        <v>26.5</v>
       </c>
       <c r="G54" t="n">
-        <v>0.15</v>
+        <v>37.76</v>
       </c>
       <c r="H54" t="n">
-        <v>0.944</v>
+        <v>7.484</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9315</v>
+        <v>7.4734</v>
       </c>
       <c r="J54" t="n">
-        <v>0.926</v>
+        <v>7.417</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00154999999999994</v>
+        <v>0.01614999999999878</v>
       </c>
       <c r="L54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.004999999999999893</v>
+        <v>0.01310000000000056</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.72</v>
+        <v>1.01</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.55</v>
+        <v>-0.88</v>
       </c>
       <c r="F55" t="n">
-        <v>7.96</v>
+        <v>-3.16</v>
       </c>
       <c r="G55" t="n">
-        <v>0.45</v>
+        <v>25.86</v>
       </c>
       <c r="H55" t="n">
-        <v>0.721</v>
+        <v>1.024</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7127</v>
+        <v>1.0347</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7</v>
+        <v>1.036</v>
       </c>
       <c r="K55" t="n">
-        <v>0.00154999999999994</v>
+        <v>-0.001699999999999813</v>
       </c>
       <c r="L55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003599999999999937</v>
+        <v>-0.002000000000000224</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.61</v>
+        <v>-6.37</v>
       </c>
       <c r="G56" t="n">
-        <v>4.61</v>
+        <v>0.51</v>
       </c>
       <c r="H56" t="n">
-        <v>0.333</v>
+        <v>0.534</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3319</v>
+        <v>0.5326000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>0.328</v>
+        <v>0.531</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0001499999999999835</v>
+        <v>-0.0002500000000000835</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0007999999999999674</v>
+        <v>0.0001000000000001</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.66</v>
+        <v>1.12</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.61</v>
+        <v>-0.98</v>
       </c>
       <c r="F57" t="n">
-        <v>7.73</v>
+        <v>-3.37</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0.662</v>
+        <v>1.123</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6562</v>
+        <v>1.1118</v>
       </c>
       <c r="J57" t="n">
-        <v>0.636</v>
+        <v>1.1</v>
       </c>
       <c r="K57" t="n">
-        <v>0.002900000000000014</v>
+        <v>0.003850000000000131</v>
       </c>
       <c r="L57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004199999999999982</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,98 +3308,98 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.61</v>
+        <v>-1.07</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.8</v>
+        <v>7.88</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01</v>
+        <v>0.77</v>
       </c>
       <c r="H58" t="n">
-        <v>0.985</v>
+        <v>0.831</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9833000000000001</v>
+        <v>0.8221000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>0.974</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.002200000000000091</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.58</v>
+        <v>1.19</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.68</v>
+        <v>-1.16</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.35</v>
+        <v>7.28</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06</v>
+        <v>2.86</v>
       </c>
       <c r="H59" t="n">
-        <v>0.59</v>
+        <v>1.194</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5871</v>
+        <v>1.1828</v>
       </c>
       <c r="J59" t="n">
-        <v>0.577</v>
+        <v>1.167</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0009500000000000064</v>
+        <v>0.002700000000000147</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N59" t="b">
         <v>1</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3425,81 +3425,81 @@
         <v>0.37</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8</v>
+        <v>-1.87</v>
       </c>
       <c r="F60" t="n">
-        <v>3.6</v>
+        <v>1.66</v>
       </c>
       <c r="G60" t="n">
-        <v>7.81</v>
+        <v>6.88</v>
       </c>
       <c r="H60" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3753</v>
+        <v>0.3768</v>
       </c>
       <c r="J60" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="K60" t="n">
-        <v>0.000350000000000017</v>
+        <v>0.0003500000000000725</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0003000000000000225</v>
+        <v>-0.0003000000000000225</v>
       </c>
       <c r="N60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.48</v>
+        <v>1.21</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.83</v>
+        <v>-3.05</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.65</v>
+        <v>21.06</v>
       </c>
       <c r="G61" t="n">
-        <v>0.26</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>0.488</v>
+        <v>1.184</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4866</v>
+        <v>1.1622</v>
       </c>
       <c r="J61" t="n">
-        <v>0.48</v>
+        <v>1.128</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0001000000000000445</v>
+        <v>0.007100000000000106</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0007000000000000894</v>
+        <v>0.009199999999999875</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.84</v>
+        <v>-3.45</v>
       </c>
       <c r="F62" t="n">
-        <v>62.76</v>
+        <v>43.33</v>
       </c>
       <c r="G62" t="n">
-        <v>81.08</v>
+        <v>23.38</v>
       </c>
       <c r="H62" t="n">
-        <v>1.146</v>
+        <v>0.574</v>
       </c>
       <c r="I62" t="n">
-        <v>1.0922</v>
+        <v>0.5522</v>
       </c>
       <c r="J62" t="n">
-        <v>1.02</v>
+        <v>0.525</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01469999999999994</v>
+        <v>0.004450000000000065</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.02049999999999996</v>
+        <v>0.004099999999999993</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.58</v>
+        <v>1.12</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.86</v>
+        <v>-4.83</v>
       </c>
       <c r="F63" t="n">
-        <v>48.46</v>
+        <v>54.9</v>
       </c>
       <c r="G63" t="n">
-        <v>26.28</v>
+        <v>87.78</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5669999999999999</v>
+        <v>1.163</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5463</v>
+        <v>1.1069</v>
       </c>
       <c r="J63" t="n">
-        <v>0.52</v>
+        <v>1.034</v>
       </c>
       <c r="K63" t="n">
-        <v>0.005200000000000093</v>
+        <v>0.01190000000000002</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.007900000000000018</v>
+        <v>0.0101</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-12.27</v>
+        <v>0.59</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>2.43</v>
       </c>
       <c r="H2" t="n">
-        <v>0.99</v>
+        <v>1.328</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9873</v>
+        <v>1.3057</v>
       </c>
       <c r="J2" t="n">
-        <v>0.989</v>
+        <v>1.267</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.000000000010552e-05</v>
+        <v>0.006450000000000067</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.000200000000000089</v>
+        <v>0.01329999999999987</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.18</v>
+        <v>0.86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.77</v>
+        <v>1.41</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.34</v>
+        <v>-4.96</v>
       </c>
       <c r="G3" t="n">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.173</v>
+        <v>0.851</v>
       </c>
       <c r="I3" t="n">
-        <v>1.172</v>
+        <v>0.8503999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>1.178</v>
+        <v>0.846</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0004499999999998394</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="F4" t="n">
-        <v>4.12</v>
+        <v>2.61</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>1.241</v>
+        <v>1.471</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2276</v>
+        <v>1.4653</v>
       </c>
       <c r="J4" t="n">
-        <v>1.219</v>
+        <v>1.46</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002700000000000147</v>
+        <v>0.002049999999999885</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005099999999999882</v>
+        <v>0.00240000000000018</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>1.68</v>
       </c>
       <c r="E5" t="n">
-        <v>0.51</v>
+        <v>1.02</v>
       </c>
       <c r="F5" t="n">
-        <v>1.19</v>
+        <v>13.33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601</v>
+        <v>1.66</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5995999999999999</v>
+        <v>1.6503</v>
       </c>
       <c r="J5" t="n">
-        <v>0.607</v>
+        <v>1.629</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>0.00395000000000012</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.000300000000000189</v>
+        <v>0.006500000000000172</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.02</v>
+        <v>0.53</v>
       </c>
       <c r="E6" t="n">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.4</v>
+        <v>-5.49</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.65</v>
       </c>
       <c r="H6" t="n">
-        <v>1.023</v>
+        <v>0.532</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0234</v>
+        <v>0.5332000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>1.023</v>
+        <v>0.531</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.000299999999999967</v>
+        <v>-0.000200000000000089</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="E7" t="n">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.44</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
-        <v>9.56</v>
+        <v>0.83</v>
       </c>
       <c r="H7" t="n">
-        <v>1.569</v>
+        <v>1.173</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5689</v>
+        <v>1.1734</v>
       </c>
       <c r="J7" t="n">
-        <v>1.561</v>
+        <v>1.164</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004500000000000615</v>
+        <v>0.0005500000000000504</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.003900000000000015</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>2.47</v>
+        <v>-0.99</v>
       </c>
       <c r="G8" t="n">
-        <v>0.36</v>
+        <v>8.69</v>
       </c>
       <c r="H8" t="n">
-        <v>1.207</v>
+        <v>1.001</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2021</v>
+        <v>1.0098</v>
       </c>
       <c r="J8" t="n">
-        <v>1.209</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001300000000000079</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.99</v>
+        <v>1.48</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2</v>
+        <v>8.49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="H9" t="n">
-        <v>0.986</v>
+        <v>1.476</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9861000000000001</v>
+        <v>1.4785</v>
       </c>
       <c r="J9" t="n">
-        <v>0.985</v>
+        <v>1.475</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003499999999998504</v>
+        <v>0.001250000000000195</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>-9.999999999987796e-05</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.05</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-6.52</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.036</v>
-      </c>
       <c r="I10" t="n">
-        <v>1.0289</v>
+        <v>1.0507</v>
       </c>
       <c r="J10" t="n">
-        <v>1.017</v>
+        <v>1.045</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005300000000000082</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>124.53</v>
+        <v>1.1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="F11" t="n">
-        <v>1.52</v>
+        <v>-1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>56.5</v>
+        <v>3.06</v>
       </c>
       <c r="H11" t="n">
-        <v>124.119</v>
+        <v>1.105</v>
       </c>
       <c r="I11" t="n">
-        <v>123.6236</v>
+        <v>1.1164</v>
       </c>
       <c r="J11" t="n">
-        <v>123.371</v>
+        <v>1.119</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07170000000002119</v>
+        <v>-0.001700000000000035</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2215000000000202</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,98 +1008,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.78</v>
+        <v>4.89</v>
       </c>
       <c r="G12" t="n">
-        <v>0.16</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.429</v>
+        <v>1.173</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4283</v>
+        <v>1.1712</v>
       </c>
       <c r="J12" t="n">
-        <v>1.426</v>
+        <v>1.161</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001499999999998725</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.49</v>
+        <v>0.85</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0.59</v>
       </c>
       <c r="F13" t="n">
-        <v>17.99</v>
+        <v>5.71</v>
       </c>
       <c r="G13" t="n">
-        <v>18.5</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>0.496</v>
+        <v>0.857</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4852</v>
+        <v>0.8625999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.48</v>
+        <v>0.871</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000350000000000017</v>
+        <v>-0.002599999999999936</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0009000000000000119</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>1.02</v>
       </c>
       <c r="E14" t="n">
-        <v>0.18</v>
+        <v>0.59</v>
       </c>
       <c r="F14" t="n">
-        <v>-11.2</v>
+        <v>-2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>5.39</v>
+        <v>21.75</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5649999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5711999999999999</v>
+        <v>1.0357</v>
       </c>
       <c r="J14" t="n">
-        <v>0.58</v>
+        <v>1.036</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.002799999999999914</v>
+        <v>-0.001199999999999868</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.003800000000000026</v>
+        <v>-0.001000000000000334</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XD中证红利ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.52</v>
+        <v>0.55</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.08</v>
+        <v>-10.71</v>
       </c>
       <c r="G15" t="n">
-        <v>0.89</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1.53</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5289</v>
+        <v>0.5676</v>
       </c>
       <c r="J15" t="n">
-        <v>1.527</v>
+        <v>0.578</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0004499999999998394</v>
+        <v>-0.002449999999999952</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.003099999999999992</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.75</v>
+        <v>0.92</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="F16" t="n">
-        <v>0.55</v>
+        <v>-4.58</v>
       </c>
       <c r="G16" t="n">
-        <v>15.71</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.752</v>
+        <v>0.91</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7529</v>
+        <v>0.9046</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>0.9</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00140000000000029</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000100000000000211</v>
+        <v>0.003799999999999915</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.48</v>
+        <v>0.93</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.65</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.489</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4878</v>
+        <v>0.9445</v>
       </c>
       <c r="J17" t="n">
-        <v>0.481</v>
+        <v>0.95</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000299999999999967</v>
+        <v>-0.00165000000000004</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>-0.001699999999999924</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.04</v>
+        <v>1.13</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.74</v>
+        <v>2.45</v>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>1.04</v>
       </c>
       <c r="H18" t="n">
-        <v>2.037</v>
+        <v>1.128</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0308</v>
+        <v>1.1302</v>
       </c>
       <c r="J18" t="n">
-        <v>2.018</v>
+        <v>1.117</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001399999999999846</v>
+        <v>0.0003499999999998504</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.003399999999999848</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.66</v>
+        <v>1.13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="F19" t="n">
-        <v>6.6</v>
+        <v>55.45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.669</v>
+        <v>1.177</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6661</v>
+        <v>1.1249</v>
       </c>
       <c r="J19" t="n">
-        <v>0.658</v>
+        <v>1.049</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004999999999999449</v>
+        <v>0.01144999999999974</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001199999999999979</v>
+        <v>0.01100000000000012</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1425,31 +1425,31 @@
         <v>0.65</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F20" t="n">
-        <v>-14.66</v>
+        <v>-14.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.11</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
-        <v>0.652</v>
+        <v>0.65</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6481</v>
+        <v>0.6484</v>
       </c>
       <c r="J20" t="n">
-        <v>0.652</v>
+        <v>0.651</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0008000000000000229</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.99</v>
+        <v>2.03</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.03</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.82</v>
+        <v>-3.24</v>
       </c>
       <c r="G21" t="n">
-        <v>19.25</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>3.99</v>
+        <v>2.028</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9848</v>
+        <v>2.0191</v>
       </c>
       <c r="J21" t="n">
-        <v>3.982</v>
+        <v>2.006</v>
       </c>
       <c r="K21" t="n">
-        <v>5.000000000032756e-05</v>
+        <v>0.001099999999999657</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003099999999999881</v>
+        <v>0.005799999999999805</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.09</v>
+        <v>0.27</v>
       </c>
       <c r="F22" t="n">
-        <v>1.25</v>
+        <v>10.09</v>
       </c>
       <c r="G22" t="n">
-        <v>4.13</v>
+        <v>0.32</v>
       </c>
       <c r="H22" t="n">
-        <v>1.049</v>
+        <v>1.116</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0489</v>
+        <v>1.114</v>
       </c>
       <c r="J22" t="n">
-        <v>1.044</v>
+        <v>1.113</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0006500000000000394</v>
+        <v>-0.001950000000000118</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000300000000000189</v>
+        <v>0.001499999999999835</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.09</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>3.23</v>
+        <v>-2.69</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>1.087</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>1.083</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>1.077</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001049999999999995</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002099999999999991</v>
+        <v>-0.001999999999999891</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.96</v>
+        <v>1.19</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>12.54</v>
+        <v>-1.09</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="H24" t="n">
-        <v>0.951</v>
+        <v>1.175</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9368000000000001</v>
+        <v>1.1726</v>
       </c>
       <c r="J24" t="n">
-        <v>0.928</v>
+        <v>1.178</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002200000000000091</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004699999999999926</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1</v>
+        <v>0.24</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3</v>
+        <v>3.55</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.011</v>
+        <v>0.845</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0074</v>
+        <v>0.8423999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>1.006</v>
+        <v>0.836</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.999999999976694e-05</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.93</v>
+        <v>1.4</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.11</v>
+        <v>0.21</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.54</v>
+        <v>7.19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="H26" t="n">
-        <v>0.944</v>
+        <v>1.389</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9465999999999999</v>
+        <v>1.3804</v>
       </c>
       <c r="J26" t="n">
-        <v>0.952</v>
+        <v>1.365</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.001100000000000101</v>
+        <v>0.002449999999999841</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.003800000000000026</v>
+        <v>0.005000000000000115</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.84</v>
+        <v>124.72</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="G27" t="n">
-        <v>0.75</v>
+        <v>52.03</v>
       </c>
       <c r="H27" t="n">
-        <v>0.844</v>
+        <v>124.245</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8403</v>
+        <v>123.7722</v>
       </c>
       <c r="J27" t="n">
-        <v>0.835</v>
+        <v>123.446</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0005499999999999394</v>
+        <v>0.0899999999999892</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.000500000000000056</v>
+        <v>0.1774000000000058</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F28" t="n">
-        <v>-6.28</v>
+        <v>-0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="H28" t="n">
-        <v>0.852</v>
+        <v>1.01</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8481</v>
+        <v>1.0082</v>
       </c>
       <c r="J28" t="n">
-        <v>0.846</v>
+        <v>1.006</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0001499999999999835</v>
+        <v>0.0002500000000000835</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>XD沪深300ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.72</v>
+        <v>3.9</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F29" t="n">
-        <v>7.81</v>
+        <v>-0.74</v>
       </c>
       <c r="G29" t="n">
-        <v>0.23</v>
+        <v>18.74</v>
       </c>
       <c r="H29" t="n">
-        <v>0.725</v>
+        <v>3.972</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7165</v>
+        <v>3.9758</v>
       </c>
       <c r="J29" t="n">
-        <v>0.702</v>
+        <v>3.977</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001650000000000151</v>
+        <v>-0.004449999999999843</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003000000000000003</v>
+        <v>-0.005899999999999572</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>6.96</v>
+        <v>-4.72</v>
       </c>
       <c r="G30" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="H30" t="n">
-        <v>1.389</v>
+        <v>1.429</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3804</v>
+        <v>1.4283</v>
       </c>
       <c r="J30" t="n">
-        <v>1.365</v>
+        <v>1.426</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002449999999999841</v>
+        <v>0.0001499999999998725</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005000000000000115</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>1.52</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08</v>
+        <v>1.54</v>
       </c>
       <c r="H31" t="n">
-        <v>0.599</v>
+        <v>1.53</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5942000000000001</v>
+        <v>1.5293</v>
       </c>
       <c r="J31" t="n">
-        <v>0.593</v>
+        <v>1.528</v>
       </c>
       <c r="K31" t="n">
-        <v>9.999999999987796e-05</v>
+        <v>-0.0001499999999998725</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001000000000000001</v>
+        <v>-0.000500000000000167</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.11</v>
+        <v>7.5</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.18</v>
+        <v>0.05</v>
       </c>
       <c r="F32" t="n">
-        <v>9.789999999999999</v>
+        <v>26.57</v>
       </c>
       <c r="G32" t="n">
-        <v>0.25</v>
+        <v>28.87</v>
       </c>
       <c r="H32" t="n">
-        <v>1.119</v>
+        <v>7.484</v>
       </c>
       <c r="I32" t="n">
-        <v>1.1128</v>
+        <v>7.4734</v>
       </c>
       <c r="J32" t="n">
-        <v>1.116</v>
+        <v>7.417</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.001099999999999879</v>
+        <v>0.01614999999999878</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.000400000000000178</v>
+        <v>0.01310000000000056</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.47</v>
+        <v>0.6</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="G33" t="n">
-        <v>0.64</v>
+        <v>0.05</v>
       </c>
       <c r="H33" t="n">
-        <v>1.469</v>
+        <v>0.601</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4639</v>
+        <v>0.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.458</v>
+        <v>0.606</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001249999999999973</v>
+        <v>-0.0008999999999999009</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>12.19</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>4.58</v>
+        <v>0.59</v>
       </c>
       <c r="H34" t="n">
-        <v>1.658</v>
+        <v>0.793</v>
       </c>
       <c r="I34" t="n">
-        <v>1.6493</v>
+        <v>0.7976</v>
       </c>
       <c r="J34" t="n">
-        <v>1.628</v>
+        <v>0.791</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003450000000000175</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.005499999999999838</v>
+        <v>0.001799999999999913</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.25</v>
+        <v>-0.09</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.94</v>
+        <v>3.13</v>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8129999999999999</v>
+        <v>1.087</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8171999999999999</v>
+        <v>1.083</v>
       </c>
       <c r="J35" t="n">
-        <v>0.819</v>
+        <v>1.077</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.002049999999999996</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.003000000000000114</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>3.17</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.25</v>
+        <v>-0.09</v>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="G36" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8</v>
+        <v>3.179</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7976</v>
+        <v>3.1718</v>
       </c>
       <c r="J36" t="n">
-        <v>0.792</v>
+        <v>3.149</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.001949999999999896</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.004500000000000171</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,98 +2258,98 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.17</v>
+        <v>2.75</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.26</v>
+        <v>-0.11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.27</v>
+        <v>0.44</v>
       </c>
       <c r="G37" t="n">
-        <v>2.58</v>
+        <v>11.76</v>
       </c>
       <c r="H37" t="n">
-        <v>1.171</v>
+        <v>2.752</v>
       </c>
       <c r="I37" t="n">
-        <v>1.1692</v>
+        <v>2.7529</v>
       </c>
       <c r="J37" t="n">
-        <v>1.159</v>
+        <v>2.76</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001099999999999879</v>
+        <v>-0.00140000000000029</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.000100000000000211</v>
       </c>
       <c r="N37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.17</v>
+        <v>2.04</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.28</v>
+        <v>-0.15</v>
       </c>
       <c r="F38" t="n">
-        <v>1.12</v>
+        <v>-5.87</v>
       </c>
       <c r="G38" t="n">
-        <v>3.17</v>
+        <v>2.22</v>
       </c>
       <c r="H38" t="n">
-        <v>3.184</v>
+        <v>2.037</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1674</v>
+        <v>2.0308</v>
       </c>
       <c r="J38" t="n">
-        <v>3.148</v>
+        <v>2.018</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001599999999999824</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0.002699999999999925</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.985</v>
+        <v>0.987</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9855</v>
+        <v>0.9856</v>
       </c>
       <c r="J39" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0002499999999999725</v>
+        <v>0.0007499999999998064</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0005999999999998229</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,98 +2408,98 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="E40" t="n">
         <v>-0.31</v>
       </c>
       <c r="F40" t="n">
-        <v>7.4</v>
+        <v>12.19</v>
       </c>
       <c r="G40" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="H40" t="n">
-        <v>0.665</v>
+        <v>0.957</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6589</v>
+        <v>0.9429000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>0.639</v>
+        <v>0.931</v>
       </c>
       <c r="K40" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.002250000000000085</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00109999999999999</v>
+        <v>0.00550000000000006</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.1</v>
+        <v>-3.74</v>
       </c>
       <c r="G41" t="n">
-        <v>3.85</v>
+        <v>5.07</v>
       </c>
       <c r="H41" t="n">
-        <v>0.909</v>
+        <v>1.569</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9012</v>
+        <v>1.5689</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9</v>
+        <v>1.561</v>
       </c>
       <c r="K41" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="F42" t="n">
-        <v>7.75</v>
+        <v>20.66</v>
       </c>
       <c r="G42" t="n">
-        <v>0.18</v>
+        <v>1.14</v>
       </c>
       <c r="H42" t="n">
-        <v>1.476</v>
+        <v>1.187</v>
       </c>
       <c r="I42" t="n">
-        <v>1.4799</v>
+        <v>1.169</v>
       </c>
       <c r="J42" t="n">
-        <v>1.473</v>
+        <v>1.133</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001149999999999762</v>
+        <v>0.00649999999999995</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.009500000000000064</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,98 +2558,98 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.34</v>
+        <v>-0.36</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.69</v>
+        <v>42.82</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06</v>
+        <v>17.2</v>
       </c>
       <c r="H43" t="n">
-        <v>0.593</v>
+        <v>0.579</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5896999999999999</v>
+        <v>0.5587</v>
       </c>
       <c r="J43" t="n">
-        <v>0.579</v>
+        <v>0.531</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00109999999999999</v>
+        <v>0.004000000000000115</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.004099999999999993</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.36</v>
+        <v>-0.49</v>
       </c>
       <c r="F44" t="n">
-        <v>18</v>
+        <v>-3.87</v>
       </c>
       <c r="G44" t="n">
-        <v>2.81</v>
+        <v>0.04</v>
       </c>
       <c r="H44" t="n">
-        <v>1.131</v>
+        <v>1.023</v>
       </c>
       <c r="I44" t="n">
-        <v>1.1166</v>
+        <v>1.0228</v>
       </c>
       <c r="J44" t="n">
-        <v>1.109</v>
+        <v>1.023</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001800000000000024</v>
+        <v>-0.000600000000000156</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.36</v>
+        <v>-0.5</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.49</v>
+        <v>-1.81</v>
       </c>
       <c r="G45" t="n">
-        <v>1.38</v>
+        <v>0.06</v>
       </c>
       <c r="H45" t="n">
-        <v>1.105</v>
+        <v>0.599</v>
       </c>
       <c r="I45" t="n">
-        <v>1.1164</v>
+        <v>0.5958</v>
       </c>
       <c r="J45" t="n">
-        <v>1.119</v>
+        <v>0.593</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.001700000000000035</v>
+        <v>0.0001499999999999835</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.35</v>
+        <v>0.36</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.37</v>
+        <v>-0.54</v>
       </c>
       <c r="F46" t="n">
-        <v>-7.39</v>
+        <v>1.11</v>
       </c>
       <c r="G46" t="n">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="H46" t="n">
-        <v>1.355</v>
+        <v>0.375</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3524</v>
+        <v>0.3758</v>
       </c>
       <c r="J46" t="n">
-        <v>1.351</v>
+        <v>0.372</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0002499999999998614</v>
+        <v>-0.0001499999999999835</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0004999999999999449</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.03</v>
+        <v>1.26</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.44</v>
+        <v>-0.55</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.52</v>
+        <v>3.54</v>
       </c>
       <c r="G47" t="n">
-        <v>8.630000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H47" t="n">
-        <v>2.031</v>
+        <v>1.247</v>
       </c>
       <c r="I47" t="n">
-        <v>2.0143</v>
+        <v>1.2327</v>
       </c>
       <c r="J47" t="n">
-        <v>2.005</v>
+        <v>1.221</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0.004100000000000215</v>
+        <v>0.005599999999999827</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.47</v>
+        <v>-0.7</v>
       </c>
       <c r="F48" t="n">
-        <v>5.09</v>
+        <v>7.06</v>
       </c>
       <c r="G48" t="n">
-        <v>1.31</v>
+        <v>0.27</v>
       </c>
       <c r="H48" t="n">
-        <v>0.862</v>
+        <v>0.723</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8634999999999999</v>
+        <v>0.7178</v>
       </c>
       <c r="J48" t="n">
-        <v>0.874</v>
+        <v>0.704</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.002499999999999947</v>
+        <v>0.001349999999999962</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.002600000000000047</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0.99</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.78</v>
+        <v>-12.97</v>
       </c>
       <c r="G49" t="n">
-        <v>6.23</v>
+        <v>1.72</v>
       </c>
       <c r="H49" t="n">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0088</v>
+        <v>0.9872</v>
       </c>
       <c r="J49" t="n">
-        <v>1.01</v>
+        <v>0.989</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.001650000000000151</v>
+        <v>0.000199999999999867</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.51</v>
+        <v>-0.83</v>
       </c>
       <c r="F50" t="n">
-        <v>0.34</v>
+        <v>1.62</v>
       </c>
       <c r="G50" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="H50" t="n">
-        <v>1.178</v>
+        <v>1.204</v>
       </c>
       <c r="I50" t="n">
-        <v>1.1705</v>
+        <v>1.201</v>
       </c>
       <c r="J50" t="n">
-        <v>1.164</v>
+        <v>1.208</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0001500000000003165</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.001100000000000101</v>
+        <v>-0.001299999999999857</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.33</v>
+        <v>0.96</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.61</v>
+        <v>-0.83</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
       <c r="G51" t="n">
-        <v>5.61</v>
+        <v>0.01</v>
       </c>
       <c r="H51" t="n">
-        <v>0.333</v>
+        <v>0.983</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3329</v>
+        <v>0.9845</v>
       </c>
       <c r="J51" t="n">
-        <v>0.329</v>
+        <v>0.976</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.0002499999999998614</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0002000000000000335</v>
+        <v>-0.001600000000000046</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,98 +3008,98 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.67</v>
+        <v>-0.84</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.47</v>
+        <v>6.38</v>
       </c>
       <c r="G52" t="n">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="H52" t="n">
-        <v>1.324</v>
+        <v>1.196</v>
       </c>
       <c r="I52" t="n">
-        <v>1.2942</v>
+        <v>1.1862</v>
       </c>
       <c r="J52" t="n">
-        <v>1.261</v>
+        <v>1.171</v>
       </c>
       <c r="K52" t="n">
-        <v>0.005400000000000071</v>
+        <v>0.002449999999999841</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0.009099999999999886</v>
+        <v>0.00199999999999978</v>
       </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.12</v>
+        <v>0.47</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.79</v>
+        <v>-0.84</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9</v>
+        <v>-2.47</v>
       </c>
       <c r="G53" t="n">
-        <v>0.91</v>
+        <v>0.27</v>
       </c>
       <c r="H53" t="n">
-        <v>1.136</v>
+        <v>0.485</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1276</v>
+        <v>0.4869</v>
       </c>
       <c r="J53" t="n">
-        <v>1.117</v>
+        <v>0.481</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.000199999999999978</v>
+        <v>-0.000149999999999928</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.00109999999999999</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7.5</v>
+        <v>0.32</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.85</v>
+        <v>-0.92</v>
       </c>
       <c r="F54" t="n">
-        <v>26.5</v>
+        <v>-0.92</v>
       </c>
       <c r="G54" t="n">
-        <v>37.76</v>
+        <v>4.43</v>
       </c>
       <c r="H54" t="n">
-        <v>7.484</v>
+        <v>0.331</v>
       </c>
       <c r="I54" t="n">
-        <v>7.4734</v>
+        <v>0.3319</v>
       </c>
       <c r="J54" t="n">
-        <v>7.417</v>
+        <v>0.328</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01614999999999878</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01310000000000056</v>
+        <v>-0.0008000000000000784</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.01</v>
+        <v>0.83</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.88</v>
+        <v>-0.96</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.16</v>
+        <v>6.85</v>
       </c>
       <c r="G55" t="n">
-        <v>25.86</v>
+        <v>0.78</v>
       </c>
       <c r="H55" t="n">
-        <v>1.024</v>
+        <v>0.83</v>
       </c>
       <c r="I55" t="n">
-        <v>1.0347</v>
+        <v>0.8244999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>1.036</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.001699999999999813</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.002000000000000224</v>
+        <v>0.003099999999999881</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.53</v>
+        <v>1.11</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.98</v>
       </c>
       <c r="F56" t="n">
-        <v>-6.37</v>
+        <v>16.84</v>
       </c>
       <c r="G56" t="n">
-        <v>0.51</v>
+        <v>2.38</v>
       </c>
       <c r="H56" t="n">
-        <v>0.534</v>
+        <v>1.126</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5326000000000001</v>
+        <v>1.1184</v>
       </c>
       <c r="J56" t="n">
-        <v>0.531</v>
+        <v>1.109</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0002500000000000835</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0001000000000001</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.12</v>
+        <v>0.49</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.37</v>
+        <v>16.79</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>13.67</v>
       </c>
       <c r="H57" t="n">
-        <v>1.123</v>
+        <v>0.493</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1118</v>
+        <v>0.4868</v>
       </c>
       <c r="J57" t="n">
-        <v>1.1</v>
+        <v>0.48</v>
       </c>
       <c r="K57" t="n">
-        <v>0.003850000000000131</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,148 +3308,148 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.83</v>
+        <v>0.58</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.07</v>
+        <v>-1.03</v>
       </c>
       <c r="F58" t="n">
-        <v>7.88</v>
+        <v>-2.7</v>
       </c>
       <c r="G58" t="n">
-        <v>0.77</v>
+        <v>0.04</v>
       </c>
       <c r="H58" t="n">
-        <v>0.831</v>
+        <v>0.592</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8221000000000001</v>
+        <v>0.5906</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="K58" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0.002200000000000091</v>
+        <v>0.0001000000000001</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.19</v>
+        <v>0.66</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.16</v>
+        <v>-1.06</v>
       </c>
       <c r="F59" t="n">
-        <v>7.28</v>
+        <v>5.48</v>
       </c>
       <c r="G59" t="n">
-        <v>2.86</v>
+        <v>0.23</v>
       </c>
       <c r="H59" t="n">
-        <v>1.194</v>
+        <v>0.669</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1828</v>
+        <v>0.6669</v>
       </c>
       <c r="J59" t="n">
-        <v>1.167</v>
+        <v>0.659</v>
       </c>
       <c r="K59" t="n">
-        <v>0.002700000000000147</v>
+        <v>0.0007000000000000339</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.37</v>
+        <v>1.03</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.87</v>
+        <v>-1.15</v>
       </c>
       <c r="F60" t="n">
-        <v>1.66</v>
+        <v>-7.59</v>
       </c>
       <c r="G60" t="n">
-        <v>6.88</v>
+        <v>5.83</v>
       </c>
       <c r="H60" t="n">
-        <v>0.377</v>
+        <v>1.032</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3768</v>
+        <v>1.0269</v>
       </c>
       <c r="J60" t="n">
-        <v>0.373</v>
+        <v>1.016</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0003500000000000725</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.0003000000000000225</v>
+        <v>0.003299999999999859</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,98 +3458,98 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.21</v>
+        <v>0.65</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.05</v>
+        <v>-1.23</v>
       </c>
       <c r="F61" t="n">
-        <v>21.06</v>
+        <v>6.09</v>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>0.05</v>
       </c>
       <c r="H61" t="n">
-        <v>1.184</v>
+        <v>0.663</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1622</v>
+        <v>0.6606</v>
       </c>
       <c r="J61" t="n">
-        <v>1.128</v>
+        <v>0.642</v>
       </c>
       <c r="K61" t="n">
-        <v>0.007100000000000106</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.009199999999999875</v>
+        <v>0.0008000000000000229</v>
       </c>
       <c r="N61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.45</v>
+        <v>-1.26</v>
       </c>
       <c r="F62" t="n">
-        <v>43.33</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>23.38</v>
+        <v>1.26</v>
       </c>
       <c r="H62" t="n">
-        <v>0.574</v>
+        <v>1.347</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5522</v>
+        <v>1.3501</v>
       </c>
       <c r="J62" t="n">
-        <v>0.525</v>
+        <v>1.349</v>
       </c>
       <c r="K62" t="n">
-        <v>0.004450000000000065</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.004099999999999993</v>
+        <v>-0.000500000000000167</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.83</v>
+        <v>-1.34</v>
       </c>
       <c r="F63" t="n">
-        <v>54.9</v>
+        <v>-4.67</v>
       </c>
       <c r="G63" t="n">
-        <v>87.78</v>
+        <v>0.48</v>
       </c>
       <c r="H63" t="n">
-        <v>1.163</v>
+        <v>1.117</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1069</v>
+        <v>1.1114</v>
       </c>
       <c r="J63" t="n">
-        <v>1.034</v>
+        <v>1.102</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01190000000000002</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="L63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0101</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.37</v>
+        <v>125.03</v>
       </c>
       <c r="E2" t="n">
-        <v>2.08</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.59</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
-        <v>2.43</v>
+        <v>65.84</v>
       </c>
       <c r="H2" t="n">
-        <v>1.328</v>
+        <v>124.307</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3057</v>
+        <v>123.8032</v>
       </c>
       <c r="J2" t="n">
-        <v>1.267</v>
+        <v>123.462</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006450000000000067</v>
+        <v>0.1055000000000064</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01329999999999987</v>
+        <v>0.2083999999999833</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.41</v>
+        <v>0.09</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.96</v>
+        <v>-1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12</v>
+        <v>2.69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.851</v>
+        <v>1.1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8503999999999999</v>
+        <v>1.1135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.846</v>
+        <v>1.115</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0004499999999998394</v>
+        <v>-0.002249999999999863</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002900000000000014</v>
+        <v>-0.001700000000000257</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.49</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.61</v>
+        <v>-0.99</v>
       </c>
       <c r="G4" t="n">
-        <v>1.43</v>
+        <v>10.21</v>
       </c>
       <c r="H4" t="n">
-        <v>1.471</v>
+        <v>0.995</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4653</v>
+        <v>1.0073</v>
       </c>
       <c r="J4" t="n">
-        <v>1.46</v>
+        <v>1.007</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002049999999999885</v>
+        <v>-0.001600000000000046</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00240000000000018</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -675,22 +675,22 @@
         <v>1.68</v>
       </c>
       <c r="E5" t="n">
-        <v>1.02</v>
+        <v>-0.12</v>
       </c>
       <c r="F5" t="n">
-        <v>13.33</v>
+        <v>13.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.66</v>
+        <v>1.666</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6503</v>
+        <v>1.6551</v>
       </c>
       <c r="J5" t="n">
-        <v>1.629</v>
+        <v>1.636</v>
       </c>
       <c r="K5" t="n">
         <v>0.00395000000000012</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006500000000000172</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,98 +708,98 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>1.18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.95</v>
+        <v>-0.17</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.49</v>
+        <v>4.72</v>
       </c>
       <c r="G6" t="n">
-        <v>0.65</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>0.532</v>
+        <v>1.173</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5332000000000001</v>
+        <v>1.1712</v>
       </c>
       <c r="J6" t="n">
-        <v>0.531</v>
+        <v>1.161</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.000200000000000089</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.000500000000000167</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="F7" t="n">
-        <v>1.29</v>
+        <v>-4.84</v>
       </c>
       <c r="G7" t="n">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="H7" t="n">
-        <v>1.173</v>
+        <v>1.117</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1734</v>
+        <v>1.1114</v>
       </c>
       <c r="J7" t="n">
-        <v>1.164</v>
+        <v>1.102</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005500000000000504</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003900000000000015</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.99</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="n">
-        <v>8.69</v>
+        <v>1.03</v>
       </c>
       <c r="H8" t="n">
-        <v>1.001</v>
+        <v>1.171</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0098</v>
+        <v>1.1724</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>1.164</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001149999999999984</v>
+        <v>5.000000000032756e-05</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.48</v>
+        <v>0.86</v>
       </c>
       <c r="E9" t="n">
-        <v>0.68</v>
+        <v>-0.46</v>
       </c>
       <c r="F9" t="n">
-        <v>8.49</v>
+        <v>-5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="H9" t="n">
-        <v>1.476</v>
+        <v>0.851</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4785</v>
+        <v>0.8503999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>1.475</v>
+        <v>0.846</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001250000000000195</v>
+        <v>0.0004499999999998394</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.66</v>
+        <v>-0.49</v>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>-4.34</v>
       </c>
       <c r="G10" t="n">
-        <v>6.16</v>
+        <v>0.03</v>
       </c>
       <c r="H10" t="n">
-        <v>1.05</v>
+        <v>1.019</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0507</v>
+        <v>1.0214</v>
       </c>
       <c r="J10" t="n">
-        <v>1.045</v>
+        <v>1.023</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001099999999999879</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00120000000000009</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.1</v>
+        <v>2.02</v>
       </c>
       <c r="E11" t="n">
-        <v>0.64</v>
+        <v>-0.49</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.87</v>
+        <v>-6.34</v>
       </c>
       <c r="G11" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="H11" t="n">
-        <v>1.105</v>
+        <v>2.032</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1164</v>
+        <v>2.0325</v>
       </c>
       <c r="J11" t="n">
-        <v>1.119</v>
+        <v>2.019</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001700000000000035</v>
+        <v>-0.0002499999999998614</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>-0.0009000000000001229</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,98 +1008,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.18</v>
+        <v>7.46</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>-0.51</v>
       </c>
       <c r="F12" t="n">
-        <v>4.89</v>
+        <v>25.93</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>27.42</v>
       </c>
       <c r="H12" t="n">
-        <v>1.173</v>
+        <v>7.521</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1712</v>
+        <v>7.4804</v>
       </c>
       <c r="J12" t="n">
-        <v>1.161</v>
+        <v>7.447</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.01255000000000006</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002099999999999991</v>
+        <v>-0.001400000000001178</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.85</v>
+        <v>1.56</v>
       </c>
       <c r="E13" t="n">
-        <v>0.59</v>
+        <v>-0.57</v>
       </c>
       <c r="F13" t="n">
-        <v>5.71</v>
+        <v>-4.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>5.98</v>
       </c>
       <c r="H13" t="n">
-        <v>0.857</v>
+        <v>1.565</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8625999999999999</v>
+        <v>1.5682</v>
       </c>
       <c r="J13" t="n">
-        <v>0.871</v>
+        <v>1.562</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.002599999999999936</v>
+        <v>-0.0002000000000002</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>-0.001499999999999835</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1122,34 +1122,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E14" t="n">
-        <v>0.59</v>
+        <v>-0.59</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.58</v>
+        <v>-3.16</v>
       </c>
       <c r="G14" t="n">
-        <v>21.75</v>
+        <v>22.91</v>
       </c>
       <c r="H14" t="n">
-        <v>1.026</v>
+        <v>1.018</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0357</v>
+        <v>1.0306</v>
       </c>
       <c r="J14" t="n">
-        <v>1.036</v>
+        <v>1.032</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.001199999999999868</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.001000000000000334</v>
+        <v>-0.003000000000000114</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="E15" t="n">
-        <v>0.55</v>
+        <v>-0.6</v>
       </c>
       <c r="F15" t="n">
-        <v>-10.71</v>
+        <v>6.2</v>
       </c>
       <c r="G15" t="n">
-        <v>8.720000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5676</v>
+        <v>0.8289</v>
       </c>
       <c r="J15" t="n">
-        <v>0.578</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002449999999999952</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.003099999999999992</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.92</v>
+        <v>2.73</v>
       </c>
       <c r="E16" t="n">
-        <v>0.55</v>
+        <v>-0.62</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.58</v>
+        <v>-0.18</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>22.06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.91</v>
+        <v>2.748</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9046</v>
+        <v>2.7512</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>2.757</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007500000000000284</v>
+        <v>-0.002499999999999947</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003799999999999915</v>
+        <v>-0.002499999999999947</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.93</v>
+        <v>1.39</v>
       </c>
       <c r="E17" t="n">
-        <v>0.54</v>
+        <v>-0.64</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9379999999999999</v>
+        <v>1.393</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9445</v>
+        <v>1.3856</v>
       </c>
       <c r="J17" t="n">
-        <v>0.95</v>
+        <v>1.369</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00165000000000004</v>
+        <v>0.001950000000000118</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001699999999999924</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="E18" t="n">
-        <v>0.53</v>
+        <v>-0.66</v>
       </c>
       <c r="F18" t="n">
-        <v>2.45</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>1.04</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>1.128</v>
+        <v>1.343</v>
       </c>
       <c r="I18" t="n">
-        <v>1.1302</v>
+        <v>1.3258</v>
       </c>
       <c r="J18" t="n">
-        <v>1.117</v>
+        <v>1.277</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003499999999998504</v>
+        <v>0.0059499999999999</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003399999999999848</v>
+        <v>0.01040000000000019</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.13</v>
+        <v>0.59</v>
       </c>
       <c r="E19" t="n">
-        <v>0.36</v>
+        <v>-0.67</v>
       </c>
       <c r="F19" t="n">
-        <v>55.45</v>
+        <v>0.51</v>
       </c>
       <c r="G19" t="n">
-        <v>67.01000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H19" t="n">
-        <v>1.177</v>
+        <v>0.599</v>
       </c>
       <c r="I19" t="n">
-        <v>1.1249</v>
+        <v>0.599</v>
       </c>
       <c r="J19" t="n">
-        <v>1.049</v>
+        <v>0.605</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01144999999999974</v>
+        <v>-0.001399999999999846</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01100000000000012</v>
+        <v>-0.000300000000000078</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.65</v>
+        <v>1.47</v>
       </c>
       <c r="E20" t="n">
-        <v>0.31</v>
+        <v>-0.67</v>
       </c>
       <c r="F20" t="n">
-        <v>-14.4</v>
+        <v>7.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="H20" t="n">
-        <v>0.65</v>
+        <v>1.474</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6484</v>
+        <v>1.4775</v>
       </c>
       <c r="J20" t="n">
-        <v>0.651</v>
+        <v>1.474</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001000000000000001</v>
+        <v>-0.002199999999999758</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.03</v>
+        <v>0.85</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.24</v>
+        <v>4.96</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>1.74</v>
       </c>
       <c r="H21" t="n">
-        <v>2.028</v>
+        <v>0.857</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0191</v>
+        <v>0.8625999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>2.006</v>
+        <v>0.871</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001099999999999657</v>
+        <v>-0.002599999999999936</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005799999999999805</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.11</v>
+        <v>0.55</v>
       </c>
       <c r="E22" t="n">
-        <v>0.27</v>
+        <v>-0.73</v>
       </c>
       <c r="F22" t="n">
-        <v>10.09</v>
+        <v>-11.36</v>
       </c>
       <c r="G22" t="n">
-        <v>0.32</v>
+        <v>4.58</v>
       </c>
       <c r="H22" t="n">
-        <v>1.116</v>
+        <v>0.55</v>
       </c>
       <c r="I22" t="n">
-        <v>1.114</v>
+        <v>0.5616</v>
       </c>
       <c r="J22" t="n">
-        <v>1.113</v>
+        <v>0.573</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001950000000000118</v>
+        <v>-0.002149999999999985</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001499999999999835</v>
+        <v>-0.002700000000000036</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8</v>
+        <v>1.51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.73</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.69</v>
+        <v>-1.73</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.528</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8160000000000001</v>
+        <v>1.5283</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.527</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.001149999999999984</v>
+        <v>-0.0006499999999998174</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.001999999999999891</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.09</v>
+        <v>-6.19</v>
       </c>
       <c r="G24" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="H24" t="n">
-        <v>1.175</v>
+        <v>0.532</v>
       </c>
       <c r="I24" t="n">
-        <v>1.1726</v>
+        <v>0.5332000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>1.178</v>
+        <v>0.531</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0008000000000001339</v>
+        <v>-0.000200000000000089</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.85</v>
+        <v>3.87</v>
       </c>
       <c r="E25" t="n">
-        <v>0.24</v>
+        <v>-0.79</v>
       </c>
       <c r="F25" t="n">
-        <v>3.55</v>
+        <v>-1.53</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>23.31</v>
       </c>
       <c r="H25" t="n">
-        <v>0.845</v>
+        <v>3.967</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8423999999999999</v>
+        <v>3.9776</v>
       </c>
       <c r="J25" t="n">
-        <v>0.836</v>
+        <v>3.976</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00120000000000009</v>
+        <v>-0.006650000000000045</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001900000000000013</v>
+        <v>-0.01040000000000019</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.21</v>
+        <v>-0.83</v>
       </c>
       <c r="F26" t="n">
-        <v>7.19</v>
+        <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.389</v>
+        <v>1.086</v>
       </c>
       <c r="I26" t="n">
-        <v>1.3804</v>
+        <v>1.0844</v>
       </c>
       <c r="J26" t="n">
-        <v>1.365</v>
+        <v>1.078</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002449999999999841</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005000000000000115</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>124.72</v>
+        <v>0.84</v>
       </c>
       <c r="E27" t="n">
-        <v>0.15</v>
+        <v>-0.83</v>
       </c>
       <c r="F27" t="n">
-        <v>1.68</v>
+        <v>2.69</v>
       </c>
       <c r="G27" t="n">
-        <v>52.03</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
-        <v>124.245</v>
+        <v>0.844</v>
       </c>
       <c r="I27" t="n">
-        <v>123.7722</v>
+        <v>0.8431</v>
       </c>
       <c r="J27" t="n">
-        <v>123.446</v>
+        <v>0.837</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0899999999999892</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1774000000000058</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>-0.83</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2</v>
+        <v>-4.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="H28" t="n">
-        <v>1.01</v>
+        <v>0.972</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0082</v>
+        <v>0.9795</v>
       </c>
       <c r="J28" t="n">
-        <v>1.006</v>
+        <v>0.976</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002500000000000835</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001100000000000101</v>
+        <v>-0.003899999999999904</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XD沪深300ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.9</v>
+        <v>0.71</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08</v>
+        <v>-0.84</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.74</v>
+        <v>6.16</v>
       </c>
       <c r="G29" t="n">
-        <v>18.74</v>
+        <v>1.01</v>
       </c>
       <c r="H29" t="n">
-        <v>3.972</v>
+        <v>0.723</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9758</v>
+        <v>0.7178</v>
       </c>
       <c r="J29" t="n">
-        <v>3.977</v>
+        <v>0.704</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.004449999999999843</v>
+        <v>0.001349999999999962</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.005899999999999572</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1922,34 +1922,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.84</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.72</v>
+        <v>-5.51</v>
       </c>
       <c r="G30" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H30" t="n">
-        <v>1.429</v>
+        <v>1.428</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4283</v>
+        <v>1.4296</v>
       </c>
       <c r="J30" t="n">
-        <v>1.426</v>
+        <v>1.425</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001499999999998725</v>
+        <v>-0.0006500000000000394</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.001099999999999879</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.52</v>
+        <v>0.93</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.86</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.01</v>
+        <v>-0.86</v>
       </c>
       <c r="G31" t="n">
-        <v>1.54</v>
+        <v>0.19</v>
       </c>
       <c r="H31" t="n">
-        <v>1.53</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5293</v>
+        <v>0.9418</v>
       </c>
       <c r="J31" t="n">
-        <v>1.528</v>
+        <v>0.946</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0001499999999998725</v>
+        <v>-0.00219999999999998</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.000500000000000167</v>
+        <v>-0.001600000000000157</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7.5</v>
+        <v>0.79</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05</v>
+        <v>-0.88</v>
       </c>
       <c r="F32" t="n">
-        <v>26.57</v>
+        <v>-3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>28.87</v>
+        <v>2.01</v>
       </c>
       <c r="H32" t="n">
-        <v>7.484</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>7.4734</v>
+        <v>0.8150000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>7.417</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01614999999999878</v>
+        <v>-0.00165000000000004</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01310000000000056</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.6</v>
+        <v>1.24</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
       <c r="F33" t="n">
-        <v>1.19</v>
+        <v>2.56</v>
       </c>
       <c r="G33" t="n">
         <v>0.05</v>
       </c>
       <c r="H33" t="n">
-        <v>0.601</v>
+        <v>1.243</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6</v>
+        <v>1.2307</v>
       </c>
       <c r="J33" t="n">
-        <v>0.606</v>
+        <v>1.22</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0008999999999999009</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.99</v>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>-1.19</v>
       </c>
       <c r="G34" t="n">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="H34" t="n">
-        <v>0.793</v>
+        <v>1.008</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7976</v>
+        <v>1.0072</v>
       </c>
       <c r="J34" t="n">
-        <v>0.791</v>
+        <v>1.005</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001500000000000945</v>
+        <v>-0.0002500000000000835</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001799999999999913</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.09</v>
+        <v>-1</v>
       </c>
       <c r="F35" t="n">
-        <v>3.13</v>
+        <v>19.46</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>1.22</v>
       </c>
       <c r="H35" t="n">
-        <v>1.087</v>
+        <v>1.206</v>
       </c>
       <c r="I35" t="n">
-        <v>1.083</v>
+        <v>1.1851</v>
       </c>
       <c r="J35" t="n">
-        <v>1.077</v>
+        <v>1.147</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.004799999999999915</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.17</v>
+        <v>0.59</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.09</v>
+        <v>-1.01</v>
       </c>
       <c r="F36" t="n">
-        <v>1.02</v>
+        <v>-2.8</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="H36" t="n">
-        <v>3.179</v>
+        <v>0.598</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1718</v>
+        <v>0.5972</v>
       </c>
       <c r="J36" t="n">
-        <v>3.149</v>
+        <v>0.593</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001949999999999896</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.004500000000000171</v>
+        <v>0</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.75</v>
+        <v>0.98</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.11</v>
+        <v>-1.01</v>
       </c>
       <c r="F37" t="n">
-        <v>0.44</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>11.76</v>
+        <v>0.04</v>
       </c>
       <c r="H37" t="n">
-        <v>2.752</v>
+        <v>0.985</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7529</v>
+        <v>0.9846</v>
       </c>
       <c r="J37" t="n">
-        <v>2.76</v>
+        <v>0.985</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.00140000000000029</v>
+        <v>0.0002500000000000835</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.000100000000000211</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.04</v>
+        <v>3.14</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.15</v>
+        <v>-1.04</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.87</v>
+        <v>-0.03</v>
       </c>
       <c r="G38" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="H38" t="n">
-        <v>2.037</v>
+        <v>3.172</v>
       </c>
       <c r="I38" t="n">
-        <v>2.0308</v>
+        <v>3.1761</v>
       </c>
       <c r="J38" t="n">
-        <v>2.018</v>
+        <v>3.151</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001399999999999846</v>
+        <v>-0.0006499999999998174</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.003600000000000048</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3</v>
+        <v>-1.06</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5</v>
+        <v>1.36</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="H39" t="n">
-        <v>0.987</v>
+        <v>1.124</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9856</v>
+        <v>1.1338</v>
       </c>
       <c r="J39" t="n">
-        <v>0.986</v>
+        <v>1.117</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0007499999999998064</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.31</v>
+        <v>-1.1</v>
       </c>
       <c r="F40" t="n">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.16</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.957</v>
+        <v>0.372</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9429000000000001</v>
+        <v>0.3745</v>
       </c>
       <c r="J40" t="n">
-        <v>0.931</v>
+        <v>0.373</v>
       </c>
       <c r="K40" t="n">
-        <v>0.002250000000000085</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00550000000000006</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.32</v>
+        <v>-1.18</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.74</v>
+        <v>-2.25</v>
       </c>
       <c r="G41" t="n">
-        <v>5.07</v>
+        <v>0.52</v>
       </c>
       <c r="H41" t="n">
-        <v>1.569</v>
+        <v>1.171</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5689</v>
+        <v>1.1706</v>
       </c>
       <c r="J41" t="n">
-        <v>1.561</v>
+        <v>1.177</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0004500000000000615</v>
+        <v>-0.0002000000000002</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001400000000000068</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.33</v>
+        <v>-1.22</v>
       </c>
       <c r="F42" t="n">
-        <v>20.66</v>
+        <v>4.19</v>
       </c>
       <c r="G42" t="n">
-        <v>1.14</v>
+        <v>0.27</v>
       </c>
       <c r="H42" t="n">
-        <v>1.187</v>
+        <v>0.662</v>
       </c>
       <c r="I42" t="n">
-        <v>1.169</v>
+        <v>0.6644</v>
       </c>
       <c r="J42" t="n">
-        <v>1.133</v>
+        <v>0.659</v>
       </c>
       <c r="K42" t="n">
-        <v>0.00649999999999995</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.009500000000000064</v>
+        <v>-0.002200000000000091</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.36</v>
+        <v>-1.23</v>
       </c>
       <c r="F43" t="n">
-        <v>42.82</v>
+        <v>-2.14</v>
       </c>
       <c r="G43" t="n">
-        <v>17.2</v>
+        <v>5.91</v>
       </c>
       <c r="H43" t="n">
-        <v>0.579</v>
+        <v>0.329</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5587</v>
+        <v>0.3309</v>
       </c>
       <c r="J43" t="n">
-        <v>0.531</v>
+        <v>0.329</v>
       </c>
       <c r="K43" t="n">
-        <v>0.004000000000000115</v>
+        <v>-0.000250000000000028</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.004099999999999993</v>
+        <v>-0.001400000000000012</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.49</v>
+        <v>-1.26</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.87</v>
+        <v>0.34</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="H44" t="n">
-        <v>1.023</v>
+        <v>1.202</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0228</v>
+        <v>1.2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.023</v>
+        <v>1.207</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-0.002100000000000213</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.000600000000000156</v>
+        <v>-0.002299999999999969</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5</v>
+        <v>-1.26</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.81</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="H45" t="n">
-        <v>0.599</v>
+        <v>1.114</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5958</v>
+        <v>1.113</v>
       </c>
       <c r="J45" t="n">
-        <v>0.593</v>
+        <v>1.113</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0001499999999999835</v>
+        <v>-0.002449999999999841</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.36</v>
+        <v>1.47</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.54</v>
+        <v>-1.27</v>
       </c>
       <c r="F46" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="G46" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="H46" t="n">
-        <v>0.375</v>
+        <v>1.467</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3758</v>
+        <v>1.4633</v>
       </c>
       <c r="J46" t="n">
-        <v>0.372</v>
+        <v>1.459</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0001499999999999835</v>
+        <v>0.001050000000000217</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.001299999999999968</v>
+        <v>0.000400000000000178</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.26</v>
+        <v>0.97</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.55</v>
+        <v>-1.42</v>
       </c>
       <c r="F47" t="n">
-        <v>3.54</v>
+        <v>-14.21</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06</v>
+        <v>1.91</v>
       </c>
       <c r="H47" t="n">
-        <v>1.247</v>
+        <v>0.985</v>
       </c>
       <c r="I47" t="n">
-        <v>1.2327</v>
+        <v>0.9852000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>1.221</v>
+        <v>0.988</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002900000000000125</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.005599999999999827</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.71</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.7</v>
+        <v>-1.43</v>
       </c>
       <c r="F48" t="n">
-        <v>7.06</v>
+        <v>-4.61</v>
       </c>
       <c r="G48" t="n">
-        <v>0.27</v>
+        <v>14.08</v>
       </c>
       <c r="H48" t="n">
-        <v>0.723</v>
+        <v>2.022</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7178</v>
+        <v>2.0161</v>
       </c>
       <c r="J48" t="n">
-        <v>0.704</v>
+        <v>2.004</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001349999999999962</v>
+        <v>-0.0004000000000004</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.8</v>
+        <v>-1.46</v>
       </c>
       <c r="F49" t="n">
-        <v>-12.97</v>
+        <v>10.55</v>
       </c>
       <c r="G49" t="n">
-        <v>1.72</v>
+        <v>0.14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9872</v>
+        <v>0.9409000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>0.989</v>
+        <v>0.93</v>
       </c>
       <c r="K49" t="n">
-        <v>0.000199999999999867</v>
+        <v>0.001249999999999973</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.19</v>
+        <v>0.47</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.83</v>
+        <v>-1.48</v>
       </c>
       <c r="F50" t="n">
-        <v>1.62</v>
+        <v>-3.91</v>
       </c>
       <c r="G50" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="H50" t="n">
-        <v>1.204</v>
+        <v>0.485</v>
       </c>
       <c r="I50" t="n">
-        <v>1.201</v>
+        <v>0.4869</v>
       </c>
       <c r="J50" t="n">
-        <v>1.208</v>
+        <v>0.481</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.001599999999999824</v>
+        <v>-0.000149999999999928</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.001299999999999857</v>
+        <v>-0.00109999999999999</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,39 +2958,39 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.83</v>
+        <v>-1.6</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.9</v>
+        <v>0.29</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01</v>
+        <v>7.01</v>
       </c>
       <c r="H51" t="n">
-        <v>0.983</v>
+        <v>1.05</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9845</v>
+        <v>1.0503</v>
       </c>
       <c r="J51" t="n">
-        <v>0.976</v>
+        <v>1.045</v>
       </c>
       <c r="K51" t="n">
         <v>-0.0002499999999998614</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.001600000000000046</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,98 +3008,98 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.18</v>
+        <v>0.9</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.84</v>
+        <v>-1.64</v>
       </c>
       <c r="F52" t="n">
-        <v>6.38</v>
+        <v>-6.14</v>
       </c>
       <c r="G52" t="n">
-        <v>1.54</v>
+        <v>6.59</v>
       </c>
       <c r="H52" t="n">
-        <v>1.196</v>
+        <v>0.906</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1862</v>
+        <v>0.9026</v>
       </c>
       <c r="J52" t="n">
-        <v>1.171</v>
+        <v>0.899</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002449999999999841</v>
+        <v>-0.0002500000000000835</v>
       </c>
       <c r="L52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00199999999999978</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.84</v>
+        <v>-1.7</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.47</v>
+        <v>-15.85</v>
       </c>
       <c r="G53" t="n">
-        <v>0.27</v>
+        <v>2.56</v>
       </c>
       <c r="H53" t="n">
-        <v>0.485</v>
+        <v>0.646</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4869</v>
+        <v>0.6483000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>0.481</v>
+        <v>0.649</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.000149999999999928</v>
+        <v>-0.001349999999999962</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.00109999999999999</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.92</v>
+        <v>-1.75</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.92</v>
+        <v>0.26</v>
       </c>
       <c r="G54" t="n">
-        <v>4.43</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
-        <v>0.331</v>
+        <v>0.791</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3319</v>
+        <v>0.7966</v>
       </c>
       <c r="J54" t="n">
-        <v>0.328</v>
+        <v>0.79</v>
       </c>
       <c r="K54" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.0003500000000000725</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0008000000000000784</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.96</v>
+        <v>-1.86</v>
       </c>
       <c r="F55" t="n">
-        <v>6.85</v>
+        <v>4.11</v>
       </c>
       <c r="G55" t="n">
-        <v>0.78</v>
+        <v>0.09</v>
       </c>
       <c r="H55" t="n">
-        <v>0.83</v>
+        <v>0.659</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8244999999999999</v>
+        <v>0.6586000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.641</v>
       </c>
       <c r="K55" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003099999999999881</v>
+        <v>-0.001199999999999979</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,98 +3208,98 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.98</v>
+        <v>-1.86</v>
       </c>
       <c r="F56" t="n">
-        <v>16.84</v>
+        <v>4.41</v>
       </c>
       <c r="G56" t="n">
-        <v>2.38</v>
+        <v>3.31</v>
       </c>
       <c r="H56" t="n">
-        <v>1.126</v>
+        <v>1.192</v>
       </c>
       <c r="I56" t="n">
-        <v>1.1184</v>
+        <v>1.1842</v>
       </c>
       <c r="J56" t="n">
-        <v>1.109</v>
+        <v>1.17</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.001449999999999951</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.002399999999999958</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.02</v>
+        <v>-1.91</v>
       </c>
       <c r="F57" t="n">
-        <v>16.79</v>
+        <v>-4.56</v>
       </c>
       <c r="G57" t="n">
-        <v>13.67</v>
+        <v>0.05</v>
       </c>
       <c r="H57" t="n">
-        <v>0.493</v>
+        <v>0.588</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4868</v>
+        <v>0.5886</v>
       </c>
       <c r="J57" t="n">
-        <v>0.48</v>
+        <v>0.579</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0005000000000000004</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.00219999999999998</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,98 +3308,98 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.58</v>
+        <v>1.01</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.03</v>
+        <v>-1.93</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.7</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04</v>
+        <v>8.93</v>
       </c>
       <c r="H58" t="n">
-        <v>0.592</v>
+        <v>1.034</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5906</v>
+        <v>1.0317</v>
       </c>
       <c r="J58" t="n">
-        <v>0.58</v>
+        <v>1.017</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0007999999999999119</v>
+        <v>-0.0005500000000000504</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0001000000000001</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.66</v>
+        <v>1.31</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.06</v>
+        <v>-2.02</v>
       </c>
       <c r="F59" t="n">
-        <v>5.48</v>
+        <v>-10.4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.23</v>
+        <v>1.66</v>
       </c>
       <c r="H59" t="n">
-        <v>0.669</v>
+        <v>1.342</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6669</v>
+        <v>1.3489</v>
       </c>
       <c r="J59" t="n">
-        <v>0.659</v>
+        <v>1.346</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0007000000000000339</v>
+        <v>-0.003149999999999986</v>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.000299999999999967</v>
+        <v>-0.004399999999999959</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.15</v>
+        <v>-2.07</v>
       </c>
       <c r="F60" t="n">
-        <v>-7.59</v>
+        <v>14.42</v>
       </c>
       <c r="G60" t="n">
-        <v>5.83</v>
+        <v>3.57</v>
       </c>
       <c r="H60" t="n">
-        <v>1.032</v>
+        <v>1.116</v>
       </c>
       <c r="I60" t="n">
-        <v>1.0269</v>
+        <v>1.1212</v>
       </c>
       <c r="J60" t="n">
-        <v>1.016</v>
+        <v>1.11</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0004999999999999449</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.003299999999999859</v>
+        <v>-0.001400000000000068</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,151 +3458,151 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.23</v>
+        <v>-2.46</v>
       </c>
       <c r="F61" t="n">
-        <v>6.09</v>
+        <v>13.91</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05</v>
+        <v>18.55</v>
       </c>
       <c r="H61" t="n">
-        <v>0.663</v>
+        <v>0.487</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6606</v>
+        <v>0.4893</v>
       </c>
       <c r="J61" t="n">
-        <v>0.642</v>
+        <v>0.48</v>
       </c>
       <c r="K61" t="n">
-        <v>0.002099999999999991</v>
+        <v>-0.0004999999999998894</v>
       </c>
       <c r="L61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0008000000000000229</v>
+        <v>-0.0001000000000000445</v>
       </c>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.34</v>
+        <v>0.54</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.26</v>
+        <v>-2.87</v>
       </c>
       <c r="F62" t="n">
-        <v>-8.550000000000001</v>
+        <v>38.72</v>
       </c>
       <c r="G62" t="n">
-        <v>1.26</v>
+        <v>20.4</v>
       </c>
       <c r="H62" t="n">
-        <v>1.347</v>
+        <v>0.572</v>
       </c>
       <c r="I62" t="n">
-        <v>1.3501</v>
+        <v>0.5644</v>
       </c>
       <c r="J62" t="n">
-        <v>1.349</v>
+        <v>0.537</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>0.001949999999999896</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.000500000000000167</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.34</v>
+        <v>-2.93</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.67</v>
+        <v>50.9</v>
       </c>
       <c r="G63" t="n">
-        <v>0.48</v>
+        <v>67.13</v>
       </c>
       <c r="H63" t="n">
-        <v>1.117</v>
+        <v>1.162</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1114</v>
+        <v>1.1414</v>
       </c>
       <c r="J63" t="n">
-        <v>1.102</v>
+        <v>1.069</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001749999999999918</v>
+        <v>0.006600000000000161</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.000300000000000189</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>125.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>2.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>-9.42</v>
       </c>
       <c r="G2" t="n">
-        <v>65.84</v>
+        <v>12.17</v>
       </c>
       <c r="H2" t="n">
-        <v>124.307</v>
+        <v>0.55</v>
       </c>
       <c r="I2" t="n">
-        <v>123.8032</v>
+        <v>0.5598</v>
       </c>
       <c r="J2" t="n">
-        <v>123.462</v>
+        <v>0.571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1055000000000064</v>
+        <v>-0.001699999999999924</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2083999999999833</v>
+        <v>-0.001800000000000135</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09</v>
+        <v>1.15</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.78</v>
+        <v>7.73</v>
       </c>
       <c r="G3" t="n">
-        <v>2.69</v>
+        <v>0.59</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1</v>
+        <v>1.399</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1135</v>
+        <v>1.3903</v>
       </c>
       <c r="J3" t="n">
-        <v>1.115</v>
+        <v>1.372</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.002249999999999863</v>
+        <v>0.002700000000000147</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001700000000000257</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.6621</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.004400000000000182</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0073</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-0.001600000000000046</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.006699999999999706</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.12</v>
+        <v>0.78</v>
       </c>
       <c r="F5" t="n">
-        <v>13.2</v>
+        <v>5.22</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>1.666</v>
+        <v>1.191</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6551</v>
+        <v>1.192</v>
       </c>
       <c r="J5" t="n">
-        <v>1.636</v>
+        <v>1.176</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00395000000000012</v>
+        <v>0.0003499999999998504</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003500000000000059</v>
+        <v>-0.0002000000000002</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,98 +708,98 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.18</v>
+        <v>0.79</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.17</v>
+        <v>0.76</v>
       </c>
       <c r="F6" t="n">
-        <v>4.72</v>
+        <v>-2.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.39</v>
       </c>
       <c r="H6" t="n">
-        <v>1.173</v>
+        <v>0.794</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1712</v>
+        <v>0.8066000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>1.161</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002000000000000002</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002099999999999991</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.18</v>
+        <v>0.74</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.84</v>
+        <v>15.26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.42</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>1.117</v>
+        <v>1.112</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1114</v>
+        <v>1.1209</v>
       </c>
       <c r="J7" t="n">
-        <v>1.102</v>
+        <v>1.109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001749999999999918</v>
+        <v>-0.001399999999999846</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.000300000000000189</v>
+        <v>-0.002299999999999969</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.34</v>
+        <v>0.72</v>
       </c>
       <c r="F8" t="n">
-        <v>0.95</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1.03</v>
+        <v>0.02</v>
       </c>
       <c r="H8" t="n">
-        <v>1.171</v>
+        <v>0.987</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1724</v>
+        <v>0.9859</v>
       </c>
       <c r="J8" t="n">
-        <v>1.164</v>
+        <v>0.985</v>
       </c>
       <c r="K8" t="n">
-        <v>5.000000000032756e-05</v>
+        <v>-0.0005500000000000504</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002900000000000125</v>
+        <v>-0.000199999999999867</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.86</v>
+        <v>2.75</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.46</v>
+        <v>0.59</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.4</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08</v>
+        <v>21.65</v>
       </c>
       <c r="H9" t="n">
-        <v>0.851</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8503999999999999</v>
+        <v>2.7528</v>
       </c>
       <c r="J9" t="n">
-        <v>0.846</v>
+        <v>2.756</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0004499999999998394</v>
+        <v>-0.002149999999999874</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002900000000000014</v>
+        <v>-0.0004000000000004</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.01</v>
+        <v>0.36</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.49</v>
+        <v>0.55</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.34</v>
+        <v>0.55</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>2.51</v>
       </c>
       <c r="H10" t="n">
-        <v>1.019</v>
+        <v>0.369</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0214</v>
+        <v>0.3734</v>
       </c>
       <c r="J10" t="n">
-        <v>1.023</v>
+        <v>0.372</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>-0.0005499999999999394</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001500000000000057</v>
+        <v>-0.00159999999999999</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.02</v>
+        <v>0.64</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.49</v>
+        <v>0.47</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.34</v>
+        <v>4.61</v>
       </c>
       <c r="G11" t="n">
-        <v>3.21</v>
+        <v>0.08</v>
       </c>
       <c r="H11" t="n">
-        <v>2.032</v>
+        <v>0.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2.0325</v>
+        <v>0.6579</v>
       </c>
       <c r="J11" t="n">
-        <v>2.019</v>
+        <v>0.646</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0002499999999998614</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0009000000000001229</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,98 +1008,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7.46</v>
+        <v>1.18</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F12" t="n">
-        <v>25.93</v>
+        <v>5.16</v>
       </c>
       <c r="G12" t="n">
-        <v>27.42</v>
+        <v>3.03</v>
       </c>
       <c r="H12" t="n">
-        <v>7.521</v>
+        <v>1.175</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4804</v>
+        <v>1.173</v>
       </c>
       <c r="J12" t="n">
-        <v>7.447</v>
+        <v>1.165</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01255000000000006</v>
+        <v>0.001249999999999973</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.001400000000001178</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.57</v>
+        <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.3</v>
+        <v>-1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>5.98</v>
+        <v>1.11</v>
       </c>
       <c r="H13" t="n">
-        <v>1.565</v>
+        <v>1.514</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5682</v>
+        <v>1.5231</v>
       </c>
       <c r="J13" t="n">
-        <v>1.562</v>
+        <v>1.524</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0002000000000002</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001499999999999835</v>
+        <v>-0.001600000000000046</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.01</v>
+        <v>0.64</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.59</v>
+        <v>0.31</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.16</v>
+        <v>-15.59</v>
       </c>
       <c r="G14" t="n">
-        <v>22.91</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>1.018</v>
+        <v>0.645</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0306</v>
+        <v>0.6482</v>
       </c>
       <c r="J14" t="n">
-        <v>1.032</v>
+        <v>0.648</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.001900000000000013</v>
+        <v>-0.001299999999999857</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.003000000000000114</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,98 +1158,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.82</v>
+        <v>1.1</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6</v>
+        <v>0.27</v>
       </c>
       <c r="F15" t="n">
-        <v>6.2</v>
+        <v>51.31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.66</v>
+        <v>48.99</v>
       </c>
       <c r="H15" t="n">
-        <v>0.833</v>
+        <v>1.144</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8289</v>
+        <v>1.1495</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.077</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0.0061500000000001</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0006000000000000449</v>
+        <v>0.004399999999999959</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.73</v>
+        <v>1.18</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.62</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.18</v>
+        <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>22.06</v>
+        <v>0.33</v>
       </c>
       <c r="H16" t="n">
-        <v>2.748</v>
+        <v>1.196</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7512</v>
+        <v>1.2016</v>
       </c>
       <c r="J16" t="n">
-        <v>2.757</v>
+        <v>1.202</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.002499999999999947</v>
+        <v>-0.002399999999999958</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.002499999999999947</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.39</v>
+        <v>125.29</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.64</v>
+        <v>0.21</v>
       </c>
       <c r="F17" t="n">
-        <v>6.5</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.37</v>
+        <v>58.06</v>
       </c>
       <c r="H17" t="n">
-        <v>1.393</v>
+        <v>124.607</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3856</v>
+        <v>124.2448</v>
       </c>
       <c r="J17" t="n">
-        <v>1.369</v>
+        <v>123.644</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001950000000000118</v>
+        <v>0.09739999999999327</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.2191000000000116</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.66</v>
+        <v>0.19</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.07000000000000001</v>
+        <v>2.47</v>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.343</v>
+        <v>1.085</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3258</v>
+        <v>1.0851</v>
       </c>
       <c r="J18" t="n">
-        <v>1.277</v>
+        <v>1.078</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0059499999999999</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01040000000000019</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.59</v>
+        <v>1.56</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.67</v>
+        <v>0.19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.51</v>
+        <v>-4.11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11</v>
+        <v>5.02</v>
       </c>
       <c r="H19" t="n">
-        <v>0.599</v>
+        <v>1.564</v>
       </c>
       <c r="I19" t="n">
-        <v>0.599</v>
+        <v>1.5679</v>
       </c>
       <c r="J19" t="n">
-        <v>0.605</v>
+        <v>1.563</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.001399999999999846</v>
+        <v>0.0005499999999998284</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.000300000000000078</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,98 +1408,98 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.47</v>
+        <v>0.54</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.67</v>
+        <v>0.18</v>
       </c>
       <c r="F20" t="n">
-        <v>7.75</v>
+        <v>38.97</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15</v>
+        <v>16.06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.474</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>1.4775</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.474</v>
+        <v>0.54</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0.00165000000000004</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.002199999999999758</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.7</v>
+        <v>0.18</v>
       </c>
       <c r="F21" t="n">
-        <v>4.96</v>
+        <v>-4.39</v>
       </c>
       <c r="G21" t="n">
-        <v>1.74</v>
+        <v>0.05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.857</v>
+        <v>0.58</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8625999999999999</v>
+        <v>0.5871</v>
       </c>
       <c r="J21" t="n">
-        <v>0.871</v>
+        <v>0.581</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.002599999999999936</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>-0.00219999999999998</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.73</v>
+        <v>0.15</v>
       </c>
       <c r="F22" t="n">
-        <v>-11.36</v>
+        <v>4.35</v>
       </c>
       <c r="G22" t="n">
-        <v>4.58</v>
+        <v>0.18</v>
       </c>
       <c r="H22" t="n">
-        <v>0.55</v>
+        <v>0.659</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5616</v>
+        <v>0.664</v>
       </c>
       <c r="J22" t="n">
-        <v>0.573</v>
+        <v>0.659</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.002149999999999985</v>
+        <v>-0.0003500000000000725</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.002700000000000036</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.51</v>
+        <v>0.71</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.73</v>
+        <v>0.14</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.73</v>
+        <v>6.31</v>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>0.18</v>
       </c>
       <c r="H23" t="n">
-        <v>1.528</v>
+        <v>0.717</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5283</v>
+        <v>0.7198</v>
       </c>
       <c r="J23" t="n">
-        <v>1.527</v>
+        <v>0.707</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0006499999999998174</v>
+        <v>0.0008499999999999064</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.001500000000000057</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.53</v>
+        <v>3.88</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.75</v>
+        <v>0.13</v>
       </c>
       <c r="F24" t="n">
-        <v>-6.19</v>
+        <v>-1.4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.55</v>
+        <v>16.42</v>
       </c>
       <c r="H24" t="n">
-        <v>0.532</v>
+        <v>3.931</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5332000000000001</v>
+        <v>3.96178</v>
       </c>
       <c r="J24" t="n">
-        <v>0.531</v>
+        <v>3.966</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.000200000000000089</v>
+        <v>-0.00694999999999979</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000500000000000167</v>
+        <v>-0.0103999999999993</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.87</v>
+        <v>1.01</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.79</v>
+        <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.53</v>
+        <v>-4.25</v>
       </c>
       <c r="G25" t="n">
-        <v>23.31</v>
+        <v>0.01</v>
       </c>
       <c r="H25" t="n">
-        <v>3.967</v>
+        <v>1.018</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9776</v>
+        <v>1.0212</v>
       </c>
       <c r="J25" t="n">
-        <v>3.976</v>
+        <v>1.022</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.006650000000000045</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01040000000000019</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.08</v>
+        <v>2.03</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.83</v>
+        <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>-6.24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>1.94</v>
       </c>
       <c r="H26" t="n">
-        <v>1.086</v>
+        <v>2.033</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0844</v>
+        <v>2.0345</v>
       </c>
       <c r="J26" t="n">
-        <v>1.078</v>
+        <v>2.021</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.83</v>
+        <v>0.1</v>
       </c>
       <c r="F27" t="n">
-        <v>2.69</v>
+        <v>-14.12</v>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0.844</v>
+        <v>0.984</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8431</v>
+        <v>0.9866999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>0.837</v>
+        <v>0.987</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0004500000000000615</v>
+        <v>-0.002000000000000113</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.000199999999999978</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.83</v>
+        <v>0.09</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.7</v>
+        <v>-4.76</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="H28" t="n">
-        <v>0.972</v>
+        <v>1.112</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9795</v>
+        <v>1.1162</v>
       </c>
       <c r="J28" t="n">
-        <v>0.976</v>
+        <v>1.106</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.001000000000000001</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.003899999999999904</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.71</v>
+        <v>1.31</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.16</v>
+        <v>-10.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.01</v>
+        <v>0.87</v>
       </c>
       <c r="H29" t="n">
-        <v>0.723</v>
+        <v>1.338</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7178</v>
+        <v>1.3471</v>
       </c>
       <c r="J29" t="n">
-        <v>0.704</v>
+        <v>1.344</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001349999999999962</v>
+        <v>-0.002650000000000041</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001000000000000112</v>
+        <v>-0.004499999999999948</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.42</v>
+        <v>0.95</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.51</v>
+        <v>-4.7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="H30" t="n">
-        <v>1.428</v>
+        <v>0.965</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4296</v>
+        <v>0.9775</v>
       </c>
       <c r="J30" t="n">
-        <v>1.425</v>
+        <v>0.975</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0006500000000000394</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.000199999999999978</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.86</v>
+        <v>-1.19</v>
       </c>
       <c r="G31" t="n">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9320000000000001</v>
+        <v>1.007</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9418</v>
+        <v>1.0089</v>
       </c>
       <c r="J31" t="n">
-        <v>0.946</v>
+        <v>1.005</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.00219999999999998</v>
+        <v>-0.0007499999999998064</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001600000000000157</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.88</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.55</v>
+        <v>2.69</v>
       </c>
       <c r="G32" t="n">
-        <v>2.01</v>
+        <v>0.98</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.843</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8150000000000001</v>
+        <v>0.8436999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.00165000000000004</v>
+        <v>0.0002499999999999725</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.002999999999999892</v>
+        <v>0</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.24</v>
+        <v>0.59</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.96</v>
+        <v>-0.17</v>
       </c>
       <c r="F33" t="n">
-        <v>2.56</v>
+        <v>-2.97</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1.243</v>
+        <v>0.597</v>
       </c>
       <c r="I33" t="n">
-        <v>1.2307</v>
+        <v>0.5976</v>
       </c>
       <c r="J33" t="n">
-        <v>1.22</v>
+        <v>0.593</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001900000000000013</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003600000000000048</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.99</v>
+        <v>-0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.19</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.87</v>
+        <v>3.17</v>
       </c>
       <c r="H34" t="n">
-        <v>1.008</v>
+        <v>1.033</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0072</v>
+        <v>1.0324</v>
       </c>
       <c r="J34" t="n">
-        <v>1.005</v>
+        <v>1.018</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0002500000000000835</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.19</v>
+        <v>0.47</v>
       </c>
       <c r="E35" t="n">
-        <v>-1</v>
+        <v>-0.21</v>
       </c>
       <c r="F35" t="n">
-        <v>19.46</v>
+        <v>-4.12</v>
       </c>
       <c r="G35" t="n">
-        <v>1.22</v>
+        <v>0.15</v>
       </c>
       <c r="H35" t="n">
-        <v>1.206</v>
+        <v>0.476</v>
       </c>
       <c r="I35" t="n">
-        <v>1.1851</v>
+        <v>0.4832</v>
       </c>
       <c r="J35" t="n">
-        <v>1.147</v>
+        <v>0.481</v>
       </c>
       <c r="K35" t="n">
-        <v>0.004799999999999915</v>
+        <v>-0.000350000000000017</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.004599999999999937</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.01</v>
+        <v>-0.21</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.8</v>
+        <v>13.67</v>
       </c>
       <c r="G36" t="n">
-        <v>0.13</v>
+        <v>10.89</v>
       </c>
       <c r="H36" t="n">
-        <v>0.598</v>
+        <v>0.485</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5972</v>
+        <v>0.4899</v>
       </c>
       <c r="J36" t="n">
-        <v>0.593</v>
+        <v>0.481</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>-0.0006499999999999839</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-0.00109999999999999</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.98</v>
+        <v>1.42</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.01</v>
+        <v>-0.21</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.51</v>
+        <v>-5.71</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.985</v>
+        <v>1.429</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9846</v>
+        <v>1.4302</v>
       </c>
       <c r="J37" t="n">
-        <v>0.985</v>
+        <v>1.425</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0002500000000000835</v>
+        <v>-0.0006500000000000394</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.001299999999999968</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.14</v>
+        <v>0.32</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.04</v>
+        <v>-0.31</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03</v>
+        <v>-2.45</v>
       </c>
       <c r="G38" t="n">
-        <v>1.04</v>
+        <v>3.22</v>
       </c>
       <c r="H38" t="n">
-        <v>3.172</v>
+        <v>0.326</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1761</v>
+        <v>0.33</v>
       </c>
       <c r="J38" t="n">
-        <v>3.151</v>
+        <v>0.329</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0006499999999998174</v>
+        <v>-0.0003000000000000225</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.001599999999999824</v>
+        <v>-0.001300000000000023</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.06</v>
+        <v>-0.34</v>
       </c>
       <c r="F39" t="n">
-        <v>1.36</v>
+        <v>-2.59</v>
       </c>
       <c r="G39" t="n">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="H39" t="n">
-        <v>1.124</v>
+        <v>1.177</v>
       </c>
       <c r="I39" t="n">
-        <v>1.1338</v>
+        <v>1.174</v>
       </c>
       <c r="J39" t="n">
-        <v>1.117</v>
+        <v>1.176</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-0.001249999999999973</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.36</v>
+        <v>7.44</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.1</v>
+        <v>-0.39</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>25.44</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>27.18</v>
       </c>
       <c r="H40" t="n">
-        <v>0.372</v>
+        <v>7.519</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3745</v>
+        <v>7.4804</v>
       </c>
       <c r="J40" t="n">
-        <v>0.373</v>
+        <v>7.449</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>4.999999999988347e-05</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.001900000000000013</v>
+        <v>-0.004300000000000637</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.18</v>
+        <v>-0.4</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.25</v>
+        <v>2.14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="H41" t="n">
-        <v>1.171</v>
+        <v>1.254</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1706</v>
+        <v>1.2439</v>
       </c>
       <c r="J41" t="n">
-        <v>1.177</v>
+        <v>1.228</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0002000000000002</v>
+        <v>0.0005500000000000504</v>
       </c>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.65</v>
+        <v>1.47</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.22</v>
+        <v>-0.41</v>
       </c>
       <c r="F42" t="n">
-        <v>4.19</v>
+        <v>0.89</v>
       </c>
       <c r="G42" t="n">
-        <v>0.27</v>
+        <v>0.57</v>
       </c>
       <c r="H42" t="n">
-        <v>0.662</v>
+        <v>1.475</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6644</v>
+        <v>1.4703</v>
       </c>
       <c r="J42" t="n">
-        <v>0.659</v>
+        <v>1.464</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.002200000000000091</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.23</v>
+        <v>-0.57</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.14</v>
+        <v>-6.73</v>
       </c>
       <c r="G43" t="n">
-        <v>5.91</v>
+        <v>0.37</v>
       </c>
       <c r="H43" t="n">
-        <v>0.329</v>
+        <v>0.532</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3309</v>
+        <v>0.5336000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>0.329</v>
+        <v>0.531</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.000250000000000028</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.001400000000000012</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.18</v>
+        <v>3.12</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.26</v>
+        <v>-0.57</v>
       </c>
       <c r="F44" t="n">
-        <v>0.34</v>
+        <v>-0.61</v>
       </c>
       <c r="G44" t="n">
-        <v>0.39</v>
+        <v>0.97</v>
       </c>
       <c r="H44" t="n">
-        <v>1.202</v>
+        <v>3.163</v>
       </c>
       <c r="I44" t="n">
-        <v>1.2</v>
+        <v>3.1741</v>
       </c>
       <c r="J44" t="n">
-        <v>1.207</v>
+        <v>3.151</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.002100000000000213</v>
+        <v>-0.001800000000000246</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.002299999999999969</v>
+        <v>-0.00509999999999966</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.26</v>
+        <v>-0.59</v>
       </c>
       <c r="F45" t="n">
-        <v>8.699999999999999</v>
+        <v>-3.73</v>
       </c>
       <c r="G45" t="n">
-        <v>0.39</v>
+        <v>18.25</v>
       </c>
       <c r="H45" t="n">
-        <v>1.114</v>
+        <v>1.017</v>
       </c>
       <c r="I45" t="n">
-        <v>1.113</v>
+        <v>1.0273</v>
       </c>
       <c r="J45" t="n">
-        <v>1.113</v>
+        <v>1.031</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.002449999999999841</v>
+        <v>-0.001749999999999918</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0004999999999999449</v>
+        <v>-0.004100000000000215</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.27</v>
+        <v>-0.64</v>
       </c>
       <c r="F46" t="n">
-        <v>1.31</v>
+        <v>9.85</v>
       </c>
       <c r="G46" t="n">
-        <v>1.04</v>
+        <v>0.12</v>
       </c>
       <c r="H46" t="n">
-        <v>1.467</v>
+        <v>0.957</v>
       </c>
       <c r="I46" t="n">
-        <v>1.4633</v>
+        <v>0.9512</v>
       </c>
       <c r="J46" t="n">
-        <v>1.459</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>0.001050000000000217</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.000400000000000178</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.42</v>
+        <v>-0.7</v>
       </c>
       <c r="F47" t="n">
-        <v>-14.21</v>
+        <v>-6.06</v>
       </c>
       <c r="G47" t="n">
-        <v>1.91</v>
+        <v>0.05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.985</v>
+        <v>0.851</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9852000000000001</v>
+        <v>0.8526</v>
       </c>
       <c r="J47" t="n">
-        <v>0.988</v>
+        <v>0.846</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.001599999999999824</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>0.99</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.43</v>
+        <v>-0.7</v>
       </c>
       <c r="F48" t="n">
-        <v>-4.61</v>
+        <v>-1.68</v>
       </c>
       <c r="G48" t="n">
-        <v>14.08</v>
+        <v>6.72</v>
       </c>
       <c r="H48" t="n">
-        <v>2.022</v>
+        <v>0.994</v>
       </c>
       <c r="I48" t="n">
-        <v>2.0161</v>
+        <v>1.0035</v>
       </c>
       <c r="J48" t="n">
-        <v>2.004</v>
+        <v>1.005</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0004000000000004</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.002800000000000136</v>
+        <v>-0.003699999999999815</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.46</v>
+        <v>-0.72</v>
       </c>
       <c r="F49" t="n">
-        <v>10.55</v>
+        <v>-2.49</v>
       </c>
       <c r="G49" t="n">
-        <v>0.14</v>
+        <v>1.71</v>
       </c>
       <c r="H49" t="n">
-        <v>0.953</v>
+        <v>1.1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9409000000000001</v>
+        <v>1.1102</v>
       </c>
       <c r="J49" t="n">
-        <v>0.93</v>
+        <v>1.113</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001249999999999973</v>
+        <v>-0.001649999999999929</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.003500000000000059</v>
+        <v>-0.003700000000000037</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.48</v>
+        <v>-0.78</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.91</v>
+        <v>-6.87</v>
       </c>
       <c r="G50" t="n">
-        <v>0.28</v>
+        <v>4.08</v>
       </c>
       <c r="H50" t="n">
-        <v>0.485</v>
+        <v>0.91</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4869</v>
+        <v>0.9087</v>
       </c>
       <c r="J50" t="n">
-        <v>0.481</v>
+        <v>0.9</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.000149999999999928</v>
+        <v>-0.0009500000000000064</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.00109999999999999</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.04</v>
+        <v>0.59</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.6</v>
+        <v>-0.84</v>
       </c>
       <c r="F51" t="n">
-        <v>0.29</v>
+        <v>-0.34</v>
       </c>
       <c r="G51" t="n">
-        <v>7.01</v>
+        <v>0.05</v>
       </c>
       <c r="H51" t="n">
-        <v>1.05</v>
+        <v>0.595</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0503</v>
+        <v>0.5982</v>
       </c>
       <c r="J51" t="n">
-        <v>1.045</v>
+        <v>0.601</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0002499999999998614</v>
+        <v>-0.002099999999999991</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.000700000000000145</v>
+        <v>-0.001199999999999979</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9</v>
+        <v>1.99</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.64</v>
+        <v>-0.85</v>
       </c>
       <c r="F52" t="n">
-        <v>-6.14</v>
+        <v>-5.42</v>
       </c>
       <c r="G52" t="n">
-        <v>6.59</v>
+        <v>11.83</v>
       </c>
       <c r="H52" t="n">
-        <v>0.906</v>
+        <v>2.022</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9026</v>
+        <v>2.025</v>
       </c>
       <c r="J52" t="n">
-        <v>0.899</v>
+        <v>2.006</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0002500000000000835</v>
+        <v>-0.002199999999999758</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001800000000000024</v>
+        <v>-0.003300000000000303</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.7</v>
+        <v>-0.97</v>
       </c>
       <c r="F53" t="n">
-        <v>-15.85</v>
+        <v>-1.82</v>
       </c>
       <c r="G53" t="n">
-        <v>2.56</v>
+        <v>0.13</v>
       </c>
       <c r="H53" t="n">
-        <v>0.646</v>
+        <v>0.927</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6483000000000001</v>
+        <v>0.9379</v>
       </c>
       <c r="J53" t="n">
-        <v>0.649</v>
+        <v>0.944</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.001349999999999962</v>
+        <v>-0.002399999999999958</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0004999999999999449</v>
+        <v>-0.004199999999999982</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.75</v>
+        <v>-1.05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.26</v>
+        <v>-0.77</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H54" t="n">
-        <v>0.791</v>
+        <v>1.052</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7966</v>
+        <v>1.0503</v>
       </c>
       <c r="J54" t="n">
-        <v>0.79</v>
+        <v>1.046</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0007999999999999119</v>
+        <v>-0.00219999999999998</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.63</v>
+        <v>1.46</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.86</v>
+        <v>-1.09</v>
       </c>
       <c r="F55" t="n">
-        <v>4.11</v>
+        <v>6.58</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="H55" t="n">
-        <v>0.659</v>
+        <v>1.472</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6586000000000001</v>
+        <v>1.4746</v>
       </c>
       <c r="J55" t="n">
-        <v>0.641</v>
+        <v>1.477</v>
       </c>
       <c r="K55" t="n">
-        <v>0.001100000000000101</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.001199999999999979</v>
+        <v>-0.001599999999999824</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,98 +3208,98 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1.16</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.86</v>
+        <v>-1.19</v>
       </c>
       <c r="F56" t="n">
-        <v>4.41</v>
+        <v>-0.26</v>
       </c>
       <c r="G56" t="n">
-        <v>3.31</v>
+        <v>0.65</v>
       </c>
       <c r="H56" t="n">
-        <v>1.192</v>
+        <v>1.166</v>
       </c>
       <c r="I56" t="n">
-        <v>1.1842</v>
+        <v>1.1741</v>
       </c>
       <c r="J56" t="n">
-        <v>1.17</v>
+        <v>1.163</v>
       </c>
       <c r="K56" t="n">
-        <v>0.001449999999999951</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>-0.002599999999999936</v>
       </c>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.91</v>
+        <v>-1.27</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.56</v>
+        <v>7.32</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
       <c r="H57" t="n">
-        <v>0.588</v>
+        <v>1.104</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5886</v>
+        <v>1.1125</v>
       </c>
       <c r="J57" t="n">
-        <v>0.579</v>
+        <v>1.109</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.000199999999999978</v>
+        <v>-0.002200000000000202</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.001900000000000013</v>
+        <v>-0.004199999999999982</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.93</v>
+        <v>-1.54</v>
       </c>
       <c r="F58" t="n">
-        <v>-9.380000000000001</v>
+        <v>-1.61</v>
       </c>
       <c r="G58" t="n">
-        <v>8.93</v>
+        <v>1.88</v>
       </c>
       <c r="H58" t="n">
-        <v>1.034</v>
+        <v>1.346</v>
       </c>
       <c r="I58" t="n">
-        <v>1.0317</v>
+        <v>1.3314</v>
       </c>
       <c r="J58" t="n">
-        <v>1.017</v>
+        <v>1.283</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0005500000000000504</v>
+        <v>0.005249999999999755</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.004399999999999959</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.02</v>
+        <v>-1.7</v>
       </c>
       <c r="F59" t="n">
-        <v>-10.4</v>
+        <v>4.39</v>
       </c>
       <c r="G59" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="H59" t="n">
-        <v>1.342</v>
+        <v>0.828</v>
       </c>
       <c r="I59" t="n">
-        <v>1.3489</v>
+        <v>0.8280999999999998</v>
       </c>
       <c r="J59" t="n">
-        <v>1.346</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.003149999999999986</v>
+        <v>0.0005500000000000504</v>
       </c>
       <c r="L59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.004399999999999959</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.07</v>
+        <v>-1.79</v>
       </c>
       <c r="F60" t="n">
-        <v>14.42</v>
+        <v>-0.45</v>
       </c>
       <c r="G60" t="n">
-        <v>3.57</v>
+        <v>1.34</v>
       </c>
       <c r="H60" t="n">
-        <v>1.116</v>
+        <v>1.12</v>
       </c>
       <c r="I60" t="n">
-        <v>1.1212</v>
+        <v>1.1304</v>
       </c>
       <c r="J60" t="n">
-        <v>1.11</v>
+        <v>1.117</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.00120000000000009</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.001400000000000068</v>
+        <v>-0.004399999999999959</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.47</v>
+        <v>1.17</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.46</v>
+        <v>-1.85</v>
       </c>
       <c r="F61" t="n">
-        <v>13.91</v>
+        <v>17.25</v>
       </c>
       <c r="G61" t="n">
-        <v>18.55</v>
+        <v>0.91</v>
       </c>
       <c r="H61" t="n">
-        <v>0.487</v>
+        <v>1.202</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4893</v>
+        <v>1.1871</v>
       </c>
       <c r="J61" t="n">
-        <v>0.48</v>
+        <v>1.152</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0004999999999998894</v>
+        <v>0.004150000000000098</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.0001000000000000445</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,101 +3508,101 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.87</v>
+        <v>-2.01</v>
       </c>
       <c r="F62" t="n">
-        <v>38.72</v>
+        <v>2.85</v>
       </c>
       <c r="G62" t="n">
-        <v>20.4</v>
+        <v>1.91</v>
       </c>
       <c r="H62" t="n">
-        <v>0.572</v>
+        <v>0.846</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5644</v>
+        <v>0.8560000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>0.537</v>
+        <v>0.863</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001949999999999896</v>
+        <v>-0.003250000000000086</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.004599999999999937</v>
       </c>
       <c r="N62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.93</v>
+        <v>-2.17</v>
       </c>
       <c r="F63" t="n">
-        <v>50.9</v>
+        <v>-1.92</v>
       </c>
       <c r="G63" t="n">
-        <v>67.13</v>
+        <v>0.67</v>
       </c>
       <c r="H63" t="n">
-        <v>1.162</v>
+        <v>0.79</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1414</v>
+        <v>0.7955</v>
       </c>
       <c r="J63" t="n">
-        <v>1.069</v>
+        <v>0.79</v>
       </c>
       <c r="K63" t="n">
-        <v>0.006600000000000161</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.00219999999999998</v>
+        <v>-0.004100000000000104</v>
       </c>
       <c r="N63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2</v>
+        <v>3.46</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.42</v>
+        <v>56.55</v>
       </c>
       <c r="G2" t="n">
-        <v>12.17</v>
+        <v>92.28</v>
       </c>
       <c r="H2" t="n">
-        <v>0.55</v>
+        <v>1.152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5598</v>
+        <v>1.1535</v>
       </c>
       <c r="J2" t="n">
-        <v>0.571</v>
+        <v>1.079</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.001699999999999924</v>
+        <v>0.008150000000000102</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.001800000000000135</v>
+        <v>0.008400000000000185</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1.15</v>
+        <v>2.58</v>
       </c>
       <c r="F3" t="n">
-        <v>7.73</v>
+        <v>42.56</v>
       </c>
       <c r="G3" t="n">
-        <v>0.59</v>
+        <v>23.51</v>
       </c>
       <c r="H3" t="n">
-        <v>1.399</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3903</v>
+        <v>0.5690000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>1.372</v>
+        <v>0.541</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002700000000000147</v>
+        <v>0.00264999999999993</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.7</v>
+        <v>0.79</v>
       </c>
       <c r="E4" t="n">
-        <v>1.13</v>
+        <v>2.34</v>
       </c>
       <c r="F4" t="n">
-        <v>14.48</v>
+        <v>0.38</v>
       </c>
       <c r="G4" t="n">
-        <v>6.09</v>
+        <v>0.86</v>
       </c>
       <c r="H4" t="n">
-        <v>1.674</v>
+        <v>0.794</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6621</v>
+        <v>0.7975000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1.64</v>
+        <v>0.791</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004400000000000182</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006699999999999706</v>
+        <v>-0.002099999999999991</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78</v>
+        <v>1.75</v>
       </c>
       <c r="F5" t="n">
-        <v>5.22</v>
+        <v>-12.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.191</v>
+        <v>0.988</v>
       </c>
       <c r="I5" t="n">
-        <v>1.192</v>
+        <v>0.9887</v>
       </c>
       <c r="J5" t="n">
-        <v>1.176</v>
+        <v>0.988</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003499999999998504</v>
+        <v>-0.001000000000000112</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0002000000000002</v>
+        <v>0.000700000000000145</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="E6" t="n">
-        <v>0.76</v>
+        <v>1.73</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.82</v>
+        <v>6.41</v>
       </c>
       <c r="G6" t="n">
-        <v>2.39</v>
+        <v>0.09</v>
       </c>
       <c r="H6" t="n">
-        <v>0.794</v>
+        <v>0.652</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8066000000000001</v>
+        <v>0.6589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.001800000000000024</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.002999999999999892</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.09</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.74</v>
+        <v>1.7</v>
       </c>
       <c r="F7" t="n">
-        <v>15.26</v>
+        <v>1.36</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.112</v>
+        <v>0.597</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1209</v>
+        <v>0.5992</v>
       </c>
       <c r="J7" t="n">
-        <v>1.109</v>
+        <v>0.602</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001399999999999846</v>
+        <v>-0.001599999999999935</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.002299999999999969</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.72</v>
+        <v>1.64</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>5.77</v>
       </c>
       <c r="H8" t="n">
-        <v>0.987</v>
+        <v>1.056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9859</v>
+        <v>1.0523</v>
       </c>
       <c r="J8" t="n">
-        <v>0.985</v>
+        <v>1.047</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0005500000000000504</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.000199999999999867</v>
+        <v>-0.0001999999999997559</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.75</v>
+        <v>1.11</v>
       </c>
       <c r="E9" t="n">
-        <v>0.59</v>
+        <v>1.46</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>16.95</v>
       </c>
       <c r="G9" t="n">
-        <v>21.65</v>
+        <v>3.52</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>1.116</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7528</v>
+        <v>1.1229</v>
       </c>
       <c r="J9" t="n">
-        <v>2.756</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002149999999999874</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0004000000000004</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.36</v>
+        <v>1.43</v>
       </c>
       <c r="E10" t="n">
-        <v>0.55</v>
+        <v>1.35</v>
       </c>
       <c r="F10" t="n">
-        <v>0.55</v>
+        <v>9.18</v>
       </c>
       <c r="G10" t="n">
-        <v>2.51</v>
+        <v>0.61</v>
       </c>
       <c r="H10" t="n">
-        <v>0.369</v>
+        <v>1.403</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3734</v>
+        <v>1.3923</v>
       </c>
       <c r="J10" t="n">
-        <v>0.372</v>
+        <v>1.373</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0005499999999999394</v>
+        <v>0.003700000000000037</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.00159999999999999</v>
+        <v>0.005600000000000049</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="E11" t="n">
-        <v>0.47</v>
+        <v>1.27</v>
       </c>
       <c r="F11" t="n">
-        <v>4.61</v>
+        <v>15.11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08</v>
+        <v>19.11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.65</v>
+        <v>0.487</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6579</v>
+        <v>0.4909</v>
       </c>
       <c r="J11" t="n">
-        <v>0.646</v>
+        <v>0.481</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006500000000000394</v>
+        <v>-0.000150000000000039</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,98 +1008,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.18</v>
+        <v>1.72</v>
       </c>
       <c r="E12" t="n">
-        <v>0.42</v>
+        <v>1.24</v>
       </c>
       <c r="F12" t="n">
-        <v>5.16</v>
+        <v>15.89</v>
       </c>
       <c r="G12" t="n">
-        <v>3.03</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.175</v>
+        <v>1.678</v>
       </c>
       <c r="I12" t="n">
-        <v>1.173</v>
+        <v>1.6641</v>
       </c>
       <c r="J12" t="n">
-        <v>1.165</v>
+        <v>1.641</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001249999999999973</v>
+        <v>0.005399999999999849</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.008700000000000152</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4</v>
+        <v>1.18</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.34</v>
+        <v>-8.48</v>
       </c>
       <c r="G13" t="n">
-        <v>1.11</v>
+        <v>5.27</v>
       </c>
       <c r="H13" t="n">
-        <v>1.514</v>
+        <v>1.035</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5231</v>
+        <v>1.0334</v>
       </c>
       <c r="J13" t="n">
-        <v>1.524</v>
+        <v>1.019</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001599999999999824</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001600000000000046</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,148 +1108,148 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.64</v>
+        <v>1.18</v>
       </c>
       <c r="E14" t="n">
-        <v>0.31</v>
+        <v>1.11</v>
       </c>
       <c r="F14" t="n">
-        <v>-15.59</v>
+        <v>6.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.645</v>
+        <v>1.193</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6482</v>
+        <v>1.193</v>
       </c>
       <c r="J14" t="n">
-        <v>0.648</v>
+        <v>1.177</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.001299999999999857</v>
+        <v>0.0008500000000000174</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.27</v>
+        <v>1.11</v>
       </c>
       <c r="F15" t="n">
-        <v>51.31</v>
+        <v>-0.59</v>
       </c>
       <c r="G15" t="n">
-        <v>48.99</v>
+        <v>10.78</v>
       </c>
       <c r="H15" t="n">
-        <v>1.144</v>
+        <v>0.996</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1495</v>
+        <v>1.0045</v>
       </c>
       <c r="J15" t="n">
-        <v>1.077</v>
+        <v>1.006</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0061500000000001</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004399999999999959</v>
+        <v>-0.002699999999999925</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.18</v>
+        <v>0.47</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>1.07</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6</v>
+        <v>-3.09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="H16" t="n">
-        <v>1.196</v>
+        <v>0.476</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2016</v>
+        <v>0.4832</v>
       </c>
       <c r="J16" t="n">
-        <v>1.202</v>
+        <v>0.481</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.002399999999999958</v>
+        <v>-0.000350000000000017</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.001900000000000013</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>125.29</v>
+        <v>1.11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>0.54</v>
       </c>
       <c r="G17" t="n">
-        <v>58.06</v>
+        <v>1.11</v>
       </c>
       <c r="H17" t="n">
-        <v>124.607</v>
+        <v>1.122</v>
       </c>
       <c r="I17" t="n">
-        <v>124.2448</v>
+        <v>1.1314</v>
       </c>
       <c r="J17" t="n">
-        <v>123.644</v>
+        <v>1.117</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09739999999999327</v>
+        <v>-0.0002000000000002</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2191000000000116</v>
+        <v>-0.00340000000000007</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="E18" t="n">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2.47</v>
+        <v>-1.51</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>2.23</v>
       </c>
       <c r="H18" t="n">
-        <v>1.085</v>
+        <v>1.102</v>
       </c>
       <c r="I18" t="n">
-        <v>1.0851</v>
+        <v>1.1112</v>
       </c>
       <c r="J18" t="n">
-        <v>1.078</v>
+        <v>1.114</v>
       </c>
       <c r="K18" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.002700000000000147</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.19</v>
+        <v>0.89</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.11</v>
+        <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>5.02</v>
+        <v>0.04</v>
       </c>
       <c r="H19" t="n">
-        <v>1.564</v>
+        <v>1.256</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5679</v>
+        <v>1.2449</v>
       </c>
       <c r="J19" t="n">
-        <v>1.563</v>
+        <v>1.228</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0005499999999998284</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.001099999999999879</v>
+        <v>0.003299999999999859</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,98 +1408,98 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="E20" t="n">
-        <v>0.18</v>
+        <v>0.88</v>
       </c>
       <c r="F20" t="n">
-        <v>38.97</v>
+        <v>-3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>16.06</v>
+        <v>0.03</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5871</v>
       </c>
       <c r="J20" t="n">
-        <v>0.54</v>
+        <v>0.581</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00165000000000004</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0009000000000000119</v>
+        <v>-0.00219999999999998</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.18</v>
+        <v>0.85</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.39</v>
+        <v>10.79</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="H21" t="n">
-        <v>0.58</v>
+        <v>0.957</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5871</v>
+        <v>0.9512</v>
       </c>
       <c r="J21" t="n">
-        <v>0.581</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.000199999999999978</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.00219999999999998</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="E22" t="n">
-        <v>0.15</v>
+        <v>0.83</v>
       </c>
       <c r="F22" t="n">
-        <v>4.35</v>
+        <v>3.32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
       <c r="H22" t="n">
-        <v>0.659</v>
+        <v>1.087</v>
       </c>
       <c r="I22" t="n">
-        <v>0.664</v>
+        <v>1.0861</v>
       </c>
       <c r="J22" t="n">
-        <v>0.659</v>
+        <v>1.079</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>0.000600000000000156</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="E23" t="n">
-        <v>0.14</v>
+        <v>0.72</v>
       </c>
       <c r="F23" t="n">
-        <v>6.31</v>
+        <v>3.43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.18</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
-        <v>0.717</v>
+        <v>0.843</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7198</v>
+        <v>0.8436999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>0.707</v>
+        <v>0.838</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0008499999999999064</v>
+        <v>0.0002499999999999725</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,98 +1608,98 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3.88</v>
+        <v>1.19</v>
       </c>
       <c r="E24" t="n">
-        <v>0.13</v>
+        <v>0.68</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.4</v>
+        <v>5.87</v>
       </c>
       <c r="G24" t="n">
-        <v>16.42</v>
+        <v>3.14</v>
       </c>
       <c r="H24" t="n">
-        <v>3.931</v>
+        <v>1.177</v>
       </c>
       <c r="I24" t="n">
-        <v>3.96178</v>
+        <v>1.174</v>
       </c>
       <c r="J24" t="n">
-        <v>3.966</v>
+        <v>1.166</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.00694999999999979</v>
+        <v>0.001750000000000362</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0103999999999993</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.25</v>
+        <v>8.01</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="H25" t="n">
-        <v>1.018</v>
+        <v>1.106</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0212</v>
+        <v>1.1135</v>
       </c>
       <c r="J25" t="n">
-        <v>1.022</v>
+        <v>1.11</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.001149999999999984</v>
+        <v>-0.001699999999999813</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.001100000000000101</v>
+        <v>-0.003200000000000314</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.03</v>
+        <v>0.32</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.24</v>
+        <v>-1.83</v>
       </c>
       <c r="G26" t="n">
-        <v>1.94</v>
+        <v>5.42</v>
       </c>
       <c r="H26" t="n">
-        <v>2.033</v>
+        <v>0.326</v>
       </c>
       <c r="I26" t="n">
-        <v>2.0345</v>
+        <v>0.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.021</v>
+        <v>0.329</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0009999999999998899</v>
+        <v>-0.0003000000000000225</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000500000000000167</v>
+        <v>-0.001300000000000023</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1</v>
+        <v>0.62</v>
       </c>
       <c r="F27" t="n">
-        <v>-14.12</v>
+        <v>5.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="H27" t="n">
-        <v>0.984</v>
+        <v>0.828</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9866999999999999</v>
+        <v>0.8280999999999998</v>
       </c>
       <c r="J27" t="n">
-        <v>0.987</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.002000000000000113</v>
+        <v>0.0005500000000000504</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.001299999999999968</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09</v>
+        <v>0.6</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.76</v>
+        <v>-3.16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.28</v>
+        <v>22.67</v>
       </c>
       <c r="H28" t="n">
-        <v>1.112</v>
+        <v>1.017</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1162</v>
+        <v>1.0273</v>
       </c>
       <c r="J28" t="n">
-        <v>1.106</v>
+        <v>1.031</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>-0.001749999999999918</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-0.004100000000000215</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>-10.4</v>
+        <v>-4.95</v>
       </c>
       <c r="G29" t="n">
-        <v>0.87</v>
+        <v>12.07</v>
       </c>
       <c r="H29" t="n">
-        <v>1.338</v>
+        <v>2.024</v>
       </c>
       <c r="I29" t="n">
-        <v>1.3471</v>
+        <v>2.026</v>
       </c>
       <c r="J29" t="n">
-        <v>1.344</v>
+        <v>2.007</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.002650000000000041</v>
+        <v>-0.001700000000000035</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.004499999999999948</v>
+        <v>-0.002300000000000413</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.7</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="H30" t="n">
-        <v>0.965</v>
+        <v>1.007</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9775</v>
+        <v>1.0089</v>
       </c>
       <c r="J30" t="n">
-        <v>0.975</v>
+        <v>1.005</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.001100000000000101</v>
+        <v>-0.0007499999999998064</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.002999999999999892</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.19</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.41</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1.007</v>
+        <v>0.846</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0089</v>
+        <v>0.8560000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>1.005</v>
+        <v>0.863</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0007499999999998064</v>
+        <v>-0.003250000000000086</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>-0.004599999999999937</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.84</v>
+        <v>2.76</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F32" t="n">
-        <v>2.69</v>
+        <v>0.88</v>
       </c>
       <c r="G32" t="n">
-        <v>0.98</v>
+        <v>20.76</v>
       </c>
       <c r="H32" t="n">
-        <v>0.843</v>
+        <v>2.752</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8436999999999999</v>
+        <v>2.7538</v>
       </c>
       <c r="J32" t="n">
-        <v>0.838</v>
+        <v>2.756</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0002499999999999725</v>
+        <v>-0.001650000000000151</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.000600000000000378</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.17</v>
+        <v>0.47</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.97</v>
+        <v>-15.19</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="H33" t="n">
-        <v>0.597</v>
+        <v>0.645</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5976</v>
+        <v>0.6482</v>
       </c>
       <c r="J33" t="n">
-        <v>0.593</v>
+        <v>0.648</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>-0.001299999999999857</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.000199999999999978</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2</v>
+        <v>0.46</v>
       </c>
       <c r="F34" t="n">
-        <v>-9.550000000000001</v>
+        <v>-9.99</v>
       </c>
       <c r="G34" t="n">
-        <v>3.17</v>
+        <v>1.08</v>
       </c>
       <c r="H34" t="n">
-        <v>1.033</v>
+        <v>1.34</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0324</v>
+        <v>1.3481</v>
       </c>
       <c r="J34" t="n">
-        <v>1.018</v>
+        <v>1.345</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>-0.002149999999999874</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-0.003499999999999837</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.47</v>
+        <v>3.13</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.21</v>
+        <v>0.45</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.12</v>
+        <v>-0.16</v>
       </c>
       <c r="G35" t="n">
-        <v>0.15</v>
+        <v>1.02</v>
       </c>
       <c r="H35" t="n">
-        <v>0.476</v>
+        <v>3.165</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4832</v>
+        <v>3.1751</v>
       </c>
       <c r="J35" t="n">
-        <v>0.481</v>
+        <v>3.151</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.000350000000000017</v>
+        <v>-0.001300000000000079</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-0.004100000000000659</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.47</v>
+        <v>1.52</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.21</v>
+        <v>0.4</v>
       </c>
       <c r="F36" t="n">
-        <v>13.67</v>
+        <v>-0.95</v>
       </c>
       <c r="G36" t="n">
-        <v>10.89</v>
+        <v>1.73</v>
       </c>
       <c r="H36" t="n">
-        <v>0.485</v>
+        <v>1.516</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4899</v>
+        <v>1.5241</v>
       </c>
       <c r="J36" t="n">
-        <v>0.481</v>
+        <v>1.524</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0006499999999999839</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.00109999999999999</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.21</v>
+        <v>0.39</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.71</v>
+        <v>-3.87</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H37" t="n">
-        <v>1.429</v>
+        <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>1.4302</v>
+        <v>1.0222</v>
       </c>
       <c r="J37" t="n">
-        <v>1.425</v>
+        <v>1.022</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0006500000000000394</v>
+        <v>-0.0006500000000002615</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.32</v>
+        <v>7.46</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.31</v>
+        <v>0.38</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.45</v>
+        <v>25.91</v>
       </c>
       <c r="G38" t="n">
-        <v>3.22</v>
+        <v>27.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0.326</v>
+        <v>7.523</v>
       </c>
       <c r="I38" t="n">
-        <v>0.33</v>
+        <v>7.4824</v>
       </c>
       <c r="J38" t="n">
-        <v>0.329</v>
+        <v>7.45</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0003000000000000225</v>
+        <v>0.001049999999999329</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.001300000000000023</v>
+        <v>-0.002300000000000857</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.17</v>
+        <v>0.53</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.34</v>
+        <v>0.38</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.59</v>
+        <v>-6.37</v>
       </c>
       <c r="G39" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="H39" t="n">
-        <v>1.177</v>
+        <v>0.532</v>
       </c>
       <c r="I39" t="n">
-        <v>1.174</v>
+        <v>0.5336000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>1.176</v>
+        <v>0.531</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.001249999999999973</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.000299999999999967</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.44</v>
+        <v>0.85</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.39</v>
+        <v>0.35</v>
       </c>
       <c r="F40" t="n">
-        <v>25.44</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>27.18</v>
+        <v>0.05</v>
       </c>
       <c r="H40" t="n">
-        <v>7.519</v>
+        <v>0.851</v>
       </c>
       <c r="I40" t="n">
-        <v>7.4804</v>
+        <v>0.8526</v>
       </c>
       <c r="J40" t="n">
-        <v>7.449</v>
+        <v>0.846</v>
       </c>
       <c r="K40" t="n">
-        <v>4.999999999988347e-05</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.004300000000000637</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F41" t="n">
-        <v>2.14</v>
+        <v>-5.38</v>
       </c>
       <c r="G41" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="H41" t="n">
-        <v>1.254</v>
+        <v>1.429</v>
       </c>
       <c r="I41" t="n">
-        <v>1.2439</v>
+        <v>1.4302</v>
       </c>
       <c r="J41" t="n">
-        <v>1.228</v>
+        <v>1.425</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0005500000000000504</v>
+        <v>-0.0006500000000000394</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.002299999999999969</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.47</v>
+        <v>0.9</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.41</v>
+        <v>0.34</v>
       </c>
       <c r="F42" t="n">
-        <v>0.89</v>
+        <v>-6.56</v>
       </c>
       <c r="G42" t="n">
-        <v>0.57</v>
+        <v>4.59</v>
       </c>
       <c r="H42" t="n">
-        <v>1.475</v>
+        <v>0.91</v>
       </c>
       <c r="I42" t="n">
-        <v>1.4703</v>
+        <v>0.9087</v>
       </c>
       <c r="J42" t="n">
-        <v>1.464</v>
+        <v>0.9</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001149999999999984</v>
+        <v>-0.0009500000000000064</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001399999999999846</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.53</v>
+        <v>3.89</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.57</v>
+        <v>0.34</v>
       </c>
       <c r="F43" t="n">
-        <v>-6.73</v>
+        <v>-1.07</v>
       </c>
       <c r="G43" t="n">
-        <v>0.37</v>
+        <v>29.09</v>
       </c>
       <c r="H43" t="n">
-        <v>0.532</v>
+        <v>3.933</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5336000000000001</v>
+        <v>3.96278</v>
       </c>
       <c r="J43" t="n">
-        <v>0.531</v>
+        <v>3.966</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.000300000000000189</v>
+        <v>-0.006450000000000511</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>-0.009400000000000297</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3.12</v>
+        <v>0.59</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.57</v>
+        <v>0.34</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.61</v>
+        <v>-2.64</v>
       </c>
       <c r="G44" t="n">
-        <v>0.97</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>3.163</v>
+        <v>0.597</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1741</v>
+        <v>0.5976</v>
       </c>
       <c r="J44" t="n">
-        <v>3.151</v>
+        <v>0.593</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.001800000000000246</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.00509999999999966</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.59</v>
+        <v>0.34</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.73</v>
+        <v>17.65</v>
       </c>
       <c r="G45" t="n">
-        <v>18.25</v>
+        <v>0.92</v>
       </c>
       <c r="H45" t="n">
-        <v>1.017</v>
+        <v>1.202</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0273</v>
+        <v>1.1871</v>
       </c>
       <c r="J45" t="n">
-        <v>1.031</v>
+        <v>1.152</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.001749999999999918</v>
+        <v>0.004150000000000098</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.004100000000000215</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.64</v>
+        <v>0.22</v>
       </c>
       <c r="F46" t="n">
-        <v>9.85</v>
+        <v>-1.61</v>
       </c>
       <c r="G46" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H46" t="n">
-        <v>0.957</v>
+        <v>0.927</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9512</v>
+        <v>0.9379</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.944</v>
       </c>
       <c r="K46" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.002399999999999958</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.001399999999999957</v>
+        <v>-0.004199999999999982</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F47" t="n">
-        <v>-6.06</v>
+        <v>-0.6</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H47" t="n">
-        <v>0.851</v>
+        <v>0.989</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8526</v>
+        <v>0.9869</v>
       </c>
       <c r="J47" t="n">
-        <v>0.846</v>
+        <v>0.986</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-4.999999999999449e-05</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.7</v>
+        <v>0.15</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.68</v>
+        <v>4.51</v>
       </c>
       <c r="G48" t="n">
-        <v>6.72</v>
+        <v>0.37</v>
       </c>
       <c r="H48" t="n">
-        <v>0.994</v>
+        <v>0.659</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0035</v>
+        <v>0.664</v>
       </c>
       <c r="J48" t="n">
-        <v>1.005</v>
+        <v>0.659</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.001599999999999824</v>
+        <v>-0.0003500000000000725</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.003699999999999815</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.72</v>
+        <v>0.11</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.49</v>
+        <v>-4.6</v>
       </c>
       <c r="G49" t="n">
-        <v>1.71</v>
+        <v>0.01</v>
       </c>
       <c r="H49" t="n">
-        <v>1.1</v>
+        <v>0.965</v>
       </c>
       <c r="I49" t="n">
-        <v>1.1102</v>
+        <v>0.9775</v>
       </c>
       <c r="J49" t="n">
-        <v>1.113</v>
+        <v>0.975</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.001649999999999929</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.003700000000000037</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.9</v>
+        <v>0.36</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.78</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-6.87</v>
+        <v>0.55</v>
       </c>
       <c r="G50" t="n">
-        <v>4.08</v>
+        <v>4.42</v>
       </c>
       <c r="H50" t="n">
-        <v>0.91</v>
+        <v>0.369</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9087</v>
+        <v>0.3734</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9</v>
+        <v>0.372</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0009500000000000064</v>
+        <v>-0.0005499999999999394</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>-0.00159999999999999</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.59</v>
+        <v>125.19</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.84</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.34</v>
+        <v>2.07</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0.595</v>
+        <v>124.587</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5982</v>
+        <v>124.2348</v>
       </c>
       <c r="J51" t="n">
-        <v>0.601</v>
+        <v>123.639</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.002099999999999991</v>
+        <v>0.09239999999999782</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.2090999999999923</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.99</v>
+        <v>1.1</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.85</v>
+        <v>-0.09</v>
       </c>
       <c r="F52" t="n">
-        <v>-5.42</v>
+        <v>-4.84</v>
       </c>
       <c r="G52" t="n">
-        <v>11.83</v>
+        <v>0.39</v>
       </c>
       <c r="H52" t="n">
-        <v>2.022</v>
+        <v>1.112</v>
       </c>
       <c r="I52" t="n">
-        <v>2.025</v>
+        <v>1.1162</v>
       </c>
       <c r="J52" t="n">
-        <v>2.006</v>
+        <v>1.106</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.002199999999999758</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.003300000000000303</v>
+        <v>0</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.92</v>
+        <v>2.02</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.97</v>
+        <v>-0.1</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.82</v>
+        <v>-6.34</v>
       </c>
       <c r="G53" t="n">
-        <v>0.13</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>0.927</v>
+        <v>2.031</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9379</v>
+        <v>2.0335</v>
       </c>
       <c r="J53" t="n">
-        <v>0.944</v>
+        <v>2.02</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.002399999999999958</v>
+        <v>0.0004999999999997229</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.004199999999999982</v>
+        <v>-0.0004999999999997229</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.05</v>
+        <v>-0.17</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.77</v>
+        <v>-2.75</v>
       </c>
       <c r="G54" t="n">
-        <v>5.3</v>
+        <v>0.42</v>
       </c>
       <c r="H54" t="n">
-        <v>1.052</v>
+        <v>1.177</v>
       </c>
       <c r="I54" t="n">
-        <v>1.0503</v>
+        <v>1.174</v>
       </c>
       <c r="J54" t="n">
-        <v>1.046</v>
+        <v>1.176</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>-0.001249999999999973</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.00219999999999998</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.09</v>
+        <v>-0.17</v>
       </c>
       <c r="F55" t="n">
-        <v>6.58</v>
+        <v>-0.43</v>
       </c>
       <c r="G55" t="n">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="H55" t="n">
-        <v>1.472</v>
+        <v>1.166</v>
       </c>
       <c r="I55" t="n">
-        <v>1.4746</v>
+        <v>1.1741</v>
       </c>
       <c r="J55" t="n">
-        <v>1.477</v>
+        <v>1.163</v>
       </c>
       <c r="K55" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.001599999999999824</v>
+        <v>-0.002599999999999936</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.19</v>
+        <v>-0.19</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.26</v>
+        <v>-4.3</v>
       </c>
       <c r="G56" t="n">
-        <v>0.65</v>
+        <v>4.72</v>
       </c>
       <c r="H56" t="n">
-        <v>1.166</v>
+        <v>1.564</v>
       </c>
       <c r="I56" t="n">
-        <v>1.1741</v>
+        <v>1.5679</v>
       </c>
       <c r="J56" t="n">
-        <v>1.163</v>
+        <v>1.563</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>0.0005499999999998284</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.002599999999999936</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.27</v>
+        <v>-0.25</v>
       </c>
       <c r="F57" t="n">
-        <v>7.32</v>
+        <v>0.34</v>
       </c>
       <c r="G57" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
-        <v>1.104</v>
+        <v>1.196</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1125</v>
+        <v>1.2016</v>
       </c>
       <c r="J57" t="n">
-        <v>1.109</v>
+        <v>1.202</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.002200000000000202</v>
+        <v>-0.002399999999999958</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.004199999999999982</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3325,13 +3325,13 @@
         <v>1.34</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.54</v>
+        <v>-0.3</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.61</v>
+        <v>-1.91</v>
       </c>
       <c r="G58" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>1.346</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.7</v>
+        <v>-0.42</v>
       </c>
       <c r="F59" t="n">
-        <v>4.39</v>
+        <v>5.86</v>
       </c>
       <c r="G59" t="n">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="H59" t="n">
-        <v>0.828</v>
+        <v>0.715</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8280999999999998</v>
+        <v>0.7188</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0005500000000000504</v>
+        <v>0.0003499999999999615</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.001500000000000057</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.79</v>
+        <v>-0.76</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.45</v>
+        <v>-3.55</v>
       </c>
       <c r="G60" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="H60" t="n">
-        <v>1.12</v>
+        <v>0.794</v>
       </c>
       <c r="I60" t="n">
-        <v>1.1304</v>
+        <v>0.8066000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>1.117</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.004399999999999959</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.85</v>
+        <v>-0.95</v>
       </c>
       <c r="F61" t="n">
-        <v>17.25</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="H61" t="n">
-        <v>1.202</v>
+        <v>1.471</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1871</v>
+        <v>1.4683</v>
       </c>
       <c r="J61" t="n">
-        <v>1.152</v>
+        <v>1.463</v>
       </c>
       <c r="K61" t="n">
-        <v>0.004150000000000098</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0006999999999999229</v>
+        <v>-0.000600000000000156</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.83</v>
+        <v>1.44</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.01</v>
+        <v>-1.17</v>
       </c>
       <c r="F62" t="n">
-        <v>2.85</v>
+        <v>5.34</v>
       </c>
       <c r="G62" t="n">
-        <v>1.91</v>
+        <v>0.28</v>
       </c>
       <c r="H62" t="n">
-        <v>0.846</v>
+        <v>1.468</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8560000000000001</v>
+        <v>1.4726</v>
       </c>
       <c r="J62" t="n">
-        <v>0.863</v>
+        <v>1.476</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.003250000000000086</v>
+        <v>-0.0008999999999999009</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.004599999999999937</v>
+        <v>-0.003599999999999826</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.77</v>
+        <v>0.55</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.17</v>
+        <v>-1.25</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.92</v>
+        <v>-10.55</v>
       </c>
       <c r="G63" t="n">
-        <v>0.67</v>
+        <v>6.49</v>
       </c>
       <c r="H63" t="n">
-        <v>0.79</v>
+        <v>0.548</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7955</v>
+        <v>0.5588</v>
       </c>
       <c r="J63" t="n">
-        <v>0.79</v>
+        <v>0.571</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.001149999999999984</v>
+        <v>-0.002199999999999869</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.004100000000000104</v>
+        <v>-0.002800000000000136</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="E2" t="n">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="F2" t="n">
-        <v>56.55</v>
+        <v>7.07</v>
       </c>
       <c r="G2" t="n">
-        <v>92.28</v>
+        <v>4.02</v>
       </c>
       <c r="H2" t="n">
-        <v>1.152</v>
+        <v>0.852</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1535</v>
+        <v>0.859</v>
       </c>
       <c r="J2" t="n">
-        <v>1.079</v>
+        <v>0.865</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008150000000000102</v>
+        <v>-0.001750000000000029</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008400000000000185</v>
+        <v>-0.001600000000000046</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="E3" t="n">
-        <v>2.58</v>
+        <v>3.38</v>
       </c>
       <c r="F3" t="n">
-        <v>42.56</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>23.51</v>
+        <v>0.52</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5690000000000001</v>
+        <v>0.9380000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.541</v>
+        <v>0.944</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00264999999999993</v>
+        <v>-0.0007500000000000284</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002900000000000014</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="E4" t="n">
-        <v>2.34</v>
+        <v>3.21</v>
       </c>
       <c r="F4" t="n">
-        <v>0.38</v>
+        <v>11.47</v>
       </c>
       <c r="G4" t="n">
-        <v>0.86</v>
+        <v>0.47</v>
       </c>
       <c r="H4" t="n">
-        <v>0.794</v>
+        <v>1.114</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7975000000000001</v>
+        <v>1.1175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.791</v>
+        <v>1.112</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.002099999999999991</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.99</v>
+        <v>0.62</v>
       </c>
       <c r="E5" t="n">
-        <v>1.75</v>
+        <v>3.18</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.62</v>
+        <v>4.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>0.16</v>
       </c>
       <c r="H5" t="n">
-        <v>0.988</v>
+        <v>0.601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9887</v>
+        <v>0.6012</v>
       </c>
       <c r="J5" t="n">
-        <v>0.988</v>
+        <v>0.603</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001000000000000112</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.73</v>
+        <v>2.64</v>
       </c>
       <c r="F6" t="n">
-        <v>6.41</v>
+        <v>20.76</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652</v>
+        <v>1.209</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6589</v>
+        <v>1.1939</v>
       </c>
       <c r="J6" t="n">
-        <v>0.647</v>
+        <v>1.158</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.004650000000000043</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0.004699999999999926</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="E7" t="n">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="F7" t="n">
-        <v>1.36</v>
+        <v>-6.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09</v>
+        <v>11.35</v>
       </c>
       <c r="H7" t="n">
-        <v>0.597</v>
+        <v>1.038</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5992</v>
+        <v>1.0358</v>
       </c>
       <c r="J7" t="n">
-        <v>0.602</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001599999999999935</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,98 +808,98 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.05</v>
+        <v>0.57</v>
       </c>
       <c r="E8" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="F8" t="n">
-        <v>0.86</v>
+        <v>45.9</v>
       </c>
       <c r="G8" t="n">
-        <v>5.77</v>
+        <v>24.06</v>
       </c>
       <c r="H8" t="n">
-        <v>1.056</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0523</v>
+        <v>0.5700999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>1.047</v>
+        <v>0.543</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0001999999999997559</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="E9" t="n">
-        <v>1.46</v>
+        <v>2.34</v>
       </c>
       <c r="F9" t="n">
-        <v>16.95</v>
+        <v>-4.37</v>
       </c>
       <c r="G9" t="n">
-        <v>3.52</v>
+        <v>10.22</v>
       </c>
       <c r="H9" t="n">
-        <v>1.116</v>
+        <v>0.914</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1229</v>
+        <v>0.9107000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>0.901</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>4.999999999999449e-05</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.000300000000000189</v>
+        <v>0.001299999999999968</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="E10" t="n">
-        <v>1.35</v>
+        <v>2.31</v>
       </c>
       <c r="F10" t="n">
-        <v>9.18</v>
+        <v>-2.09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.61</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.403</v>
+        <v>1.571</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3923</v>
+        <v>1.5701</v>
       </c>
       <c r="J10" t="n">
-        <v>1.373</v>
+        <v>1.566</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003700000000000037</v>
+        <v>0.00254999999999983</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005600000000000049</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.48</v>
+        <v>2.04</v>
       </c>
       <c r="E11" t="n">
-        <v>1.27</v>
+        <v>2.3</v>
       </c>
       <c r="F11" t="n">
-        <v>15.11</v>
+        <v>-2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>19.11</v>
+        <v>25.18</v>
       </c>
       <c r="H11" t="n">
-        <v>0.487</v>
+        <v>2.032</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4909</v>
+        <v>2.03</v>
       </c>
       <c r="J11" t="n">
-        <v>0.481</v>
+        <v>2.009</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.000150000000000039</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.72</v>
+        <v>0.8</v>
       </c>
       <c r="E12" t="n">
-        <v>1.24</v>
+        <v>2.29</v>
       </c>
       <c r="F12" t="n">
-        <v>15.89</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>8.880000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="H12" t="n">
-        <v>1.678</v>
+        <v>0.797</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6641</v>
+        <v>0.7964</v>
       </c>
       <c r="J12" t="n">
-        <v>1.641</v>
+        <v>0.791</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005399999999999849</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008700000000000152</v>
+        <v>-0.0006000000000000449</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="E13" t="n">
-        <v>1.18</v>
+        <v>2.13</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.48</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>5.27</v>
+        <v>1.11</v>
       </c>
       <c r="H13" t="n">
-        <v>1.035</v>
+        <v>1.479</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0334</v>
+        <v>1.4729</v>
       </c>
       <c r="J13" t="n">
-        <v>1.019</v>
+        <v>1.466</v>
       </c>
       <c r="K13" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.002300000000000191</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="E14" t="n">
-        <v>1.11</v>
+        <v>2.11</v>
       </c>
       <c r="F14" t="n">
-        <v>6.38</v>
+        <v>59.86</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1.193</v>
+        <v>1.137</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193</v>
+        <v>1.1569</v>
       </c>
       <c r="J14" t="n">
-        <v>1.177</v>
+        <v>1.086</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0008500000000000174</v>
+        <v>0.00969999999999982</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="E15" t="n">
-        <v>1.11</v>
+        <v>2.08</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.59</v>
+        <v>1.64</v>
       </c>
       <c r="G15" t="n">
-        <v>10.78</v>
+        <v>0.9</v>
       </c>
       <c r="H15" t="n">
-        <v>0.996</v>
+        <v>1.173</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0045</v>
+        <v>1.1745</v>
       </c>
       <c r="J15" t="n">
-        <v>1.006</v>
+        <v>1.164</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.001100000000000101</v>
+        <v>0.0006500000000002615</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.002699999999999925</v>
+        <v>-0.0008000000000001339</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.47</v>
+        <v>1.47</v>
       </c>
       <c r="E16" t="n">
-        <v>1.07</v>
+        <v>2.01</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.09</v>
+        <v>7.46</v>
       </c>
       <c r="G16" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="H16" t="n">
-        <v>0.476</v>
+        <v>1.474</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4832</v>
+        <v>1.4756</v>
       </c>
       <c r="J16" t="n">
-        <v>0.481</v>
+        <v>1.477</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.000350000000000017</v>
+        <v>0.000600000000000156</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.1221</v>
+      </c>
+      <c r="J17" t="n">
         <v>1.11</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.122</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.1314</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.117</v>
-      </c>
       <c r="K17" t="n">
-        <v>-0.0002000000000002</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.00340000000000007</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.51</v>
+        <v>2.45</v>
       </c>
       <c r="G18" t="n">
-        <v>2.23</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>1.102</v>
+        <v>1.127</v>
       </c>
       <c r="I18" t="n">
-        <v>1.1112</v>
+        <v>1.1305</v>
       </c>
       <c r="J18" t="n">
-        <v>1.114</v>
+        <v>1.119</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001149999999999984</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.002700000000000147</v>
+        <v>-0.001700000000000035</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.25</v>
+        <v>0.49</v>
       </c>
       <c r="E19" t="n">
-        <v>0.89</v>
+        <v>1.87</v>
       </c>
       <c r="F19" t="n">
-        <v>3.05</v>
+        <v>17.27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04</v>
+        <v>20.69</v>
       </c>
       <c r="H19" t="n">
-        <v>1.256</v>
+        <v>0.487</v>
       </c>
       <c r="I19" t="n">
-        <v>1.2449</v>
+        <v>0.491</v>
       </c>
       <c r="J19" t="n">
-        <v>1.228</v>
+        <v>0.482</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.0008500000000000729</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003299999999999859</v>
+        <v>0.0005999999999999894</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="E20" t="n">
-        <v>0.88</v>
+        <v>1.85</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.55</v>
+        <v>6.98</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03</v>
+        <v>1.15</v>
       </c>
       <c r="H20" t="n">
-        <v>0.58</v>
+        <v>0.832</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5871</v>
+        <v>0.8304</v>
       </c>
       <c r="J20" t="n">
-        <v>0.581</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.001349999999999962</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.00219999999999998</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.85</v>
+        <v>1.78</v>
       </c>
       <c r="F21" t="n">
-        <v>10.79</v>
+        <v>-4.67</v>
       </c>
       <c r="G21" t="n">
-        <v>0.11</v>
+        <v>4.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.957</v>
+        <v>2.039</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9512</v>
+        <v>2.0376</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9350000000000001</v>
+        <v>2.024</v>
       </c>
       <c r="K21" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>0.00354999999999972</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001399999999999957</v>
+        <v>0.003600000000000492</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="E22" t="n">
-        <v>0.83</v>
+        <v>1.71</v>
       </c>
       <c r="F22" t="n">
-        <v>3.32</v>
+        <v>0.18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.68</v>
+        <v>3.53</v>
       </c>
       <c r="H22" t="n">
-        <v>1.087</v>
+        <v>1.107</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0861</v>
+        <v>1.11</v>
       </c>
       <c r="J22" t="n">
-        <v>1.079</v>
+        <v>1.114</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000600000000000156</v>
+        <v>-5.000000000010552e-05</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001100000000000101</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.84</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.51</v>
-      </c>
       <c r="H23" t="n">
-        <v>0.843</v>
+        <v>0.534</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8436999999999999</v>
+        <v>0.5346</v>
       </c>
       <c r="J23" t="n">
-        <v>0.838</v>
+        <v>0.531</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002499999999999725</v>
+        <v>0.000199999999999867</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,98 +1608,98 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="E24" t="n">
-        <v>0.68</v>
+        <v>1.69</v>
       </c>
       <c r="F24" t="n">
-        <v>5.87</v>
+        <v>1.09</v>
       </c>
       <c r="G24" t="n">
-        <v>3.14</v>
+        <v>13.03</v>
       </c>
       <c r="H24" t="n">
-        <v>1.177</v>
+        <v>1.001</v>
       </c>
       <c r="I24" t="n">
-        <v>1.174</v>
+        <v>1.0037</v>
       </c>
       <c r="J24" t="n">
-        <v>1.166</v>
+        <v>1.006</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001750000000000362</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002499999999999947</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="E25" t="n">
-        <v>0.65</v>
+        <v>1.68</v>
       </c>
       <c r="F25" t="n">
-        <v>8.01</v>
+        <v>-1.53</v>
       </c>
       <c r="G25" t="n">
-        <v>0.34</v>
+        <v>33.93</v>
       </c>
       <c r="H25" t="n">
-        <v>1.106</v>
+        <v>1.019</v>
       </c>
       <c r="I25" t="n">
-        <v>1.1135</v>
+        <v>1.0258</v>
       </c>
       <c r="J25" t="n">
-        <v>1.11</v>
+        <v>1.031</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.001699999999999813</v>
+        <v>-0.0004500000000000615</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.003200000000000314</v>
+        <v>-0.001700000000000257</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="E26" t="n">
-        <v>0.63</v>
+        <v>1.6</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.83</v>
+        <v>1.43</v>
       </c>
       <c r="G26" t="n">
-        <v>5.42</v>
+        <v>1.22</v>
       </c>
       <c r="H26" t="n">
-        <v>0.326</v>
+        <v>3.169</v>
       </c>
       <c r="I26" t="n">
-        <v>0.33</v>
+        <v>3.1764</v>
       </c>
       <c r="J26" t="n">
-        <v>0.329</v>
+        <v>3.154</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0003000000000000225</v>
+        <v>0.002450000000000063</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.001300000000000023</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E27" t="n">
-        <v>0.62</v>
+        <v>1.56</v>
       </c>
       <c r="F27" t="n">
-        <v>5.04</v>
+        <v>-13.87</v>
       </c>
       <c r="G27" t="n">
-        <v>0.57</v>
+        <v>2.67</v>
       </c>
       <c r="H27" t="n">
-        <v>0.828</v>
+        <v>0.645</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8280999999999998</v>
+        <v>0.6482</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0005500000000000504</v>
+        <v>-0.0004499999999999504</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.001500000000000057</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6</v>
+        <v>1.42</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.16</v>
+        <v>-0.51</v>
       </c>
       <c r="G28" t="n">
-        <v>22.67</v>
+        <v>1.25</v>
       </c>
       <c r="H28" t="n">
-        <v>1.017</v>
+        <v>1.358</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0273</v>
+        <v>1.3392</v>
       </c>
       <c r="J28" t="n">
-        <v>1.031</v>
+        <v>1.291</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.001749999999999918</v>
+        <v>0.006449999999999845</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.004100000000000215</v>
+        <v>0.005499999999999838</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0.87</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.95</v>
+        <v>-4.41</v>
       </c>
       <c r="G29" t="n">
-        <v>12.07</v>
+        <v>0.11</v>
       </c>
       <c r="H29" t="n">
-        <v>2.024</v>
+        <v>0.858</v>
       </c>
       <c r="I29" t="n">
-        <v>2.026</v>
+        <v>0.8547</v>
       </c>
       <c r="J29" t="n">
-        <v>2.007</v>
+        <v>0.848</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.001700000000000035</v>
+        <v>0.001100000000000101</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.002300000000000413</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6581</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.001899999999999902</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.0089</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-0.0007499999999998064</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="E31" t="n">
-        <v>0.48</v>
+        <v>1.22</v>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>-8.890000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="H31" t="n">
-        <v>0.846</v>
+        <v>1.338</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8560000000000001</v>
+        <v>1.3446</v>
       </c>
       <c r="J31" t="n">
-        <v>0.863</v>
+        <v>1.344</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.003250000000000086</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.004599999999999937</v>
+        <v>-0.002499999999999947</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.76</v>
+        <v>1.02</v>
       </c>
       <c r="E32" t="n">
-        <v>0.47</v>
+        <v>1.19</v>
       </c>
       <c r="F32" t="n">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="G32" t="n">
-        <v>20.76</v>
+        <v>0.35</v>
       </c>
       <c r="H32" t="n">
-        <v>2.752</v>
+        <v>1.01</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7538</v>
+        <v>1.0101</v>
       </c>
       <c r="J32" t="n">
-        <v>2.756</v>
+        <v>1.006</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.001650000000000151</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.000600000000000378</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.64</v>
+        <v>1.19</v>
       </c>
       <c r="E33" t="n">
-        <v>0.47</v>
+        <v>1.19</v>
       </c>
       <c r="F33" t="n">
-        <v>-15.19</v>
+        <v>1.53</v>
       </c>
       <c r="G33" t="n">
-        <v>2.17</v>
+        <v>0.49</v>
       </c>
       <c r="H33" t="n">
-        <v>0.645</v>
+        <v>1.193</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6482</v>
+        <v>1.2005</v>
       </c>
       <c r="J33" t="n">
-        <v>0.648</v>
+        <v>1.201</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001299999999999857</v>
+        <v>-0.001399999999999846</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>-0.001000000000000112</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>XD金融ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="E34" t="n">
-        <v>0.46</v>
+        <v>1.18</v>
       </c>
       <c r="F34" t="n">
-        <v>-9.99</v>
+        <v>10.45</v>
       </c>
       <c r="G34" t="n">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
       <c r="H34" t="n">
-        <v>1.34</v>
+        <v>1.394</v>
       </c>
       <c r="I34" t="n">
-        <v>1.3481</v>
+        <v>1.3894</v>
       </c>
       <c r="J34" t="n">
-        <v>1.345</v>
+        <v>1.372</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.002149999999999874</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.003499999999999837</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.13</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.45</v>
+        <v>1.18</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.16</v>
+        <v>-1.48</v>
       </c>
       <c r="G35" t="n">
-        <v>1.02</v>
+        <v>0.09</v>
       </c>
       <c r="H35" t="n">
-        <v>3.165</v>
+        <v>0.597</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1751</v>
+        <v>0.598</v>
       </c>
       <c r="J35" t="n">
-        <v>3.151</v>
+        <v>0.593</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001300000000000079</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.004100000000000659</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.52</v>
+        <v>3.94</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4</v>
+        <v>1.16</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.95</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>48.15</v>
       </c>
       <c r="H36" t="n">
-        <v>1.516</v>
+        <v>3.922</v>
       </c>
       <c r="I36" t="n">
-        <v>1.5241</v>
+        <v>3.95648</v>
       </c>
       <c r="J36" t="n">
-        <v>1.524</v>
+        <v>3.962</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.001099999999999879</v>
+        <v>-0.003849999999999909</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>-0.004600000000000382</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.39</v>
+        <v>1.1</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.87</v>
+        <v>4.46</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02</v>
+        <v>0.77</v>
       </c>
       <c r="H37" t="n">
-        <v>1.02</v>
+        <v>1.088</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0222</v>
+        <v>1.0867</v>
       </c>
       <c r="J37" t="n">
-        <v>1.022</v>
+        <v>1.079</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0006500000000002615</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7.46</v>
+        <v>2.79</v>
       </c>
       <c r="E38" t="n">
-        <v>0.38</v>
+        <v>1.09</v>
       </c>
       <c r="F38" t="n">
-        <v>25.91</v>
+        <v>1.97</v>
       </c>
       <c r="G38" t="n">
-        <v>27.5</v>
+        <v>26.76</v>
       </c>
       <c r="H38" t="n">
-        <v>7.523</v>
+        <v>2.756</v>
       </c>
       <c r="I38" t="n">
-        <v>7.4824</v>
+        <v>2.7545</v>
       </c>
       <c r="J38" t="n">
-        <v>7.45</v>
+        <v>2.755</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001049999999999329</v>
+        <v>-0.0002999999999997449</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.002300000000000857</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="E39" t="n">
-        <v>0.38</v>
+        <v>1.07</v>
       </c>
       <c r="F39" t="n">
-        <v>-6.37</v>
+        <v>4.53</v>
       </c>
       <c r="G39" t="n">
-        <v>0.44</v>
+        <v>1.87</v>
       </c>
       <c r="H39" t="n">
-        <v>0.532</v>
+        <v>0.845</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5336000000000001</v>
+        <v>0.8445</v>
       </c>
       <c r="J39" t="n">
-        <v>0.531</v>
+        <v>0.838</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.000300000000000189</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,98 +2408,98 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0.35</v>
+        <v>1.01</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.73</v>
+        <v>7.46</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05</v>
+        <v>3.18</v>
       </c>
       <c r="H40" t="n">
-        <v>0.851</v>
+        <v>1.197</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8526</v>
+        <v>1.195</v>
       </c>
       <c r="J40" t="n">
-        <v>0.846</v>
+        <v>1.178</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.001849999999999907</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.002799999999999692</v>
       </c>
       <c r="N40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.42</v>
+        <v>0.71</v>
       </c>
       <c r="E41" t="n">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.38</v>
+        <v>6.91</v>
       </c>
       <c r="G41" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="H41" t="n">
-        <v>1.429</v>
+        <v>0.717</v>
       </c>
       <c r="I41" t="n">
-        <v>1.4302</v>
+        <v>0.7198</v>
       </c>
       <c r="J41" t="n">
-        <v>1.425</v>
+        <v>0.707</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0006500000000000394</v>
+        <v>0.0008499999999999064</v>
       </c>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9</v>
+        <v>0.32</v>
       </c>
       <c r="E42" t="n">
-        <v>0.34</v>
+        <v>0.93</v>
       </c>
       <c r="F42" t="n">
-        <v>-6.56</v>
+        <v>-0.92</v>
       </c>
       <c r="G42" t="n">
-        <v>4.59</v>
+        <v>3.91</v>
       </c>
       <c r="H42" t="n">
-        <v>0.91</v>
+        <v>0.324</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9087</v>
+        <v>0.329</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9</v>
+        <v>0.329</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0009500000000000064</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.89</v>
+        <v>0.66</v>
       </c>
       <c r="E43" t="n">
-        <v>0.34</v>
+        <v>0.92</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.07</v>
+        <v>5.48</v>
       </c>
       <c r="G43" t="n">
-        <v>29.09</v>
+        <v>0.12</v>
       </c>
       <c r="H43" t="n">
-        <v>3.933</v>
+        <v>0.657</v>
       </c>
       <c r="I43" t="n">
-        <v>3.96278</v>
+        <v>0.6637000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>3.966</v>
+        <v>0.66</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.006450000000000511</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.009400000000000297</v>
+        <v>0</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E44" t="n">
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.64</v>
+        <v>-2.7</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H44" t="n">
-        <v>0.597</v>
+        <v>0.582</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5976</v>
+        <v>0.5881</v>
       </c>
       <c r="J44" t="n">
-        <v>0.593</v>
+        <v>0.582</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>0.0002999999999998559</v>
       </c>
       <c r="L44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.000199999999999978</v>
+        <v>-0.001199999999999979</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="E45" t="n">
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="F45" t="n">
-        <v>17.65</v>
+        <v>-3.8</v>
       </c>
       <c r="G45" t="n">
-        <v>0.92</v>
+        <v>0.02</v>
       </c>
       <c r="H45" t="n">
-        <v>1.202</v>
+        <v>0.962</v>
       </c>
       <c r="I45" t="n">
-        <v>1.1871</v>
+        <v>0.9757</v>
       </c>
       <c r="J45" t="n">
-        <v>1.152</v>
+        <v>0.975</v>
       </c>
       <c r="K45" t="n">
-        <v>0.004150000000000098</v>
+        <v>-0.0001499999999997614</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0006999999999999229</v>
+        <v>-0.002000000000000113</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="E46" t="n">
-        <v>0.22</v>
+        <v>0.82</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.61</v>
+        <v>-4.07</v>
       </c>
       <c r="G46" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.927</v>
+        <v>1.111</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9379</v>
+        <v>1.1166</v>
       </c>
       <c r="J46" t="n">
-        <v>0.944</v>
+        <v>1.106</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.002399999999999958</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.004199999999999982</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.6</v>
+        <v>-2.82</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03</v>
+        <v>2.05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.989</v>
+        <v>0.794</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9869</v>
+        <v>0.8066000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.986</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.999999999999449e-05</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0008000000000001339</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
       <c r="F48" t="n">
-        <v>4.51</v>
+        <v>-9.9</v>
       </c>
       <c r="G48" t="n">
-        <v>0.37</v>
+        <v>6.86</v>
       </c>
       <c r="H48" t="n">
-        <v>0.659</v>
+        <v>0.55</v>
       </c>
       <c r="I48" t="n">
-        <v>0.664</v>
+        <v>0.5567</v>
       </c>
       <c r="J48" t="n">
-        <v>0.659</v>
+        <v>0.569</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>-0.00154999999999994</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>-0.001700000000000035</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.95</v>
+        <v>0.47</v>
       </c>
       <c r="E49" t="n">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
       <c r="F49" t="n">
-        <v>-4.6</v>
+        <v>-2.47</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="H49" t="n">
-        <v>0.965</v>
+        <v>0.476</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9775</v>
+        <v>0.4832</v>
       </c>
       <c r="J49" t="n">
-        <v>0.975</v>
+        <v>0.481</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.001100000000000101</v>
+        <v>-0.000350000000000017</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.002999999999999892</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.36</v>
+        <v>0.95</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="F50" t="n">
-        <v>0.55</v>
+        <v>11.49</v>
       </c>
       <c r="G50" t="n">
-        <v>4.42</v>
+        <v>0.18</v>
       </c>
       <c r="H50" t="n">
-        <v>0.369</v>
+        <v>0.959</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3734</v>
+        <v>0.9522</v>
       </c>
       <c r="J50" t="n">
-        <v>0.372</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0005499999999999394</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.00159999999999999</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>125.19</v>
+        <v>1.43</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="F51" t="n">
-        <v>2.07</v>
+        <v>-4.78</v>
       </c>
       <c r="G51" t="n">
-        <v>67.29000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="H51" t="n">
-        <v>124.587</v>
+        <v>1.43</v>
       </c>
       <c r="I51" t="n">
-        <v>124.2348</v>
+        <v>1.4299</v>
       </c>
       <c r="J51" t="n">
-        <v>123.639</v>
+        <v>1.425</v>
       </c>
       <c r="K51" t="n">
-        <v>0.09239999999999782</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2090999999999923</v>
+        <v>-0.000500000000000167</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.09</v>
+        <v>0.57</v>
       </c>
       <c r="F52" t="n">
-        <v>-4.84</v>
+        <v>1.44</v>
       </c>
       <c r="G52" t="n">
-        <v>0.39</v>
+        <v>7.95</v>
       </c>
       <c r="H52" t="n">
-        <v>1.112</v>
+        <v>1.056</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1162</v>
+        <v>1.0531</v>
       </c>
       <c r="J52" t="n">
-        <v>1.106</v>
+        <v>1.047</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.001300000000000301</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.02</v>
+        <v>0.36</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1</v>
+        <v>0.55</v>
       </c>
       <c r="F53" t="n">
-        <v>-6.34</v>
+        <v>1.11</v>
       </c>
       <c r="G53" t="n">
-        <v>1.83</v>
+        <v>5.85</v>
       </c>
       <c r="H53" t="n">
-        <v>2.031</v>
+        <v>0.365</v>
       </c>
       <c r="I53" t="n">
-        <v>2.0335</v>
+        <v>0.3722</v>
       </c>
       <c r="J53" t="n">
-        <v>2.02</v>
+        <v>0.372</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0004999999999997229</v>
+        <v>-0.0004499999999999504</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0004999999999997229</v>
+        <v>-0.001300000000000079</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3125,31 +3125,31 @@
         <v>1.17</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.17</v>
+        <v>0.34</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.75</v>
+        <v>-2.42</v>
       </c>
       <c r="G54" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="H54" t="n">
-        <v>1.177</v>
+        <v>1.176</v>
       </c>
       <c r="I54" t="n">
         <v>1.174</v>
       </c>
       <c r="J54" t="n">
-        <v>1.176</v>
+        <v>1.175</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.001249999999999973</v>
+        <v>-0.0008500000000002395</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.000299999999999967</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.17</v>
+        <v>0.3</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.43</v>
+        <v>-0.3</v>
       </c>
       <c r="G55" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="H55" t="n">
-        <v>1.166</v>
+        <v>0.989</v>
       </c>
       <c r="I55" t="n">
-        <v>1.1741</v>
+        <v>0.9869</v>
       </c>
       <c r="J55" t="n">
-        <v>1.163</v>
+        <v>0.986</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>-4.999999999999449e-05</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.002599999999999936</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.19</v>
+        <v>0.29</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.3</v>
+        <v>16.23</v>
       </c>
       <c r="G56" t="n">
-        <v>4.72</v>
+        <v>7.56</v>
       </c>
       <c r="H56" t="n">
-        <v>1.564</v>
+        <v>1.686</v>
       </c>
       <c r="I56" t="n">
-        <v>1.5679</v>
+        <v>1.6694</v>
       </c>
       <c r="J56" t="n">
-        <v>1.563</v>
+        <v>1.645</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0005499999999998284</v>
+        <v>0.005200000000000315</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.001099999999999879</v>
+        <v>0.009199999999999875</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.25</v>
+        <v>0.29</v>
       </c>
       <c r="F57" t="n">
-        <v>0.34</v>
+        <v>-3.58</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="H57" t="n">
-        <v>1.196</v>
+        <v>1.019</v>
       </c>
       <c r="I57" t="n">
-        <v>1.2016</v>
+        <v>1.0212</v>
       </c>
       <c r="J57" t="n">
-        <v>1.202</v>
+        <v>1.022</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.002399999999999958</v>
+        <v>-0.0003500000000000725</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.001900000000000013</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3</v>
+        <v>0.26</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.91</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
-        <v>1.346</v>
+        <v>1.515</v>
       </c>
       <c r="I58" t="n">
-        <v>1.3314</v>
+        <v>1.522</v>
       </c>
       <c r="J58" t="n">
-        <v>1.283</v>
+        <v>1.523</v>
       </c>
       <c r="K58" t="n">
-        <v>0.005249999999999755</v>
+        <v>-0.0009000000000001229</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.004399999999999959</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,98 +3358,98 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7</v>
+        <v>1.19</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.42</v>
+        <v>0.08</v>
       </c>
       <c r="F59" t="n">
-        <v>5.86</v>
+        <v>5.96</v>
       </c>
       <c r="G59" t="n">
-        <v>0.45</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.715</v>
+        <v>1.177</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7188</v>
+        <v>1.174</v>
       </c>
       <c r="J59" t="n">
-        <v>0.707</v>
+        <v>1.166</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0003499999999999615</v>
+        <v>0.001750000000000362</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.79</v>
+        <v>124.66</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.76</v>
+        <v>-0.42</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.55</v>
+        <v>1.63</v>
       </c>
       <c r="G60" t="n">
-        <v>2.88</v>
+        <v>76.31</v>
       </c>
       <c r="H60" t="n">
-        <v>0.794</v>
+        <v>124.481</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8066000000000001</v>
+        <v>124.1818</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8129999999999999</v>
+        <v>123.613</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.001800000000000024</v>
+        <v>0.06589999999999918</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.002999999999999892</v>
+        <v>0.1561000000000092</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.45</v>
+        <v>0.98</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.95</v>
+        <v>-0.51</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-13.06</v>
       </c>
       <c r="G61" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="H61" t="n">
-        <v>1.471</v>
+        <v>0.984</v>
       </c>
       <c r="I61" t="n">
-        <v>1.4683</v>
+        <v>0.9862</v>
       </c>
       <c r="J61" t="n">
-        <v>1.463</v>
+        <v>0.986</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0001500000000000945</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="L61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.000600000000000156</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.17</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>5.34</v>
+        <v>2.47</v>
       </c>
       <c r="G62" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="H62" t="n">
-        <v>1.468</v>
+        <v>1.252</v>
       </c>
       <c r="I62" t="n">
-        <v>1.4726</v>
+        <v>1.2459</v>
       </c>
       <c r="J62" t="n">
-        <v>1.476</v>
+        <v>1.229</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.0008999999999999009</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.003599999999999826</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.55</v>
+        <v>7.37</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.25</v>
+        <v>-1.23</v>
       </c>
       <c r="F63" t="n">
-        <v>-10.55</v>
+        <v>24.36</v>
       </c>
       <c r="G63" t="n">
-        <v>6.49</v>
+        <v>43.05</v>
       </c>
       <c r="H63" t="n">
-        <v>0.548</v>
+        <v>7.48</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5588</v>
+        <v>7.4718</v>
       </c>
       <c r="J63" t="n">
-        <v>0.571</v>
+        <v>7.446</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.002199999999999869</v>
+        <v>-0.003999999999998671</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.002800000000000136</v>
+        <v>-0.011099999999999</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="E2" t="n">
-        <v>3.6</v>
+        <v>5.52</v>
       </c>
       <c r="F2" t="n">
-        <v>7.07</v>
+        <v>-1.07</v>
       </c>
       <c r="G2" t="n">
-        <v>4.02</v>
+        <v>24.75</v>
       </c>
       <c r="H2" t="n">
-        <v>0.852</v>
+        <v>1.044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.859</v>
+        <v>1.0396</v>
       </c>
       <c r="J2" t="n">
-        <v>0.865</v>
+        <v>1.024</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.001750000000000029</v>
+        <v>0.005599999999999827</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.001600000000000046</v>
+        <v>0.00749999999999984</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="E3" t="n">
-        <v>3.38</v>
+        <v>4.48</v>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>7.28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.52</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9380000000000001</v>
+        <v>0.7957000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.944</v>
+        <v>0.793</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0007500000000000284</v>
+        <v>0.003350000000000075</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.002500000000000058</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.13</v>
+        <v>0.95</v>
       </c>
       <c r="E4" t="n">
-        <v>3.21</v>
+        <v>3.7</v>
       </c>
       <c r="F4" t="n">
-        <v>11.47</v>
+        <v>-0.83</v>
       </c>
       <c r="G4" t="n">
-        <v>0.47</v>
+        <v>15.83</v>
       </c>
       <c r="H4" t="n">
-        <v>1.114</v>
+        <v>0.92</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1175</v>
+        <v>0.9137000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1.112</v>
+        <v>0.903</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.001550000000000051</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>1.09</v>
       </c>
       <c r="E5" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="F5" t="n">
-        <v>4.58</v>
+        <v>4.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.16</v>
+        <v>11.18</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601</v>
+        <v>1.062</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6012</v>
+        <v>1.0561</v>
       </c>
       <c r="J5" t="n">
-        <v>0.603</v>
+        <v>1.049</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>0.002500000000000169</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>2.11</v>
       </c>
       <c r="E6" t="n">
-        <v>2.64</v>
+        <v>3.18</v>
       </c>
       <c r="F6" t="n">
-        <v>20.76</v>
+        <v>0.33</v>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>34.07</v>
       </c>
       <c r="H6" t="n">
-        <v>1.209</v>
+        <v>2.046</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1939</v>
+        <v>2.037</v>
       </c>
       <c r="J6" t="n">
-        <v>1.158</v>
+        <v>2.012</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004650000000000043</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004699999999999926</v>
+        <v>0.008699999999999708</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="E7" t="n">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.25</v>
+        <v>5.26</v>
       </c>
       <c r="G7" t="n">
-        <v>11.35</v>
+        <v>2.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.038</v>
+        <v>1.126</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0358</v>
+        <v>1.1273</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.121</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002900000000000125</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,98 +808,98 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.57</v>
+        <v>1.41</v>
       </c>
       <c r="E8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="F8" t="n">
-        <v>45.9</v>
+        <v>13.1</v>
       </c>
       <c r="G8" t="n">
-        <v>24.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5610000000000001</v>
+        <v>1.402</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5700999999999999</v>
+        <v>1.3954</v>
       </c>
       <c r="J8" t="n">
-        <v>0.543</v>
+        <v>1.377</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.003149999999999986</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003000000000000003</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="E9" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.37</v>
+        <v>3.27</v>
       </c>
       <c r="G9" t="n">
-        <v>10.22</v>
+        <v>15.72</v>
       </c>
       <c r="H9" t="n">
-        <v>0.914</v>
+        <v>1.004</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9107000000000001</v>
+        <v>1.002</v>
       </c>
       <c r="J9" t="n">
-        <v>0.901</v>
+        <v>1.006</v>
       </c>
       <c r="K9" t="n">
-        <v>4.999999999999449e-05</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001299999999999968</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="E10" t="n">
-        <v>2.31</v>
+        <v>2.03</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.09</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>9.890000000000001</v>
+        <v>2.19</v>
       </c>
       <c r="H10" t="n">
-        <v>1.571</v>
+        <v>1.174</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5701</v>
+        <v>1.1729</v>
       </c>
       <c r="J10" t="n">
-        <v>1.566</v>
+        <v>1.166</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00254999999999983</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.0005999999999997119</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.04</v>
+        <v>3.25</v>
       </c>
       <c r="E11" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.76</v>
+        <v>3.38</v>
       </c>
       <c r="G11" t="n">
-        <v>25.18</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.032</v>
+        <v>3.171</v>
       </c>
       <c r="I11" t="n">
-        <v>2.03</v>
+        <v>3.1759</v>
       </c>
       <c r="J11" t="n">
-        <v>2.009</v>
+        <v>3.158</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000300000000000189</v>
+        <v>0.007200000000000095</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.00550000000000006</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="E12" t="n">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.08</v>
+        <v>5.21</v>
       </c>
       <c r="H12" t="n">
-        <v>0.797</v>
+        <v>1.111</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7964</v>
+        <v>1.108</v>
       </c>
       <c r="J12" t="n">
-        <v>0.791</v>
+        <v>1.114</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006000000000000449</v>
+        <v>0.001699999999999813</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0006000000000000449</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.48</v>
+        <v>0.55</v>
       </c>
       <c r="E13" t="n">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>-3.01</v>
       </c>
       <c r="G13" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.479</v>
+        <v>0.536</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4729</v>
+        <v>0.5356</v>
       </c>
       <c r="J13" t="n">
-        <v>1.466</v>
+        <v>0.532</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0007000000000000339</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002300000000000191</v>
+        <v>0.001299999999999857</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,98 +1108,98 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="E14" t="n">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="F14" t="n">
-        <v>59.86</v>
+        <v>0.29</v>
       </c>
       <c r="G14" t="n">
-        <v>79.95999999999999</v>
+        <v>43.85</v>
       </c>
       <c r="H14" t="n">
-        <v>1.137</v>
+        <v>1.02</v>
       </c>
       <c r="I14" t="n">
-        <v>1.1569</v>
+        <v>1.0231</v>
       </c>
       <c r="J14" t="n">
-        <v>1.086</v>
+        <v>1.031</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00969999999999982</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008000000000000007</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.18</v>
+        <v>0.63</v>
       </c>
       <c r="E15" t="n">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="F15" t="n">
-        <v>1.64</v>
+        <v>6.44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.22</v>
       </c>
       <c r="H15" t="n">
-        <v>1.173</v>
+        <v>0.603</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1745</v>
+        <v>0.6022000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>1.164</v>
+        <v>0.603</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006500000000002615</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0008000000000001339</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="E16" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="F16" t="n">
-        <v>7.46</v>
+        <v>2.17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1.474</v>
+        <v>1.01</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4756</v>
+        <v>1.0099</v>
       </c>
       <c r="J16" t="n">
-        <v>1.477</v>
+        <v>1.006</v>
       </c>
       <c r="K16" t="n">
-        <v>0.000600000000000156</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.13</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="F17" t="n">
-        <v>19.16</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>68.41</v>
       </c>
       <c r="H17" t="n">
-        <v>1.115</v>
+        <v>3.911</v>
       </c>
       <c r="I17" t="n">
-        <v>1.1221</v>
+        <v>3.95078</v>
       </c>
       <c r="J17" t="n">
-        <v>1.11</v>
+        <v>3.959</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.000600000000000378</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="E18" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="F18" t="n">
-        <v>2.45</v>
+        <v>-7.39</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>1.127</v>
+        <v>1.332</v>
       </c>
       <c r="I18" t="n">
-        <v>1.1305</v>
+        <v>1.3417</v>
       </c>
       <c r="J18" t="n">
-        <v>1.119</v>
+        <v>1.344</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.001700000000000035</v>
+        <v>-0.0009000000000001229</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.49</v>
+        <v>0.88</v>
       </c>
       <c r="E19" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="F19" t="n">
-        <v>17.27</v>
+        <v>8.81</v>
       </c>
       <c r="G19" t="n">
-        <v>20.69</v>
+        <v>3.69</v>
       </c>
       <c r="H19" t="n">
-        <v>0.487</v>
+        <v>0.856</v>
       </c>
       <c r="I19" t="n">
-        <v>0.491</v>
+        <v>0.861</v>
       </c>
       <c r="J19" t="n">
-        <v>0.482</v>
+        <v>0.866</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008500000000000729</v>
+        <v>-0.0007500000000000284</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005999999999999894</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E20" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="F20" t="n">
-        <v>6.98</v>
+        <v>6.12</v>
       </c>
       <c r="G20" t="n">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0.832</v>
+        <v>0.848</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8304</v>
+        <v>0.8459999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001349999999999962</v>
+        <v>0.002049999999999774</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.06</v>
+        <v>0.88</v>
       </c>
       <c r="E21" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.67</v>
+        <v>-2.98</v>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>0.11</v>
       </c>
       <c r="H21" t="n">
-        <v>2.039</v>
+        <v>0.86</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0376</v>
+        <v>0.8548</v>
       </c>
       <c r="J21" t="n">
-        <v>2.024</v>
+        <v>0.849</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00354999999999972</v>
+        <v>0.00209999999999988</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003600000000000492</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="E22" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="F22" t="n">
-        <v>0.18</v>
+        <v>0.95</v>
       </c>
       <c r="G22" t="n">
-        <v>3.53</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
-        <v>1.107</v>
+        <v>1.36</v>
       </c>
       <c r="I22" t="n">
-        <v>1.11</v>
+        <v>1.3426</v>
       </c>
       <c r="J22" t="n">
-        <v>1.114</v>
+        <v>1.298</v>
       </c>
       <c r="K22" t="n">
-        <v>-5.000000000010552e-05</v>
+        <v>0.008499999999999952</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.005200000000000093</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.54</v>
+        <v>2.83</v>
       </c>
       <c r="E23" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.78</v>
+        <v>3.43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.84</v>
+        <v>27.36</v>
       </c>
       <c r="H23" t="n">
-        <v>0.534</v>
+        <v>2.763</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5346</v>
+        <v>2.7578</v>
       </c>
       <c r="J23" t="n">
-        <v>0.531</v>
+        <v>2.756</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000199999999999867</v>
+        <v>0.002749999999999808</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.007400000000000073</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="E24" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="F24" t="n">
-        <v>1.09</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>13.03</v>
+        <v>0.48</v>
       </c>
       <c r="H24" t="n">
-        <v>1.001</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0037</v>
+        <v>0.9351</v>
       </c>
       <c r="J24" t="n">
-        <v>1.006</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001500000000000945</v>
+        <v>0.0004499999999999504</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.000500000000000056</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="E25" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.53</v>
+        <v>12.86</v>
       </c>
       <c r="G25" t="n">
-        <v>33.93</v>
+        <v>0.54</v>
       </c>
       <c r="H25" t="n">
-        <v>1.019</v>
+        <v>1.116</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0258</v>
+        <v>1.1185</v>
       </c>
       <c r="J25" t="n">
-        <v>1.031</v>
+        <v>1.112</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0004500000000000615</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.001700000000000257</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.18</v>
+        <v>0.33</v>
       </c>
       <c r="E26" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="F26" t="n">
-        <v>1.43</v>
+        <v>0.31</v>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>6.02</v>
       </c>
       <c r="H26" t="n">
-        <v>3.169</v>
+        <v>0.324</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1764</v>
+        <v>0.3284</v>
       </c>
       <c r="J26" t="n">
-        <v>3.154</v>
+        <v>0.329</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002450000000000063</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000500000000000167</v>
+        <v>-0.0005000000000000004</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
       <c r="E27" t="n">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="F27" t="n">
-        <v>-13.87</v>
+        <v>8.27</v>
       </c>
       <c r="G27" t="n">
-        <v>2.67</v>
+        <v>0.88</v>
       </c>
       <c r="H27" t="n">
-        <v>0.645</v>
+        <v>0.826</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6482</v>
+        <v>0.8295999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>0.647</v>
+        <v>0.82</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0004499999999999504</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.36</v>
+        <v>0.37</v>
       </c>
       <c r="E28" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.51</v>
+        <v>2.22</v>
       </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>5.05</v>
       </c>
       <c r="H28" t="n">
-        <v>1.358</v>
+        <v>0.365</v>
       </c>
       <c r="I28" t="n">
-        <v>1.3392</v>
+        <v>0.3717</v>
       </c>
       <c r="J28" t="n">
-        <v>1.291</v>
+        <v>0.372</v>
       </c>
       <c r="K28" t="n">
-        <v>0.006449999999999845</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.005499999999999838</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="E29" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.41</v>
+        <v>-12.95</v>
       </c>
       <c r="G29" t="n">
-        <v>0.11</v>
+        <v>4.07</v>
       </c>
       <c r="H29" t="n">
-        <v>0.858</v>
+        <v>0.646</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8547</v>
+        <v>0.6476</v>
       </c>
       <c r="J29" t="n">
-        <v>0.848</v>
+        <v>0.647</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001100000000000101</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.66</v>
+        <v>1.14</v>
       </c>
       <c r="E30" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="F30" t="n">
-        <v>7.73</v>
+        <v>20.42</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09</v>
+        <v>2.64</v>
       </c>
       <c r="H30" t="n">
-        <v>0.649</v>
+        <v>1.111</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6581</v>
+        <v>1.1198</v>
       </c>
       <c r="J30" t="n">
-        <v>0.648</v>
+        <v>1.11</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001899999999999902</v>
+        <v>0.001799999999999802</v>
       </c>
       <c r="L30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0009000000000000119</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="E31" t="n">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.890000000000001</v>
+        <v>-3.79</v>
       </c>
       <c r="G31" t="n">
-        <v>1.09</v>
+        <v>0.23</v>
       </c>
       <c r="H31" t="n">
-        <v>1.338</v>
+        <v>1.432</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3446</v>
+        <v>1.4302</v>
       </c>
       <c r="J31" t="n">
-        <v>1.344</v>
+        <v>1.426</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.001699999999999813</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.002499999999999947</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="E32" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="F32" t="n">
-        <v>0.49</v>
+        <v>17.44</v>
       </c>
       <c r="G32" t="n">
-        <v>0.35</v>
+        <v>7.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.01</v>
+        <v>1.694</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0101</v>
+        <v>1.6761</v>
       </c>
       <c r="J32" t="n">
-        <v>1.006</v>
+        <v>1.65</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.00649999999999995</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001199999999999868</v>
+        <v>0.00969999999999982</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.19</v>
+        <v>0.49</v>
       </c>
       <c r="E33" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="F33" t="n">
-        <v>1.53</v>
+        <v>18.47</v>
       </c>
       <c r="G33" t="n">
-        <v>0.49</v>
+        <v>18.51</v>
       </c>
       <c r="H33" t="n">
-        <v>1.193</v>
+        <v>0.484</v>
       </c>
       <c r="I33" t="n">
-        <v>1.2005</v>
+        <v>0.4886</v>
       </c>
       <c r="J33" t="n">
-        <v>1.201</v>
+        <v>0.482</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001399999999999846</v>
+        <v>0.0009500000000000064</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.001000000000000112</v>
+        <v>-0.0007999999999999674</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>XD金融ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="E34" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>10.45</v>
+        <v>5.51</v>
       </c>
       <c r="G34" t="n">
-        <v>0.49</v>
+        <v>0.92</v>
       </c>
       <c r="H34" t="n">
-        <v>1.394</v>
+        <v>1.088</v>
       </c>
       <c r="I34" t="n">
-        <v>1.3894</v>
+        <v>1.0871</v>
       </c>
       <c r="J34" t="n">
-        <v>1.372</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="E35" t="n">
-        <v>1.18</v>
+        <v>0.84</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.48</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09</v>
+        <v>0.64</v>
       </c>
       <c r="H35" t="n">
-        <v>0.597</v>
+        <v>1.192</v>
       </c>
       <c r="I35" t="n">
-        <v>0.598</v>
+        <v>1.199</v>
       </c>
       <c r="J35" t="n">
-        <v>0.593</v>
+        <v>1.2</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.000600000000000156</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.94</v>
+        <v>0.48</v>
       </c>
       <c r="E36" t="n">
-        <v>1.16</v>
+        <v>0.84</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07000000000000001</v>
+        <v>-1.65</v>
       </c>
       <c r="G36" t="n">
-        <v>48.15</v>
+        <v>0.36</v>
       </c>
       <c r="H36" t="n">
-        <v>3.922</v>
+        <v>0.478</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95648</v>
+        <v>0.4842</v>
       </c>
       <c r="J36" t="n">
-        <v>3.962</v>
+        <v>0.482</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.003849999999999909</v>
+        <v>0.0001499999999999835</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.004600000000000382</v>
+        <v>-0.0008000000000000784</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="E37" t="n">
-        <v>1.1</v>
+        <v>0.84</v>
       </c>
       <c r="F37" t="n">
-        <v>4.46</v>
+        <v>12.43</v>
       </c>
       <c r="G37" t="n">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="H37" t="n">
-        <v>1.088</v>
+        <v>0.961</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0867</v>
+        <v>0.9532</v>
       </c>
       <c r="J37" t="n">
-        <v>1.079</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,98 +2308,98 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.79</v>
+        <v>1.2</v>
       </c>
       <c r="E38" t="n">
-        <v>1.09</v>
+        <v>0.84</v>
       </c>
       <c r="F38" t="n">
-        <v>1.97</v>
+        <v>6.85</v>
       </c>
       <c r="G38" t="n">
-        <v>26.76</v>
+        <v>3.51</v>
       </c>
       <c r="H38" t="n">
-        <v>2.756</v>
+        <v>1.179</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7545</v>
+        <v>1.175</v>
       </c>
       <c r="J38" t="n">
-        <v>2.755</v>
+        <v>1.166</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0002999999999997449</v>
+        <v>0.002249999999999863</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="E39" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="F39" t="n">
-        <v>4.53</v>
+        <v>-1.67</v>
       </c>
       <c r="G39" t="n">
-        <v>1.87</v>
+        <v>0.45</v>
       </c>
       <c r="H39" t="n">
-        <v>0.845</v>
+        <v>1.177</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8445</v>
+        <v>1.1745</v>
       </c>
       <c r="J39" t="n">
-        <v>0.838</v>
+        <v>1.175</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0.0002500000000000835</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0009000000000000119</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,98 +2408,98 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="E40" t="n">
-        <v>1.01</v>
+        <v>0.75</v>
       </c>
       <c r="F40" t="n">
-        <v>7.46</v>
+        <v>21.66</v>
       </c>
       <c r="G40" t="n">
-        <v>3.18</v>
+        <v>1.47</v>
       </c>
       <c r="H40" t="n">
-        <v>1.197</v>
+        <v>1.196</v>
       </c>
       <c r="I40" t="n">
-        <v>1.195</v>
+        <v>1.1958</v>
       </c>
       <c r="J40" t="n">
-        <v>1.178</v>
+        <v>1.162</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001849999999999907</v>
+        <v>0.00649999999999995</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.002799999999999692</v>
+        <v>0.004999999999999893</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="E41" t="n">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="F41" t="n">
-        <v>6.91</v>
+        <v>-3.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.43</v>
+        <v>0.01</v>
       </c>
       <c r="H41" t="n">
-        <v>0.717</v>
+        <v>0.96</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7198</v>
+        <v>0.9728999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>0.707</v>
+        <v>0.975</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0008499999999999064</v>
+        <v>9.999999999987796e-05</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,89 +2508,89 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.32</v>
+        <v>1.17</v>
       </c>
       <c r="E42" t="n">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.92</v>
+        <v>60.97</v>
       </c>
       <c r="G42" t="n">
-        <v>3.91</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0.324</v>
+        <v>1.122</v>
       </c>
       <c r="I42" t="n">
-        <v>0.329</v>
+        <v>1.1545</v>
       </c>
       <c r="J42" t="n">
-        <v>0.329</v>
+        <v>1.093</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.009850000000000136</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0.003900000000000015</v>
       </c>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.66</v>
+        <v>1.03</v>
       </c>
       <c r="E43" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="F43" t="n">
-        <v>5.48</v>
+        <v>-2.92</v>
       </c>
       <c r="G43" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="H43" t="n">
-        <v>0.657</v>
+        <v>1.02</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6637000000000001</v>
+        <v>1.0214</v>
       </c>
       <c r="J43" t="n">
-        <v>0.66</v>
+        <v>1.022</v>
       </c>
       <c r="K43" t="n">
         <v>0.0004500000000000615</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.0006999999999997009</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.58</v>
+        <v>1.25</v>
       </c>
       <c r="E44" t="n">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.7</v>
+        <v>3.13</v>
       </c>
       <c r="G44" t="n">
         <v>0.06</v>
       </c>
       <c r="H44" t="n">
-        <v>0.582</v>
+        <v>1.25</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5881</v>
+        <v>1.2484</v>
       </c>
       <c r="J44" t="n">
-        <v>0.582</v>
+        <v>1.23</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0002999999999998559</v>
+        <v>0.001649999999999929</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,101 +2658,101 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="E45" t="n">
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.8</v>
+        <v>8.09</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02</v>
+        <v>2.76</v>
       </c>
       <c r="H45" t="n">
-        <v>0.962</v>
+        <v>1.197</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9757</v>
+        <v>1.195</v>
       </c>
       <c r="J45" t="n">
-        <v>0.975</v>
+        <v>1.178</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0001499999999997614</v>
+        <v>0.001849999999999907</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.002000000000000113</v>
+        <v>0.002799999999999692</v>
       </c>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.11</v>
+        <v>0.57</v>
       </c>
       <c r="E46" t="n">
-        <v>0.82</v>
+        <v>0.53</v>
       </c>
       <c r="F46" t="n">
-        <v>-4.07</v>
+        <v>46.67</v>
       </c>
       <c r="G46" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5681</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.003500000000000059</v>
+      </c>
+      <c r="L46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>1.111</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.1166</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.106</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.0009000000000001229</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
       <c r="M46" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.0008000000000000229</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2772,34 +2772,34 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.82</v>
+        <v>-2.33</v>
       </c>
       <c r="G47" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
-        <v>0.794</v>
+        <v>0.796</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8066000000000001</v>
+        <v>0.8076000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.002999999999999892</v>
+        <v>-0.001999999999999891</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="E48" t="n">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="F48" t="n">
-        <v>-9.9</v>
+        <v>-0.23</v>
       </c>
       <c r="G48" t="n">
-        <v>6.86</v>
+        <v>2.47</v>
       </c>
       <c r="H48" t="n">
-        <v>0.55</v>
+        <v>1.517</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5567</v>
+        <v>1.523</v>
       </c>
       <c r="J48" t="n">
-        <v>0.569</v>
+        <v>1.523</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.00154999999999994</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.001700000000000035</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="E49" t="n">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.47</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.476</v>
+        <v>0.645</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4832</v>
+        <v>0.6549</v>
       </c>
       <c r="J49" t="n">
-        <v>0.481</v>
+        <v>0.649</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.000350000000000017</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-0.0008000000000000229</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="E50" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="F50" t="n">
-        <v>11.49</v>
+        <v>-3.72</v>
       </c>
       <c r="G50" t="n">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="H50" t="n">
-        <v>0.959</v>
+        <v>1.106</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9522</v>
+        <v>1.1145</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9360000000000001</v>
+        <v>1.107</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0006000000000000449</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.002399999999999958</v>
+        <v>-0.001199999999999868</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.43</v>
+        <v>0.58</v>
       </c>
       <c r="E51" t="n">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
       <c r="F51" t="n">
-        <v>-4.78</v>
+        <v>-2.36</v>
       </c>
       <c r="G51" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="H51" t="n">
-        <v>1.43</v>
+        <v>0.582</v>
       </c>
       <c r="I51" t="n">
-        <v>1.4299</v>
+        <v>0.5881</v>
       </c>
       <c r="J51" t="n">
-        <v>1.425</v>
+        <v>0.582</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.0002999999999998559</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.000500000000000167</v>
+        <v>-0.001199999999999979</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.06</v>
+        <v>0.6</v>
       </c>
       <c r="E52" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="F52" t="n">
-        <v>1.44</v>
+        <v>-1.15</v>
       </c>
       <c r="G52" t="n">
-        <v>7.95</v>
+        <v>0.11</v>
       </c>
       <c r="H52" t="n">
-        <v>1.056</v>
+        <v>0.595</v>
       </c>
       <c r="I52" t="n">
-        <v>1.0531</v>
+        <v>0.597</v>
       </c>
       <c r="J52" t="n">
-        <v>1.047</v>
+        <v>0.593</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001300000000000301</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="E53" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="F53" t="n">
-        <v>1.11</v>
+        <v>7.21</v>
       </c>
       <c r="G53" t="n">
-        <v>5.85</v>
+        <v>0.44</v>
       </c>
       <c r="H53" t="n">
-        <v>0.365</v>
+        <v>0.717</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3722</v>
+        <v>0.7198</v>
       </c>
       <c r="J53" t="n">
-        <v>0.372</v>
+        <v>0.707</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0004499999999999504</v>
+        <v>0.0008499999999999064</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.001300000000000079</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.17</v>
+        <v>7.39</v>
       </c>
       <c r="E54" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.42</v>
+        <v>24.7</v>
       </c>
       <c r="G54" t="n">
-        <v>0.38</v>
+        <v>21.04</v>
       </c>
       <c r="H54" t="n">
-        <v>1.176</v>
+        <v>7.459</v>
       </c>
       <c r="I54" t="n">
-        <v>1.174</v>
+        <v>7.4774</v>
       </c>
       <c r="J54" t="n">
-        <v>1.175</v>
+        <v>7.446</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0008500000000002395</v>
+        <v>-0.003199999999999648</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.0009999999999985576</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3175,10 +3175,10 @@
         <v>0.99</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G55" t="n">
         <v>0.03</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="E56" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="F56" t="n">
-        <v>16.23</v>
+        <v>-4.49</v>
       </c>
       <c r="G56" t="n">
-        <v>7.56</v>
+        <v>3.55</v>
       </c>
       <c r="H56" t="n">
-        <v>1.686</v>
+        <v>2.037</v>
       </c>
       <c r="I56" t="n">
-        <v>1.6694</v>
+        <v>2.0368</v>
       </c>
       <c r="J56" t="n">
-        <v>1.645</v>
+        <v>2.026</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005200000000000315</v>
+        <v>0.003700000000000259</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.009199999999999875</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.02</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.58</v>
+        <v>-9.74</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06</v>
+        <v>10.05</v>
       </c>
       <c r="H57" t="n">
-        <v>1.019</v>
+        <v>0.552</v>
       </c>
       <c r="I57" t="n">
-        <v>1.0212</v>
+        <v>0.5551</v>
       </c>
       <c r="J57" t="n">
-        <v>1.022</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0003500000000000725</v>
+        <v>-0.001349999999999962</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>-0.001399999999999957</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="E58" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.6899999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="H58" t="n">
-        <v>1.515</v>
+        <v>1.479</v>
       </c>
       <c r="I58" t="n">
-        <v>1.522</v>
+        <v>1.474</v>
       </c>
       <c r="J58" t="n">
-        <v>1.523</v>
+        <v>1.468</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0009000000000001229</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,98 +3358,98 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.19</v>
+        <v>0.66</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5.96</v>
+        <v>5.48</v>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H59" t="n">
-        <v>1.177</v>
+        <v>0.654</v>
       </c>
       <c r="I59" t="n">
-        <v>1.174</v>
+        <v>0.6617</v>
       </c>
       <c r="J59" t="n">
-        <v>1.166</v>
+        <v>0.66</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001750000000000362</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002499999999999947</v>
+        <v>-0.0008000000000000229</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>124.66</v>
+        <v>0.98</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.63</v>
+        <v>-13.06</v>
       </c>
       <c r="G60" t="n">
-        <v>76.31</v>
+        <v>1.92</v>
       </c>
       <c r="H60" t="n">
-        <v>124.481</v>
+        <v>0.981</v>
       </c>
       <c r="I60" t="n">
-        <v>124.1818</v>
+        <v>0.9843999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>123.613</v>
+        <v>0.985</v>
       </c>
       <c r="K60" t="n">
-        <v>0.06589999999999918</v>
+        <v>-0.0006499999999999284</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1561000000000092</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.98</v>
+        <v>1.59</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-13.06</v>
+        <v>-2.09</v>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>6.97</v>
       </c>
       <c r="H61" t="n">
-        <v>0.984</v>
+        <v>1.57</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9862</v>
+        <v>1.5692</v>
       </c>
       <c r="J61" t="n">
-        <v>0.986</v>
+        <v>1.567</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.001099999999999879</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.0007000000000000339</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="F62" t="n">
-        <v>2.47</v>
+        <v>7.24</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="H62" t="n">
-        <v>1.252</v>
+        <v>1.474</v>
       </c>
       <c r="I62" t="n">
-        <v>1.2459</v>
+        <v>1.4756</v>
       </c>
       <c r="J62" t="n">
-        <v>1.229</v>
+        <v>1.477</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.000600000000000156</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.001600000000000046</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7.37</v>
+        <v>124.35</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.23</v>
+        <v>-0.25</v>
       </c>
       <c r="F63" t="n">
-        <v>24.36</v>
+        <v>1.38</v>
       </c>
       <c r="G63" t="n">
-        <v>43.05</v>
+        <v>69.77</v>
       </c>
       <c r="H63" t="n">
-        <v>7.48</v>
+        <v>124.419</v>
       </c>
       <c r="I63" t="n">
-        <v>7.4718</v>
+        <v>124.1508</v>
       </c>
       <c r="J63" t="n">
-        <v>7.446</v>
+        <v>123.597</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.003999999999998671</v>
+        <v>0.05040000000001044</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.011099999999999</v>
+        <v>0.1251000000000033</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="E2" t="n">
-        <v>5.52</v>
+        <v>2.29</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.07</v>
+        <v>4.54</v>
       </c>
       <c r="G2" t="n">
-        <v>24.75</v>
+        <v>2.09</v>
       </c>
       <c r="H2" t="n">
-        <v>1.044</v>
+        <v>1.481</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0396</v>
+        <v>1.4756</v>
       </c>
       <c r="J2" t="n">
-        <v>1.024</v>
+        <v>1.469</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005599999999999827</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00749999999999984</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.84</v>
+        <v>1.49</v>
       </c>
       <c r="E3" t="n">
-        <v>4.48</v>
+        <v>1.3</v>
       </c>
       <c r="F3" t="n">
-        <v>7.28</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>0.25</v>
       </c>
       <c r="H3" t="n">
-        <v>0.798</v>
+        <v>1.469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7957000000000001</v>
+        <v>1.4716</v>
       </c>
       <c r="J3" t="n">
-        <v>0.793</v>
+        <v>1.477</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003350000000000075</v>
+        <v>0.0005999999999997119</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002500000000000058</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>1.76</v>
       </c>
       <c r="E4" t="n">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.83</v>
+        <v>18.65</v>
       </c>
       <c r="G4" t="n">
-        <v>15.83</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.92</v>
+        <v>1.709</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9137000000000001</v>
+        <v>1.6851</v>
       </c>
       <c r="J4" t="n">
-        <v>0.903</v>
+        <v>1.657</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001550000000000051</v>
+        <v>0.008099999999999996</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004299999999999971</v>
+        <v>0.01089999999999969</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="E5" t="n">
-        <v>3.22</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>11.18</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.062</v>
+        <v>1.361</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0561</v>
+        <v>1.3465</v>
       </c>
       <c r="J5" t="n">
-        <v>1.049</v>
+        <v>1.305</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002500000000000169</v>
+        <v>0.008499999999999952</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004299999999999971</v>
+        <v>0.008099999999999996</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.11</v>
+        <v>1.17</v>
       </c>
       <c r="E6" t="n">
-        <v>3.18</v>
+        <v>0.52</v>
       </c>
       <c r="F6" t="n">
-        <v>0.33</v>
+        <v>5.8</v>
       </c>
       <c r="G6" t="n">
-        <v>34.07</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2.046</v>
+        <v>1.125</v>
       </c>
       <c r="I6" t="n">
-        <v>2.037</v>
+        <v>1.1256</v>
       </c>
       <c r="J6" t="n">
-        <v>2.012</v>
+        <v>1.122</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008699999999999708</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="n">
-        <v>2.74</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
-        <v>5.26</v>
+        <v>-1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.09</v>
+        <v>6.86</v>
       </c>
       <c r="H7" t="n">
-        <v>1.126</v>
+        <v>1.57</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1273</v>
+        <v>1.569</v>
       </c>
       <c r="J7" t="n">
-        <v>1.121</v>
+        <v>1.568</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.002850000000000019</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.002899999999999903</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,98 +808,98 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="E8" t="n">
-        <v>2.4</v>
+        <v>0.42</v>
       </c>
       <c r="F8" t="n">
-        <v>13.1</v>
+        <v>7.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.402</v>
+        <v>1.188</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3954</v>
+        <v>1.1803</v>
       </c>
       <c r="J8" t="n">
-        <v>1.377</v>
+        <v>1.172</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003149999999999986</v>
+        <v>0.003150000000000208</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.004100000000000215</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.04</v>
+        <v>2.07</v>
       </c>
       <c r="E9" t="n">
-        <v>2.16</v>
+        <v>0.29</v>
       </c>
       <c r="F9" t="n">
-        <v>3.27</v>
+        <v>-4.21</v>
       </c>
       <c r="G9" t="n">
-        <v>15.72</v>
+        <v>3.19</v>
       </c>
       <c r="H9" t="n">
-        <v>1.004</v>
+        <v>2.036</v>
       </c>
       <c r="I9" t="n">
-        <v>1.002</v>
+        <v>2.0367</v>
       </c>
       <c r="J9" t="n">
-        <v>1.006</v>
+        <v>2.029</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.00395000000000012</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.003400000000000514</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.2</v>
+        <v>0.84</v>
       </c>
       <c r="E10" t="n">
-        <v>2.03</v>
+        <v>0.24</v>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>7.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2.19</v>
+        <v>1.34</v>
       </c>
       <c r="H10" t="n">
-        <v>1.174</v>
+        <v>0.796</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1729</v>
+        <v>0.7948999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>1.166</v>
+        <v>0.793</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0005999999999997119</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="E11" t="n">
-        <v>1.92</v>
+        <v>0.2</v>
       </c>
       <c r="F11" t="n">
-        <v>3.38</v>
+        <v>-0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="H11" t="n">
-        <v>3.171</v>
+        <v>1.517</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1759</v>
+        <v>1.5202</v>
       </c>
       <c r="J11" t="n">
-        <v>3.158</v>
+        <v>1.522</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007200000000000095</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00550000000000006</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.15</v>
+        <v>124.59</v>
       </c>
       <c r="E12" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>5.21</v>
+        <v>61.02</v>
       </c>
       <c r="H12" t="n">
-        <v>1.111</v>
+        <v>124.964</v>
       </c>
       <c r="I12" t="n">
-        <v>1.108</v>
+        <v>124.6253</v>
       </c>
       <c r="J12" t="n">
-        <v>1.114</v>
+        <v>123.89</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001699999999999813</v>
+        <v>0.06354999999997801</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.0730999999999824</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.55</v>
+        <v>7.41</v>
       </c>
       <c r="E13" t="n">
-        <v>1.86</v>
+        <v>0.18</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.01</v>
+        <v>24.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>20.49</v>
       </c>
       <c r="H13" t="n">
-        <v>0.536</v>
+        <v>7.456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5356</v>
+        <v>7.4853</v>
       </c>
       <c r="J13" t="n">
-        <v>0.532</v>
+        <v>7.449</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007000000000000339</v>
+        <v>-0.0007499999999991402</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001299999999999857</v>
+        <v>0.0004999999999997229</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="E14" t="n">
-        <v>1.85</v>
+        <v>0.16</v>
       </c>
       <c r="F14" t="n">
-        <v>0.29</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>43.85</v>
+        <v>0.13</v>
       </c>
       <c r="H14" t="n">
-        <v>1.02</v>
+        <v>1.248</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0231</v>
+        <v>1.2508</v>
       </c>
       <c r="J14" t="n">
-        <v>1.031</v>
+        <v>1.232</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.63</v>
+        <v>1.22</v>
       </c>
       <c r="E15" t="n">
-        <v>1.78</v>
+        <v>0.16</v>
       </c>
       <c r="F15" t="n">
-        <v>6.44</v>
+        <v>21.87</v>
       </c>
       <c r="G15" t="n">
-        <v>0.22</v>
+        <v>1.22</v>
       </c>
       <c r="H15" t="n">
-        <v>0.603</v>
+        <v>1.191</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6022000000000001</v>
+        <v>1.1983</v>
       </c>
       <c r="J15" t="n">
-        <v>0.603</v>
+        <v>1.166</v>
       </c>
       <c r="K15" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>0.005400000000000071</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002800000000000136</v>
+        <v>0.006200000000000205</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="E16" t="n">
-        <v>1.67</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>2.17</v>
+        <v>12.54</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.01</v>
+        <v>0.948</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0099</v>
+        <v>0.9549999999999998</v>
       </c>
       <c r="J16" t="n">
-        <v>1.006</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.002299999999999747</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1.21</v>
       </c>
       <c r="E17" t="n">
-        <v>1.65</v>
+        <v>0.08</v>
       </c>
       <c r="F17" t="n">
-        <v>1.73</v>
+        <v>3.79</v>
       </c>
       <c r="G17" t="n">
-        <v>68.41</v>
+        <v>1.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911</v>
+        <v>1.174</v>
       </c>
       <c r="I17" t="n">
-        <v>3.95078</v>
+        <v>1.1719</v>
       </c>
       <c r="J17" t="n">
-        <v>3.959</v>
+        <v>1.167</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000600000000000378</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000500000000000167</v>
+        <v>0.003399999999999848</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.39</v>
+        <v>-9.74</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>5.77</v>
       </c>
       <c r="H18" t="n">
-        <v>1.332</v>
+        <v>0.553</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3417</v>
+        <v>0.5533</v>
       </c>
       <c r="J18" t="n">
-        <v>1.344</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001000000000000112</v>
+        <v>-0.00109999999999999</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0009000000000001229</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="E19" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8.81</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.69</v>
+        <v>10.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0.856</v>
+        <v>1.056</v>
       </c>
       <c r="I19" t="n">
-        <v>0.861</v>
+        <v>1.0539</v>
       </c>
       <c r="J19" t="n">
-        <v>0.866</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0007500000000000284</v>
+        <v>0.00254999999999983</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.004500000000000171</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.87</v>
+        <v>1.45</v>
       </c>
       <c r="E20" t="n">
-        <v>1.52</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>6.12</v>
+        <v>-3.85</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>0.16</v>
       </c>
       <c r="H20" t="n">
-        <v>0.848</v>
+        <v>1.43</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8459999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="J20" t="n">
-        <v>0.84</v>
+        <v>1.427</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002049999999999774</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.00240000000000018</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="E21" t="n">
-        <v>1.5</v>
+        <v>-0.08</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.98</v>
+        <v>-1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>0.11</v>
+        <v>0.48</v>
       </c>
       <c r="H21" t="n">
-        <v>0.86</v>
+        <v>1.174</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8548</v>
+        <v>1.1739</v>
       </c>
       <c r="J21" t="n">
-        <v>0.849</v>
+        <v>1.174</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00209999999999988</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="E22" t="n">
-        <v>1.47</v>
+        <v>-0.09</v>
       </c>
       <c r="F22" t="n">
-        <v>0.95</v>
+        <v>5.41</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>0.72</v>
       </c>
       <c r="H22" t="n">
-        <v>1.36</v>
+        <v>1.088</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3426</v>
+        <v>1.0878</v>
       </c>
       <c r="J22" t="n">
-        <v>1.298</v>
+        <v>1.081</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008499999999999952</v>
+        <v>0.002249999999999863</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005200000000000093</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.83</v>
+        <v>0.84</v>
       </c>
       <c r="E23" t="n">
-        <v>1.43</v>
+        <v>-0.12</v>
       </c>
       <c r="F23" t="n">
-        <v>3.43</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>27.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2.763</v>
+        <v>0.822</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7578</v>
+        <v>0.8286</v>
       </c>
       <c r="J23" t="n">
-        <v>2.756</v>
+        <v>0.82</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002749999999999808</v>
+        <v>0.001849999999999907</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007400000000000073</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>1.26</v>
+        <v>-0.17</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>-1.32</v>
       </c>
       <c r="G24" t="n">
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.593</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9351</v>
+        <v>0.5965999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.593</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004499999999999504</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000500000000000056</v>
+        <v>0.0004999999999998339</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="E25" t="n">
-        <v>1.24</v>
+        <v>-0.19</v>
       </c>
       <c r="F25" t="n">
-        <v>12.86</v>
+        <v>-3.11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.54</v>
+        <v>0.02</v>
       </c>
       <c r="H25" t="n">
-        <v>1.116</v>
+        <v>1.019</v>
       </c>
       <c r="I25" t="n">
-        <v>1.1185</v>
+        <v>1.021</v>
       </c>
       <c r="J25" t="n">
-        <v>1.112</v>
+        <v>1.022</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.0004500000000000615</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
       <c r="E26" t="n">
-        <v>1.23</v>
+        <v>-0.2</v>
       </c>
       <c r="F26" t="n">
-        <v>0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="G26" t="n">
-        <v>6.02</v>
+        <v>0.02</v>
       </c>
       <c r="H26" t="n">
-        <v>0.324</v>
+        <v>0.986</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3284</v>
+        <v>0.9869</v>
       </c>
       <c r="J26" t="n">
-        <v>0.329</v>
+        <v>0.986</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.0004499999999999504</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0005000000000000004</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.84</v>
+        <v>2.83</v>
       </c>
       <c r="E27" t="n">
-        <v>1.21</v>
+        <v>-0.21</v>
       </c>
       <c r="F27" t="n">
-        <v>8.27</v>
+        <v>3.21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.88</v>
+        <v>16.73</v>
       </c>
       <c r="H27" t="n">
-        <v>0.826</v>
+        <v>2.765</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8295999999999999</v>
+        <v>2.7598</v>
       </c>
       <c r="J27" t="n">
-        <v>0.82</v>
+        <v>2.755</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.003300000000000303</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001399999999999846</v>
+        <v>0.008799999999999475</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.37</v>
+        <v>0.88</v>
       </c>
       <c r="E28" t="n">
-        <v>1.1</v>
+        <v>-0.23</v>
       </c>
       <c r="F28" t="n">
-        <v>2.22</v>
+        <v>-3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>5.05</v>
+        <v>0.11</v>
       </c>
       <c r="H28" t="n">
-        <v>0.365</v>
+        <v>0.861</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3717</v>
+        <v>0.8552</v>
       </c>
       <c r="J28" t="n">
-        <v>0.372</v>
+        <v>0.849</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.001649999999999818</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.07</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>-12.95</v>
+        <v>-2.57</v>
       </c>
       <c r="G29" t="n">
-        <v>4.07</v>
+        <v>1.59</v>
       </c>
       <c r="H29" t="n">
-        <v>0.646</v>
+        <v>0.793</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6476</v>
+        <v>0.7988000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>0.647</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0004500000000000615</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0004999999999999449</v>
+        <v>-0.001599999999999935</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="E30" t="n">
-        <v>1.06</v>
+        <v>-0.29</v>
       </c>
       <c r="F30" t="n">
-        <v>20.42</v>
+        <v>1.88</v>
       </c>
       <c r="G30" t="n">
-        <v>2.64</v>
+        <v>0.59</v>
       </c>
       <c r="H30" t="n">
-        <v>1.111</v>
+        <v>1.009</v>
       </c>
       <c r="I30" t="n">
-        <v>1.1198</v>
+        <v>1.0099</v>
       </c>
       <c r="J30" t="n">
-        <v>1.11</v>
+        <v>1.006</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001799999999999802</v>
+        <v>0.001550000000000162</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00120000000000009</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="E31" t="n">
-        <v>1.05</v>
+        <v>-0.35</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.79</v>
+        <v>12.7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.23</v>
+        <v>0.57</v>
       </c>
       <c r="H31" t="n">
-        <v>1.432</v>
+        <v>1.379</v>
       </c>
       <c r="I31" t="n">
-        <v>1.4302</v>
+        <v>1.38633</v>
       </c>
       <c r="J31" t="n">
-        <v>1.426</v>
+        <v>1.374</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001699999999999813</v>
+        <v>0.002999999999999892</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001399999999999846</v>
+        <v>0.002499999999999725</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.74</v>
+        <v>0.55</v>
       </c>
       <c r="E32" t="n">
-        <v>1.04</v>
+        <v>-0.36</v>
       </c>
       <c r="F32" t="n">
-        <v>17.44</v>
+        <v>-3.36</v>
       </c>
       <c r="G32" t="n">
-        <v>7.9</v>
+        <v>0.99</v>
       </c>
       <c r="H32" t="n">
-        <v>1.694</v>
+        <v>0.534</v>
       </c>
       <c r="I32" t="n">
-        <v>1.6761</v>
+        <v>0.5332000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>1.65</v>
+        <v>0.532</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00649999999999995</v>
+        <v>0.001150000000000095</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00969999999999982</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.49</v>
+        <v>1.35</v>
       </c>
       <c r="E33" t="n">
-        <v>1.02</v>
+        <v>-0.37</v>
       </c>
       <c r="F33" t="n">
-        <v>18.47</v>
+        <v>-7.73</v>
       </c>
       <c r="G33" t="n">
-        <v>18.51</v>
+        <v>1.25</v>
       </c>
       <c r="H33" t="n">
-        <v>0.484</v>
+        <v>1.325</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4886</v>
+        <v>1.3382</v>
       </c>
       <c r="J33" t="n">
-        <v>0.482</v>
+        <v>1.343</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0009500000000000064</v>
+        <v>0.0008999999999999009</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0007999999999999674</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.11</v>
+        <v>3.99</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-0.37</v>
       </c>
       <c r="F34" t="n">
-        <v>5.51</v>
+        <v>1.34</v>
       </c>
       <c r="G34" t="n">
-        <v>0.92</v>
+        <v>37.46</v>
       </c>
       <c r="H34" t="n">
-        <v>1.088</v>
+        <v>3.907</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0871</v>
+        <v>3.94168</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08</v>
+        <v>3.955</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.00114999999999954</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.001800000000000246</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
       <c r="E35" t="n">
-        <v>0.84</v>
+        <v>-0.4</v>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>17.99</v>
       </c>
       <c r="G35" t="n">
-        <v>0.64</v>
+        <v>16.61</v>
       </c>
       <c r="H35" t="n">
-        <v>1.192</v>
+        <v>0.481</v>
       </c>
       <c r="I35" t="n">
-        <v>1.199</v>
+        <v>0.4872</v>
       </c>
       <c r="J35" t="n">
-        <v>1.2</v>
+        <v>0.483</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.000600000000000156</v>
+        <v>0.001200000000000034</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2225,31 +2225,31 @@
         <v>0.48</v>
       </c>
       <c r="E36" t="n">
-        <v>0.84</v>
+        <v>-0.42</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.65</v>
+        <v>-2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0.478</v>
+        <v>0.472</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4842</v>
+        <v>0.4779</v>
       </c>
       <c r="J36" t="n">
-        <v>0.482</v>
+        <v>0.481</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0001499999999999835</v>
+        <v>0.0003500000000000725</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0008000000000000784</v>
+        <v>-0.001099999999999934</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="E37" t="n">
-        <v>0.84</v>
+        <v>-0.42</v>
       </c>
       <c r="F37" t="n">
-        <v>12.43</v>
+        <v>6.76</v>
       </c>
       <c r="G37" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="H37" t="n">
-        <v>0.961</v>
+        <v>0.717</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9532</v>
+        <v>0.7198</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="K37" t="n">
-        <v>0.00109999999999999</v>
+        <v>0.0008499999999999064</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,98 +2308,98 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="E38" t="n">
-        <v>0.84</v>
+        <v>-0.46</v>
       </c>
       <c r="F38" t="n">
-        <v>6.85</v>
+        <v>4.99</v>
       </c>
       <c r="G38" t="n">
-        <v>3.51</v>
+        <v>0.38</v>
       </c>
       <c r="H38" t="n">
-        <v>1.179</v>
+        <v>0.65</v>
       </c>
       <c r="I38" t="n">
-        <v>1.175</v>
+        <v>0.6589</v>
       </c>
       <c r="J38" t="n">
-        <v>1.166</v>
+        <v>0.659</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002249999999999863</v>
+        <v>4.999999999999449e-05</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.003500000000000059</v>
+        <v>-0.001699999999999924</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.18</v>
+        <v>3.23</v>
       </c>
       <c r="E39" t="n">
-        <v>0.77</v>
+        <v>-0.49</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.67</v>
+        <v>2.87</v>
       </c>
       <c r="G39" t="n">
-        <v>0.45</v>
+        <v>1.39</v>
       </c>
       <c r="H39" t="n">
-        <v>1.177</v>
+        <v>3.159</v>
       </c>
       <c r="I39" t="n">
-        <v>1.1745</v>
+        <v>3.1704</v>
       </c>
       <c r="J39" t="n">
-        <v>1.175</v>
+        <v>3.159</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0002500000000000835</v>
+        <v>0.005849999999999689</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.006099999999999994</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.21</v>
+        <v>0.98</v>
       </c>
       <c r="E40" t="n">
-        <v>0.75</v>
+        <v>-0.51</v>
       </c>
       <c r="F40" t="n">
-        <v>21.66</v>
+        <v>-13.5</v>
       </c>
       <c r="G40" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="H40" t="n">
-        <v>1.196</v>
+        <v>0.98</v>
       </c>
       <c r="I40" t="n">
-        <v>1.1958</v>
+        <v>0.9847999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>1.162</v>
+        <v>0.985</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00649999999999995</v>
+        <v>-0.0004499999999999504</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.004999999999999893</v>
+        <v>-0.0006000000000000449</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="E41" t="n">
-        <v>0.73</v>
+        <v>-0.54</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.1</v>
+        <v>-4.24</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="H41" t="n">
-        <v>0.96</v>
+        <v>1.103</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9728999999999999</v>
+        <v>1.1122</v>
       </c>
       <c r="J41" t="n">
-        <v>0.975</v>
+        <v>1.108</v>
       </c>
       <c r="K41" t="n">
-        <v>9.999999999987796e-05</v>
+        <v>0.001049999999999773</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-0.001300000000000079</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,98 +2508,98 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.17</v>
+        <v>0.86</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.58</v>
       </c>
       <c r="F42" t="n">
-        <v>60.97</v>
+        <v>5.51</v>
       </c>
       <c r="G42" t="n">
-        <v>70.40000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="H42" t="n">
-        <v>1.122</v>
+        <v>0.846</v>
       </c>
       <c r="I42" t="n">
-        <v>1.1545</v>
+        <v>0.8454</v>
       </c>
       <c r="J42" t="n">
-        <v>1.093</v>
+        <v>0.84</v>
       </c>
       <c r="K42" t="n">
-        <v>0.009850000000000136</v>
+        <v>0.00165000000000004</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.003900000000000015</v>
+        <v>0.001900000000000124</v>
       </c>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E43" t="n">
-        <v>0.68</v>
+        <v>-0.67</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.92</v>
+        <v>-0.38</v>
       </c>
       <c r="G43" t="n">
-        <v>0.16</v>
+        <v>32.95</v>
       </c>
       <c r="H43" t="n">
-        <v>1.02</v>
+        <v>1.018</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0214</v>
+        <v>1.0201</v>
       </c>
       <c r="J43" t="n">
-        <v>1.022</v>
+        <v>1.029</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0004500000000000615</v>
+        <v>0.0002499999999998614</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0006999999999997009</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.25</v>
+        <v>0.96</v>
       </c>
       <c r="E44" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="F44" t="n">
-        <v>3.13</v>
+        <v>-3.8</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H44" t="n">
-        <v>1.25</v>
+        <v>0.955</v>
       </c>
       <c r="I44" t="n">
-        <v>1.2484</v>
+        <v>0.9682000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>1.23</v>
+        <v>0.974</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001649999999999929</v>
+        <v>0.0001000000000001</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.002599999999999936</v>
+        <v>-0.002999999999999892</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,148 +2658,148 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="E45" t="n">
-        <v>0.59</v>
+        <v>-0.73</v>
       </c>
       <c r="F45" t="n">
-        <v>8.09</v>
+        <v>-1.56</v>
       </c>
       <c r="G45" t="n">
-        <v>2.76</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1.197</v>
+        <v>0.912</v>
       </c>
       <c r="I45" t="n">
-        <v>1.195</v>
+        <v>0.9121</v>
       </c>
       <c r="J45" t="n">
-        <v>1.178</v>
+        <v>0.903</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001849999999999907</v>
+        <v>0.003099999999999992</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.002799999999999692</v>
+        <v>0.005199999999999982</v>
       </c>
       <c r="N45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.57</v>
+        <v>2.09</v>
       </c>
       <c r="E46" t="n">
-        <v>0.53</v>
+        <v>-0.76</v>
       </c>
       <c r="F46" t="n">
-        <v>46.67</v>
+        <v>-0.43</v>
       </c>
       <c r="G46" t="n">
-        <v>23.08</v>
+        <v>23.26</v>
       </c>
       <c r="H46" t="n">
-        <v>0.554</v>
+        <v>2.023</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5681</v>
+        <v>2.0278</v>
       </c>
       <c r="J46" t="n">
-        <v>0.545</v>
+        <v>2.011</v>
       </c>
       <c r="K46" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.005650000000000155</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0008000000000000229</v>
+        <v>0.007800000000000029</v>
       </c>
       <c r="N46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.33</v>
+        <v>7.94</v>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>2.13</v>
       </c>
       <c r="H47" t="n">
-        <v>0.796</v>
+        <v>0.846</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8076000000000001</v>
+        <v>0.8501999999999998</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.858</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.001299999999999968</v>
+        <v>-0.000500000000000056</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.001999999999999891</v>
+        <v>0.0008999999999997899</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.53</v>
+        <v>0.37</v>
       </c>
       <c r="E48" t="n">
-        <v>0.46</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.23</v>
+        <v>1.39</v>
       </c>
       <c r="G48" t="n">
-        <v>2.47</v>
+        <v>4.98</v>
       </c>
       <c r="H48" t="n">
-        <v>1.517</v>
+        <v>0.364</v>
       </c>
       <c r="I48" t="n">
-        <v>1.523</v>
+        <v>0.3701</v>
       </c>
       <c r="J48" t="n">
-        <v>1.523</v>
+        <v>0.372</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.000250000000000028</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.000300000000000189</v>
+        <v>-0.0009000000000000119</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.66</v>
+        <v>1.14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.46</v>
+        <v>-0.87</v>
       </c>
       <c r="F49" t="n">
-        <v>8.220000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1</v>
+        <v>2.58</v>
       </c>
       <c r="H49" t="n">
-        <v>0.645</v>
+        <v>1.111</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6549</v>
+        <v>1.1065</v>
       </c>
       <c r="J49" t="n">
-        <v>0.649</v>
+        <v>1.112</v>
       </c>
       <c r="K49" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0009500000000000064</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0008000000000000229</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E50" t="n">
-        <v>0.36</v>
+        <v>-0.87</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.72</v>
+        <v>19.37</v>
       </c>
       <c r="G50" t="n">
-        <v>0.46</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
-        <v>1.106</v>
+        <v>1.107</v>
       </c>
       <c r="I50" t="n">
-        <v>1.1145</v>
+        <v>1.117</v>
       </c>
       <c r="J50" t="n">
-        <v>1.107</v>
+        <v>1.111</v>
       </c>
       <c r="K50" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.001199999999999868</v>
+        <v>0.000100000000000211</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.58</v>
+        <v>1.13</v>
       </c>
       <c r="E51" t="n">
-        <v>0.35</v>
+        <v>-0.88</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.36</v>
+        <v>11.87</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.582</v>
+        <v>1.104</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5881</v>
+        <v>1.1092</v>
       </c>
       <c r="J51" t="n">
-        <v>0.582</v>
+        <v>1.109</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0002999999999998559</v>
+        <v>0.0009500000000000064</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.001199999999999868</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="E52" t="n">
-        <v>0.33</v>
+        <v>-0.91</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.15</v>
+        <v>-0.61</v>
       </c>
       <c r="G52" t="n">
-        <v>0.11</v>
+        <v>4.96</v>
       </c>
       <c r="H52" t="n">
-        <v>0.595</v>
+        <v>0.323</v>
       </c>
       <c r="I52" t="n">
-        <v>0.597</v>
+        <v>0.3271</v>
       </c>
       <c r="J52" t="n">
-        <v>0.593</v>
+        <v>0.329</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0004999999999999449</v>
+        <v>0.0003499999999999615</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.0004000000000000115</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.71</v>
+        <v>1.19</v>
       </c>
       <c r="E53" t="n">
-        <v>0.28</v>
+        <v>-0.91</v>
       </c>
       <c r="F53" t="n">
-        <v>7.21</v>
+        <v>1.45</v>
       </c>
       <c r="G53" t="n">
-        <v>0.44</v>
+        <v>5.24</v>
       </c>
       <c r="H53" t="n">
-        <v>0.717</v>
+        <v>1.185</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7198</v>
+        <v>1.1957</v>
       </c>
       <c r="J53" t="n">
-        <v>0.707</v>
+        <v>1.198</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0008499999999999064</v>
+        <v>-0.001149999999999984</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7.39</v>
+        <v>0.62</v>
       </c>
       <c r="E54" t="n">
-        <v>0.27</v>
+        <v>-0.96</v>
       </c>
       <c r="F54" t="n">
-        <v>24.7</v>
+        <v>5.42</v>
       </c>
       <c r="G54" t="n">
-        <v>21.04</v>
+        <v>0.16</v>
       </c>
       <c r="H54" t="n">
-        <v>7.459</v>
+        <v>0.599</v>
       </c>
       <c r="I54" t="n">
-        <v>7.4774</v>
+        <v>0.5995</v>
       </c>
       <c r="J54" t="n">
-        <v>7.446</v>
+        <v>0.599</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.003199999999999648</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0009999999999985576</v>
+        <v>0.002400000000000069</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2</v>
+        <v>-1.06</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.1</v>
+        <v>-13.87</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03</v>
+        <v>2.71</v>
       </c>
       <c r="H55" t="n">
-        <v>0.989</v>
+        <v>0.643</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9869</v>
+        <v>0.646</v>
       </c>
       <c r="J55" t="n">
-        <v>0.986</v>
+        <v>0.646</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.999999999999449e-05</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,98 +3208,98 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="E56" t="n">
-        <v>0.19</v>
+        <v>-1.08</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.49</v>
+        <v>6.92</v>
       </c>
       <c r="G56" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="H56" t="n">
-        <v>2.037</v>
+        <v>1.195</v>
       </c>
       <c r="I56" t="n">
-        <v>2.0368</v>
+        <v>1.194</v>
       </c>
       <c r="J56" t="n">
-        <v>2.026</v>
+        <v>1.177</v>
       </c>
       <c r="K56" t="n">
-        <v>0.003700000000000259</v>
+        <v>0.001350000000000184</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.001799999999999802</v>
       </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E57" t="n">
-        <v>0.18</v>
+        <v>-1.22</v>
       </c>
       <c r="F57" t="n">
-        <v>-9.74</v>
+        <v>6.91</v>
       </c>
       <c r="G57" t="n">
-        <v>10.05</v>
+        <v>0.1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.552</v>
+        <v>0.642</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5551</v>
+        <v>0.6518</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.001349999999999962</v>
+        <v>0.001850000000000018</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.001399999999999957</v>
+        <v>-0.001799999999999913</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.49</v>
+        <v>0.95</v>
       </c>
       <c r="E58" t="n">
-        <v>0.13</v>
+        <v>-1.25</v>
       </c>
       <c r="F58" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="G58" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="H58" t="n">
-        <v>1.479</v>
+        <v>0.928</v>
       </c>
       <c r="I58" t="n">
-        <v>1.474</v>
+        <v>0.9319000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>1.468</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0.002399999999999958</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.66</v>
+        <v>1.03</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-1.34</v>
       </c>
       <c r="F59" t="n">
-        <v>5.48</v>
+        <v>1.88</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2</v>
+        <v>13.53</v>
       </c>
       <c r="H59" t="n">
-        <v>0.654</v>
+        <v>1.005</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6617</v>
+        <v>1.0006</v>
       </c>
       <c r="J59" t="n">
-        <v>0.66</v>
+        <v>1.005</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.0008500000000002395</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.0008000000000000229</v>
+        <v>0.002299999999999858</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="F60" t="n">
-        <v>-13.06</v>
+        <v>-3.72</v>
       </c>
       <c r="G60" t="n">
-        <v>1.92</v>
+        <v>0.09</v>
       </c>
       <c r="H60" t="n">
-        <v>0.981</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9843999999999999</v>
+        <v>0.5797</v>
       </c>
       <c r="J60" t="n">
-        <v>0.985</v>
+        <v>0.581</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0006499999999999284</v>
+        <v>0.0003499999999999615</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.001099999999999879</v>
+        <v>-0.002699999999999925</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-1.81</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.09</v>
+        <v>-2.86</v>
       </c>
       <c r="G61" t="n">
-        <v>6.97</v>
+        <v>18.14</v>
       </c>
       <c r="H61" t="n">
-        <v>1.57</v>
+        <v>1.036</v>
       </c>
       <c r="I61" t="n">
-        <v>1.5692</v>
+        <v>1.0379</v>
       </c>
       <c r="J61" t="n">
-        <v>1.567</v>
+        <v>1.025</v>
       </c>
       <c r="K61" t="n">
-        <v>0.002800000000000136</v>
+        <v>0.004699999999999926</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.006800000000000139</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.2</v>
+        <v>-2.1</v>
       </c>
       <c r="F62" t="n">
-        <v>7.24</v>
+        <v>43.59</v>
       </c>
       <c r="G62" t="n">
-        <v>0.12</v>
+        <v>14.15</v>
       </c>
       <c r="H62" t="n">
-        <v>1.474</v>
+        <v>0.551</v>
       </c>
       <c r="I62" t="n">
-        <v>1.4756</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>1.477</v>
+        <v>0.548</v>
       </c>
       <c r="K62" t="n">
-        <v>0.000600000000000156</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>-0.001699999999999924</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>124.35</v>
+        <v>1.13</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.25</v>
+        <v>-3.17</v>
       </c>
       <c r="F63" t="n">
-        <v>1.38</v>
+        <v>55.86</v>
       </c>
       <c r="G63" t="n">
-        <v>69.77</v>
+        <v>48</v>
       </c>
       <c r="H63" t="n">
-        <v>124.419</v>
+        <v>1.117</v>
       </c>
       <c r="I63" t="n">
-        <v>124.1508</v>
+        <v>1.147</v>
       </c>
       <c r="J63" t="n">
-        <v>123.597</v>
+        <v>1.1</v>
       </c>
       <c r="K63" t="n">
-        <v>0.05040000000001044</v>
+        <v>0.009000000000000119</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1251000000000033</v>
+        <v>-0.004000000000000448</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>0.99</v>
       </c>
       <c r="E2" t="n">
-        <v>2.29</v>
+        <v>2.71</v>
       </c>
       <c r="F2" t="n">
-        <v>4.54</v>
+        <v>15.59</v>
       </c>
       <c r="G2" t="n">
-        <v>2.09</v>
+        <v>0.35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.481</v>
+        <v>0.953</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4756</v>
+        <v>0.9576</v>
       </c>
       <c r="J2" t="n">
-        <v>1.469</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002800000000000136</v>
+        <v>0.003999999999999893</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00529999999999986</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>2.52</v>
       </c>
       <c r="F3" t="n">
-        <v>8.630000000000001</v>
+        <v>4.33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25</v>
+        <v>3.33</v>
       </c>
       <c r="H3" t="n">
-        <v>1.469</v>
+        <v>1.364</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4716</v>
+        <v>1.3545</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477</v>
+        <v>1.314</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005999999999997119</v>
+        <v>0.01095000000000002</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.01130000000000009</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="E4" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="F4" t="n">
-        <v>18.65</v>
+        <v>6.19</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>1.709</v>
+        <v>1.483</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6851</v>
+        <v>1.4791</v>
       </c>
       <c r="J4" t="n">
-        <v>1.657</v>
+        <v>1.471</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008099999999999996</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01089999999999969</v>
+        <v>0.007100000000000106</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>10.31</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>0.18</v>
       </c>
       <c r="H5" t="n">
-        <v>1.361</v>
+        <v>1.47</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3465</v>
+        <v>1.4731</v>
       </c>
       <c r="J5" t="n">
-        <v>1.305</v>
+        <v>1.477</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008499999999999952</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008099999999999996</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52</v>
+        <v>1.02</v>
       </c>
       <c r="F6" t="n">
-        <v>5.8</v>
+        <v>-12.62</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.125</v>
+        <v>0.982</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1256</v>
+        <v>0.9847999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1.122</v>
+        <v>0.986</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.000500000000000056</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00340000000000007</v>
+        <v>-0.000500000000000056</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -772,34 +772,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.6</v>
+        <v>-0.61</v>
       </c>
       <c r="G7" t="n">
-        <v>6.86</v>
+        <v>8.31</v>
       </c>
       <c r="H7" t="n">
-        <v>1.57</v>
+        <v>1.579</v>
       </c>
       <c r="I7" t="n">
-        <v>1.569</v>
+        <v>1.5728</v>
       </c>
       <c r="J7" t="n">
-        <v>1.568</v>
+        <v>1.572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002850000000000019</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002899999999999903</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,98 +808,98 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.21</v>
+        <v>2.09</v>
       </c>
       <c r="E8" t="n">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="F8" t="n">
-        <v>7.3</v>
+        <v>-3.28</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>5.69</v>
       </c>
       <c r="H8" t="n">
-        <v>1.188</v>
+        <v>2.046</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1803</v>
+        <v>2.0402</v>
       </c>
       <c r="J8" t="n">
-        <v>1.172</v>
+        <v>2.033</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003150000000000208</v>
+        <v>0.004650000000000265</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004100000000000215</v>
+        <v>0.004399999999999959</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.07</v>
+        <v>0.66</v>
       </c>
       <c r="E9" t="n">
-        <v>0.29</v>
+        <v>0.92</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.21</v>
+        <v>-13.08</v>
       </c>
       <c r="G9" t="n">
-        <v>3.19</v>
+        <v>6.29</v>
       </c>
       <c r="H9" t="n">
-        <v>2.036</v>
+        <v>0.646</v>
       </c>
       <c r="I9" t="n">
-        <v>2.0367</v>
+        <v>0.6466000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>2.029</v>
+        <v>0.647</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00395000000000012</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003400000000000514</v>
+        <v>0.000400000000000067</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.24</v>
+        <v>0.86</v>
       </c>
       <c r="F10" t="n">
-        <v>7.54</v>
+        <v>6.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.796</v>
+        <v>1.127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7948999999999999</v>
+        <v>1.1266</v>
       </c>
       <c r="J10" t="n">
-        <v>0.793</v>
+        <v>1.124</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003000000000000003</v>
+        <v>0.004499999999999948</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004599999999999937</v>
+        <v>0.004999999999999893</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2</v>
+        <v>0.84</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.517</v>
+        <v>1.187</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5202</v>
+        <v>1.1945</v>
       </c>
       <c r="J11" t="n">
-        <v>1.522</v>
+        <v>1.198</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>124.59</v>
+        <v>1.1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19</v>
+        <v>0.73</v>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>5.47</v>
       </c>
       <c r="G12" t="n">
-        <v>61.02</v>
+        <v>7.82</v>
       </c>
       <c r="H12" t="n">
-        <v>124.964</v>
+        <v>1.057</v>
       </c>
       <c r="I12" t="n">
-        <v>124.6253</v>
+        <v>1.0557</v>
       </c>
       <c r="J12" t="n">
-        <v>123.89</v>
+        <v>1.051</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06354999999997801</v>
+        <v>0.003249999999999975</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0730999999999824</v>
+        <v>0.005100000000000104</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7.41</v>
+        <v>1.26</v>
       </c>
       <c r="E13" t="n">
-        <v>0.18</v>
+        <v>0.72</v>
       </c>
       <c r="F13" t="n">
-        <v>24.92</v>
+        <v>4.04</v>
       </c>
       <c r="G13" t="n">
-        <v>20.49</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>7.456</v>
+        <v>1.247</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4853</v>
+        <v>1.2514</v>
       </c>
       <c r="J13" t="n">
-        <v>7.449</v>
+        <v>1.235</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0007499999999991402</v>
+        <v>0.003049999999999997</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004999999999997229</v>
+        <v>0.001299999999999635</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>-2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1.248</v>
+        <v>0.862</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2508</v>
+        <v>0.8568</v>
       </c>
       <c r="J14" t="n">
-        <v>1.232</v>
+        <v>0.851</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="F15" t="n">
-        <v>21.87</v>
+        <v>-0.66</v>
       </c>
       <c r="G15" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="H15" t="n">
-        <v>1.191</v>
+        <v>0.594</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1983</v>
+        <v>0.5963999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>1.166</v>
+        <v>0.594</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005400000000000071</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006200000000000205</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="F16" t="n">
-        <v>12.54</v>
+        <v>2.36</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="H16" t="n">
-        <v>0.948</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9549999999999998</v>
+        <v>0.9319000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.0006500000000001505</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002299999999999747</v>
+        <v>9.999999999987796e-05</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1275,31 +1275,31 @@
         <v>1.21</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08</v>
+        <v>0.58</v>
       </c>
       <c r="F17" t="n">
-        <v>3.79</v>
+        <v>4.39</v>
       </c>
       <c r="G17" t="n">
         <v>1.45</v>
       </c>
       <c r="H17" t="n">
-        <v>1.174</v>
+        <v>1.175</v>
       </c>
       <c r="I17" t="n">
-        <v>1.1719</v>
+        <v>1.1723</v>
       </c>
       <c r="J17" t="n">
-        <v>1.167</v>
+        <v>1.169</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002900000000000125</v>
+        <v>0.00374999999999992</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003399999999999848</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="F18" t="n">
-        <v>-9.74</v>
+        <v>-2.83</v>
       </c>
       <c r="G18" t="n">
-        <v>5.77</v>
+        <v>0.67</v>
       </c>
       <c r="H18" t="n">
-        <v>0.553</v>
+        <v>0.535</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5533</v>
+        <v>0.5336000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.532</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.00109999999999999</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>10.6</v>
+        <v>8.32</v>
       </c>
       <c r="H19" t="n">
-        <v>1.056</v>
+        <v>0.913</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0539</v>
+        <v>0.9128000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>0.904</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00254999999999983</v>
+        <v>0.003300000000000081</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004500000000000171</v>
+        <v>0.003799999999999915</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.85</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>0.16</v>
+        <v>12.95</v>
       </c>
       <c r="H20" t="n">
-        <v>1.43</v>
+        <v>1.009</v>
       </c>
       <c r="I20" t="n">
-        <v>1.43</v>
+        <v>1.002</v>
       </c>
       <c r="J20" t="n">
-        <v>1.427</v>
+        <v>1.006</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.001650000000000151</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00240000000000018</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.75</v>
+        <v>-3.81</v>
       </c>
       <c r="G21" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.174</v>
+        <v>1.104</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1739</v>
+        <v>1.11</v>
       </c>
       <c r="J21" t="n">
-        <v>1.174</v>
+        <v>1.108</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0009000000000001229</v>
+        <v>-0.002100000000000213</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.11</v>
+        <v>3.24</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.09</v>
+        <v>0.43</v>
       </c>
       <c r="F22" t="n">
-        <v>5.41</v>
+        <v>3.31</v>
       </c>
       <c r="G22" t="n">
-        <v>0.72</v>
+        <v>1.99</v>
       </c>
       <c r="H22" t="n">
-        <v>1.088</v>
+        <v>3.163</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0878</v>
+        <v>3.1708</v>
       </c>
       <c r="J22" t="n">
-        <v>1.081</v>
+        <v>3.163</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002249999999999863</v>
+        <v>0.006799999999999695</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002900000000000125</v>
+        <v>0.004999999999999893</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.12</v>
+        <v>0.42</v>
       </c>
       <c r="F23" t="n">
-        <v>8.140000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="H23" t="n">
-        <v>0.822</v>
+        <v>0.708</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8286</v>
+        <v>0.7142999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>0.82</v>
+        <v>0.712</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001849999999999907</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001700000000000035</v>
+        <v>-0.002099999999999991</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.17</v>
+        <v>0.38</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.32</v>
+        <v>-0.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.12</v>
+        <v>23.89</v>
       </c>
       <c r="H24" t="n">
-        <v>0.593</v>
+        <v>2.027</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5965999999999999</v>
+        <v>2.0294</v>
       </c>
       <c r="J24" t="n">
-        <v>0.593</v>
+        <v>2.016</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.006650000000000045</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0004999999999998339</v>
+        <v>0.006199999999999761</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.19</v>
+        <v>0.35</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.11</v>
+        <v>1.51</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>4.04</v>
       </c>
       <c r="H25" t="n">
-        <v>1.019</v>
+        <v>1.115</v>
       </c>
       <c r="I25" t="n">
-        <v>1.021</v>
+        <v>1.108</v>
       </c>
       <c r="J25" t="n">
-        <v>1.022</v>
+        <v>1.113</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004500000000000615</v>
+        <v>0.001599999999999824</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.99</v>
+        <v>0.57</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.3</v>
+        <v>-3.38</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H26" t="n">
-        <v>0.986</v>
+        <v>0.57</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9869</v>
+        <v>0.578</v>
       </c>
       <c r="J26" t="n">
-        <v>0.986</v>
+        <v>0.582</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004499999999999504</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0006000000000000449</v>
+        <v>-0.002299999999999969</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.83</v>
+        <v>0.65</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.21</v>
+        <v>0.31</v>
       </c>
       <c r="F27" t="n">
-        <v>3.21</v>
+        <v>7.24</v>
       </c>
       <c r="G27" t="n">
-        <v>16.73</v>
+        <v>0.11</v>
       </c>
       <c r="H27" t="n">
-        <v>2.765</v>
+        <v>0.644</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7598</v>
+        <v>0.6509</v>
       </c>
       <c r="J27" t="n">
-        <v>2.755</v>
+        <v>0.651</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003300000000000303</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.008799999999999475</v>
+        <v>-0.001399999999999957</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.23</v>
+        <v>0.31</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.2</v>
+        <v>-0.31</v>
       </c>
       <c r="G28" t="n">
-        <v>0.11</v>
+        <v>6.9</v>
       </c>
       <c r="H28" t="n">
-        <v>0.861</v>
+        <v>0.323</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8552</v>
+        <v>0.3261</v>
       </c>
       <c r="J28" t="n">
-        <v>0.849</v>
+        <v>0.329</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001649999999999818</v>
+        <v>0.0003000000000000225</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.002900000000000014</v>
+        <v>-0.0004000000000000115</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.29</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.57</v>
+        <v>-2.83</v>
       </c>
       <c r="G29" t="n">
-        <v>1.59</v>
+        <v>0.13</v>
       </c>
       <c r="H29" t="n">
-        <v>0.793</v>
+        <v>1.02</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7988000000000001</v>
+        <v>1.0205</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8090000000000001</v>
+        <v>1.022</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.001599999999999935</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.03</v>
+        <v>0.49</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.29</v>
+        <v>0.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1.88</v>
+        <v>18.23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.59</v>
+        <v>24.02</v>
       </c>
       <c r="H30" t="n">
-        <v>1.009</v>
+        <v>0.482</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0099</v>
+        <v>0.4858</v>
       </c>
       <c r="J30" t="n">
-        <v>1.006</v>
+        <v>0.484</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001550000000000162</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.002499999999999947</v>
+        <v>-0.001300000000000023</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.4</v>
+        <v>124.83</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
-        <v>12.7</v>
+        <v>1.77</v>
       </c>
       <c r="G31" t="n">
-        <v>0.57</v>
+        <v>60.16</v>
       </c>
       <c r="H31" t="n">
-        <v>1.379</v>
+        <v>125.001</v>
       </c>
       <c r="I31" t="n">
-        <v>1.38633</v>
+        <v>124.6976</v>
       </c>
       <c r="J31" t="n">
-        <v>1.374</v>
+        <v>123.988</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002999999999999892</v>
+        <v>0.09369999999998413</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.002499999999999725</v>
+        <v>0.06499999999999773</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.36</v>
+        <v>0.15</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.36</v>
+        <v>5.15</v>
       </c>
       <c r="G32" t="n">
-        <v>0.99</v>
+        <v>0.13</v>
       </c>
       <c r="H32" t="n">
-        <v>0.534</v>
+        <v>0.65</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5332000000000001</v>
+        <v>0.6565000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>0.532</v>
+        <v>0.659</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001150000000000095</v>
+        <v>-5.000000000010552e-05</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001700000000000035</v>
+        <v>-0.002899999999999903</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2075,31 +2075,31 @@
         <v>1.35</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.37</v>
+        <v>0.15</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.73</v>
+        <v>-7.59</v>
       </c>
       <c r="G33" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.325</v>
+        <v>1.324</v>
       </c>
       <c r="I33" t="n">
-        <v>1.3382</v>
+        <v>1.3353</v>
       </c>
       <c r="J33" t="n">
         <v>1.343</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0008999999999999009</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.99</v>
+        <v>0.96</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.34</v>
+        <v>-3.8</v>
       </c>
       <c r="G34" t="n">
-        <v>37.46</v>
+        <v>0.01</v>
       </c>
       <c r="H34" t="n">
-        <v>3.907</v>
+        <v>0.956</v>
       </c>
       <c r="I34" t="n">
-        <v>3.94168</v>
+        <v>0.9647</v>
       </c>
       <c r="J34" t="n">
-        <v>3.955</v>
+        <v>0.974</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00114999999999954</v>
+        <v>-0.0002499999999999725</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001800000000000246</v>
+        <v>-0.003599999999999937</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.49</v>
+        <v>1.04</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>17.99</v>
+        <v>-0.38</v>
       </c>
       <c r="G35" t="n">
-        <v>16.61</v>
+        <v>26.89</v>
       </c>
       <c r="H35" t="n">
-        <v>0.481</v>
+        <v>1.02</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4872</v>
+        <v>1.0199</v>
       </c>
       <c r="J35" t="n">
-        <v>0.483</v>
+        <v>1.029</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001200000000000034</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.48</v>
+        <v>1.09</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.06</v>
+        <v>-2.86</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>16.04</v>
       </c>
       <c r="H36" t="n">
-        <v>0.472</v>
+        <v>1.039</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4779</v>
+        <v>1.0388</v>
       </c>
       <c r="J36" t="n">
-        <v>0.481</v>
+        <v>1.027</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0003500000000000725</v>
+        <v>0.004750000000000032</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.001099999999999934</v>
+        <v>0.004899999999999904</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.42</v>
+        <v>-0.11</v>
       </c>
       <c r="F37" t="n">
-        <v>6.76</v>
+        <v>7.82</v>
       </c>
       <c r="G37" t="n">
-        <v>0.31</v>
+        <v>1.73</v>
       </c>
       <c r="H37" t="n">
-        <v>0.717</v>
+        <v>0.848</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7198</v>
+        <v>0.8501999999999998</v>
       </c>
       <c r="J37" t="n">
-        <v>0.707</v>
+        <v>0.858</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0008499999999999064</v>
+        <v>0.0002499999999999725</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.46</v>
+        <v>-0.16</v>
       </c>
       <c r="F38" t="n">
-        <v>4.99</v>
+        <v>5.25</v>
       </c>
       <c r="G38" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="H38" t="n">
-        <v>0.65</v>
+        <v>0.603</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6589</v>
+        <v>0.6006</v>
       </c>
       <c r="J38" t="n">
-        <v>0.659</v>
+        <v>0.6</v>
       </c>
       <c r="K38" t="n">
-        <v>4.999999999999449e-05</v>
+        <v>0.0008500000000000174</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.001699999999999924</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3.23</v>
+        <v>0.47</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.49</v>
+        <v>-0.21</v>
       </c>
       <c r="F39" t="n">
-        <v>2.87</v>
+        <v>-2.26</v>
       </c>
       <c r="G39" t="n">
-        <v>1.39</v>
+        <v>0.24</v>
       </c>
       <c r="H39" t="n">
-        <v>3.159</v>
+        <v>0.47</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1704</v>
+        <v>0.4752</v>
       </c>
       <c r="J39" t="n">
-        <v>3.159</v>
+        <v>0.481</v>
       </c>
       <c r="K39" t="n">
-        <v>0.005849999999999689</v>
+        <v>-0.0002499999999999725</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.006099999999999994</v>
+        <v>-0.002099999999999991</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.51</v>
+        <v>-0.24</v>
       </c>
       <c r="F40" t="n">
-        <v>-13.5</v>
+        <v>7.88</v>
       </c>
       <c r="G40" t="n">
-        <v>1.43</v>
+        <v>0.87</v>
       </c>
       <c r="H40" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9847999999999999</v>
+        <v>0.8272</v>
       </c>
       <c r="J40" t="n">
-        <v>0.985</v>
+        <v>0.821</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0004499999999999504</v>
+        <v>0.001700000000000146</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0006000000000000449</v>
+        <v>-0.000199999999999867</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.54</v>
+        <v>-0.26</v>
       </c>
       <c r="F41" t="n">
-        <v>-4.24</v>
+        <v>19.05</v>
       </c>
       <c r="G41" t="n">
-        <v>0.54</v>
+        <v>2.71</v>
       </c>
       <c r="H41" t="n">
-        <v>1.103</v>
+        <v>1.111</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1122</v>
+        <v>1.1157</v>
       </c>
       <c r="J41" t="n">
-        <v>1.108</v>
+        <v>1.113</v>
       </c>
       <c r="K41" t="n">
-        <v>0.001049999999999773</v>
+        <v>0.001949999999999896</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.001300000000000079</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.58</v>
+        <v>-0.27</v>
       </c>
       <c r="F42" t="n">
-        <v>5.51</v>
+        <v>1.11</v>
       </c>
       <c r="G42" t="n">
-        <v>1.39</v>
+        <v>4.58</v>
       </c>
       <c r="H42" t="n">
-        <v>0.846</v>
+        <v>0.362</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8454</v>
+        <v>0.3678</v>
       </c>
       <c r="J42" t="n">
-        <v>0.84</v>
+        <v>0.371</v>
       </c>
       <c r="K42" t="n">
-        <v>0.00165000000000004</v>
+        <v>-0.0003499999999999615</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001900000000000124</v>
+        <v>-0.001800000000000024</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,42 +2558,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.67</v>
+        <v>-0.28</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.38</v>
+        <v>-4.12</v>
       </c>
       <c r="G43" t="n">
-        <v>32.95</v>
+        <v>0.14</v>
       </c>
       <c r="H43" t="n">
-        <v>1.018</v>
+        <v>1.428</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0201</v>
+        <v>1.4291</v>
       </c>
       <c r="J43" t="n">
-        <v>1.029</v>
+        <v>1.427</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0002499999999998614</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.72</v>
+        <v>-0.29</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.8</v>
+        <v>1.58</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>0.955</v>
+        <v>1.01</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9682000000000001</v>
+        <v>1.0103</v>
       </c>
       <c r="J44" t="n">
-        <v>0.974</v>
+        <v>1.007</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0001000000000001</v>
+        <v>0.00175000000000014</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.002999999999999892</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,98 +2658,98 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.73</v>
+        <v>-0.34</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.56</v>
+        <v>6.56</v>
       </c>
       <c r="G45" t="n">
-        <v>8.210000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="H45" t="n">
-        <v>0.912</v>
+        <v>1.195</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9121</v>
+        <v>1.194</v>
       </c>
       <c r="J45" t="n">
-        <v>0.903</v>
+        <v>1.177</v>
       </c>
       <c r="K45" t="n">
-        <v>0.003099999999999992</v>
+        <v>0.001350000000000184</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.005199999999999982</v>
+        <v>0.001799999999999802</v>
       </c>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.09</v>
+        <v>1.53</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.76</v>
+        <v>-0.39</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="G46" t="n">
-        <v>23.26</v>
+        <v>2.33</v>
       </c>
       <c r="H46" t="n">
-        <v>2.023</v>
+        <v>1.518</v>
       </c>
       <c r="I46" t="n">
-        <v>2.0278</v>
+        <v>1.5187</v>
       </c>
       <c r="J46" t="n">
-        <v>2.011</v>
+        <v>1.523</v>
       </c>
       <c r="K46" t="n">
-        <v>0.005650000000000155</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.007800000000000029</v>
+        <v>-0.000700000000000145</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="F47" t="n">
-        <v>7.94</v>
+        <v>-0.7</v>
       </c>
       <c r="G47" t="n">
-        <v>2.13</v>
+        <v>0.02</v>
       </c>
       <c r="H47" t="n">
-        <v>0.846</v>
+        <v>0.986</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8501999999999998</v>
+        <v>0.9871000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.858</v>
+        <v>0.987</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.000500000000000056</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0008999999999997899</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.37</v>
       </c>
-      <c r="E48" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4.98</v>
-      </c>
       <c r="H48" t="n">
-        <v>0.364</v>
+        <v>1.107</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3701</v>
+        <v>1.1098</v>
       </c>
       <c r="J48" t="n">
-        <v>0.372</v>
+        <v>1.11</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000250000000000028</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>0.000900000000000345</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.87</v>
+        <v>-0.46</v>
       </c>
       <c r="F49" t="n">
-        <v>1.16</v>
+        <v>5.02</v>
       </c>
       <c r="G49" t="n">
-        <v>2.58</v>
+        <v>2.31</v>
       </c>
       <c r="H49" t="n">
-        <v>1.111</v>
+        <v>0.847</v>
       </c>
       <c r="I49" t="n">
-        <v>1.1065</v>
+        <v>0.8462</v>
       </c>
       <c r="J49" t="n">
-        <v>1.112</v>
+        <v>0.842</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0009500000000000064</v>
+        <v>0.001799999999999802</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0.002699999999999925</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.87</v>
+        <v>-0.5</v>
       </c>
       <c r="F50" t="n">
-        <v>19.37</v>
+        <v>-3.06</v>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="H50" t="n">
-        <v>1.107</v>
+        <v>0.791</v>
       </c>
       <c r="I50" t="n">
-        <v>1.117</v>
+        <v>0.7948999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>1.111</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002099999999999991</v>
+        <v>-0.001300000000000079</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.000100000000000211</v>
+        <v>-0.003300000000000081</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.13</v>
+        <v>3.96</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.88</v>
+        <v>-0.58</v>
       </c>
       <c r="F51" t="n">
-        <v>11.87</v>
+        <v>0.76</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>42.59</v>
       </c>
       <c r="H51" t="n">
-        <v>1.104</v>
+        <v>3.908</v>
       </c>
       <c r="I51" t="n">
-        <v>1.1092</v>
+        <v>3.93188</v>
       </c>
       <c r="J51" t="n">
-        <v>1.109</v>
+        <v>3.953</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0009500000000000064</v>
+        <v>0.0006999999999997009</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.001199999999999868</v>
+        <v>-0.004399999999999515</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.91</v>
+        <v>-0.68</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.61</v>
+        <v>-2.42</v>
       </c>
       <c r="G52" t="n">
-        <v>4.96</v>
+        <v>0.54</v>
       </c>
       <c r="H52" t="n">
-        <v>0.323</v>
+        <v>1.168</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3271</v>
+        <v>1.1724</v>
       </c>
       <c r="J52" t="n">
-        <v>0.329</v>
+        <v>1.173</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0003499999999999615</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0004000000000000115</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.19</v>
+        <v>0.55</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.91</v>
+        <v>-0.72</v>
       </c>
       <c r="F53" t="n">
-        <v>1.45</v>
+        <v>-10.39</v>
       </c>
       <c r="G53" t="n">
-        <v>5.24</v>
+        <v>5.13</v>
       </c>
       <c r="H53" t="n">
-        <v>1.185</v>
+        <v>0.552</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1957</v>
+        <v>0.5508000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>1.198</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.001149999999999984</v>
+        <v>-0.001699999999999924</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.00120000000000009</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.62</v>
+        <v>1.1</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.96</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>5.42</v>
+        <v>4.56</v>
       </c>
       <c r="G54" t="n">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
       <c r="H54" t="n">
-        <v>0.599</v>
+        <v>1.089</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5995</v>
+        <v>1.0879</v>
       </c>
       <c r="J54" t="n">
-        <v>0.599</v>
+        <v>1.083</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.002400000000000069</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.06</v>
+        <v>-0.83</v>
       </c>
       <c r="F55" t="n">
-        <v>-13.87</v>
+        <v>6.64</v>
       </c>
       <c r="G55" t="n">
-        <v>2.71</v>
+        <v>0.92</v>
       </c>
       <c r="H55" t="n">
-        <v>0.643</v>
+        <v>0.795</v>
       </c>
       <c r="I55" t="n">
-        <v>0.646</v>
+        <v>0.7947</v>
       </c>
       <c r="J55" t="n">
-        <v>0.646</v>
+        <v>0.794</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.999999999998899e-05</v>
+        <v>0.002799999999999914</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.003399999999999959</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,98 +3208,98 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.08</v>
+        <v>-0.89</v>
       </c>
       <c r="F56" t="n">
-        <v>6.92</v>
+        <v>42.31</v>
       </c>
       <c r="G56" t="n">
-        <v>2.28</v>
+        <v>17.7</v>
       </c>
       <c r="H56" t="n">
-        <v>1.195</v>
+        <v>0.554</v>
       </c>
       <c r="I56" t="n">
-        <v>1.194</v>
+        <v>0.5645</v>
       </c>
       <c r="J56" t="n">
-        <v>1.177</v>
+        <v>0.551</v>
       </c>
       <c r="K56" t="n">
-        <v>0.001350000000000184</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.001799999999999802</v>
+        <v>-0.001400000000000068</v>
       </c>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.22</v>
+        <v>-0.99</v>
       </c>
       <c r="F57" t="n">
-        <v>6.91</v>
+        <v>20.66</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="H57" t="n">
-        <v>0.642</v>
+        <v>1.187</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6518</v>
+        <v>1.1981</v>
       </c>
       <c r="J57" t="n">
-        <v>0.65</v>
+        <v>1.17</v>
       </c>
       <c r="K57" t="n">
-        <v>0.001850000000000018</v>
+        <v>0.004750000000000032</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.001799999999999913</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.95</v>
+        <v>7.33</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.25</v>
+        <v>-1.07</v>
       </c>
       <c r="F58" t="n">
-        <v>1.71</v>
+        <v>23.58</v>
       </c>
       <c r="G58" t="n">
-        <v>0.32</v>
+        <v>33.45</v>
       </c>
       <c r="H58" t="n">
-        <v>0.928</v>
+        <v>7.413</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9319000000000001</v>
+        <v>7.4717</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9399999999999999</v>
+        <v>7.446</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-0.001800000000000246</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.001000000000000001</v>
+        <v>-0.009799999999999365</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.03</v>
+        <v>2.79</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.34</v>
+        <v>-1.1</v>
       </c>
       <c r="F59" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="G59" t="n">
-        <v>13.53</v>
+        <v>20.68</v>
       </c>
       <c r="H59" t="n">
-        <v>1.005</v>
+        <v>2.765</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0006</v>
+        <v>2.7588</v>
       </c>
       <c r="J59" t="n">
-        <v>1.005</v>
+        <v>2.756</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0008500000000002395</v>
+        <v>0.002000000000000224</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002299999999999858</v>
+        <v>0.002799999999999692</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.57</v>
+        <v>1.12</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.38</v>
+        <v>-1.24</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.72</v>
+        <v>53.93</v>
       </c>
       <c r="G60" t="n">
-        <v>0.09</v>
+        <v>48.74</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>1.121</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5797</v>
+        <v>1.1451</v>
       </c>
       <c r="J60" t="n">
-        <v>0.581</v>
+        <v>1.108</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0003499999999999615</v>
+        <v>0.007000000000000117</v>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.002699999999999925</v>
+        <v>-0.004799999999999915</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,98 +3458,98 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.81</v>
+        <v>-1.49</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.86</v>
+        <v>5.69</v>
       </c>
       <c r="G61" t="n">
-        <v>18.14</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1.036</v>
+        <v>1.186</v>
       </c>
       <c r="I61" t="n">
-        <v>1.0379</v>
+        <v>1.1801</v>
       </c>
       <c r="J61" t="n">
-        <v>1.025</v>
+        <v>1.173</v>
       </c>
       <c r="K61" t="n">
-        <v>0.004699999999999926</v>
+        <v>0.002050000000000107</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.006800000000000139</v>
+        <v>0.001699999999999813</v>
       </c>
       <c r="N61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.1</v>
+        <v>-1.78</v>
       </c>
       <c r="F62" t="n">
-        <v>43.59</v>
+        <v>10.69</v>
       </c>
       <c r="G62" t="n">
-        <v>14.15</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
-        <v>0.551</v>
+        <v>1.37</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5650000000000001</v>
+        <v>1.38283</v>
       </c>
       <c r="J62" t="n">
-        <v>0.548</v>
+        <v>1.375</v>
       </c>
       <c r="K62" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.001699999999999924</v>
+        <v>-0.001100000000000323</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="E63" t="n">
-        <v>-3.17</v>
+        <v>-2.78</v>
       </c>
       <c r="F63" t="n">
-        <v>55.86</v>
+        <v>15.35</v>
       </c>
       <c r="G63" t="n">
-        <v>48</v>
+        <v>19.61</v>
       </c>
       <c r="H63" t="n">
-        <v>1.117</v>
+        <v>1.708</v>
       </c>
       <c r="I63" t="n">
-        <v>1.147</v>
+        <v>1.687</v>
       </c>
       <c r="J63" t="n">
-        <v>1.1</v>
+        <v>1.66</v>
       </c>
       <c r="K63" t="n">
-        <v>0.009000000000000119</v>
+        <v>0.00515000000000021</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.004000000000000448</v>
+        <v>0.005300000000000082</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,98 +508,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.99</v>
+        <v>1.27</v>
       </c>
       <c r="E2" t="n">
-        <v>2.71</v>
+        <v>5.82</v>
       </c>
       <c r="F2" t="n">
-        <v>15.59</v>
+        <v>27.68</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
-        <v>0.953</v>
+        <v>1.206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9576</v>
+        <v>1.2058</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9419999999999999</v>
+        <v>1.179</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003999999999999893</v>
+        <v>0.008750000000000036</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003499999999999948</v>
+        <v>0.006399999999999739</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="E3" t="n">
-        <v>2.52</v>
+        <v>4.37</v>
       </c>
       <c r="F3" t="n">
-        <v>4.33</v>
+        <v>10.08</v>
       </c>
       <c r="G3" t="n">
-        <v>3.33</v>
+        <v>11.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364</v>
+        <v>1.077</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3545</v>
+        <v>1.0657</v>
       </c>
       <c r="J3" t="n">
-        <v>1.314</v>
+        <v>1.057</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01095000000000002</v>
+        <v>0.006199999999999983</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01130000000000009</v>
+        <v>0.01090000000000013</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.54</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
-        <v>1.58</v>
+        <v>2.87</v>
       </c>
       <c r="F4" t="n">
-        <v>6.19</v>
+        <v>10.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="H4" t="n">
-        <v>1.483</v>
+        <v>0.829</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4791</v>
+        <v>0.8298</v>
       </c>
       <c r="J4" t="n">
-        <v>1.471</v>
+        <v>0.825</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.003199999999999981</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007100000000000106</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,48 +658,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.51</v>
+        <v>0.67</v>
       </c>
       <c r="E5" t="n">
-        <v>1.55</v>
+        <v>2.43</v>
       </c>
       <c r="F5" t="n">
-        <v>10.31</v>
+        <v>-10.96</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18</v>
+        <v>7.19</v>
       </c>
       <c r="H5" t="n">
-        <v>1.47</v>
+        <v>0.652</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4731</v>
+        <v>0.6482</v>
       </c>
       <c r="J5" t="n">
-        <v>1.477</v>
+        <v>0.648</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00120000000000009</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.99</v>
+        <v>1.45</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02</v>
+        <v>2.18</v>
       </c>
       <c r="F6" t="n">
-        <v>-12.62</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>0.982</v>
+        <v>1.373</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9847999999999999</v>
+        <v>1.3618</v>
       </c>
       <c r="J6" t="n">
-        <v>0.986</v>
+        <v>1.323</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000500000000000056</v>
+        <v>0.01159999999999983</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.000500000000000056</v>
+        <v>0.01160000000000005</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.61</v>
+        <v>-1.06</v>
       </c>
       <c r="G7" t="n">
-        <v>8.31</v>
+        <v>1.12</v>
       </c>
       <c r="H7" t="n">
-        <v>1.579</v>
+        <v>0.54</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5728</v>
+        <v>0.536</v>
       </c>
       <c r="J7" t="n">
-        <v>1.572</v>
+        <v>0.534</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.001950000000000007</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004299999999999971</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.09</v>
+        <v>1.14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.97</v>
+        <v>1.79</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.28</v>
+        <v>56.69</v>
       </c>
       <c r="G8" t="n">
-        <v>5.69</v>
+        <v>51.07</v>
       </c>
       <c r="H8" t="n">
-        <v>2.046</v>
+        <v>1.14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.0402</v>
+        <v>1.1412</v>
       </c>
       <c r="J8" t="n">
-        <v>2.033</v>
+        <v>1.119</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004650000000000265</v>
+        <v>0.008250000000000091</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004399999999999959</v>
+        <v>-0.008599999999999941</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.66</v>
+        <v>1.23</v>
       </c>
       <c r="E9" t="n">
-        <v>0.92</v>
+        <v>1.73</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.08</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>6.29</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.646</v>
+        <v>1.186</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6466000000000001</v>
+        <v>1.1772</v>
       </c>
       <c r="J9" t="n">
-        <v>0.647</v>
+        <v>1.173</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006500000000000394</v>
+        <v>0.004750000000000032</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000400000000000067</v>
+        <v>0.00550000000000006</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.18</v>
+        <v>0.97</v>
       </c>
       <c r="E10" t="n">
-        <v>0.86</v>
+        <v>1.68</v>
       </c>
       <c r="F10" t="n">
-        <v>6.71</v>
+        <v>4.07</v>
       </c>
       <c r="G10" t="n">
-        <v>2.06</v>
+        <v>0.39</v>
       </c>
       <c r="H10" t="n">
-        <v>1.127</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1266</v>
+        <v>0.9355</v>
       </c>
       <c r="J10" t="n">
-        <v>1.124</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004499999999999948</v>
+        <v>0.001649999999999929</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004999999999999893</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="E11" t="n">
-        <v>0.84</v>
+        <v>1.61</v>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>1.187</v>
+        <v>0.856</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1945</v>
+        <v>0.8526999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>1.198</v>
+        <v>0.859</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001500000000000057</v>
+        <v>0.001799999999999913</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.73</v>
+        <v>1.55</v>
       </c>
       <c r="F12" t="n">
-        <v>5.47</v>
+        <v>3.96</v>
       </c>
       <c r="G12" t="n">
-        <v>7.82</v>
+        <v>12.14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.057</v>
+        <v>1.021</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0557</v>
+        <v>1.0085</v>
       </c>
       <c r="J12" t="n">
-        <v>1.051</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003249999999999975</v>
+        <v>0.002999999999999892</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005100000000000104</v>
+        <v>0.005300000000000082</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.72</v>
+        <v>1.53</v>
       </c>
       <c r="F13" t="n">
-        <v>4.04</v>
+        <v>8.34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.247</v>
+        <v>1.14</v>
       </c>
       <c r="I13" t="n">
-        <v>1.2514</v>
+        <v>1.1315</v>
       </c>
       <c r="J13" t="n">
-        <v>1.235</v>
+        <v>1.129</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003049999999999997</v>
+        <v>0.005750000000000144</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001299999999999635</v>
+        <v>0.006799999999999917</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="E14" t="n">
-        <v>0.68</v>
+        <v>1.53</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.54</v>
+        <v>1.22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="H14" t="n">
-        <v>0.862</v>
+        <v>0.324</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8568</v>
+        <v>0.3253</v>
       </c>
       <c r="J14" t="n">
-        <v>0.851</v>
+        <v>0.329</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002900000000000014</v>
+        <v>-0.0005999999999999339</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>2.13</v>
       </c>
       <c r="E15" t="n">
-        <v>0.67</v>
+        <v>1.52</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.66</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
-        <v>0.12</v>
+        <v>22.56</v>
       </c>
       <c r="H15" t="n">
-        <v>0.594</v>
+        <v>2.054</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5963999999999999</v>
+        <v>2.0393</v>
       </c>
       <c r="J15" t="n">
-        <v>0.594</v>
+        <v>2.025</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.008550000000000058</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0.008999999999999897</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="E16" t="n">
-        <v>0.63</v>
+        <v>1.49</v>
       </c>
       <c r="F16" t="n">
-        <v>2.36</v>
+        <v>3.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0.31</v>
+        <v>3.16</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9320000000000001</v>
+        <v>1.128</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9319000000000001</v>
+        <v>1.1146</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.117</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0006500000000001505</v>
+        <v>0.003049999999999997</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>9.999999999987796e-05</v>
+        <v>0.005800000000000027</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="E17" t="n">
-        <v>0.58</v>
+        <v>1.47</v>
       </c>
       <c r="F17" t="n">
-        <v>4.39</v>
+        <v>0.42</v>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>7.23</v>
       </c>
       <c r="H17" t="n">
-        <v>1.175</v>
+        <v>0.925</v>
       </c>
       <c r="I17" t="n">
-        <v>1.1723</v>
+        <v>0.9177</v>
       </c>
       <c r="J17" t="n">
-        <v>1.169</v>
+        <v>0.909</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00374999999999992</v>
+        <v>0.004050000000000109</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.55</v>
+        <v>1.06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.55</v>
+        <v>1.44</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.83</v>
+        <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.67</v>
+        <v>29.06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.535</v>
+        <v>1.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5336000000000001</v>
+        <v>1.024</v>
       </c>
       <c r="J18" t="n">
-        <v>0.532</v>
+        <v>1.031</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001499999999999946</v>
+        <v>0.001849999999999907</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.003300000000000081</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.95</v>
+        <v>1.14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.04</v>
+        <v>12.96</v>
       </c>
       <c r="G19" t="n">
-        <v>8.32</v>
+        <v>0.43</v>
       </c>
       <c r="H19" t="n">
-        <v>0.913</v>
+        <v>1.117</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9128000000000001</v>
+        <v>1.1126</v>
       </c>
       <c r="J19" t="n">
-        <v>0.904</v>
+        <v>1.113</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003300000000000081</v>
+        <v>0.002249999999999863</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003799999999999915</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="E20" t="n">
-        <v>0.49</v>
+        <v>1.32</v>
       </c>
       <c r="F20" t="n">
-        <v>2.38</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>12.95</v>
+        <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>1.009</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>1.002</v>
+        <v>0.8013999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.006</v>
+        <v>0.799</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001650000000000151</v>
+        <v>0.004249999999999976</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.005699999999999816</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.11</v>
+        <v>0.48</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>1.26</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.81</v>
+        <v>-1.03</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="H21" t="n">
-        <v>1.104</v>
+        <v>0.474</v>
       </c>
       <c r="I21" t="n">
-        <v>1.11</v>
+        <v>0.4748</v>
       </c>
       <c r="J21" t="n">
-        <v>1.108</v>
+        <v>0.481</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0.0003499999999999615</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.002100000000000213</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.43</v>
+        <v>1.08</v>
       </c>
       <c r="F22" t="n">
-        <v>3.31</v>
+        <v>43.85</v>
       </c>
       <c r="G22" t="n">
-        <v>1.99</v>
+        <v>15.07</v>
       </c>
       <c r="H22" t="n">
-        <v>3.163</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1708</v>
+        <v>0.5619</v>
       </c>
       <c r="J22" t="n">
-        <v>3.163</v>
+        <v>0.555</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006799999999999695</v>
+        <v>0.002949999999999897</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004999999999999893</v>
+        <v>-0.003800000000000026</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42</v>
+        <v>1.07</v>
       </c>
       <c r="F23" t="n">
-        <v>7.21</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.708</v>
+        <v>0.651</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7142999999999999</v>
+        <v>0.6501</v>
       </c>
       <c r="J23" t="n">
-        <v>0.712</v>
+        <v>0.654</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.002099999999999991</v>
+        <v>-0.001600000000000046</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.1</v>
+        <v>0.58</v>
       </c>
       <c r="E24" t="n">
-        <v>0.38</v>
+        <v>1.05</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05</v>
+        <v>-2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>23.89</v>
+        <v>0.02</v>
       </c>
       <c r="H24" t="n">
-        <v>2.027</v>
+        <v>0.574</v>
       </c>
       <c r="I24" t="n">
-        <v>2.0294</v>
+        <v>0.5766</v>
       </c>
       <c r="J24" t="n">
-        <v>2.016</v>
+        <v>0.583</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006650000000000045</v>
+        <v>0.0009000000000000119</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006199999999999761</v>
+        <v>-0.00219999999999998</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="E25" t="n">
-        <v>0.35</v>
+        <v>1.02</v>
       </c>
       <c r="F25" t="n">
-        <v>1.51</v>
+        <v>-1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>4.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1.115</v>
+        <v>0.869</v>
       </c>
       <c r="I25" t="n">
-        <v>1.108</v>
+        <v>0.8609</v>
       </c>
       <c r="J25" t="n">
-        <v>1.113</v>
+        <v>0.854</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001599999999999824</v>
+        <v>0.003149999999999986</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002800000000000136</v>
+        <v>0.004099999999999993</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.57</v>
+        <v>3.27</v>
       </c>
       <c r="E26" t="n">
-        <v>0.35</v>
+        <v>0.89</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.38</v>
+        <v>4.24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
-        <v>0.57</v>
+        <v>3.191</v>
       </c>
       <c r="I26" t="n">
-        <v>0.578</v>
+        <v>3.1788</v>
       </c>
       <c r="J26" t="n">
-        <v>0.582</v>
+        <v>3.172</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.008450000000000291</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.002299999999999969</v>
+        <v>0.00749999999999984</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
       <c r="E27" t="n">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="F27" t="n">
-        <v>7.24</v>
+        <v>1.94</v>
       </c>
       <c r="G27" t="n">
-        <v>0.11</v>
+        <v>4.51</v>
       </c>
       <c r="H27" t="n">
-        <v>0.644</v>
+        <v>0.366</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6509</v>
+        <v>0.3674</v>
       </c>
       <c r="J27" t="n">
-        <v>0.651</v>
+        <v>0.372</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001399999999999957</v>
+        <v>0.000150000000000039</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.001399999999999957</v>
+        <v>-0.001299999999999968</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.33</v>
+        <v>1.56</v>
       </c>
       <c r="E28" t="n">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.31</v>
+        <v>7.02</v>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>1.86</v>
       </c>
       <c r="H28" t="n">
-        <v>0.323</v>
+        <v>1.49</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3261</v>
+        <v>1.4826</v>
       </c>
       <c r="J28" t="n">
-        <v>0.329</v>
+        <v>1.473</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003000000000000225</v>
+        <v>0.005249999999999977</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0004000000000000115</v>
+        <v>0.00890000000000013</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="E29" t="n">
-        <v>0.29</v>
+        <v>0.73</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.83</v>
+        <v>5.32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.13</v>
+        <v>1.24</v>
       </c>
       <c r="H29" t="n">
-        <v>1.02</v>
+        <v>1.098</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0205</v>
+        <v>1.0909</v>
       </c>
       <c r="J29" t="n">
-        <v>1.022</v>
+        <v>1.085</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0006500000000000394</v>
+        <v>0.002350000000000074</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.49</v>
+        <v>1.63</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="F30" t="n">
-        <v>18.23</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>24.02</v>
+        <v>7.73</v>
       </c>
       <c r="H30" t="n">
-        <v>0.482</v>
+        <v>1.588</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4858</v>
+        <v>1.5762</v>
       </c>
       <c r="J30" t="n">
-        <v>0.484</v>
+        <v>1.574</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00109999999999999</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.001300000000000023</v>
+        <v>0.005900000000000016</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>124.83</v>
+        <v>1.45</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="F31" t="n">
-        <v>1.77</v>
+        <v>-3.52</v>
       </c>
       <c r="G31" t="n">
-        <v>60.16</v>
+        <v>0.17</v>
       </c>
       <c r="H31" t="n">
-        <v>125.001</v>
+        <v>1.435</v>
       </c>
       <c r="I31" t="n">
-        <v>124.6976</v>
+        <v>1.4322</v>
       </c>
       <c r="J31" t="n">
-        <v>123.988</v>
+        <v>1.429</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09369999999998413</v>
+        <v>0.001849999999999907</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06499999999999773</v>
+        <v>0.002299999999999747</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.65</v>
+        <v>1.36</v>
       </c>
       <c r="E32" t="n">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="F32" t="n">
-        <v>5.15</v>
+        <v>-7.05</v>
       </c>
       <c r="G32" t="n">
-        <v>0.13</v>
+        <v>1.08</v>
       </c>
       <c r="H32" t="n">
-        <v>0.65</v>
+        <v>1.334</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6565000000000001</v>
+        <v>1.3364</v>
       </c>
       <c r="J32" t="n">
-        <v>0.659</v>
+        <v>1.344</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.000000000010552e-05</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.002899999999999903</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.59</v>
+        <v>-9.9</v>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>7.31</v>
       </c>
       <c r="H33" t="n">
-        <v>1.324</v>
+        <v>0.556</v>
       </c>
       <c r="I33" t="n">
-        <v>1.3353</v>
+        <v>0.5514</v>
       </c>
       <c r="J33" t="n">
-        <v>1.343</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0005999999999999339</v>
+        <v>-0.001350000000000073</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.001100000000000101</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.96</v>
+        <v>2.1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.8</v>
+        <v>-2.78</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01</v>
+        <v>3.41</v>
       </c>
       <c r="H34" t="n">
-        <v>0.956</v>
+        <v>2.056</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9647</v>
+        <v>2.0437</v>
       </c>
       <c r="J34" t="n">
-        <v>0.974</v>
+        <v>2.036</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0002499999999999725</v>
+        <v>0.004399999999999959</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.003599999999999937</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.04</v>
+        <v>0.61</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.38</v>
+        <v>-0.16</v>
       </c>
       <c r="G35" t="n">
-        <v>26.89</v>
+        <v>0.09</v>
       </c>
       <c r="H35" t="n">
-        <v>1.02</v>
+        <v>0.598</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0199</v>
+        <v>0.5974</v>
       </c>
       <c r="J35" t="n">
-        <v>1.029</v>
+        <v>0.595</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.001299999999999857</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.86</v>
+        <v>2.08</v>
       </c>
       <c r="G36" t="n">
-        <v>16.04</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1.039</v>
+        <v>1.017</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0388</v>
+        <v>1.0122</v>
       </c>
       <c r="J36" t="n">
-        <v>1.027</v>
+        <v>1.009</v>
       </c>
       <c r="K36" t="n">
-        <v>0.004750000000000032</v>
+        <v>0.001800000000000246</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.004899999999999904</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.87</v>
+        <v>3.98</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.11</v>
+        <v>0.48</v>
       </c>
       <c r="F37" t="n">
-        <v>7.82</v>
+        <v>1.24</v>
       </c>
       <c r="G37" t="n">
-        <v>1.73</v>
+        <v>43</v>
       </c>
       <c r="H37" t="n">
-        <v>0.848</v>
+        <v>3.937</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8501999999999998</v>
+        <v>3.933380000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.858</v>
+        <v>3.957</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0002499999999999725</v>
+        <v>0.001900000000000901</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0006999999999999229</v>
+        <v>-0.002600000000000158</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2325,31 +2325,31 @@
         <v>0.62</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.16</v>
+        <v>0.48</v>
       </c>
       <c r="F38" t="n">
-        <v>5.25</v>
+        <v>5.76</v>
       </c>
       <c r="G38" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.603</v>
+        <v>0.61</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6006</v>
+        <v>0.6029</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0008500000000000174</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.21</v>
+        <v>0.46</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.26</v>
+        <v>5.64</v>
       </c>
       <c r="G39" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="H39" t="n">
-        <v>0.47</v>
+        <v>0.653</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4752</v>
+        <v>0.6557999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>0.481</v>
+        <v>0.66</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0002499999999999725</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.002099999999999991</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.83</v>
+        <v>2.81</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.24</v>
+        <v>0.43</v>
       </c>
       <c r="F40" t="n">
-        <v>7.88</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
-        <v>0.87</v>
+        <v>22.11</v>
       </c>
       <c r="H40" t="n">
-        <v>0.82</v>
+        <v>2.789</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8272</v>
+        <v>2.768</v>
       </c>
       <c r="J40" t="n">
-        <v>0.821</v>
+        <v>2.761</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001700000000000146</v>
+        <v>0.003150000000000208</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.000199999999999867</v>
+        <v>0.004999999999999449</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.26</v>
+        <v>0.42</v>
       </c>
       <c r="F41" t="n">
-        <v>19.05</v>
+        <v>2.72</v>
       </c>
       <c r="G41" t="n">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="H41" t="n">
-        <v>1.111</v>
+        <v>1.193</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1157</v>
+        <v>1.1946</v>
       </c>
       <c r="J41" t="n">
-        <v>1.113</v>
+        <v>1.199</v>
       </c>
       <c r="K41" t="n">
-        <v>0.001949999999999896</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.001500000000000057</v>
+        <v>-0.0002000000000002</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.27</v>
+        <v>0.42</v>
       </c>
       <c r="F42" t="n">
-        <v>1.11</v>
+        <v>7.66</v>
       </c>
       <c r="G42" t="n">
-        <v>4.58</v>
+        <v>0.44</v>
       </c>
       <c r="H42" t="n">
-        <v>0.362</v>
+        <v>0.712</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3678</v>
+        <v>0.7139</v>
       </c>
       <c r="J42" t="n">
-        <v>0.371</v>
+        <v>0.714</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0003499999999999615</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.001800000000000024</v>
+        <v>-0.0008000000000000229</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.28</v>
+        <v>0.4</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.12</v>
+        <v>10.75</v>
       </c>
       <c r="G43" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="H43" t="n">
-        <v>1.428</v>
+        <v>1.468</v>
       </c>
       <c r="I43" t="n">
-        <v>1.4291</v>
+        <v>1.4717</v>
       </c>
       <c r="J43" t="n">
-        <v>1.427</v>
+        <v>1.476</v>
       </c>
       <c r="K43" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.002999999999999892</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>1.03</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.29</v>
+        <v>0.39</v>
       </c>
       <c r="F44" t="n">
-        <v>1.58</v>
+        <v>-2.45</v>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>0.06</v>
       </c>
       <c r="H44" t="n">
-        <v>1.01</v>
+        <v>1.023</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0103</v>
+        <v>1.0211</v>
       </c>
       <c r="J44" t="n">
-        <v>1.007</v>
+        <v>1.022</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00175000000000014</v>
+        <v>0.000500000000000167</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.000700000000000145</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,98 +2658,98 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F45" t="n">
-        <v>6.56</v>
+        <v>4.37</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08</v>
+        <v>0.05</v>
       </c>
       <c r="H45" t="n">
-        <v>1.195</v>
+        <v>1.251</v>
       </c>
       <c r="I45" t="n">
-        <v>1.194</v>
+        <v>1.2527</v>
       </c>
       <c r="J45" t="n">
-        <v>1.177</v>
+        <v>1.238</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001350000000000184</v>
+        <v>0.003300000000000081</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001799999999999802</v>
+        <v>0.002199999999999758</v>
       </c>
       <c r="N45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.39</v>
+        <v>0.26</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.42</v>
+        <v>-2.17</v>
       </c>
       <c r="G46" t="n">
-        <v>2.33</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1.518</v>
+        <v>1.17</v>
       </c>
       <c r="I46" t="n">
-        <v>1.5187</v>
+        <v>1.1734</v>
       </c>
       <c r="J46" t="n">
-        <v>1.523</v>
+        <v>1.173</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0008000000000001339</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.000700000000000145</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7</v>
+        <v>-2.82</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02</v>
+        <v>1.54</v>
       </c>
       <c r="H47" t="n">
-        <v>0.986</v>
+        <v>0.793</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9871000000000001</v>
+        <v>0.7933000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.987</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0003999999999999559</v>
+        <v>-0.001499999999999835</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.000200000000000089</v>
+        <v>-0.002399999999999958</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.44</v>
+        <v>0.23</v>
       </c>
       <c r="F48" t="n">
-        <v>11.37</v>
+        <v>5.26</v>
       </c>
       <c r="G48" t="n">
-        <v>0.37</v>
+        <v>1.63</v>
       </c>
       <c r="H48" t="n">
-        <v>1.107</v>
+        <v>0.853</v>
       </c>
       <c r="I48" t="n">
-        <v>1.1098</v>
+        <v>0.8481</v>
       </c>
       <c r="J48" t="n">
-        <v>1.11</v>
+        <v>0.844</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.001799999999999913</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0.000900000000000345</v>
+        <v>0.001199999999999979</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.46</v>
+        <v>0.2</v>
       </c>
       <c r="F49" t="n">
-        <v>5.02</v>
+        <v>18.47</v>
       </c>
       <c r="G49" t="n">
-        <v>2.31</v>
+        <v>13.47</v>
       </c>
       <c r="H49" t="n">
-        <v>0.847</v>
+        <v>0.485</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8462</v>
+        <v>0.4856</v>
       </c>
       <c r="J49" t="n">
-        <v>0.842</v>
+        <v>0.485</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001799999999999802</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.001400000000000068</v>
+        <v>-0.0006000000000000449</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.06</v>
+        <v>-3.7</v>
       </c>
       <c r="G50" t="n">
-        <v>2.29</v>
+        <v>0.02</v>
       </c>
       <c r="H50" t="n">
-        <v>0.791</v>
+        <v>0.959</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7948999999999999</v>
+        <v>0.9621999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.974</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.001300000000000079</v>
+        <v>-0.0001499999999999835</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.003300000000000081</v>
+        <v>-0.00329999999999997</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3.96</v>
+        <v>0.99</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.58</v>
+        <v>0.1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.76</v>
+        <v>-12.53</v>
       </c>
       <c r="G51" t="n">
-        <v>42.59</v>
+        <v>1.65</v>
       </c>
       <c r="H51" t="n">
-        <v>3.908</v>
+        <v>0.985</v>
       </c>
       <c r="I51" t="n">
-        <v>3.93188</v>
+        <v>0.9846</v>
       </c>
       <c r="J51" t="n">
-        <v>3.953</v>
+        <v>0.986</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0006999999999997009</v>
+        <v>0.000199999999999867</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.004399999999999515</v>
+        <v>0.000300000000000078</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.42</v>
+        <v>-0.7</v>
       </c>
       <c r="G52" t="n">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="H52" t="n">
-        <v>1.168</v>
+        <v>0.989</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1724</v>
+        <v>0.9877</v>
       </c>
       <c r="J52" t="n">
-        <v>1.173</v>
+        <v>0.987</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>0.0002499999999998614</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.000400000000000067</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,98 +3058,98 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.55</v>
+        <v>1.19</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-10.39</v>
+        <v>6.56</v>
       </c>
       <c r="G53" t="n">
-        <v>5.13</v>
+        <v>2.36</v>
       </c>
       <c r="H53" t="n">
-        <v>0.552</v>
+        <v>1.195</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5508000000000001</v>
+        <v>1.194</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5639999999999999</v>
+        <v>1.177</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.001699999999999924</v>
+        <v>0.001350000000000184</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.002000000000000002</v>
+        <v>0.001799999999999802</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>4.56</v>
+        <v>-0.42</v>
       </c>
       <c r="G54" t="n">
-        <v>0.96</v>
+        <v>1.46</v>
       </c>
       <c r="H54" t="n">
-        <v>1.089</v>
+        <v>1.522</v>
       </c>
       <c r="I54" t="n">
-        <v>1.0879</v>
+        <v>1.5179</v>
       </c>
       <c r="J54" t="n">
-        <v>1.083</v>
+        <v>1.523</v>
       </c>
       <c r="K54" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.001099999999999879</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.83</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>6.64</v>
+        <v>15.59</v>
       </c>
       <c r="G55" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="H55" t="n">
-        <v>0.795</v>
+        <v>0.956</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7947</v>
+        <v>0.9568999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>0.794</v>
+        <v>0.944</v>
       </c>
       <c r="K55" t="n">
-        <v>0.002799999999999914</v>
+        <v>0.003999999999999893</v>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003399999999999959</v>
+        <v>0.002399999999999847</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.89</v>
+        <v>-0.12</v>
       </c>
       <c r="F56" t="n">
-        <v>42.31</v>
+        <v>15.22</v>
       </c>
       <c r="G56" t="n">
-        <v>17.7</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>0.554</v>
+        <v>1.72</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5645</v>
+        <v>1.6951</v>
       </c>
       <c r="J56" t="n">
-        <v>0.551</v>
+        <v>1.667</v>
       </c>
       <c r="K56" t="n">
-        <v>0.002900000000000014</v>
+        <v>0.005250000000000199</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.001400000000000068</v>
+        <v>0.004700000000000149</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.2</v>
+        <v>7.31</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.99</v>
+        <v>-0.16</v>
       </c>
       <c r="F57" t="n">
-        <v>20.66</v>
+        <v>23.38</v>
       </c>
       <c r="G57" t="n">
-        <v>1.04</v>
+        <v>24.58</v>
       </c>
       <c r="H57" t="n">
-        <v>1.187</v>
+        <v>7.395</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1981</v>
+        <v>7.4592</v>
       </c>
       <c r="J57" t="n">
-        <v>1.17</v>
+        <v>7.445</v>
       </c>
       <c r="K57" t="n">
-        <v>0.004750000000000032</v>
+        <v>-0.003250000000000419</v>
       </c>
       <c r="L57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001399999999999846</v>
+        <v>-0.01869999999999994</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,98 +3308,98 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7.33</v>
+        <v>1.19</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.07</v>
+        <v>-0.17</v>
       </c>
       <c r="F58" t="n">
-        <v>23.58</v>
+        <v>5.52</v>
       </c>
       <c r="G58" t="n">
-        <v>33.45</v>
+        <v>4.98</v>
       </c>
       <c r="H58" t="n">
-        <v>7.413</v>
+        <v>1.191</v>
       </c>
       <c r="I58" t="n">
-        <v>7.4717</v>
+        <v>1.1826</v>
       </c>
       <c r="J58" t="n">
-        <v>7.446</v>
+        <v>1.175</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.001800000000000246</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.009799999999999365</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.79</v>
+        <v>1.09</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.1</v>
+        <v>-0.18</v>
       </c>
       <c r="F59" t="n">
-        <v>2.08</v>
+        <v>-3.04</v>
       </c>
       <c r="G59" t="n">
-        <v>20.68</v>
+        <v>8.4</v>
       </c>
       <c r="H59" t="n">
-        <v>2.765</v>
+        <v>1.057</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7588</v>
+        <v>1.0456</v>
       </c>
       <c r="J59" t="n">
-        <v>2.756</v>
+        <v>1.033</v>
       </c>
       <c r="K59" t="n">
-        <v>0.002000000000000224</v>
+        <v>0.00495000000000001</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002799999999999692</v>
+        <v>0.004999999999999893</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.24</v>
+        <v>-0.22</v>
       </c>
       <c r="F60" t="n">
-        <v>53.93</v>
+        <v>10.45</v>
       </c>
       <c r="G60" t="n">
-        <v>48.74</v>
+        <v>0.51</v>
       </c>
       <c r="H60" t="n">
-        <v>1.121</v>
+        <v>1.373</v>
       </c>
       <c r="I60" t="n">
-        <v>1.1451</v>
+        <v>1.38423</v>
       </c>
       <c r="J60" t="n">
-        <v>1.108</v>
+        <v>1.378</v>
       </c>
       <c r="K60" t="n">
-        <v>0.007000000000000117</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.004799999999999915</v>
+        <v>-0.001499999999999835</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,98 +3458,98 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.49</v>
+        <v>-0.27</v>
       </c>
       <c r="F61" t="n">
-        <v>5.69</v>
+        <v>-4.07</v>
       </c>
       <c r="G61" t="n">
-        <v>9.369999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="H61" t="n">
-        <v>1.186</v>
+        <v>1.107</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1801</v>
+        <v>1.1093</v>
       </c>
       <c r="J61" t="n">
-        <v>1.173</v>
+        <v>1.11</v>
       </c>
       <c r="K61" t="n">
-        <v>0.002050000000000107</v>
+        <v>0.0009499999999997844</v>
       </c>
       <c r="L61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.001699999999999813</v>
+        <v>-0.001000000000000112</v>
       </c>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.38</v>
+        <v>124.27</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.78</v>
+        <v>-0.46</v>
       </c>
       <c r="F62" t="n">
-        <v>10.69</v>
+        <v>1.31</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>69.12</v>
       </c>
       <c r="H62" t="n">
-        <v>1.37</v>
+        <v>124.754</v>
       </c>
       <c r="I62" t="n">
-        <v>1.38283</v>
+        <v>124.6544</v>
       </c>
       <c r="J62" t="n">
-        <v>1.375</v>
+        <v>124.028</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001749999999999918</v>
+        <v>0.06445000000000789</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.001100000000000323</v>
+        <v>0.004599999999982174</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.71</v>
+        <v>1.12</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.78</v>
+        <v>-0.53</v>
       </c>
       <c r="F63" t="n">
-        <v>15.35</v>
+        <v>18.42</v>
       </c>
       <c r="G63" t="n">
-        <v>19.61</v>
+        <v>2.01</v>
       </c>
       <c r="H63" t="n">
-        <v>1.708</v>
+        <v>1.12</v>
       </c>
       <c r="I63" t="n">
-        <v>1.687</v>
+        <v>1.1159</v>
       </c>
       <c r="J63" t="n">
-        <v>1.66</v>
+        <v>1.115</v>
       </c>
       <c r="K63" t="n">
-        <v>0.00515000000000021</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.005300000000000082</v>
+        <v>-0.00120000000000009</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,98 +508,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="E2" t="n">
-        <v>5.82</v>
+        <v>2.9</v>
       </c>
       <c r="F2" t="n">
-        <v>27.68</v>
+        <v>61.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>59.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.206</v>
+        <v>1.148</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2058</v>
+        <v>1.1318</v>
       </c>
       <c r="J2" t="n">
-        <v>1.179</v>
+        <v>1.131</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008750000000000036</v>
+        <v>0.007500000000000062</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006399999999999739</v>
+        <v>-0.001000000000000112</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>0.67</v>
       </c>
       <c r="E3" t="n">
-        <v>4.37</v>
+        <v>1.97</v>
       </c>
       <c r="F3" t="n">
-        <v>10.08</v>
+        <v>10.53</v>
       </c>
       <c r="G3" t="n">
-        <v>11.02</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.077</v>
+        <v>0.657</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0657</v>
+        <v>0.6499</v>
       </c>
       <c r="J3" t="n">
-        <v>1.057</v>
+        <v>0.656</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006199999999999983</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01090000000000013</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="E4" t="n">
-        <v>2.87</v>
+        <v>1.96</v>
       </c>
       <c r="F4" t="n">
-        <v>10.98</v>
+        <v>46.67</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>8.99</v>
       </c>
       <c r="H4" t="n">
-        <v>0.829</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8298</v>
+        <v>0.5581</v>
       </c>
       <c r="J4" t="n">
-        <v>0.825</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003199999999999981</v>
+        <v>0.002550000000000052</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001800000000000024</v>
+        <v>-0.0008999999999999009</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,98 +658,98 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>1.74</v>
       </c>
       <c r="E5" t="n">
-        <v>2.43</v>
+        <v>1.52</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.96</v>
+        <v>16.97</v>
       </c>
       <c r="G5" t="n">
-        <v>7.19</v>
+        <v>7.03</v>
       </c>
       <c r="H5" t="n">
-        <v>0.652</v>
+        <v>1.737</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6482</v>
+        <v>1.7136</v>
       </c>
       <c r="J5" t="n">
-        <v>0.648</v>
+        <v>1.681</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.006249999999999645</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.007000000000000117</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="E6" t="n">
-        <v>2.18</v>
+        <v>1.26</v>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>5.69</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.373</v>
+        <v>1.258</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3618</v>
+        <v>1.2541</v>
       </c>
       <c r="J6" t="n">
-        <v>1.323</v>
+        <v>1.243</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01159999999999983</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01160000000000005</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="E7" t="n">
-        <v>1.82</v>
+        <v>1.13</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.06</v>
+        <v>24.78</v>
       </c>
       <c r="G7" t="n">
-        <v>1.12</v>
+        <v>25.64</v>
       </c>
       <c r="H7" t="n">
-        <v>0.54</v>
+        <v>7.379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.536</v>
+        <v>7.4262</v>
       </c>
       <c r="J7" t="n">
-        <v>0.534</v>
+        <v>7.453</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001950000000000007</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002599999999999936</v>
+        <v>-0.0163000000000002</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.79</v>
+        <v>1.12</v>
       </c>
       <c r="F8" t="n">
-        <v>56.69</v>
+        <v>16.88</v>
       </c>
       <c r="G8" t="n">
-        <v>51.07</v>
+        <v>0.26</v>
       </c>
       <c r="H8" t="n">
-        <v>1.14</v>
+        <v>0.963</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1412</v>
+        <v>0.9573</v>
       </c>
       <c r="J8" t="n">
-        <v>1.119</v>
+        <v>0.947</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008250000000000091</v>
+        <v>0.004349999999999965</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.008599999999999941</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="E9" t="n">
-        <v>1.73</v>
+        <v>1.11</v>
       </c>
       <c r="F9" t="n">
-        <v>6.2</v>
+        <v>-1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>0.59</v>
       </c>
       <c r="H9" t="n">
-        <v>1.186</v>
+        <v>1.177</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1772</v>
+        <v>1.1753</v>
       </c>
       <c r="J9" t="n">
         <v>1.173</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004750000000000032</v>
+        <v>0.000600000000000156</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00550000000000006</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.97</v>
+        <v>0.49</v>
       </c>
       <c r="E10" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="F10" t="n">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.478</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9355</v>
+        <v>0.4752</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.482</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001649999999999929</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.0007999999999999674</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.88</v>
+        <v>1.22</v>
       </c>
       <c r="E11" t="n">
-        <v>1.61</v>
+        <v>0.99</v>
       </c>
       <c r="F11" t="n">
-        <v>9.550000000000001</v>
+        <v>3.74</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>0.856</v>
+        <v>1.202</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8526999999999999</v>
+        <v>1.1948</v>
       </c>
       <c r="J11" t="n">
-        <v>0.859</v>
+        <v>1.198</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.0008499999999997954</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001799999999999913</v>
+        <v>0.002000000000000224</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,98 +1008,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.55</v>
+        <v>0.93</v>
       </c>
       <c r="F12" t="n">
-        <v>3.96</v>
+        <v>6.49</v>
       </c>
       <c r="G12" t="n">
-        <v>12.14</v>
+        <v>3.81</v>
       </c>
       <c r="H12" t="n">
-        <v>1.021</v>
+        <v>1.198</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0085</v>
+        <v>1.1873</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>1.178</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002999999999999892</v>
+        <v>0.002399999999999736</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005300000000000082</v>
+        <v>0.003099999999999881</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.2</v>
+        <v>0.58</v>
       </c>
       <c r="E13" t="n">
-        <v>1.53</v>
+        <v>0.87</v>
       </c>
       <c r="F13" t="n">
-        <v>8.34</v>
+        <v>-1.52</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>0.04</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14</v>
+        <v>0.575</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1315</v>
+        <v>0.5748</v>
       </c>
       <c r="J13" t="n">
-        <v>1.129</v>
+        <v>0.583</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005750000000000144</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006799999999999917</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.33</v>
+        <v>1.54</v>
       </c>
       <c r="E14" t="n">
-        <v>1.53</v>
+        <v>0.72</v>
       </c>
       <c r="F14" t="n">
-        <v>1.22</v>
+        <v>0.29</v>
       </c>
       <c r="G14" t="n">
-        <v>6.02</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>0.324</v>
+        <v>1.528</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3253</v>
+        <v>1.5207</v>
       </c>
       <c r="J14" t="n">
-        <v>0.329</v>
+        <v>1.524</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0004000000000000115</v>
+        <v>0.0009500000000000064</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0005999999999999339</v>
+        <v>0.002600000000000158</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.13</v>
+        <v>0.97</v>
       </c>
       <c r="E15" t="n">
-        <v>1.52</v>
+        <v>0.62</v>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>-3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>22.56</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>2.054</v>
+        <v>0.964</v>
       </c>
       <c r="I15" t="n">
-        <v>2.0393</v>
+        <v>0.9606</v>
       </c>
       <c r="J15" t="n">
-        <v>2.025</v>
+        <v>0.973</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008550000000000058</v>
+        <v>-0.000300000000000078</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008999999999999897</v>
+        <v>-9.999999999987796e-05</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.16</v>
+        <v>0.33</v>
       </c>
       <c r="E16" t="n">
-        <v>1.49</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
-        <v>3.02</v>
+        <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>3.16</v>
+        <v>4.84</v>
       </c>
       <c r="H16" t="n">
-        <v>1.128</v>
+        <v>0.327</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1146</v>
+        <v>0.3244</v>
       </c>
       <c r="J16" t="n">
-        <v>1.117</v>
+        <v>0.329</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003049999999999997</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005800000000000027</v>
+        <v>0.0001000000000000445</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.96</v>
+        <v>1.38</v>
       </c>
       <c r="E17" t="n">
-        <v>1.47</v>
+        <v>0.58</v>
       </c>
       <c r="F17" t="n">
-        <v>0.42</v>
+        <v>11.09</v>
       </c>
       <c r="G17" t="n">
-        <v>7.23</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.925</v>
+        <v>1.39</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9177</v>
+        <v>1.38413</v>
       </c>
       <c r="J17" t="n">
-        <v>0.909</v>
+        <v>1.382</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004050000000000109</v>
+        <v>0.001499999999999835</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004599999999999937</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
       <c r="E18" t="n">
-        <v>1.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>8.26</v>
       </c>
       <c r="G18" t="n">
-        <v>29.06</v>
+        <v>0.37</v>
       </c>
       <c r="H18" t="n">
-        <v>1.031</v>
+        <v>0.712</v>
       </c>
       <c r="I18" t="n">
-        <v>1.024</v>
+        <v>0.7127</v>
       </c>
       <c r="J18" t="n">
-        <v>1.031</v>
+        <v>0.715</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001849999999999907</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003300000000000081</v>
+        <v>-0.000299999999999967</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.14</v>
+        <v>0.37</v>
       </c>
       <c r="E19" t="n">
-        <v>1.42</v>
+        <v>0.54</v>
       </c>
       <c r="F19" t="n">
-        <v>12.96</v>
+        <v>2.49</v>
       </c>
       <c r="G19" t="n">
-        <v>0.43</v>
+        <v>3.57</v>
       </c>
       <c r="H19" t="n">
-        <v>1.117</v>
+        <v>0.367</v>
       </c>
       <c r="I19" t="n">
-        <v>1.1126</v>
+        <v>0.3654</v>
       </c>
       <c r="J19" t="n">
-        <v>1.113</v>
+        <v>0.371</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002249999999999863</v>
+        <v>-0.0001499999999999835</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001700000000000035</v>
+        <v>-0.0004000000000000115</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="E20" t="n">
-        <v>1.32</v>
+        <v>0.48</v>
       </c>
       <c r="F20" t="n">
-        <v>8.050000000000001</v>
+        <v>-1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8013999999999999</v>
+        <v>1.0239</v>
       </c>
       <c r="J20" t="n">
-        <v>0.799</v>
+        <v>1.023</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004249999999999976</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005699999999999816</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,48 +1458,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.48</v>
+        <v>1.11</v>
       </c>
       <c r="E21" t="n">
-        <v>1.26</v>
+        <v>0.45</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.03</v>
+        <v>5.79</v>
       </c>
       <c r="G21" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="H21" t="n">
-        <v>0.474</v>
+        <v>1.106</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4748</v>
+        <v>1.0949</v>
       </c>
       <c r="J21" t="n">
-        <v>0.481</v>
+        <v>1.089</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003499999999999615</v>
+        <v>0.002050000000000107</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.002199999999999758</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="E22" t="n">
-        <v>1.08</v>
+        <v>0.35</v>
       </c>
       <c r="F22" t="n">
-        <v>43.85</v>
+        <v>5.63</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07</v>
+        <v>1.56</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5619</v>
+        <v>0.8513999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>0.555</v>
+        <v>0.847</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002949999999999897</v>
+        <v>0.001450000000000062</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.003800000000000026</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.66</v>
+        <v>3.28</v>
       </c>
       <c r="E23" t="n">
-        <v>1.07</v>
+        <v>0.31</v>
       </c>
       <c r="F23" t="n">
-        <v>8.390000000000001</v>
+        <v>4.56</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H23" t="n">
-        <v>0.651</v>
+        <v>3.236</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6501</v>
+        <v>3.1918</v>
       </c>
       <c r="J23" t="n">
-        <v>0.654</v>
+        <v>3.182</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.007750000000000146</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.001600000000000046</v>
+        <v>0.009700000000000042</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.58</v>
+        <v>0.99</v>
       </c>
       <c r="E24" t="n">
-        <v>1.05</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.36</v>
+        <v>-0.4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H24" t="n">
-        <v>0.574</v>
+        <v>0.99</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5766</v>
+        <v>0.9879</v>
       </c>
       <c r="J24" t="n">
-        <v>0.583</v>
+        <v>0.987</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0009000000000000119</v>
+        <v>-4.999999999999449e-05</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.00219999999999998</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="E25" t="n">
-        <v>1.02</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.54</v>
+        <v>5.96</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H25" t="n">
-        <v>0.869</v>
+        <v>0.655</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8609</v>
+        <v>0.6536000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.854</v>
+        <v>0.66</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003149999999999986</v>
+        <v>0.0001499999999999835</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004099999999999993</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.27</v>
+        <v>124.58</v>
       </c>
       <c r="E26" t="n">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>4.24</v>
+        <v>1.57</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>3.191</v>
+        <v>124.676</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1788</v>
+        <v>124.7202</v>
       </c>
       <c r="J26" t="n">
-        <v>3.172</v>
+        <v>124.158</v>
       </c>
       <c r="K26" t="n">
-        <v>0.008450000000000291</v>
+        <v>0.1132499999999936</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00749999999999984</v>
+        <v>0.03379999999999939</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.37</v>
+        <v>1.19</v>
       </c>
       <c r="E27" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="F27" t="n">
-        <v>1.94</v>
+        <v>6.74</v>
       </c>
       <c r="G27" t="n">
-        <v>4.51</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.366</v>
+        <v>1.192</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3674</v>
+        <v>1.1873</v>
       </c>
       <c r="J27" t="n">
-        <v>0.372</v>
+        <v>1.186</v>
       </c>
       <c r="K27" t="n">
-        <v>0.000150000000000039</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.001299999999999968</v>
+        <v>-0.001400000000000068</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.56</v>
+        <v>0.61</v>
       </c>
       <c r="E28" t="n">
-        <v>0.78</v>
+        <v>0.17</v>
       </c>
       <c r="F28" t="n">
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.86</v>
+        <v>0.09</v>
       </c>
       <c r="H28" t="n">
-        <v>1.49</v>
+        <v>0.602</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4826</v>
+        <v>0.5974999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>1.473</v>
+        <v>0.597</v>
       </c>
       <c r="K28" t="n">
-        <v>0.005249999999999977</v>
+        <v>0.001250000000000084</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00890000000000013</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.11</v>
+        <v>3.99</v>
       </c>
       <c r="E29" t="n">
-        <v>0.73</v>
+        <v>0.15</v>
       </c>
       <c r="F29" t="n">
-        <v>5.32</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.24</v>
+        <v>25.51</v>
       </c>
       <c r="H29" t="n">
-        <v>1.098</v>
+        <v>3.975</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0909</v>
+        <v>3.93228</v>
       </c>
       <c r="J29" t="n">
-        <v>1.085</v>
+        <v>3.959</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002350000000000074</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001900000000000013</v>
+        <v>0</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="E30" t="n">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-3.39</v>
       </c>
       <c r="G30" t="n">
-        <v>7.73</v>
+        <v>0.21</v>
       </c>
       <c r="H30" t="n">
-        <v>1.588</v>
+        <v>1.444</v>
       </c>
       <c r="I30" t="n">
-        <v>1.5762</v>
+        <v>1.4353</v>
       </c>
       <c r="J30" t="n">
-        <v>1.574</v>
+        <v>1.432</v>
       </c>
       <c r="K30" t="n">
-        <v>0.003100000000000103</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005900000000000016</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.45</v>
+        <v>2.81</v>
       </c>
       <c r="E31" t="n">
-        <v>0.62</v>
+        <v>0.11</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.52</v>
+        <v>2.63</v>
       </c>
       <c r="G31" t="n">
-        <v>0.17</v>
+        <v>12.32</v>
       </c>
       <c r="H31" t="n">
-        <v>1.435</v>
+        <v>2.811</v>
       </c>
       <c r="I31" t="n">
-        <v>1.4322</v>
+        <v>2.7802</v>
       </c>
       <c r="J31" t="n">
-        <v>1.429</v>
+        <v>2.767</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001849999999999907</v>
+        <v>0.003050000000000441</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.002299999999999747</v>
+        <v>0.005699999999999594</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="E32" t="n">
-        <v>0.59</v>
+        <v>0.1</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.05</v>
+        <v>2.17</v>
       </c>
       <c r="G32" t="n">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
       <c r="H32" t="n">
-        <v>1.334</v>
+        <v>1.028</v>
       </c>
       <c r="I32" t="n">
-        <v>1.3364</v>
+        <v>1.0164</v>
       </c>
       <c r="J32" t="n">
-        <v>1.344</v>
+        <v>1.012</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001399999999999846</v>
+        <v>0.001550000000000162</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
       <c r="F33" t="n">
-        <v>-9.9</v>
+        <v>18.53</v>
       </c>
       <c r="G33" t="n">
-        <v>7.31</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.556</v>
+        <v>1.134</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5514</v>
+        <v>1.1195</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5629999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001350000000000073</v>
+        <v>0.002199999999999758</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0.0004999999999997229</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,98 +2108,98 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.1</v>
+        <v>1.27</v>
       </c>
       <c r="E34" t="n">
-        <v>0.53</v>
+        <v>0.08</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.78</v>
+        <v>27.78</v>
       </c>
       <c r="G34" t="n">
-        <v>3.41</v>
+        <v>1.31</v>
       </c>
       <c r="H34" t="n">
-        <v>2.056</v>
+        <v>1.221</v>
       </c>
       <c r="I34" t="n">
-        <v>2.0437</v>
+        <v>1.2048</v>
       </c>
       <c r="J34" t="n">
-        <v>2.036</v>
+        <v>1.189</v>
       </c>
       <c r="K34" t="n">
-        <v>0.004399999999999959</v>
+        <v>0.008250000000000091</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0.006000000000000227</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.61</v>
+        <v>0.79</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.16</v>
+        <v>-2.82</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09</v>
+        <v>1.26</v>
       </c>
       <c r="H35" t="n">
-        <v>0.598</v>
+        <v>0.793</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5974</v>
+        <v>0.7931</v>
       </c>
       <c r="J35" t="n">
-        <v>0.595</v>
+        <v>0.806</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001299999999999857</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.001000000000000112</v>
+        <v>-0.0008000000000000229</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="E36" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.08</v>
+        <v>-12.53</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="H36" t="n">
-        <v>1.017</v>
+        <v>0.986</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0122</v>
+        <v>0.9845</v>
       </c>
       <c r="J36" t="n">
-        <v>1.009</v>
+        <v>0.986</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001800000000000246</v>
+        <v>0.000200000000000089</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.000400000000000067</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.98</v>
+        <v>1.14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.48</v>
+        <v>-0.09</v>
       </c>
       <c r="F37" t="n">
-        <v>1.24</v>
+        <v>12.86</v>
       </c>
       <c r="G37" t="n">
-        <v>43</v>
+        <v>0.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.937</v>
+        <v>1.126</v>
       </c>
       <c r="I37" t="n">
-        <v>3.933380000000001</v>
+        <v>1.115</v>
       </c>
       <c r="J37" t="n">
-        <v>3.957</v>
+        <v>1.114</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001900000000000901</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.002600000000000158</v>
+        <v>0.003300000000000081</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
       <c r="E38" t="n">
-        <v>0.48</v>
+        <v>-0.22</v>
       </c>
       <c r="F38" t="n">
-        <v>5.76</v>
+        <v>-1.76</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6029</v>
+        <v>0.8676</v>
       </c>
       <c r="J38" t="n">
-        <v>0.601</v>
+        <v>0.859</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001099999999999879</v>
+        <v>0.002950000000000008</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.003900000000000015</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.66</v>
+        <v>1.45</v>
       </c>
       <c r="E39" t="n">
-        <v>0.46</v>
+        <v>-0.28</v>
       </c>
       <c r="F39" t="n">
-        <v>5.64</v>
+        <v>6.3</v>
       </c>
       <c r="G39" t="n">
-        <v>0.15</v>
+        <v>1.15</v>
       </c>
       <c r="H39" t="n">
-        <v>0.653</v>
+        <v>1.399</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6557999999999999</v>
+        <v>1.3754</v>
       </c>
       <c r="J39" t="n">
-        <v>0.66</v>
+        <v>1.34</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.01065000000000005</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.009700000000000042</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.81</v>
+        <v>2.1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.43</v>
+        <v>-0.29</v>
       </c>
       <c r="F40" t="n">
-        <v>2.52</v>
+        <v>-3.05</v>
       </c>
       <c r="G40" t="n">
-        <v>22.11</v>
+        <v>2.68</v>
       </c>
       <c r="H40" t="n">
-        <v>2.789</v>
+        <v>2.078</v>
       </c>
       <c r="I40" t="n">
-        <v>2.768</v>
+        <v>2.0538</v>
       </c>
       <c r="J40" t="n">
-        <v>2.761</v>
+        <v>2.042</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003150000000000208</v>
+        <v>0.00480000000000036</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.004999999999999449</v>
+        <v>0.006199999999999761</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.21</v>
+        <v>2.13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.42</v>
+        <v>-0.33</v>
       </c>
       <c r="F41" t="n">
-        <v>2.72</v>
+        <v>1.14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.76</v>
+        <v>14.34</v>
       </c>
       <c r="H41" t="n">
-        <v>1.193</v>
+        <v>2.075</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1946</v>
+        <v>2.0466</v>
       </c>
       <c r="J41" t="n">
-        <v>1.199</v>
+        <v>2.03</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.007050000000000001</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0002000000000002</v>
+        <v>0.01100000000000012</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.72</v>
+        <v>1.14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.42</v>
+        <v>-0.35</v>
       </c>
       <c r="F42" t="n">
-        <v>7.66</v>
+        <v>9.69</v>
       </c>
       <c r="G42" t="n">
-        <v>0.44</v>
+        <v>13.83</v>
       </c>
       <c r="H42" t="n">
-        <v>0.712</v>
+        <v>1.096</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7139</v>
+        <v>1.0725</v>
       </c>
       <c r="J42" t="n">
-        <v>0.714</v>
+        <v>1.061</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.004599999999999937</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0008000000000000229</v>
+        <v>0.008400000000000185</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.51</v>
+        <v>0.49</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="F43" t="n">
-        <v>10.75</v>
+        <v>17.99</v>
       </c>
       <c r="G43" t="n">
-        <v>0.36</v>
+        <v>5.41</v>
       </c>
       <c r="H43" t="n">
-        <v>1.468</v>
+        <v>0.492</v>
       </c>
       <c r="I43" t="n">
-        <v>1.4717</v>
+        <v>0.4866</v>
       </c>
       <c r="J43" t="n">
-        <v>1.476</v>
+        <v>0.487</v>
       </c>
       <c r="K43" t="n">
-        <v>0.001749999999999918</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.002999999999999892</v>
+        <v>-0.0001000000000000445</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="E44" t="n">
-        <v>0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.45</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06</v>
+        <v>6.37</v>
       </c>
       <c r="H44" t="n">
-        <v>1.023</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0211</v>
+        <v>0.9217000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>1.022</v>
+        <v>0.911</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000500000000000167</v>
+        <v>0.003450000000000175</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.000700000000000145</v>
+        <v>0.005400000000000071</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="E45" t="n">
-        <v>0.32</v>
+        <v>-0.43</v>
       </c>
       <c r="F45" t="n">
-        <v>4.37</v>
+        <v>-0.43</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1.251</v>
+        <v>1.606</v>
       </c>
       <c r="I45" t="n">
-        <v>1.2527</v>
+        <v>1.5853</v>
       </c>
       <c r="J45" t="n">
-        <v>1.238</v>
+        <v>1.577</v>
       </c>
       <c r="K45" t="n">
-        <v>0.003300000000000081</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.002199999999999758</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="E46" t="n">
-        <v>0.26</v>
+        <v>-0.45</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.17</v>
+        <v>9.06</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>1.57</v>
       </c>
       <c r="H46" t="n">
-        <v>1.17</v>
+        <v>0.865</v>
       </c>
       <c r="I46" t="n">
-        <v>1.1734</v>
+        <v>0.8548</v>
       </c>
       <c r="J46" t="n">
-        <v>1.173</v>
+        <v>0.859</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="E47" t="n">
-        <v>0.25</v>
+        <v>-0.45</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.82</v>
+        <v>-11.36</v>
       </c>
       <c r="G47" t="n">
-        <v>1.54</v>
+        <v>6.15</v>
       </c>
       <c r="H47" t="n">
-        <v>0.793</v>
+        <v>0.658</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7933000000000001</v>
+        <v>0.6503</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.649</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.001499999999999835</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.002399999999999958</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="E48" t="n">
-        <v>0.23</v>
+        <v>-0.48</v>
       </c>
       <c r="F48" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="G48" t="n">
-        <v>1.63</v>
+        <v>0.18</v>
       </c>
       <c r="H48" t="n">
-        <v>0.853</v>
+        <v>0.617</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8481</v>
+        <v>0.6054</v>
       </c>
       <c r="J48" t="n">
-        <v>0.844</v>
+        <v>0.602</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001799999999999913</v>
+        <v>0.0008499999999999064</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.001199999999999979</v>
+        <v>0.00230000000000008</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.49</v>
+        <v>1.04</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2</v>
+        <v>-0.48</v>
       </c>
       <c r="F49" t="n">
-        <v>18.47</v>
+        <v>3.47</v>
       </c>
       <c r="G49" t="n">
-        <v>13.47</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0.485</v>
+        <v>1.033</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4856</v>
+        <v>1.0147</v>
       </c>
       <c r="J49" t="n">
-        <v>0.485</v>
+        <v>1.012</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0006000000000000449</v>
+        <v>0.004399999999999959</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.96</v>
+        <v>1.35</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1</v>
+        <v>-0.52</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.7</v>
+        <v>-7.52</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02</v>
+        <v>1.02</v>
       </c>
       <c r="H50" t="n">
-        <v>0.959</v>
+        <v>1.347</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9621999999999999</v>
+        <v>1.3363</v>
       </c>
       <c r="J50" t="n">
-        <v>0.974</v>
+        <v>1.344</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0001499999999999835</v>
+        <v>0.0002499999999998614</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.00329999999999997</v>
+        <v>-0.0008999999999999009</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,48 +2958,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.99</v>
+        <v>0.55</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1</v>
+        <v>-0.54</v>
       </c>
       <c r="F51" t="n">
-        <v>-12.53</v>
+        <v>-10.39</v>
       </c>
       <c r="G51" t="n">
-        <v>1.65</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
-        <v>0.985</v>
+        <v>0.554</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9846</v>
+        <v>0.5521</v>
       </c>
       <c r="J51" t="n">
-        <v>0.986</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0.000199999999999867</v>
+        <v>-0.001550000000000051</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.000300000000000078</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.99</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.7</v>
+        <v>-1.59</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03</v>
+        <v>0.49</v>
       </c>
       <c r="H52" t="n">
-        <v>0.989</v>
+        <v>0.544</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9877</v>
+        <v>0.5375</v>
       </c>
       <c r="J52" t="n">
-        <v>0.987</v>
+        <v>0.535</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0002499999999998614</v>
+        <v>0.001550000000000051</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.000400000000000067</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,98 +3058,98 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
       <c r="F53" t="n">
-        <v>6.56</v>
+        <v>-3.57</v>
       </c>
       <c r="G53" t="n">
-        <v>2.36</v>
+        <v>5.59</v>
       </c>
       <c r="H53" t="n">
-        <v>1.195</v>
+        <v>1.083</v>
       </c>
       <c r="I53" t="n">
-        <v>1.194</v>
+        <v>1.0549</v>
       </c>
       <c r="J53" t="n">
-        <v>1.177</v>
+        <v>1.042</v>
       </c>
       <c r="K53" t="n">
-        <v>0.001350000000000184</v>
+        <v>0.004149999999999876</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.001799999999999802</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.53</v>
+        <v>0.96</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-0.62</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.42</v>
+        <v>3.43</v>
       </c>
       <c r="G54" t="n">
-        <v>1.46</v>
+        <v>0.22</v>
       </c>
       <c r="H54" t="n">
-        <v>1.522</v>
+        <v>0.955</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5179</v>
+        <v>0.9394</v>
       </c>
       <c r="J54" t="n">
-        <v>1.523</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0006500000000000394</v>
+        <v>0.0006500000000001505</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>0.003099999999999881</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="F55" t="n">
-        <v>15.59</v>
+        <v>-4.67</v>
       </c>
       <c r="G55" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.956</v>
+        <v>1.108</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9568999999999999</v>
+        <v>1.1061</v>
       </c>
       <c r="J55" t="n">
-        <v>0.944</v>
+        <v>1.11</v>
       </c>
       <c r="K55" t="n">
-        <v>0.003999999999999893</v>
+        <v>0.0001500000000000945</v>
       </c>
       <c r="L55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.002399999999999847</v>
+        <v>-0.002799999999999914</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.12</v>
+        <v>-0.66</v>
       </c>
       <c r="F56" t="n">
-        <v>15.22</v>
+        <v>10.02</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>0.13</v>
       </c>
       <c r="H56" t="n">
-        <v>1.72</v>
+        <v>1.472</v>
       </c>
       <c r="I56" t="n">
-        <v>1.6951</v>
+        <v>1.4724</v>
       </c>
       <c r="J56" t="n">
-        <v>1.667</v>
+        <v>1.476</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005250000000000199</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.004700000000000149</v>
+        <v>0.00319999999999987</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7.31</v>
+        <v>1.15</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.16</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>23.38</v>
+        <v>2.31</v>
       </c>
       <c r="G57" t="n">
-        <v>24.58</v>
+        <v>1.97</v>
       </c>
       <c r="H57" t="n">
-        <v>7.395</v>
+        <v>1.141</v>
       </c>
       <c r="I57" t="n">
-        <v>7.4592</v>
+        <v>1.1216</v>
       </c>
       <c r="J57" t="n">
-        <v>7.445</v>
+        <v>1.119</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.003250000000000419</v>
+        <v>0.002250000000000085</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.01869999999999994</v>
+        <v>0.004899999999999904</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,98 +3308,98 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.19</v>
+        <v>0.85</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.17</v>
+        <v>-0.7</v>
       </c>
       <c r="F58" t="n">
-        <v>5.52</v>
+        <v>10.21</v>
       </c>
       <c r="G58" t="n">
-        <v>4.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1.191</v>
+        <v>0.838</v>
       </c>
       <c r="I58" t="n">
-        <v>1.1826</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>1.175</v>
+        <v>0.828</v>
       </c>
       <c r="K58" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.002549999999999941</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.0005999999999998229</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.18</v>
+        <v>-0.76</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.04</v>
+        <v>0.29</v>
       </c>
       <c r="G59" t="n">
-        <v>8.4</v>
+        <v>22.72</v>
       </c>
       <c r="H59" t="n">
-        <v>1.057</v>
+        <v>1.042</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0456</v>
+        <v>1.0269</v>
       </c>
       <c r="J59" t="n">
-        <v>1.033</v>
+        <v>1.031</v>
       </c>
       <c r="K59" t="n">
-        <v>0.00495000000000001</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.004999999999999893</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.22</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>10.45</v>
+        <v>5.34</v>
       </c>
       <c r="G60" t="n">
-        <v>0.51</v>
+        <v>0.98</v>
       </c>
       <c r="H60" t="n">
-        <v>1.373</v>
+        <v>1.204</v>
       </c>
       <c r="I60" t="n">
-        <v>1.38423</v>
+        <v>1.1848</v>
       </c>
       <c r="J60" t="n">
-        <v>1.378</v>
+        <v>1.179</v>
       </c>
       <c r="K60" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.003949999999999898</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.001499999999999835</v>
+        <v>0.004899999999999904</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.27</v>
+        <v>-1.22</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.07</v>
+        <v>5.71</v>
       </c>
       <c r="G61" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="H61" t="n">
-        <v>1.107</v>
+        <v>1.515</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1093</v>
+        <v>1.4933</v>
       </c>
       <c r="J61" t="n">
-        <v>1.11</v>
+        <v>1.479</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0009499999999997844</v>
+        <v>0.003699999999999815</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.001000000000000112</v>
+        <v>0.006299999999999972</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>124.27</v>
+        <v>1.18</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.46</v>
+        <v>-1.26</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31</v>
+        <v>6.98</v>
       </c>
       <c r="G62" t="n">
-        <v>69.12</v>
+        <v>1.34</v>
       </c>
       <c r="H62" t="n">
-        <v>124.754</v>
+        <v>1.163</v>
       </c>
       <c r="I62" t="n">
-        <v>124.6544</v>
+        <v>1.1394</v>
       </c>
       <c r="J62" t="n">
-        <v>124.028</v>
+        <v>1.135</v>
       </c>
       <c r="K62" t="n">
-        <v>0.06445000000000789</v>
+        <v>0.004199999999999759</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.004599999999982174</v>
+        <v>0.004699999999999926</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.12</v>
+        <v>0.83</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.53</v>
+        <v>-1.42</v>
       </c>
       <c r="F63" t="n">
-        <v>18.42</v>
+        <v>6.51</v>
       </c>
       <c r="G63" t="n">
-        <v>2.01</v>
+        <v>1.02</v>
       </c>
       <c r="H63" t="n">
-        <v>1.12</v>
+        <v>0.83</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1159</v>
+        <v>0.8088000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>1.115</v>
+        <v>0.803</v>
       </c>
       <c r="K63" t="n">
-        <v>0.00154999999999994</v>
+        <v>0.002400000000000069</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.00120000000000009</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9</v>
+        <v>3.69</v>
       </c>
       <c r="F2" t="n">
-        <v>61.24</v>
+        <v>7.57</v>
       </c>
       <c r="G2" t="n">
-        <v>59.8</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.148</v>
+        <v>1.21</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1318</v>
+        <v>1.1988</v>
       </c>
       <c r="J2" t="n">
-        <v>1.131</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007500000000000062</v>
+        <v>0.002850000000000019</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.001000000000000112</v>
+        <v>0.005999999999999783</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.97</v>
+        <v>2.83</v>
       </c>
       <c r="F3" t="n">
-        <v>10.53</v>
+        <v>-8.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1</v>
+        <v>11.9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.657</v>
+        <v>0.662</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6499</v>
+        <v>0.6523</v>
       </c>
       <c r="J3" t="n">
-        <v>0.656</v>
+        <v>0.65</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.002499999999999947</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.004399999999999848</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,48 +608,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>1.01</v>
       </c>
       <c r="E4" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="F4" t="n">
-        <v>46.67</v>
+        <v>-10.94</v>
       </c>
       <c r="G4" t="n">
-        <v>8.99</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5581</v>
+        <v>0.9865</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002550000000000052</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0008999999999999009</v>
+        <v>0.002400000000000069</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -658,98 +658,98 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="E5" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="F5" t="n">
-        <v>16.97</v>
+        <v>-3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.03</v>
+        <v>0.79</v>
       </c>
       <c r="H5" t="n">
-        <v>1.737</v>
+        <v>1.112</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7136</v>
+        <v>1.1081</v>
       </c>
       <c r="J5" t="n">
-        <v>1.681</v>
+        <v>1.111</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006249999999999645</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007000000000000117</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="F6" t="n">
-        <v>5.69</v>
+        <v>8.18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.07</v>
       </c>
       <c r="H6" t="n">
-        <v>1.258</v>
+        <v>1.194</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2541</v>
+        <v>1.1861</v>
       </c>
       <c r="J6" t="n">
-        <v>1.243</v>
+        <v>1.188</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002399999999999958</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.4</v>
+        <v>1.05</v>
       </c>
       <c r="E7" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="F7" t="n">
-        <v>24.78</v>
+        <v>-0.85</v>
       </c>
       <c r="G7" t="n">
-        <v>25.64</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.379</v>
+        <v>1.032</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4262</v>
+        <v>1.0249</v>
       </c>
       <c r="J7" t="n">
-        <v>7.453</v>
+        <v>1.024</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00154999999999994</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0163000000000002</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E8" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="F8" t="n">
-        <v>16.88</v>
+        <v>7.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="H8" t="n">
-        <v>0.963</v>
+        <v>0.657</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9573</v>
+        <v>0.6546000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.947</v>
+        <v>0.661</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004349999999999965</v>
+        <v>0.0006500000000000394</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.0008000000000000229</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="E9" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.09</v>
+        <v>18.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="H9" t="n">
-        <v>1.177</v>
+        <v>0.973</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1753</v>
+        <v>0.9608000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>1.173</v>
+        <v>0.952</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000600000000000156</v>
+        <v>0.005249999999999977</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.004900000000000126</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.49</v>
+        <v>1.55</v>
       </c>
       <c r="E10" t="n">
-        <v>1.04</v>
+        <v>0.72</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G10" t="n">
-        <v>0.28</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>0.478</v>
+        <v>1.532</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4752</v>
+        <v>1.5228</v>
       </c>
       <c r="J10" t="n">
-        <v>0.482</v>
+        <v>1.525</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0005000000000000004</v>
+        <v>0.001249999999999751</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0007999999999999674</v>
+        <v>0.003500000000000059</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.22</v>
+        <v>0.73</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>3.74</v>
+        <v>9.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.202</v>
+        <v>0.716</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1948</v>
+        <v>0.7131999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>1.198</v>
+        <v>0.716</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0008499999999997954</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002000000000000224</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,98 +1008,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.2</v>
+        <v>2.11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F12" t="n">
-        <v>6.49</v>
+        <v>-2.41</v>
       </c>
       <c r="G12" t="n">
-        <v>3.81</v>
+        <v>2.93</v>
       </c>
       <c r="H12" t="n">
-        <v>1.198</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1873</v>
+        <v>2.0548</v>
       </c>
       <c r="J12" t="n">
-        <v>1.178</v>
+        <v>2.043</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002399999999999736</v>
+        <v>0.005300000000000082</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003099999999999881</v>
+        <v>0.007200000000000095</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.58</v>
+        <v>1.29</v>
       </c>
       <c r="E13" t="n">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.52</v>
+        <v>6.35</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H13" t="n">
-        <v>0.575</v>
+        <v>1.26</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5748</v>
+        <v>1.2551</v>
       </c>
       <c r="J13" t="n">
-        <v>0.583</v>
+        <v>1.244</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="E14" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="F14" t="n">
-        <v>0.29</v>
+        <v>-6.98</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="H14" t="n">
-        <v>1.528</v>
+        <v>1.349</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5207</v>
+        <v>1.3373</v>
       </c>
       <c r="J14" t="n">
-        <v>1.524</v>
+        <v>1.345</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0009500000000000064</v>
+        <v>0.0007500000000000284</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002600000000000158</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,98 +1158,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.97</v>
+        <v>1.75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.1</v>
+        <v>17.58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>8.51</v>
       </c>
       <c r="H15" t="n">
-        <v>0.964</v>
+        <v>1.739</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9606</v>
+        <v>1.7146</v>
       </c>
       <c r="J15" t="n">
-        <v>0.973</v>
+        <v>1.682</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.000300000000000078</v>
+        <v>0.006750000000000256</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>-9.999999999987796e-05</v>
+        <v>0.008000000000000229</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>0.49</v>
       </c>
       <c r="G16" t="n">
-        <v>4.84</v>
+        <v>0.16</v>
       </c>
       <c r="H16" t="n">
-        <v>0.327</v>
+        <v>0.602</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3244</v>
+        <v>0.5974999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>0.329</v>
+        <v>0.597</v>
       </c>
       <c r="K16" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>0.001250000000000084</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001000000000000445</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1272,34 +1272,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="E17" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="F17" t="n">
-        <v>11.09</v>
+        <v>11.57</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="H17" t="n">
-        <v>1.39</v>
+        <v>1.392</v>
       </c>
       <c r="I17" t="n">
-        <v>1.38413</v>
+        <v>1.38513</v>
       </c>
       <c r="J17" t="n">
-        <v>1.382</v>
+        <v>1.383</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001499999999999835</v>
+        <v>0.002000000000000224</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-0.001000000000000112</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.72</v>
+        <v>125.09</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="F18" t="n">
-        <v>8.26</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>0.37</v>
+        <v>51.74</v>
       </c>
       <c r="H18" t="n">
-        <v>0.712</v>
+        <v>124.706</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7127</v>
+        <v>124.8287</v>
       </c>
       <c r="J18" t="n">
-        <v>0.715</v>
+        <v>124.277</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.1072000000000202</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.000299999999999967</v>
+        <v>0.0829999999999842</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.37</v>
+        <v>1.46</v>
       </c>
       <c r="E19" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="F19" t="n">
-        <v>2.49</v>
+        <v>-2.99</v>
       </c>
       <c r="G19" t="n">
-        <v>3.57</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.367</v>
+        <v>1.446</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3654</v>
+        <v>1.4363</v>
       </c>
       <c r="J19" t="n">
-        <v>0.371</v>
+        <v>1.432</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001499999999999835</v>
+        <v>0.002050000000000107</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0004000000000000115</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.04</v>
+        <v>0.55</v>
       </c>
       <c r="E20" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.98</v>
+        <v>-10.06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05</v>
+        <v>6.65</v>
       </c>
       <c r="H20" t="n">
-        <v>1.03</v>
+        <v>0.554</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0239</v>
+        <v>0.5521</v>
       </c>
       <c r="J20" t="n">
-        <v>1.023</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0006999999999999229</v>
+        <v>-0.001550000000000051</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,98 +1458,98 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>5.79</v>
+        <v>6.76</v>
       </c>
       <c r="G21" t="n">
-        <v>0.71</v>
+        <v>4.13</v>
       </c>
       <c r="H21" t="n">
-        <v>1.106</v>
+        <v>1.197</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0949</v>
+        <v>1.1886</v>
       </c>
       <c r="J21" t="n">
-        <v>1.089</v>
+        <v>1.18</v>
       </c>
       <c r="K21" t="n">
         <v>0.002050000000000107</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002199999999999758</v>
+        <v>0.002499999999999725</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.86</v>
+        <v>2.82</v>
       </c>
       <c r="E22" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="F22" t="n">
-        <v>5.63</v>
+        <v>2.85</v>
       </c>
       <c r="G22" t="n">
-        <v>1.56</v>
+        <v>11.63</v>
       </c>
       <c r="H22" t="n">
-        <v>0.86</v>
+        <v>2.813</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8513999999999999</v>
+        <v>2.7812</v>
       </c>
       <c r="J22" t="n">
-        <v>0.847</v>
+        <v>2.767</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001450000000000062</v>
+        <v>0.003550000000000164</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.006699999999999928</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.28</v>
+        <v>1.13</v>
       </c>
       <c r="E23" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="F23" t="n">
-        <v>4.56</v>
+        <v>18.74</v>
       </c>
       <c r="G23" t="n">
-        <v>0.89</v>
+        <v>2.59</v>
       </c>
       <c r="H23" t="n">
-        <v>3.236</v>
+        <v>1.134</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1918</v>
+        <v>1.1195</v>
       </c>
       <c r="J23" t="n">
-        <v>3.182</v>
+        <v>1.12</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007750000000000146</v>
+        <v>0.002199999999999758</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009700000000000042</v>
+        <v>0.0004999999999997229</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4</v>
+        <v>-2.69</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>1.53</v>
       </c>
       <c r="H24" t="n">
-        <v>0.99</v>
+        <v>0.796</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9879</v>
+        <v>0.7938000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.987</v>
+        <v>0.805</v>
       </c>
       <c r="K24" t="n">
-        <v>-4.999999999999449e-05</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000200000000000089</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="F25" t="n">
-        <v>5.96</v>
+        <v>5.75</v>
       </c>
       <c r="G25" t="n">
-        <v>0.11</v>
+        <v>1.17</v>
       </c>
       <c r="H25" t="n">
-        <v>0.655</v>
+        <v>0.86</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6536000000000001</v>
+        <v>0.8513999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>0.66</v>
+        <v>0.847</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001499999999999835</v>
+        <v>0.001450000000000062</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>124.58</v>
+        <v>3.99</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="n">
-        <v>70.84999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="H26" t="n">
-        <v>124.676</v>
+        <v>3.975</v>
       </c>
       <c r="I26" t="n">
-        <v>124.7202</v>
+        <v>3.93228</v>
       </c>
       <c r="J26" t="n">
-        <v>124.158</v>
+        <v>3.959</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1132499999999936</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03379999999999939</v>
+        <v>0</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>1.19</v>
       </c>
       <c r="E27" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="F27" t="n">
-        <v>6.74</v>
+        <v>-1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H27" t="n">
-        <v>1.192</v>
+        <v>1.177</v>
       </c>
       <c r="I27" t="n">
-        <v>1.1873</v>
+        <v>1.1753</v>
       </c>
       <c r="J27" t="n">
-        <v>1.186</v>
+        <v>1.173</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001300000000000079</v>
+        <v>0.000600000000000156</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.001400000000000068</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.61</v>
+        <v>1.62</v>
       </c>
       <c r="E28" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09</v>
+        <v>7.47</v>
       </c>
       <c r="H28" t="n">
-        <v>0.602</v>
+        <v>1.606</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5974999999999999</v>
+        <v>1.5853</v>
       </c>
       <c r="J28" t="n">
-        <v>0.597</v>
+        <v>1.577</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001250000000000084</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.99</v>
+        <v>7.39</v>
       </c>
       <c r="E29" t="n">
-        <v>0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="F29" t="n">
-        <v>1.4</v>
+        <v>24.73</v>
       </c>
       <c r="G29" t="n">
-        <v>25.51</v>
+        <v>21.57</v>
       </c>
       <c r="H29" t="n">
-        <v>3.975</v>
+        <v>7.377</v>
       </c>
       <c r="I29" t="n">
-        <v>3.93228</v>
+        <v>7.425199999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>3.959</v>
+        <v>7.452</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00154999999999994</v>
+        <v>0.001049999999999329</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-0.01730000000000054</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.39</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="H30" t="n">
-        <v>1.444</v>
+        <v>1.486</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4353</v>
+        <v>1.4754</v>
       </c>
       <c r="J30" t="n">
-        <v>1.432</v>
+        <v>1.477</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00154999999999994</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.81</v>
+        <v>1.03</v>
       </c>
       <c r="E31" t="n">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="F31" t="n">
-        <v>2.63</v>
+        <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>12.32</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2.811</v>
+        <v>1.028</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7802</v>
+        <v>1.0164</v>
       </c>
       <c r="J31" t="n">
-        <v>2.767</v>
+        <v>1.012</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003050000000000441</v>
+        <v>0.001550000000000162</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.005699999999999594</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="F32" t="n">
-        <v>2.17</v>
+        <v>5.57</v>
       </c>
       <c r="G32" t="n">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="H32" t="n">
-        <v>1.028</v>
+        <v>1.513</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0164</v>
+        <v>1.4923</v>
       </c>
       <c r="J32" t="n">
-        <v>1.012</v>
+        <v>1.478</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001550000000000162</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.13</v>
+        <v>0.62</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09</v>
+        <v>-0.16</v>
       </c>
       <c r="F33" t="n">
-        <v>18.53</v>
+        <v>5.08</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.134</v>
+        <v>0.622</v>
       </c>
       <c r="I33" t="n">
-        <v>1.1195</v>
+        <v>0.6081</v>
       </c>
       <c r="J33" t="n">
-        <v>1.12</v>
+        <v>0.604</v>
       </c>
       <c r="K33" t="n">
-        <v>0.002199999999999758</v>
+        <v>0.001349999999999962</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0004999999999997229</v>
+        <v>0.002600000000000047</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,98 +2108,98 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08</v>
+        <v>-0.18</v>
       </c>
       <c r="F34" t="n">
-        <v>27.78</v>
+        <v>5.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.31</v>
+        <v>0.44</v>
       </c>
       <c r="H34" t="n">
-        <v>1.221</v>
+        <v>1.106</v>
       </c>
       <c r="I34" t="n">
-        <v>1.2048</v>
+        <v>1.0949</v>
       </c>
       <c r="J34" t="n">
-        <v>1.189</v>
+        <v>1.089</v>
       </c>
       <c r="K34" t="n">
-        <v>0.008250000000000091</v>
+        <v>0.002050000000000107</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.002199999999999758</v>
       </c>
       <c r="N34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.82</v>
+        <v>-3.3</v>
       </c>
       <c r="G35" t="n">
-        <v>1.26</v>
+        <v>0.01</v>
       </c>
       <c r="H35" t="n">
-        <v>0.793</v>
+        <v>0.964</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7931</v>
+        <v>0.9606</v>
       </c>
       <c r="J35" t="n">
-        <v>0.806</v>
+        <v>0.973</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001500000000000057</v>
+        <v>-0.000300000000000078</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0008000000000000229</v>
+        <v>-9.999999999987796e-05</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0.99</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F36" t="n">
-        <v>-12.53</v>
+        <v>-0.7</v>
       </c>
       <c r="G36" t="n">
-        <v>1.22</v>
+        <v>0.01</v>
       </c>
       <c r="H36" t="n">
-        <v>0.986</v>
+        <v>0.99</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9845</v>
+        <v>0.9877</v>
       </c>
       <c r="J36" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="K36" t="n">
-        <v>0.000200000000000089</v>
+        <v>-0.0001500000000002055</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.000400000000000067</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.14</v>
+        <v>0.58</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.09</v>
+        <v>-0.51</v>
       </c>
       <c r="F37" t="n">
-        <v>12.86</v>
+        <v>-2.03</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="H37" t="n">
-        <v>1.126</v>
+        <v>0.575</v>
       </c>
       <c r="I37" t="n">
-        <v>1.115</v>
+        <v>0.5736</v>
       </c>
       <c r="J37" t="n">
-        <v>1.114</v>
+        <v>0.582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001300000000000079</v>
+        <v>4.999999999999449e-05</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003300000000000081</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.89</v>
+        <v>3.27</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.22</v>
+        <v>-0.52</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.76</v>
+        <v>4.01</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="H38" t="n">
-        <v>0.88</v>
+        <v>3.234</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8676</v>
+        <v>3.1908</v>
       </c>
       <c r="J38" t="n">
-        <v>0.859</v>
+        <v>3.182</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002950000000000008</v>
+        <v>0.007249999999999535</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.003900000000000015</v>
+        <v>0.008700000000000152</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.45</v>
+        <v>0.37</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.28</v>
+        <v>-0.54</v>
       </c>
       <c r="F39" t="n">
-        <v>6.3</v>
+        <v>1.94</v>
       </c>
       <c r="G39" t="n">
-        <v>1.15</v>
+        <v>3.43</v>
       </c>
       <c r="H39" t="n">
-        <v>1.399</v>
+        <v>0.367</v>
       </c>
       <c r="I39" t="n">
-        <v>1.3754</v>
+        <v>0.3654</v>
       </c>
       <c r="J39" t="n">
-        <v>1.34</v>
+        <v>0.371</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01065000000000005</v>
+        <v>-0.0001499999999999835</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.009700000000000042</v>
+        <v>-0.0004000000000000115</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.1</v>
+        <v>1.07</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.29</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.05</v>
+        <v>-4.11</v>
       </c>
       <c r="G40" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="H40" t="n">
-        <v>2.078</v>
+        <v>1.081</v>
       </c>
       <c r="I40" t="n">
-        <v>2.0538</v>
+        <v>1.0539</v>
       </c>
       <c r="J40" t="n">
-        <v>2.042</v>
+        <v>1.041</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00480000000000036</v>
+        <v>0.003649999999999931</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.006199999999999761</v>
+        <v>0.002600000000000158</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.13</v>
+        <v>0.33</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.33</v>
+        <v>-0.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="G41" t="n">
-        <v>14.34</v>
+        <v>3.99</v>
       </c>
       <c r="H41" t="n">
-        <v>2.075</v>
+        <v>0.327</v>
       </c>
       <c r="I41" t="n">
-        <v>2.0466</v>
+        <v>0.3244</v>
       </c>
       <c r="J41" t="n">
-        <v>2.03</v>
+        <v>0.329</v>
       </c>
       <c r="K41" t="n">
-        <v>0.007050000000000001</v>
+        <v>9.999999999998899e-05</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01100000000000012</v>
+        <v>0.0001000000000000445</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.35</v>
+        <v>-0.74</v>
       </c>
       <c r="F42" t="n">
-        <v>9.69</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>13.83</v>
+        <v>0.08</v>
       </c>
       <c r="H42" t="n">
-        <v>1.096</v>
+        <v>0.657</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0725</v>
+        <v>0.6499</v>
       </c>
       <c r="J42" t="n">
-        <v>1.061</v>
+        <v>0.656</v>
       </c>
       <c r="K42" t="n">
-        <v>0.004599999999999937</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.008400000000000185</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.4</v>
+        <v>-0.82</v>
       </c>
       <c r="F43" t="n">
-        <v>17.99</v>
+        <v>-0.82</v>
       </c>
       <c r="G43" t="n">
-        <v>5.41</v>
+        <v>0.18</v>
       </c>
       <c r="H43" t="n">
-        <v>0.492</v>
+        <v>0.477</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4866</v>
+        <v>0.4739</v>
       </c>
       <c r="J43" t="n">
-        <v>0.487</v>
+        <v>0.481</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00109999999999999</v>
+        <v>-4.999999999993898e-05</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0001000000000000445</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.41</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="G44" t="n">
-        <v>6.37</v>
+        <v>0.65</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9217000000000001</v>
+        <v>0.8282999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>0.911</v>
+        <v>0.827</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003450000000000175</v>
+        <v>0.002049999999999885</v>
       </c>
       <c r="L44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0.005400000000000071</v>
+        <v>-0.0003999999999999559</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.62</v>
+        <v>0.49</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.43</v>
+        <v>-1.02</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.43</v>
+        <v>16.79</v>
       </c>
       <c r="G45" t="n">
-        <v>8.199999999999999</v>
+        <v>20.34</v>
       </c>
       <c r="H45" t="n">
-        <v>1.606</v>
+        <v>0.492</v>
       </c>
       <c r="I45" t="n">
-        <v>1.5853</v>
+        <v>0.4866</v>
       </c>
       <c r="J45" t="n">
-        <v>1.577</v>
+        <v>0.487</v>
       </c>
       <c r="K45" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.00109999999999999</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.00529999999999986</v>
+        <v>-0.0001000000000000445</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.88</v>
+        <v>2.1</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.45</v>
+        <v>-1.03</v>
       </c>
       <c r="F46" t="n">
-        <v>9.06</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>1.57</v>
+        <v>14.46</v>
       </c>
       <c r="H46" t="n">
-        <v>0.865</v>
+        <v>2.089</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8548</v>
+        <v>2.05</v>
       </c>
       <c r="J46" t="n">
-        <v>0.859</v>
+        <v>2.035</v>
       </c>
       <c r="K46" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.006399999999999739</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.003100000000000103</v>
+        <v>0.006299999999999972</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.67</v>
+        <v>1.03</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.45</v>
+        <v>-1.24</v>
       </c>
       <c r="F47" t="n">
-        <v>-11.36</v>
+        <v>-0.96</v>
       </c>
       <c r="G47" t="n">
-        <v>6.15</v>
+        <v>26.76</v>
       </c>
       <c r="H47" t="n">
-        <v>0.658</v>
+        <v>1.038</v>
       </c>
       <c r="I47" t="n">
-        <v>0.6503</v>
+        <v>1.0249</v>
       </c>
       <c r="J47" t="n">
-        <v>0.649</v>
+        <v>1.03</v>
       </c>
       <c r="K47" t="n">
-        <v>0.001499999999999946</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,48 +2808,48 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.48</v>
+        <v>-1.25</v>
       </c>
       <c r="F48" t="n">
-        <v>5.25</v>
+        <v>7.69</v>
       </c>
       <c r="G48" t="n">
-        <v>0.18</v>
+        <v>1.46</v>
       </c>
       <c r="H48" t="n">
-        <v>0.617</v>
+        <v>0.87</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6054</v>
+        <v>0.8555999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>0.602</v>
+        <v>0.859</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0008499999999999064</v>
+        <v>0.0006000000000000449</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00230000000000008</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -2858,48 +2858,48 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.48</v>
+        <v>-1.25</v>
       </c>
       <c r="F49" t="n">
-        <v>3.47</v>
+        <v>-1.25</v>
       </c>
       <c r="G49" t="n">
-        <v>9.529999999999999</v>
+        <v>5.05</v>
       </c>
       <c r="H49" t="n">
-        <v>1.033</v>
+        <v>0.944</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0147</v>
+        <v>0.9243</v>
       </c>
       <c r="J49" t="n">
-        <v>1.012</v>
+        <v>0.914</v>
       </c>
       <c r="K49" t="n">
-        <v>0.00219999999999998</v>
+        <v>0.003399999999999848</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.004399999999999959</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,98 +2908,98 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.52</v>
+        <v>-1.26</v>
       </c>
       <c r="F50" t="n">
-        <v>-7.52</v>
+        <v>26.18</v>
       </c>
       <c r="G50" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="H50" t="n">
-        <v>1.347</v>
+        <v>1.219</v>
       </c>
       <c r="I50" t="n">
-        <v>1.3363</v>
+        <v>1.2038</v>
       </c>
       <c r="J50" t="n">
-        <v>1.344</v>
+        <v>1.189</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0002499999999998614</v>
+        <v>0.007750000000000146</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0008999999999999009</v>
+        <v>0.001499999999999835</v>
       </c>
       <c r="N50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>0.55</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.54</v>
+        <v>-1.26</v>
       </c>
       <c r="F51" t="n">
-        <v>-10.39</v>
+        <v>-2.83</v>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>0.78</v>
       </c>
       <c r="H51" t="n">
-        <v>0.554</v>
+        <v>0.546</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5521</v>
+        <v>0.538</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.536</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.001550000000000051</v>
+        <v>0.001249999999999973</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.001599999999999935</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -3008,48 +3008,48 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.54</v>
+        <v>-1.4</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.59</v>
+        <v>44.62</v>
       </c>
       <c r="G52" t="n">
-        <v>0.49</v>
+        <v>16.87</v>
       </c>
       <c r="H52" t="n">
-        <v>0.544</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5375</v>
+        <v>0.5571</v>
       </c>
       <c r="J52" t="n">
-        <v>0.535</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>0.001550000000000051</v>
+        <v>0.002049999999999996</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0.002900000000000014</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.55</v>
+        <v>-1.49</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.57</v>
+        <v>11.18</v>
       </c>
       <c r="G53" t="n">
-        <v>5.59</v>
+        <v>0.41</v>
       </c>
       <c r="H53" t="n">
-        <v>1.083</v>
+        <v>1.129</v>
       </c>
       <c r="I53" t="n">
-        <v>1.0549</v>
+        <v>1.1144</v>
       </c>
       <c r="J53" t="n">
-        <v>1.042</v>
+        <v>1.114</v>
       </c>
       <c r="K53" t="n">
-        <v>0.004149999999999876</v>
+        <v>0.001250000000000195</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.0007999999999999119</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.62</v>
+        <v>-1.57</v>
       </c>
       <c r="F54" t="n">
-        <v>3.43</v>
+        <v>-3.31</v>
       </c>
       <c r="G54" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="H54" t="n">
-        <v>0.955</v>
+        <v>0.878</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9394</v>
+        <v>0.8666</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.858</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0006500000000001505</v>
+        <v>0.002449999999999952</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.003099999999999881</v>
+        <v>0.002900000000000014</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,39 +3158,39 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.63</v>
+        <v>-1.66</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.67</v>
+        <v>1.71</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H55" t="n">
-        <v>1.108</v>
+        <v>0.953</v>
       </c>
       <c r="I55" t="n">
-        <v>1.1061</v>
+        <v>0.9384</v>
       </c>
       <c r="J55" t="n">
-        <v>1.11</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K55" t="n">
         <v>0.0001500000000000945</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.002799999999999914</v>
+        <v>0.00209999999999988</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.5</v>
+        <v>0.82</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.66</v>
+        <v>-1.68</v>
       </c>
       <c r="F56" t="n">
-        <v>10.02</v>
+        <v>4.73</v>
       </c>
       <c r="G56" t="n">
-        <v>0.13</v>
+        <v>0.74</v>
       </c>
       <c r="H56" t="n">
-        <v>1.472</v>
+        <v>0.828</v>
       </c>
       <c r="I56" t="n">
-        <v>1.4724</v>
+        <v>0.8078</v>
       </c>
       <c r="J56" t="n">
-        <v>1.476</v>
+        <v>0.803</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.00319999999999987</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,48 +3258,48 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.86</v>
       </c>
       <c r="F57" t="n">
-        <v>2.31</v>
+        <v>4.99</v>
       </c>
       <c r="G57" t="n">
-        <v>1.97</v>
+        <v>1.34</v>
       </c>
       <c r="H57" t="n">
-        <v>1.141</v>
+        <v>1.159</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1216</v>
+        <v>1.1374</v>
       </c>
       <c r="J57" t="n">
-        <v>1.119</v>
+        <v>1.134</v>
       </c>
       <c r="K57" t="n">
-        <v>0.002250000000000085</v>
+        <v>0.003200000000000092</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004899999999999904</v>
+        <v>0.002699999999999925</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -3308,48 +3308,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7</v>
+        <v>-1.91</v>
       </c>
       <c r="F58" t="n">
-        <v>10.21</v>
+        <v>0.36</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="H58" t="n">
-        <v>0.838</v>
+        <v>1.137</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8292999999999999</v>
+        <v>1.1196</v>
       </c>
       <c r="J58" t="n">
-        <v>0.828</v>
+        <v>1.118</v>
       </c>
       <c r="K58" t="n">
-        <v>0.002549999999999941</v>
+        <v>0.001249999999999973</v>
       </c>
       <c r="L58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0005999999999998229</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G59" t="n">
         <v>1.05</v>
       </c>
-      <c r="E59" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G59" t="n">
-        <v>22.72</v>
-      </c>
       <c r="H59" t="n">
-        <v>1.042</v>
+        <v>1.2</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0269</v>
+        <v>1.1828</v>
       </c>
       <c r="J59" t="n">
-        <v>1.031</v>
+        <v>1.178</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.002950000000000008</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002900000000000125</v>
+        <v>0.002899999999999903</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-2.01</v>
       </c>
       <c r="F60" t="n">
-        <v>5.34</v>
+        <v>7.49</v>
       </c>
       <c r="G60" t="n">
-        <v>0.98</v>
+        <v>8.09</v>
       </c>
       <c r="H60" t="n">
-        <v>1.204</v>
+        <v>1.092</v>
       </c>
       <c r="I60" t="n">
-        <v>1.1848</v>
+        <v>1.0705</v>
       </c>
       <c r="J60" t="n">
-        <v>1.179</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003949999999999898</v>
+        <v>0.003600000000000048</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.004899999999999904</v>
+        <v>0.006399999999999961</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.54</v>
+        <v>1.02</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.22</v>
+        <v>-2.01</v>
       </c>
       <c r="F61" t="n">
-        <v>5.71</v>
+        <v>1.39</v>
       </c>
       <c r="G61" t="n">
-        <v>0.96</v>
+        <v>12.01</v>
       </c>
       <c r="H61" t="n">
-        <v>1.515</v>
+        <v>1.029</v>
       </c>
       <c r="I61" t="n">
-        <v>1.4933</v>
+        <v>1.0127</v>
       </c>
       <c r="J61" t="n">
-        <v>1.479</v>
+        <v>1.011</v>
       </c>
       <c r="K61" t="n">
-        <v>0.003699999999999815</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="L61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.006299999999999972</v>
+        <v>0.00240000000000018</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.26</v>
+        <v>-2.34</v>
       </c>
       <c r="F62" t="n">
-        <v>6.98</v>
+        <v>3.81</v>
       </c>
       <c r="G62" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="H62" t="n">
-        <v>1.163</v>
+        <v>1.393</v>
       </c>
       <c r="I62" t="n">
-        <v>1.1394</v>
+        <v>1.3724</v>
       </c>
       <c r="J62" t="n">
-        <v>1.135</v>
+        <v>1.338</v>
       </c>
       <c r="K62" t="n">
-        <v>0.004199999999999759</v>
+        <v>0.009149999999999991</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.004699999999999926</v>
+        <v>0.00670000000000015</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.42</v>
+        <v>-2.48</v>
       </c>
       <c r="F63" t="n">
-        <v>6.51</v>
+        <v>57.24</v>
       </c>
       <c r="G63" t="n">
-        <v>1.02</v>
+        <v>53.06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.83</v>
+        <v>1.142</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8088000000000001</v>
+        <v>1.1288</v>
       </c>
       <c r="J63" t="n">
-        <v>0.803</v>
+        <v>1.129</v>
       </c>
       <c r="K63" t="n">
-        <v>0.002400000000000069</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.002900000000000125</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,48 +508,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="E2" t="n">
-        <v>3.69</v>
+        <v>4.12</v>
       </c>
       <c r="F2" t="n">
-        <v>7.57</v>
+        <v>63.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>97.12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.21</v>
+        <v>1.148</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1988</v>
+        <v>1.1393</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>1.142</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002850000000000019</v>
+        <v>0.006100000000000216</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005999999999999783</v>
+        <v>0.006299999999999972</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -558,48 +558,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E3" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.85</v>
+        <v>48.72</v>
       </c>
       <c r="G3" t="n">
-        <v>11.9</v>
+        <v>30.41</v>
       </c>
       <c r="H3" t="n">
-        <v>0.662</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6523</v>
+        <v>0.5608000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.65</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002499999999999947</v>
+        <v>0.002049999999999996</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004399999999999848</v>
+        <v>0.00230000000000008</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -608,98 +608,98 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="E4" t="n">
-        <v>1.82</v>
+        <v>2.68</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.94</v>
+        <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>4.26</v>
       </c>
       <c r="H4" t="n">
-        <v>0.99</v>
+        <v>1.433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9865</v>
+        <v>1.3942</v>
       </c>
       <c r="J4" t="n">
-        <v>0.987</v>
+        <v>1.361</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00120000000000009</v>
+        <v>0.009700000000000042</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002400000000000069</v>
+        <v>0.007800000000000029</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="E5" t="n">
-        <v>1.54</v>
+        <v>2.21</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.79</v>
+        <v>11.79</v>
       </c>
       <c r="H5" t="n">
-        <v>1.112</v>
+        <v>0.959</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1081</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>1.111</v>
+        <v>0.923</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.005300000000000082</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="F6" t="n">
-        <v>8.18</v>
+        <v>-1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>2.07</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.194</v>
+        <v>0.889</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1861</v>
+        <v>0.8757999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1.188</v>
+        <v>0.865</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.002949999999999786</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0006999999999999229</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.05</v>
+        <v>0.68</v>
       </c>
       <c r="E7" t="n">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.85</v>
+        <v>11.68</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H7" t="n">
-        <v>1.032</v>
+        <v>0.663</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0249</v>
+        <v>0.6542</v>
       </c>
       <c r="J7" t="n">
-        <v>1.024</v>
+        <v>0.657</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00120000000000009</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003100000000000103</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,48 +808,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.67</v>
+        <v>2.14</v>
       </c>
       <c r="E8" t="n">
-        <v>1.06</v>
+        <v>1.76</v>
       </c>
       <c r="F8" t="n">
-        <v>7.09</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>0.22</v>
+        <v>22.22</v>
       </c>
       <c r="H8" t="n">
-        <v>0.657</v>
+        <v>2.119</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6546000000000001</v>
+        <v>2.0737</v>
       </c>
       <c r="J8" t="n">
-        <v>0.661</v>
+        <v>2.051</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006500000000000394</v>
+        <v>0.007000000000000117</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0008000000000000229</v>
+        <v>0.01060000000000016</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -858,48 +858,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.01</v>
+        <v>0.59</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="F9" t="n">
-        <v>18.05</v>
+        <v>-0.34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="H9" t="n">
-        <v>0.973</v>
+        <v>0.579</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9608000000000001</v>
+        <v>0.5749</v>
       </c>
       <c r="J9" t="n">
-        <v>0.952</v>
+        <v>0.582</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005249999999999977</v>
+        <v>-0.0001000000000001</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004900000000000126</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.55</v>
+        <v>0.63</v>
       </c>
       <c r="E10" t="n">
-        <v>0.72</v>
+        <v>1.45</v>
       </c>
       <c r="F10" t="n">
-        <v>1.01</v>
+        <v>6.61</v>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>0.14</v>
       </c>
       <c r="H10" t="n">
-        <v>1.532</v>
+        <v>0.624</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5228</v>
+        <v>0.6142</v>
       </c>
       <c r="J10" t="n">
-        <v>1.525</v>
+        <v>0.607</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001249999999999751</v>
+        <v>0.001450000000000062</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003500000000000059</v>
+        <v>0.00329999999999997</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="F11" t="n">
-        <v>9.01</v>
+        <v>-1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
       <c r="H11" t="n">
-        <v>0.716</v>
+        <v>1.114</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7131999999999999</v>
+        <v>1.1093</v>
       </c>
       <c r="J11" t="n">
-        <v>0.716</v>
+        <v>1.113</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001499999999999946</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00109999999999999</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.67</v>
+        <v>1.09</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.41</v>
+        <v>-1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>2.93</v>
+        <v>0.71</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>0.554</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0548</v>
+        <v>0.5442</v>
       </c>
       <c r="J12" t="n">
-        <v>2.043</v>
+        <v>0.539</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005300000000000082</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007200000000000095</v>
+        <v>0.002599999999999936</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.29</v>
+        <v>0.98</v>
       </c>
       <c r="E13" t="n">
-        <v>0.62</v>
+        <v>1.04</v>
       </c>
       <c r="F13" t="n">
-        <v>6.35</v>
+        <v>-2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>1.26</v>
+        <v>0.966</v>
       </c>
       <c r="I13" t="n">
-        <v>1.2551</v>
+        <v>0.9618</v>
       </c>
       <c r="J13" t="n">
-        <v>1.244</v>
+        <v>0.971</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004299999999999971</v>
+        <v>-0.0004499999999999504</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.002000000000000113</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.36</v>
+        <v>0.73</v>
       </c>
       <c r="E14" t="n">
-        <v>0.59</v>
+        <v>0.83</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.98</v>
+        <v>9.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1.07</v>
+        <v>0.68</v>
       </c>
       <c r="H14" t="n">
-        <v>1.349</v>
+        <v>0.719</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3373</v>
+        <v>0.7139</v>
       </c>
       <c r="J14" t="n">
-        <v>1.345</v>
+        <v>0.717</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007500000000000284</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,98 +1158,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="E15" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="F15" t="n">
-        <v>17.58</v>
+        <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>8.51</v>
+        <v>0.97</v>
       </c>
       <c r="H15" t="n">
-        <v>1.739</v>
+        <v>1.178</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7146</v>
+        <v>1.1505</v>
       </c>
       <c r="J15" t="n">
-        <v>1.682</v>
+        <v>1.143</v>
       </c>
       <c r="K15" t="n">
-        <v>0.006750000000000256</v>
+        <v>0.002800000000000358</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008000000000000229</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.61</v>
+        <v>1.21</v>
       </c>
       <c r="E16" t="n">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="F16" t="n">
-        <v>0.49</v>
+        <v>4.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="H16" t="n">
-        <v>0.602</v>
+        <v>1.217</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5974999999999999</v>
+        <v>1.1953</v>
       </c>
       <c r="J16" t="n">
-        <v>0.597</v>
+        <v>1.186</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001250000000000084</v>
+        <v>0.002650000000000041</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0009999999999998899</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="F17" t="n">
-        <v>11.57</v>
+        <v>-3.39</v>
       </c>
       <c r="G17" t="n">
-        <v>0.34</v>
+        <v>6.12</v>
       </c>
       <c r="H17" t="n">
-        <v>1.392</v>
+        <v>1.084</v>
       </c>
       <c r="I17" t="n">
-        <v>1.38513</v>
+        <v>1.0633</v>
       </c>
       <c r="J17" t="n">
-        <v>1.383</v>
+        <v>1.049</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002000000000000224</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001000000000000112</v>
+        <v>0.004499999999999948</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>125.09</v>
+        <v>7.45</v>
       </c>
       <c r="E18" t="n">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>25.59</v>
       </c>
       <c r="G18" t="n">
-        <v>51.74</v>
+        <v>21.99</v>
       </c>
       <c r="H18" t="n">
-        <v>124.706</v>
+        <v>7.378</v>
       </c>
       <c r="I18" t="n">
-        <v>124.8287</v>
+        <v>7.4021</v>
       </c>
       <c r="J18" t="n">
-        <v>124.277</v>
+        <v>7.443</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1072000000000202</v>
+        <v>-0.001200000000001644</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0829999999999842</v>
+        <v>-0.005300000000000082</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.46</v>
+        <v>4.01</v>
       </c>
       <c r="E19" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.99</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>27.49</v>
       </c>
       <c r="H19" t="n">
-        <v>1.446</v>
+        <v>3.986</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4363</v>
+        <v>3.9508</v>
       </c>
       <c r="J19" t="n">
-        <v>1.432</v>
+        <v>3.961</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002050000000000107</v>
+        <v>0.001800000000000246</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003000000000000114</v>
+        <v>0.01060000000000016</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1408,48 +1408,48 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>515800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>800ETF</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.55</v>
+        <v>1.04</v>
       </c>
       <c r="E20" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="F20" t="n">
-        <v>-10.06</v>
+        <v>2.67</v>
       </c>
       <c r="G20" t="n">
-        <v>6.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.554</v>
+        <v>1.033</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5521</v>
+        <v>1.0222</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.016</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.001550000000000051</v>
+        <v>0.001749999999999918</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -1458,98 +1458,98 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.2</v>
+        <v>0.37</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="F21" t="n">
-        <v>6.76</v>
+        <v>2.49</v>
       </c>
       <c r="G21" t="n">
-        <v>4.13</v>
+        <v>3.29</v>
       </c>
       <c r="H21" t="n">
-        <v>1.197</v>
+        <v>0.368</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1886</v>
+        <v>0.366</v>
       </c>
       <c r="J21" t="n">
-        <v>1.18</v>
+        <v>0.37</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002050000000000107</v>
+        <v>-0.000450000000000006</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002499999999999725</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.82</v>
+        <v>0.95</v>
       </c>
       <c r="E22" t="n">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
       <c r="F22" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="G22" t="n">
-        <v>11.63</v>
+        <v>0.28</v>
       </c>
       <c r="H22" t="n">
-        <v>2.813</v>
+        <v>0.958</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7812</v>
+        <v>0.9459</v>
       </c>
       <c r="J22" t="n">
-        <v>2.767</v>
+        <v>0.944</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003550000000000164</v>
+        <v>0.000199999999999867</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006699999999999928</v>
+        <v>0.001699999999999924</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="E23" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="F23" t="n">
-        <v>18.74</v>
+        <v>7.57</v>
       </c>
       <c r="G23" t="n">
-        <v>2.59</v>
+        <v>0.33</v>
       </c>
       <c r="H23" t="n">
-        <v>1.134</v>
+        <v>0.658</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1195</v>
+        <v>0.6543</v>
       </c>
       <c r="J23" t="n">
-        <v>1.12</v>
+        <v>0.66</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002199999999999758</v>
+        <v>-0.0001000000000001</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0004999999999997229</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.69</v>
+        <v>11.67</v>
       </c>
       <c r="G24" t="n">
-        <v>1.53</v>
+        <v>0.29</v>
       </c>
       <c r="H24" t="n">
-        <v>0.796</v>
+        <v>1.134</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7938000000000001</v>
+        <v>1.1214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.805</v>
+        <v>1.119</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0.001300000000000079</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0004999999999999449</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="F25" t="n">
-        <v>5.75</v>
+        <v>7.87</v>
       </c>
       <c r="G25" t="n">
-        <v>1.17</v>
+        <v>5.66</v>
       </c>
       <c r="H25" t="n">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8513999999999999</v>
+        <v>1.0878</v>
       </c>
       <c r="J25" t="n">
-        <v>0.847</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001450000000000062</v>
+        <v>0.003649999999999931</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.005800000000000249</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.99</v>
+        <v>0.87</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>6.12</v>
       </c>
       <c r="G26" t="n">
-        <v>20.7</v>
+        <v>1.11</v>
       </c>
       <c r="H26" t="n">
-        <v>3.975</v>
+        <v>0.863</v>
       </c>
       <c r="I26" t="n">
-        <v>3.93228</v>
+        <v>0.8557</v>
       </c>
       <c r="J26" t="n">
-        <v>3.959</v>
+        <v>0.85</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00154999999999994</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.002400000000000069</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.19</v>
+        <v>0.87</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>8.06</v>
       </c>
       <c r="G27" t="n">
-        <v>0.51</v>
+        <v>1.41</v>
       </c>
       <c r="H27" t="n">
-        <v>1.177</v>
+        <v>0.874</v>
       </c>
       <c r="I27" t="n">
-        <v>1.1753</v>
+        <v>0.8619</v>
       </c>
       <c r="J27" t="n">
-        <v>1.173</v>
+        <v>0.861</v>
       </c>
       <c r="K27" t="n">
-        <v>0.000600000000000156</v>
+        <v>0.0003500000000000725</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.001800000000000135</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.37</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>7.47</v>
+        <v>2.17</v>
       </c>
       <c r="H28" t="n">
-        <v>1.606</v>
+        <v>1.196</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5853</v>
+        <v>1.1871</v>
       </c>
       <c r="J28" t="n">
-        <v>1.577</v>
+        <v>1.188</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.002500000000000169</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00529999999999986</v>
+        <v>0.0002999999999997449</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7.39</v>
+        <v>0.61</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.04</v>
+        <v>0.33</v>
       </c>
       <c r="F29" t="n">
-        <v>24.73</v>
+        <v>0.82</v>
       </c>
       <c r="G29" t="n">
-        <v>21.57</v>
+        <v>0.14</v>
       </c>
       <c r="H29" t="n">
-        <v>7.377</v>
+        <v>0.605</v>
       </c>
       <c r="I29" t="n">
-        <v>7.425199999999999</v>
+        <v>0.5992999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>7.452</v>
+        <v>0.599</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001049999999999329</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.01730000000000054</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.5</v>
+        <v>3.27</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="F30" t="n">
-        <v>9.949999999999999</v>
+        <v>4.33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.11</v>
+        <v>3.98</v>
       </c>
       <c r="H30" t="n">
-        <v>1.486</v>
+        <v>3.259</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4754</v>
+        <v>3.2117</v>
       </c>
       <c r="J30" t="n">
-        <v>1.477</v>
+        <v>3.195</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0003999999999999559</v>
+        <v>0.005700000000000482</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00219999999999998</v>
+        <v>0.009899999999999576</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>515800</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>800ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.03</v>
+        <v>0.33</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>3.56</v>
       </c>
       <c r="H31" t="n">
-        <v>1.028</v>
+        <v>0.329</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0164</v>
+        <v>0.3257</v>
       </c>
       <c r="J31" t="n">
-        <v>1.012</v>
+        <v>0.328</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001550000000000162</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.002000000000000002</v>
+        <v>0.0005999999999999894</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.13</v>
+        <v>0.29</v>
       </c>
       <c r="F32" t="n">
-        <v>5.57</v>
+        <v>-0.57</v>
       </c>
       <c r="G32" t="n">
-        <v>0.95</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1.513</v>
+        <v>1.036</v>
       </c>
       <c r="I32" t="n">
-        <v>1.4923</v>
+        <v>1.0279</v>
       </c>
       <c r="J32" t="n">
-        <v>1.478</v>
+        <v>1.025</v>
       </c>
       <c r="K32" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.001249999999999973</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00529999999999986</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.62</v>
+        <v>1.11</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.16</v>
+        <v>0.27</v>
       </c>
       <c r="F33" t="n">
-        <v>5.08</v>
+        <v>5.89</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="H33" t="n">
-        <v>0.622</v>
+        <v>1.109</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6081</v>
+        <v>1.0999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.604</v>
+        <v>1.092</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001349999999999962</v>
+        <v>0.001599999999999824</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.002600000000000047</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F34" t="n">
-        <v>5.6</v>
+        <v>0.62</v>
       </c>
       <c r="G34" t="n">
-        <v>0.44</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
-        <v>1.106</v>
+        <v>1.144</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0949</v>
+        <v>1.1305</v>
       </c>
       <c r="J34" t="n">
-        <v>1.089</v>
+        <v>1.122</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002050000000000107</v>
+        <v>0.0006499999999998174</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.002199999999999758</v>
+        <v>0.002600000000000158</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.21</v>
+        <v>0.25</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.3</v>
+        <v>-2.45</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01</v>
+        <v>2.01</v>
       </c>
       <c r="H35" t="n">
-        <v>0.964</v>
+        <v>0.795</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9606</v>
+        <v>0.7938000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>0.973</v>
+        <v>0.802</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.000300000000000078</v>
+        <v>-0.001199999999999979</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-9.999999999987796e-05</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3</v>
+        <v>0.24</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7</v>
+        <v>4.98</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01</v>
+        <v>0.59</v>
       </c>
       <c r="H36" t="n">
-        <v>0.99</v>
+        <v>0.835</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9877</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>0.987</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0001500000000002055</v>
+        <v>0.001349999999999851</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.002100000000000102</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.58</v>
+        <v>1.39</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.51</v>
+        <v>0.22</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.03</v>
+        <v>11.82</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="H37" t="n">
-        <v>0.575</v>
+        <v>1.387</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5736</v>
+        <v>1.38123</v>
       </c>
       <c r="J37" t="n">
-        <v>0.582</v>
+        <v>1.384</v>
       </c>
       <c r="K37" t="n">
-        <v>4.999999999999449e-05</v>
+        <v>0.0009999999999998899</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>-0.001100000000000101</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.27</v>
+        <v>1.01</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.52</v>
+        <v>0.2</v>
       </c>
       <c r="F38" t="n">
-        <v>4.01</v>
+        <v>18.29</v>
       </c>
       <c r="G38" t="n">
-        <v>1.26</v>
+        <v>0.21</v>
       </c>
       <c r="H38" t="n">
-        <v>3.234</v>
+        <v>0.988</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1908</v>
+        <v>0.9673999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>3.182</v>
+        <v>0.959</v>
       </c>
       <c r="K38" t="n">
-        <v>0.007249999999999535</v>
+        <v>0.004050000000000109</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0.008700000000000152</v>
+        <v>0.00529999999999986</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.37</v>
+        <v>2.11</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.54</v>
+        <v>0.19</v>
       </c>
       <c r="F39" t="n">
-        <v>1.94</v>
+        <v>-2.22</v>
       </c>
       <c r="G39" t="n">
-        <v>3.43</v>
+        <v>2.65</v>
       </c>
       <c r="H39" t="n">
-        <v>0.367</v>
+        <v>2.094</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3654</v>
+        <v>2.0673</v>
       </c>
       <c r="J39" t="n">
-        <v>0.371</v>
+        <v>2.051</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0001499999999999835</v>
+        <v>0.004049999999999887</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0004000000000000115</v>
+        <v>0.007500000000000284</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.07</v>
+        <v>1.63</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.11</v>
+        <v>-0.18</v>
       </c>
       <c r="G40" t="n">
-        <v>4.82</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1.081</v>
+        <v>1.621</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0539</v>
+        <v>1.5973</v>
       </c>
       <c r="J40" t="n">
-        <v>1.041</v>
+        <v>1.583</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003649999999999931</v>
+        <v>0.00275000000000003</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.002600000000000158</v>
+        <v>0.006199999999999761</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.6</v>
+        <v>0.18</v>
       </c>
       <c r="F41" t="n">
-        <v>1.22</v>
+        <v>-9.9</v>
       </c>
       <c r="G41" t="n">
-        <v>3.99</v>
+        <v>4.54</v>
       </c>
       <c r="H41" t="n">
-        <v>0.327</v>
+        <v>0.555</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3244</v>
+        <v>0.5541</v>
       </c>
       <c r="J41" t="n">
-        <v>0.329</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>9.999999999998899e-05</v>
+        <v>-0.0008500000000000174</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001000000000000445</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.67</v>
+        <v>2.82</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.74</v>
+        <v>0.14</v>
       </c>
       <c r="F42" t="n">
-        <v>9.699999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08</v>
+        <v>6.37</v>
       </c>
       <c r="H42" t="n">
-        <v>0.657</v>
+        <v>2.812</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6499</v>
+        <v>2.7926</v>
       </c>
       <c r="J42" t="n">
-        <v>0.656</v>
+        <v>2.773</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.003249999999999975</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.007000000000000117</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.82</v>
+        <v>0.14</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.82</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.18</v>
+        <v>6.3</v>
       </c>
       <c r="H43" t="n">
-        <v>0.477</v>
+        <v>0.669</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4739</v>
+        <v>0.6574</v>
       </c>
       <c r="J43" t="n">
-        <v>0.481</v>
+        <v>0.653</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.999999999993898e-05</v>
+        <v>0.002250000000000085</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.000199999999999978</v>
+        <v>0.004199999999999871</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.84</v>
+        <v>1.55</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="F44" t="n">
-        <v>9.17</v>
+        <v>1.14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.65</v>
+        <v>1.11</v>
       </c>
       <c r="H44" t="n">
-        <v>0.836</v>
+        <v>1.534</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8282999999999999</v>
+        <v>1.5258</v>
       </c>
       <c r="J44" t="n">
-        <v>0.827</v>
+        <v>1.525</v>
       </c>
       <c r="K44" t="n">
-        <v>0.002049999999999885</v>
+        <v>0.0009000000000001229</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0003999999999999559</v>
+        <v>0.003299999999999859</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.49</v>
+        <v>0.85</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.02</v>
+        <v>0.12</v>
       </c>
       <c r="F45" t="n">
-        <v>16.79</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>20.34</v>
+        <v>0.78</v>
       </c>
       <c r="H45" t="n">
-        <v>0.492</v>
+        <v>0.847</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4866</v>
+        <v>0.8343</v>
       </c>
       <c r="J45" t="n">
-        <v>0.487</v>
+        <v>0.832</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00109999999999999</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0001000000000000445</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.03</v>
+        <v>0.1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1</v>
+        <v>-0.86</v>
       </c>
       <c r="G46" t="n">
-        <v>14.46</v>
+        <v>18.04</v>
       </c>
       <c r="H46" t="n">
-        <v>2.089</v>
+        <v>1.045</v>
       </c>
       <c r="I46" t="n">
-        <v>2.05</v>
+        <v>1.0333</v>
       </c>
       <c r="J46" t="n">
-        <v>2.035</v>
+        <v>1.032</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006399999999999739</v>
+        <v>-2.220446049250313e-16</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.006299999999999972</v>
+        <v>0.002200000000000202</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.24</v>
+        <v>0.1</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.96</v>
+        <v>1.49</v>
       </c>
       <c r="G47" t="n">
-        <v>26.76</v>
+        <v>9.1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.038</v>
+        <v>1.035</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0249</v>
+        <v>1.023</v>
       </c>
       <c r="J47" t="n">
-        <v>1.03</v>
+        <v>1.015</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.002100000000000213</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,98 +2808,98 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.25</v>
+        <v>0.08</v>
       </c>
       <c r="F48" t="n">
-        <v>7.69</v>
+        <v>6.85</v>
       </c>
       <c r="G48" t="n">
-        <v>1.46</v>
+        <v>4.66</v>
       </c>
       <c r="H48" t="n">
-        <v>0.87</v>
+        <v>1.195</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8555999999999999</v>
+        <v>1.1918</v>
       </c>
       <c r="J48" t="n">
-        <v>0.859</v>
+        <v>1.182</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0006000000000000449</v>
+        <v>0.001299999999999857</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="N48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.25</v>
+        <v>0.08</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.25</v>
+        <v>-0.92</v>
       </c>
       <c r="G49" t="n">
-        <v>5.05</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
-        <v>0.944</v>
+        <v>1.179</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9243</v>
+        <v>1.1743</v>
       </c>
       <c r="J49" t="n">
-        <v>0.914</v>
+        <v>1.174</v>
       </c>
       <c r="K49" t="n">
-        <v>0.003399999999999848</v>
+        <v>0.001049999999999995</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.003499999999999948</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,148 +2908,148 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.26</v>
+        <v>0.48</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>26.18</v>
+        <v>-0.82</v>
       </c>
       <c r="G50" t="n">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
       <c r="H50" t="n">
-        <v>1.219</v>
+        <v>0.48</v>
       </c>
       <c r="I50" t="n">
-        <v>1.2038</v>
+        <v>0.4753999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>1.189</v>
+        <v>0.48</v>
       </c>
       <c r="K50" t="n">
-        <v>0.007750000000000146</v>
+        <v>-0.0005000000000000004</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.001499999999999835</v>
+        <v>0.0005999999999999894</v>
       </c>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.55</v>
+        <v>1.75</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.26</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.83</v>
+        <v>17.58</v>
       </c>
       <c r="G51" t="n">
-        <v>0.78</v>
+        <v>6.57</v>
       </c>
       <c r="H51" t="n">
-        <v>0.546</v>
+        <v>1.735</v>
       </c>
       <c r="I51" t="n">
-        <v>0.538</v>
+        <v>1.7245</v>
       </c>
       <c r="J51" t="n">
-        <v>0.536</v>
+        <v>1.69</v>
       </c>
       <c r="K51" t="n">
-        <v>0.001249999999999973</v>
+        <v>0.005249999999999977</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0.001599999999999935</v>
+        <v>0.00670000000000015</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>44.62</v>
+        <v>-2.99</v>
       </c>
       <c r="G52" t="n">
-        <v>16.87</v>
+        <v>0.19</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5629999999999999</v>
+        <v>1.451</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5571</v>
+        <v>1.4402</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5590000000000001</v>
+        <v>1.436</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002049999999999996</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.001900000000000013</v>
+        <v>0.002599999999999714</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.49</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>11.18</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.41</v>
+        <v>0.05</v>
       </c>
       <c r="H53" t="n">
-        <v>1.129</v>
+        <v>1.502</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1144</v>
+        <v>1.4816</v>
       </c>
       <c r="J53" t="n">
-        <v>1.114</v>
+        <v>1.479</v>
       </c>
       <c r="K53" t="n">
-        <v>0.001250000000000195</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0007999999999999119</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.88</v>
+        <v>1.36</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.57</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.31</v>
+        <v>-6.98</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06</v>
+        <v>1.01</v>
       </c>
       <c r="H54" t="n">
-        <v>0.878</v>
+        <v>1.354</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8666</v>
+        <v>1.3393</v>
       </c>
       <c r="J54" t="n">
-        <v>0.858</v>
+        <v>1.345</v>
       </c>
       <c r="K54" t="n">
-        <v>0.002449999999999952</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.002900000000000014</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.95</v>
+        <v>125.06</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.66</v>
+        <v>-0.03</v>
       </c>
       <c r="F55" t="n">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="G55" t="n">
-        <v>0.37</v>
+        <v>63.42</v>
       </c>
       <c r="H55" t="n">
-        <v>0.953</v>
+        <v>124.666</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9384</v>
+        <v>124.7859</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9409999999999999</v>
+        <v>124.406</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0001500000000000945</v>
+        <v>0.09214999999998952</v>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00209999999999988</v>
+        <v>0.03409999999999513</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.82</v>
+        <v>1.53</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.68</v>
+        <v>-0.13</v>
       </c>
       <c r="F56" t="n">
-        <v>4.73</v>
+        <v>5.43</v>
       </c>
       <c r="G56" t="n">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
       <c r="H56" t="n">
-        <v>0.828</v>
+        <v>1.537</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8078</v>
+        <v>1.505</v>
       </c>
       <c r="J56" t="n">
-        <v>0.803</v>
+        <v>1.487</v>
       </c>
       <c r="K56" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.003649999999999931</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,98 +3258,98 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.86</v>
+        <v>-0.16</v>
       </c>
       <c r="F57" t="n">
-        <v>4.99</v>
+        <v>25.98</v>
       </c>
       <c r="G57" t="n">
-        <v>1.34</v>
+        <v>0.87</v>
       </c>
       <c r="H57" t="n">
-        <v>1.159</v>
+        <v>1.245</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1374</v>
+        <v>1.2175</v>
       </c>
       <c r="J57" t="n">
-        <v>1.134</v>
+        <v>1.202</v>
       </c>
       <c r="K57" t="n">
-        <v>0.003200000000000092</v>
+        <v>0.005800000000000249</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0.002699999999999925</v>
+        <v>0.005700000000000038</v>
       </c>
       <c r="N57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.91</v>
+        <v>-0.2</v>
       </c>
       <c r="F58" t="n">
-        <v>0.36</v>
+        <v>-0.91</v>
       </c>
       <c r="G58" t="n">
-        <v>2.43</v>
+        <v>0.01</v>
       </c>
       <c r="H58" t="n">
-        <v>1.137</v>
+        <v>0.986</v>
       </c>
       <c r="I58" t="n">
-        <v>1.1196</v>
+        <v>0.9863</v>
       </c>
       <c r="J58" t="n">
-        <v>1.118</v>
+        <v>0.986</v>
       </c>
       <c r="K58" t="n">
-        <v>0.001249999999999973</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.002900000000000125</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.96</v>
+        <v>-0.32</v>
       </c>
       <c r="F59" t="n">
-        <v>3.27</v>
+        <v>7.23</v>
       </c>
       <c r="G59" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="H59" t="n">
-        <v>1.2</v>
+        <v>1.216</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1828</v>
+        <v>1.2016</v>
       </c>
       <c r="J59" t="n">
-        <v>1.178</v>
+        <v>1.203</v>
       </c>
       <c r="K59" t="n">
-        <v>0.002950000000000008</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.002899999999999903</v>
+        <v>0.006599999999999939</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.01</v>
+        <v>-0.47</v>
       </c>
       <c r="F60" t="n">
-        <v>7.49</v>
+        <v>5.85</v>
       </c>
       <c r="G60" t="n">
-        <v>8.09</v>
+        <v>0.09</v>
       </c>
       <c r="H60" t="n">
-        <v>1.092</v>
+        <v>1.269</v>
       </c>
       <c r="I60" t="n">
-        <v>1.0705</v>
+        <v>1.257</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.249</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003600000000000048</v>
+        <v>0.003050000000000219</v>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.006399999999999961</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.01</v>
+        <v>-0.59</v>
       </c>
       <c r="F61" t="n">
-        <v>1.39</v>
+        <v>-11.47</v>
       </c>
       <c r="G61" t="n">
-        <v>12.01</v>
+        <v>3.87</v>
       </c>
       <c r="H61" t="n">
-        <v>1.029</v>
+        <v>0.99</v>
       </c>
       <c r="I61" t="n">
-        <v>1.0127</v>
+        <v>0.9856999999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>1.011</v>
+        <v>0.987</v>
       </c>
       <c r="K61" t="n">
-        <v>0.00120000000000009</v>
+        <v>0.0005499999999999394</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.00240000000000018</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,48 +3508,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.34</v>
+        <v>-0.89</v>
       </c>
       <c r="F62" t="n">
-        <v>3.81</v>
+        <v>17.68</v>
       </c>
       <c r="G62" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="H62" t="n">
-        <v>1.393</v>
+        <v>1.127</v>
       </c>
       <c r="I62" t="n">
-        <v>1.3724</v>
+        <v>1.1205</v>
       </c>
       <c r="J62" t="n">
-        <v>1.338</v>
+        <v>1.122</v>
       </c>
       <c r="K62" t="n">
-        <v>0.009149999999999991</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="L62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.00670000000000015</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -3558,48 +3558,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.14</v>
+        <v>0.48</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.48</v>
+        <v>-1.44</v>
       </c>
       <c r="F63" t="n">
-        <v>57.24</v>
+        <v>15.11</v>
       </c>
       <c r="G63" t="n">
-        <v>53.06</v>
+        <v>21.89</v>
       </c>
       <c r="H63" t="n">
-        <v>1.142</v>
+        <v>0.49</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1288</v>
+        <v>0.4863</v>
       </c>
       <c r="J63" t="n">
-        <v>1.129</v>
+        <v>0.489</v>
       </c>
       <c r="K63" t="n">
-        <v>0.006000000000000227</v>
+        <v>0.000450000000000006</v>
       </c>
       <c r="L63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.004000000000000004</v>
+        <v>-0.0006999999999999784</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>

--- a/data/AIPEFinanceDataETF.xlsx
+++ b/data/AIPEFinanceDataETF.xlsx
@@ -508,198 +508,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="E2" t="n">
-        <v>4.12</v>
+        <v>2.47</v>
       </c>
       <c r="F2" t="n">
-        <v>63.72</v>
+        <v>29.09</v>
       </c>
       <c r="G2" t="n">
-        <v>97.12</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>1.148</v>
+        <v>1.251</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1393</v>
+        <v>1.2205</v>
       </c>
       <c r="J2" t="n">
-        <v>1.142</v>
+        <v>1.203</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006100000000000216</v>
+        <v>0.007299999999999862</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006299999999999972</v>
+        <v>0.008700000000000152</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>513060</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>1.78</v>
       </c>
       <c r="E3" t="n">
-        <v>2.84</v>
+        <v>1.78</v>
       </c>
       <c r="F3" t="n">
-        <v>48.72</v>
+        <v>19.66</v>
       </c>
       <c r="G3" t="n">
-        <v>30.41</v>
+        <v>8.69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5659999999999999</v>
+        <v>1.741</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5608000000000001</v>
+        <v>1.7275</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5629999999999999</v>
+        <v>1.691</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002049999999999996</v>
+        <v>0.006750000000000034</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00230000000000008</v>
+        <v>0.00969999999999982</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>510230</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="E4" t="n">
-        <v>2.68</v>
+        <v>1.44</v>
       </c>
       <c r="F4" t="n">
-        <v>6.6</v>
+        <v>13.42</v>
       </c>
       <c r="G4" t="n">
-        <v>4.26</v>
+        <v>0.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.433</v>
+        <v>1.391</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3942</v>
+        <v>1.38323</v>
       </c>
       <c r="J4" t="n">
-        <v>1.361</v>
+        <v>1.385</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009700000000000042</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007800000000000029</v>
+        <v>0.0008999999999999009</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="E5" t="n">
-        <v>2.21</v>
+        <v>0.95</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9399999999999999</v>
+        <v>10.34</v>
       </c>
       <c r="G5" t="n">
-        <v>11.79</v>
+        <v>0.98</v>
       </c>
       <c r="H5" t="n">
-        <v>0.959</v>
+        <v>0.847</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9359999999999999</v>
+        <v>0.8343</v>
       </c>
       <c r="J5" t="n">
-        <v>0.923</v>
+        <v>0.832</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005300000000000082</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -708,48 +708,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>515260</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>电子ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>2.05</v>
+        <v>0.93</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.32</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>84.13</v>
       </c>
       <c r="H6" t="n">
-        <v>0.889</v>
+        <v>1.15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8757999999999999</v>
+        <v>1.1403</v>
       </c>
       <c r="J6" t="n">
-        <v>0.865</v>
+        <v>1.143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002949999999999786</v>
+        <v>0.006599999999999939</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.007300000000000084</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -758,48 +758,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>562860</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>生物疫苗ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.68</v>
+        <v>1.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1.8</v>
+        <v>0.84</v>
       </c>
       <c r="F7" t="n">
-        <v>11.68</v>
+        <v>-0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.663</v>
+        <v>1.181</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6542</v>
+        <v>1.1753</v>
       </c>
       <c r="J7" t="n">
-        <v>0.657</v>
+        <v>1.174</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001149999999999984</v>
+        <v>0.00154999999999994</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003499999999999948</v>
+        <v>0.001499999999999835</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -808,98 +808,98 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.14</v>
+        <v>1.21</v>
       </c>
       <c r="E8" t="n">
-        <v>1.76</v>
+        <v>0.83</v>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>7.74</v>
       </c>
       <c r="G8" t="n">
-        <v>22.22</v>
+        <v>4.66</v>
       </c>
       <c r="H8" t="n">
-        <v>2.119</v>
+        <v>1.197</v>
       </c>
       <c r="I8" t="n">
-        <v>2.0737</v>
+        <v>1.1928</v>
       </c>
       <c r="J8" t="n">
-        <v>2.051</v>
+        <v>1.182</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007000000000000117</v>
+        <v>0.001800000000000024</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01060000000000016</v>
+        <v>0.003100000000000325</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>159643</t>
+          <t>159883</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>疫苗ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="E9" t="n">
-        <v>1.72</v>
+        <v>0.83</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="H9" t="n">
-        <v>0.579</v>
+        <v>0.482</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5749</v>
+        <v>0.4764</v>
       </c>
       <c r="J9" t="n">
-        <v>0.582</v>
+        <v>0.481</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0001000000000001</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.001600000000000101</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -908,48 +908,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>159637</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新能源车龙头ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.63</v>
+        <v>1.64</v>
       </c>
       <c r="E10" t="n">
-        <v>1.45</v>
+        <v>0.62</v>
       </c>
       <c r="F10" t="n">
-        <v>6.61</v>
+        <v>0.43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.14</v>
+        <v>5.22</v>
       </c>
       <c r="H10" t="n">
-        <v>0.624</v>
+        <v>1.623</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6142</v>
+        <v>1.5983</v>
       </c>
       <c r="J10" t="n">
-        <v>0.607</v>
+        <v>1.584</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001450000000000062</v>
+        <v>0.003249999999999975</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00329999999999997</v>
+        <v>0.007200000000000095</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -958,48 +958,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>562860</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>生物疫苗ETF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.14</v>
+        <v>0.68</v>
       </c>
       <c r="E11" t="n">
-        <v>1.43</v>
+        <v>0.59</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.82</v>
+        <v>12.34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.74</v>
+        <v>0.11</v>
       </c>
       <c r="H11" t="n">
-        <v>1.114</v>
+        <v>0.663</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1093</v>
+        <v>0.6542</v>
       </c>
       <c r="J11" t="n">
-        <v>1.113</v>
+        <v>0.657</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.001149999999999984</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1008,48 +1008,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="E12" t="n">
-        <v>1.09</v>
+        <v>0.57</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.77</v>
+        <v>3.58</v>
       </c>
       <c r="G12" t="n">
-        <v>0.71</v>
+        <v>15.97</v>
       </c>
       <c r="H12" t="n">
-        <v>0.554</v>
+        <v>2.816</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5442</v>
+        <v>2.7946</v>
       </c>
       <c r="J12" t="n">
-        <v>0.539</v>
+        <v>2.774</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001499999999999946</v>
+        <v>0.004250000000000309</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002599999999999936</v>
+        <v>0.008999999999999897</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1058,48 +1058,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>562390</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中药50ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.98</v>
+        <v>1.27</v>
       </c>
       <c r="E13" t="n">
-        <v>1.04</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.3</v>
+        <v>7.83</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>0.966</v>
+        <v>1.218</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9618</v>
+        <v>1.2026</v>
       </c>
       <c r="J13" t="n">
-        <v>0.971</v>
+        <v>1.203</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0004499999999999504</v>
+        <v>0.003599999999999826</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002000000000000113</v>
+        <v>0.007599999999999829</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1108,48 +1108,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>513500</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.73</v>
+        <v>2.12</v>
       </c>
       <c r="E14" t="n">
-        <v>0.83</v>
+        <v>0.52</v>
       </c>
       <c r="F14" t="n">
-        <v>9.91</v>
+        <v>-1.71</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>4.95</v>
       </c>
       <c r="H14" t="n">
-        <v>0.719</v>
+        <v>2.096</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7139</v>
+        <v>2.0683</v>
       </c>
       <c r="J14" t="n">
-        <v>0.717</v>
+        <v>2.051</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.004550000000000054</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.00849999999999973</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1158,48 +1158,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>516510</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>云计算ETF</t>
+          <t>上证综指ETF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="E15" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>5.8</v>
+        <v>6.36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="H15" t="n">
-        <v>1.178</v>
+        <v>1.111</v>
       </c>
       <c r="I15" t="n">
-        <v>1.1505</v>
+        <v>1.1009</v>
       </c>
       <c r="J15" t="n">
-        <v>1.143</v>
+        <v>1.093</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002800000000000358</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004000000000000004</v>
+        <v>0.00340000000000007</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1208,48 +1208,48 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.21</v>
+        <v>4.03</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="F16" t="n">
-        <v>4.05</v>
+        <v>2.51</v>
       </c>
       <c r="G16" t="n">
-        <v>0.62</v>
+        <v>42.41</v>
       </c>
       <c r="H16" t="n">
-        <v>1.217</v>
+        <v>3.99</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1953</v>
+        <v>3.9528</v>
       </c>
       <c r="J16" t="n">
-        <v>1.186</v>
+        <v>3.962</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002650000000000041</v>
+        <v>0.00280000000000058</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00340000000000007</v>
+        <v>0.01259999999999994</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1258,48 +1258,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>512000</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>券商ETF</t>
+          <t>中证红利ETF</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="E17" t="n">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.39</v>
+        <v>1.53</v>
       </c>
       <c r="G17" t="n">
-        <v>6.12</v>
+        <v>1.97</v>
       </c>
       <c r="H17" t="n">
-        <v>1.084</v>
+        <v>1.536</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0633</v>
+        <v>1.5268</v>
       </c>
       <c r="J17" t="n">
-        <v>1.049</v>
+        <v>1.526</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003100000000000103</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004499999999999948</v>
+        <v>0.004300000000000193</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1308,48 +1308,48 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>515230</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7.45</v>
+        <v>0.82</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="F18" t="n">
-        <v>25.59</v>
+        <v>5.36</v>
       </c>
       <c r="G18" t="n">
-        <v>21.99</v>
+        <v>1.25</v>
       </c>
       <c r="H18" t="n">
-        <v>7.378</v>
+        <v>0.835</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4021</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>7.443</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.001200000000001644</v>
+        <v>0.001349999999999851</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.005300000000000082</v>
+        <v>0.002100000000000102</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1358,48 +1358,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.01</v>
+        <v>0.87</v>
       </c>
       <c r="E19" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>6.49</v>
       </c>
       <c r="G19" t="n">
-        <v>27.49</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.986</v>
+        <v>0.863</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9508</v>
+        <v>0.8557</v>
       </c>
       <c r="J19" t="n">
-        <v>3.961</v>
+        <v>0.85</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001800000000000246</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01060000000000016</v>
+        <v>0.002400000000000069</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1425,13 +1425,13 @@
         <v>1.04</v>
       </c>
       <c r="E20" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="F20" t="n">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="H20" t="n">
         <v>1.033</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1475,13 +1475,13 @@
         <v>0.37</v>
       </c>
       <c r="E21" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="F21" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="G21" t="n">
-        <v>3.29</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
         <v>0.368</v>
@@ -1508,48 +1508,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.95</v>
+        <v>0.48</v>
       </c>
       <c r="E22" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="F22" t="n">
-        <v>2.25</v>
+        <v>15.35</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>31.84</v>
       </c>
       <c r="H22" t="n">
-        <v>0.958</v>
+        <v>0.49</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9459</v>
+        <v>0.4863</v>
       </c>
       <c r="J22" t="n">
-        <v>0.944</v>
+        <v>0.489</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000199999999999867</v>
+        <v>0.000450000000000006</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001699999999999924</v>
+        <v>-0.0006999999999999784</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -1558,48 +1558,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>516670</t>
+          <t>560070</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>央企红利ETF基金</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.67</v>
+        <v>1.06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="F23" t="n">
-        <v>7.57</v>
+        <v>-0.38</v>
       </c>
       <c r="G23" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.658</v>
+        <v>1.038</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6543</v>
+        <v>1.0289</v>
       </c>
       <c r="J23" t="n">
-        <v>0.66</v>
+        <v>1.026</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0001000000000001</v>
+        <v>0.00175000000000014</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001499999999999946</v>
+        <v>0.004099999999999993</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -1608,48 +1608,48 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>159667</t>
+          <t>159928</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
       <c r="F24" t="n">
-        <v>11.67</v>
+        <v>-2.33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.29</v>
+        <v>3.06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.134</v>
+        <v>0.795</v>
       </c>
       <c r="I24" t="n">
-        <v>1.1214</v>
+        <v>0.7938000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>1.119</v>
+        <v>0.802</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001300000000000079</v>
+        <v>-0.001199999999999979</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -1658,48 +1658,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>159666</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>交通运输ETF</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="E25" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>7.87</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>5.66</v>
+        <v>0.04</v>
       </c>
       <c r="H25" t="n">
-        <v>1.12</v>
+        <v>0.986</v>
       </c>
       <c r="I25" t="n">
-        <v>1.0878</v>
+        <v>0.9863</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>0.986</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003649999999999931</v>
+        <v>-0.0001500000000000945</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005800000000000249</v>
+        <v>-0.0007999999999999119</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1708,48 +1708,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>511090</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>30年国债ETF</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.87</v>
+        <v>125.07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="F26" t="n">
-        <v>6.12</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="n">
-        <v>1.11</v>
+        <v>62.67</v>
       </c>
       <c r="H26" t="n">
-        <v>0.863</v>
+        <v>124.668</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8557</v>
+        <v>124.7869</v>
       </c>
       <c r="J26" t="n">
-        <v>0.85</v>
+        <v>124.406</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001600000000000046</v>
+        <v>0.09265000000003454</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002400000000000069</v>
+        <v>0.0350999999999857</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -1758,48 +1758,48 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.87</v>
+        <v>0.33</v>
       </c>
       <c r="E27" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.06</v>
+        <v>1.53</v>
       </c>
       <c r="G27" t="n">
-        <v>1.41</v>
+        <v>4.17</v>
       </c>
       <c r="H27" t="n">
-        <v>0.874</v>
+        <v>0.329</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8619</v>
+        <v>0.3257</v>
       </c>
       <c r="J27" t="n">
-        <v>0.861</v>
+        <v>0.328</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0003500000000000725</v>
+        <v>-0.000199999999999978</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001800000000000135</v>
+        <v>0.0005999999999999894</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -1808,48 +1808,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>159691</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>港股红利ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8.539999999999999</v>
+        <v>-11.47</v>
       </c>
       <c r="G28" t="n">
-        <v>2.17</v>
+        <v>3.56</v>
       </c>
       <c r="H28" t="n">
-        <v>1.196</v>
+        <v>0.99</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1871</v>
+        <v>0.9856999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>1.188</v>
+        <v>0.987</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002500000000000169</v>
+        <v>0.0005499999999999394</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0002999999999997449</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -1858,48 +1858,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>516020</t>
+          <t>513060</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.82</v>
+        <v>48.72</v>
       </c>
       <c r="G29" t="n">
-        <v>0.14</v>
+        <v>20.99</v>
       </c>
       <c r="H29" t="n">
-        <v>0.605</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5992999999999999</v>
+        <v>0.5608000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>0.599</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.002049999999999996</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001400000000000068</v>
+        <v>0.00230000000000008</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1908,48 +1908,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中证500ETF华夏</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.27</v>
+        <v>0.67</v>
       </c>
       <c r="E30" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.33</v>
+        <v>7.57</v>
       </c>
       <c r="G30" t="n">
-        <v>3.98</v>
+        <v>0.24</v>
       </c>
       <c r="H30" t="n">
-        <v>3.259</v>
+        <v>0.658</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2117</v>
+        <v>0.6543</v>
       </c>
       <c r="J30" t="n">
-        <v>3.195</v>
+        <v>0.66</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005700000000000482</v>
+        <v>-0.0001000000000001</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.009899999999999576</v>
+        <v>0.001499999999999946</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -1958,48 +1958,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.33</v>
+        <v>1.46</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.53</v>
+        <v>-2.99</v>
       </c>
       <c r="G31" t="n">
-        <v>3.56</v>
+        <v>0.23</v>
       </c>
       <c r="H31" t="n">
-        <v>0.329</v>
+        <v>1.451</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3257</v>
+        <v>1.4402</v>
       </c>
       <c r="J31" t="n">
-        <v>0.328</v>
+        <v>1.436</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.000199999999999978</v>
+        <v>0.001900000000000013</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0005999999999999894</v>
+        <v>0.002599999999999714</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2008,48 +2008,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>560070</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>央企红利ETF基金</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.57</v>
+        <v>-9.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="H32" t="n">
-        <v>1.036</v>
+        <v>0.555</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0279</v>
+        <v>0.5541</v>
       </c>
       <c r="J32" t="n">
-        <v>1.025</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001249999999999973</v>
+        <v>-0.0008500000000000174</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.003100000000000103</v>
+        <v>0.001000000000000112</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2058,48 +2058,48 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>159643</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>上证综指ETF</t>
+          <t>疫苗ETF</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.11</v>
+        <v>0.59</v>
       </c>
       <c r="E33" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5.89</v>
+        <v>-0.34</v>
       </c>
       <c r="G33" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="H33" t="n">
-        <v>1.109</v>
+        <v>0.579</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0999</v>
+        <v>0.5749</v>
       </c>
       <c r="J33" t="n">
-        <v>1.092</v>
+        <v>0.582</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001599999999999824</v>
+        <v>-0.0001000000000001</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -2108,48 +2108,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>512000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>券商ETF</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.62</v>
+        <v>-3.39</v>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1.144</v>
+        <v>1.084</v>
       </c>
       <c r="I34" t="n">
-        <v>1.1305</v>
+        <v>1.0633</v>
       </c>
       <c r="J34" t="n">
-        <v>1.122</v>
+        <v>1.049</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0006499999999998174</v>
+        <v>0.003100000000000103</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.002600000000000158</v>
+        <v>0.004499999999999948</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -2158,48 +2158,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>159928</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>中证500ETF华夏</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8</v>
+        <v>3.27</v>
       </c>
       <c r="E35" t="n">
-        <v>0.25</v>
+        <v>-0.09</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.45</v>
+        <v>4.24</v>
       </c>
       <c r="G35" t="n">
-        <v>2.01</v>
+        <v>3.86</v>
       </c>
       <c r="H35" t="n">
-        <v>0.795</v>
+        <v>3.259</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7938000000000001</v>
+        <v>3.2117</v>
       </c>
       <c r="J35" t="n">
-        <v>0.802</v>
+        <v>3.195</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.005700000000000482</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0004999999999999449</v>
+        <v>0.009899999999999576</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -2208,48 +2208,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>515230</t>
+          <t>516510</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>云计算ETF</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.82</v>
+        <v>1.17</v>
       </c>
       <c r="E36" t="n">
-        <v>0.24</v>
+        <v>-0.09</v>
       </c>
       <c r="F36" t="n">
-        <v>4.98</v>
+        <v>5.71</v>
       </c>
       <c r="G36" t="n">
-        <v>0.59</v>
+        <v>1.89</v>
       </c>
       <c r="H36" t="n">
-        <v>0.835</v>
+        <v>1.178</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8160000000000001</v>
+        <v>1.1505</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8080000000000001</v>
+        <v>1.143</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001349999999999851</v>
+        <v>0.002800000000000358</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.002100000000000102</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -2258,48 +2258,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>562390</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>中药50ETF</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.39</v>
+        <v>0.97</v>
       </c>
       <c r="E37" t="n">
-        <v>0.22</v>
+        <v>-0.1</v>
       </c>
       <c r="F37" t="n">
-        <v>11.82</v>
+        <v>-2.4</v>
       </c>
       <c r="G37" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="H37" t="n">
-        <v>1.387</v>
+        <v>0.964</v>
       </c>
       <c r="I37" t="n">
-        <v>1.38123</v>
+        <v>0.9608000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>1.384</v>
+        <v>0.971</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0009999999999998899</v>
+        <v>-0.0009500000000001174</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.001100000000000101</v>
+        <v>0.001000000000000223</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -2308,48 +2308,48 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>159652</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>有色50ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>18.29</v>
+        <v>-0.96</v>
       </c>
       <c r="G38" t="n">
-        <v>0.21</v>
+        <v>33.58</v>
       </c>
       <c r="H38" t="n">
-        <v>0.988</v>
+        <v>1.043</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9673999999999999</v>
+        <v>1.0323</v>
       </c>
       <c r="J38" t="n">
-        <v>0.959</v>
+        <v>1.032</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004050000000000109</v>
+        <v>-0.0004999999999999449</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00529999999999986</v>
+        <v>0.00120000000000009</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -2358,48 +2358,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.11</v>
+        <v>1.13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.22</v>
+        <v>0.44</v>
       </c>
       <c r="G39" t="n">
-        <v>2.65</v>
+        <v>3.32</v>
       </c>
       <c r="H39" t="n">
-        <v>2.094</v>
+        <v>1.144</v>
       </c>
       <c r="I39" t="n">
-        <v>2.0673</v>
+        <v>1.1305</v>
       </c>
       <c r="J39" t="n">
-        <v>2.051</v>
+        <v>1.122</v>
       </c>
       <c r="K39" t="n">
-        <v>0.004049999999999887</v>
+        <v>0.0006499999999998174</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.007500000000000284</v>
+        <v>0.002600000000000158</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -2408,48 +2408,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="E40" t="n">
-        <v>0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.18</v>
+        <v>1.29</v>
       </c>
       <c r="G40" t="n">
-        <v>8.109999999999999</v>
+        <v>14.18</v>
       </c>
       <c r="H40" t="n">
-        <v>1.621</v>
+        <v>1.035</v>
       </c>
       <c r="I40" t="n">
-        <v>1.5973</v>
+        <v>1.023</v>
       </c>
       <c r="J40" t="n">
-        <v>1.583</v>
+        <v>1.015</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00275000000000003</v>
+        <v>0.0005999999999999339</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.006199999999999761</v>
+        <v>0.002100000000000213</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -2458,48 +2458,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>512690</t>
+          <t>513800</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>日本东证指数ETF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F41" t="n">
-        <v>-9.9</v>
+        <v>9.73</v>
       </c>
       <c r="G41" t="n">
-        <v>4.54</v>
+        <v>0.15</v>
       </c>
       <c r="H41" t="n">
-        <v>0.555</v>
+        <v>1.502</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5541</v>
+        <v>1.4816</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5580000000000001</v>
+        <v>1.479</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0008500000000000174</v>
+        <v>0.0006999999999999229</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2508,48 +2508,48 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.82</v>
+        <v>0.97</v>
       </c>
       <c r="E42" t="n">
-        <v>0.14</v>
+        <v>-0.21</v>
       </c>
       <c r="F42" t="n">
-        <v>2.99</v>
+        <v>0.73</v>
       </c>
       <c r="G42" t="n">
-        <v>6.37</v>
+        <v>9.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.812</v>
+        <v>0.959</v>
       </c>
       <c r="I42" t="n">
-        <v>2.7926</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>2.773</v>
+        <v>0.923</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003249999999999975</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.007000000000000117</v>
+        <v>0.005300000000000082</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -2558,48 +2558,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>515260</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>电子ETF</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="E43" t="n">
-        <v>0.14</v>
+        <v>-0.22</v>
       </c>
       <c r="F43" t="n">
-        <v>-8.720000000000001</v>
+        <v>-1.54</v>
       </c>
       <c r="G43" t="n">
-        <v>6.3</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.669</v>
+        <v>0.887</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6574</v>
+        <v>0.8747999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>0.653</v>
+        <v>0.864</v>
       </c>
       <c r="K43" t="n">
-        <v>0.002250000000000085</v>
+        <v>0.002450000000000174</v>
       </c>
       <c r="L43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.004199999999999871</v>
+        <v>0.002799999999999803</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -2608,48 +2608,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中证红利ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.13</v>
+        <v>-0.33</v>
       </c>
       <c r="F44" t="n">
-        <v>1.14</v>
+        <v>3.7</v>
       </c>
       <c r="G44" t="n">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="H44" t="n">
-        <v>1.534</v>
+        <v>1.215</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5258</v>
+        <v>1.1943</v>
       </c>
       <c r="J44" t="n">
-        <v>1.525</v>
+        <v>1.186</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0009000000000001229</v>
+        <v>0.002149999999999874</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.003299999999999859</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -2658,48 +2658,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.85</v>
+        <v>2.13</v>
       </c>
       <c r="E45" t="n">
-        <v>0.12</v>
+        <v>-0.37</v>
       </c>
       <c r="F45" t="n">
-        <v>9.300000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="G45" t="n">
-        <v>0.78</v>
+        <v>23.09</v>
       </c>
       <c r="H45" t="n">
-        <v>0.847</v>
+        <v>2.117</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8343</v>
+        <v>2.0727</v>
       </c>
       <c r="J45" t="n">
-        <v>0.832</v>
+        <v>2.05</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.006500000000000394</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.009600000000000275</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -2708,48 +2708,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>513520</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1</v>
+        <v>-0.39</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.86</v>
+        <v>5.02</v>
       </c>
       <c r="G46" t="n">
-        <v>18.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1.045</v>
+        <v>1.537</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0333</v>
+        <v>1.505</v>
       </c>
       <c r="J46" t="n">
-        <v>1.032</v>
+        <v>1.487</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>0.003649999999999931</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.002200000000000202</v>
+        <v>0.003800000000000026</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2758,48 +2758,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.02</v>
+        <v>0.73</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1</v>
+        <v>-0.41</v>
       </c>
       <c r="F47" t="n">
-        <v>1.49</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>9.1</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.035</v>
+        <v>0.719</v>
       </c>
       <c r="I47" t="n">
-        <v>1.023</v>
+        <v>0.7139</v>
       </c>
       <c r="J47" t="n">
-        <v>1.015</v>
+        <v>0.717</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0005999999999999339</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0.002100000000000213</v>
+        <v>0.001700000000000035</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -2808,98 +2808,98 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08</v>
+        <v>-0.51</v>
       </c>
       <c r="F48" t="n">
-        <v>6.85</v>
+        <v>-7.46</v>
       </c>
       <c r="G48" t="n">
-        <v>4.66</v>
+        <v>1.11</v>
       </c>
       <c r="H48" t="n">
-        <v>1.195</v>
+        <v>1.352</v>
       </c>
       <c r="I48" t="n">
-        <v>1.1918</v>
+        <v>1.3383</v>
       </c>
       <c r="J48" t="n">
-        <v>1.182</v>
+        <v>1.345</v>
       </c>
       <c r="K48" t="n">
+        <v>-0.0001999999999997559</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.001299999999999857</v>
       </c>
-      <c r="L48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.002099999999999991</v>
-      </c>
       <c r="N48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.19</v>
+        <v>7.41</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08</v>
+        <v>-0.51</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.92</v>
+        <v>24.95</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>19.02</v>
       </c>
       <c r="H49" t="n">
-        <v>1.179</v>
+        <v>7.37</v>
       </c>
       <c r="I49" t="n">
-        <v>1.1743</v>
+        <v>7.398099999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>1.174</v>
+        <v>7.441</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001049999999999995</v>
+        <v>-0.003199999999999648</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0004999999999999449</v>
+        <v>-0.00930000000000053</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -2908,48 +2908,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>159883</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.48</v>
+        <v>0.95</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.82</v>
+        <v>1.71</v>
       </c>
       <c r="G50" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="H50" t="n">
-        <v>0.48</v>
+        <v>0.958</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4753999999999999</v>
+        <v>0.9459</v>
       </c>
       <c r="J50" t="n">
-        <v>0.48</v>
+        <v>0.944</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0005000000000000004</v>
+        <v>0.000199999999999867</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0005999999999999894</v>
+        <v>0.001699999999999924</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2958,98 +2958,98 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.75</v>
+        <v>0.55</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="F51" t="n">
-        <v>17.58</v>
+        <v>-2.3</v>
       </c>
       <c r="G51" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="H51" t="n">
-        <v>1.735</v>
+        <v>0.552</v>
       </c>
       <c r="I51" t="n">
-        <v>1.7245</v>
+        <v>0.5432</v>
       </c>
       <c r="J51" t="n">
-        <v>1.69</v>
+        <v>0.539</v>
       </c>
       <c r="K51" t="n">
-        <v>0.005249999999999977</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.00670000000000015</v>
+        <v>0.001599999999999935</v>
       </c>
       <c r="N51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>资源ETF</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.99</v>
+        <v>5.28</v>
       </c>
       <c r="G52" t="n">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
       <c r="H52" t="n">
-        <v>1.451</v>
+        <v>1.269</v>
       </c>
       <c r="I52" t="n">
-        <v>1.4402</v>
+        <v>1.257</v>
       </c>
       <c r="J52" t="n">
-        <v>1.436</v>
+        <v>1.249</v>
       </c>
       <c r="K52" t="n">
-        <v>0.001900000000000013</v>
+        <v>0.003050000000000219</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0.002599999999999714</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -3058,48 +3058,48 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>513800</t>
+          <t>159691</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>日本东证指数ETF</t>
+          <t>港股红利ETF</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="F53" t="n">
-        <v>9.949999999999999</v>
+        <v>7.91</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05</v>
+        <v>2.35</v>
       </c>
       <c r="H53" t="n">
-        <v>1.502</v>
+        <v>1.189</v>
       </c>
       <c r="I53" t="n">
-        <v>1.4816</v>
+        <v>1.1857</v>
       </c>
       <c r="J53" t="n">
-        <v>1.479</v>
+        <v>1.189</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0006999999999999229</v>
+        <v>0.001399999999999846</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.001700000000000035</v>
+        <v>0.001699999999999813</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -3108,48 +3108,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.36</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="F54" t="n">
-        <v>-6.98</v>
+        <v>-9.25</v>
       </c>
       <c r="G54" t="n">
-        <v>1.01</v>
+        <v>7.11</v>
       </c>
       <c r="H54" t="n">
-        <v>1.354</v>
+        <v>0.669</v>
       </c>
       <c r="I54" t="n">
-        <v>1.3393</v>
+        <v>0.6574</v>
       </c>
       <c r="J54" t="n">
-        <v>1.345</v>
+        <v>0.653</v>
       </c>
       <c r="K54" t="n">
-        <v>0.000299999999999967</v>
+        <v>0.002250000000000085</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.002299999999999969</v>
+        <v>0.004199999999999871</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -3158,48 +3158,48 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>511090</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>30年国债ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>125.06</v>
+        <v>1.13</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.03</v>
+        <v>-0.62</v>
       </c>
       <c r="F55" t="n">
-        <v>1.95</v>
+        <v>-2.42</v>
       </c>
       <c r="G55" t="n">
-        <v>63.42</v>
+        <v>0.84</v>
       </c>
       <c r="H55" t="n">
-        <v>124.666</v>
+        <v>1.112</v>
       </c>
       <c r="I55" t="n">
-        <v>124.7859</v>
+        <v>1.1083</v>
       </c>
       <c r="J55" t="n">
-        <v>124.406</v>
+        <v>1.112</v>
       </c>
       <c r="K55" t="n">
-        <v>0.09214999999998952</v>
+        <v>0.001099999999999879</v>
       </c>
       <c r="L55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.03409999999999513</v>
+        <v>0.002800000000000136</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -3208,48 +3208,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>513520</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.13</v>
+        <v>-0.63</v>
       </c>
       <c r="F56" t="n">
-        <v>5.43</v>
+        <v>16.95</v>
       </c>
       <c r="G56" t="n">
-        <v>0.52</v>
+        <v>3.15</v>
       </c>
       <c r="H56" t="n">
-        <v>1.537</v>
+        <v>1.125</v>
       </c>
       <c r="I56" t="n">
-        <v>1.505</v>
+        <v>1.1195</v>
       </c>
       <c r="J56" t="n">
-        <v>1.487</v>
+        <v>1.121</v>
       </c>
       <c r="K56" t="n">
-        <v>0.003649999999999931</v>
+        <v>0.000300000000000189</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.003800000000000026</v>
+        <v>0</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -3258,98 +3258,98 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.16</v>
+        <v>-0.71</v>
       </c>
       <c r="F57" t="n">
-        <v>25.98</v>
+        <v>7.1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.87</v>
+        <v>7.25</v>
       </c>
       <c r="H57" t="n">
-        <v>1.245</v>
+        <v>1.12</v>
       </c>
       <c r="I57" t="n">
-        <v>1.2175</v>
+        <v>1.0878</v>
       </c>
       <c r="J57" t="n">
-        <v>1.202</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
+        <v>0.003649999999999931</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
         <v>0.005800000000000249</v>
       </c>
-      <c r="L57" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.005700000000000038</v>
-      </c>
       <c r="N57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>159666</t>
+          <t>159652</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>交通运输ETF</t>
+          <t>有色50ETF</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2</v>
+        <v>-0.99</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.91</v>
+        <v>17.12</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="H58" t="n">
         <v>0.986</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9863</v>
+        <v>0.9663999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>0.986</v>
+        <v>0.958</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0001500000000000945</v>
+        <v>0.003549999999999942</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.0007999999999999119</v>
+        <v>0.004299999999999859</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -3358,48 +3358,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.26</v>
+        <v>0.86</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.32</v>
+        <v>-1.03</v>
       </c>
       <c r="F59" t="n">
-        <v>7.23</v>
+        <v>6.95</v>
       </c>
       <c r="G59" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="H59" t="n">
-        <v>1.216</v>
+        <v>0.872</v>
       </c>
       <c r="I59" t="n">
-        <v>1.2016</v>
+        <v>0.8609</v>
       </c>
       <c r="J59" t="n">
-        <v>1.203</v>
+        <v>0.861</v>
       </c>
       <c r="K59" t="n">
-        <v>0.003100000000000103</v>
+        <v>-0.0001499999999999835</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.006599999999999939</v>
+        <v>0.0008000000000001339</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -3408,48 +3408,48 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>516020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>资源ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.28</v>
+        <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.47</v>
+        <v>-1.14</v>
       </c>
       <c r="F60" t="n">
-        <v>5.85</v>
+        <v>-0.33</v>
       </c>
       <c r="G60" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="H60" t="n">
-        <v>1.269</v>
+        <v>0.603</v>
       </c>
       <c r="I60" t="n">
-        <v>1.257</v>
+        <v>0.5982999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>1.249</v>
+        <v>0.598</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003050000000000219</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.002399999999999958</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -3458,48 +3458,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.59</v>
+        <v>-1.24</v>
       </c>
       <c r="F61" t="n">
-        <v>-11.47</v>
+        <v>10.29</v>
       </c>
       <c r="G61" t="n">
-        <v>3.87</v>
+        <v>0.33</v>
       </c>
       <c r="H61" t="n">
-        <v>0.99</v>
+        <v>1.13</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9856999999999999</v>
+        <v>1.1194</v>
       </c>
       <c r="J61" t="n">
-        <v>0.987</v>
+        <v>1.118</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0005499999999999394</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.001399999999999957</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
@@ -3508,98 +3508,98 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.89</v>
+        <v>-1.38</v>
       </c>
       <c r="F62" t="n">
-        <v>17.68</v>
+        <v>5.13</v>
       </c>
       <c r="G62" t="n">
-        <v>2.74</v>
+        <v>1.62</v>
       </c>
       <c r="H62" t="n">
-        <v>1.127</v>
+        <v>1.429</v>
       </c>
       <c r="I62" t="n">
-        <v>1.1205</v>
+        <v>1.3922</v>
       </c>
       <c r="J62" t="n">
-        <v>1.122</v>
+        <v>1.36</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0008000000000001339</v>
+        <v>0.00869999999999993</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.001000000000000112</v>
+        <v>0.005800000000000027</v>
       </c>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>159637</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>新能源车龙头ETF</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.44</v>
+        <v>-1.43</v>
       </c>
       <c r="F63" t="n">
-        <v>15.11</v>
+        <v>5.08</v>
       </c>
       <c r="G63" t="n">
-        <v>21.89</v>
+        <v>0.08</v>
       </c>
       <c r="H63" t="n">
-        <v>0.49</v>
+        <v>0.622</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4863</v>
+        <v>0.6132</v>
       </c>
       <c r="J63" t="n">
-        <v>0.489</v>
+        <v>0.606</v>
       </c>
       <c r="K63" t="n">
-        <v>0.000450000000000006</v>
+        <v>0.0009499999999998954</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.0006999999999999784</v>
+        <v>0.002299999999999969</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
